--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -4,17 +4,16 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Hoja 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Nombres">'Hoja 1'!$A$1:$B$32</definedName>
+    <definedName name="Nombres">#REF!</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7471" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7428" uniqueCount="238">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -729,87 +728,6 @@
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 24 aquiles</t>
   </si>
-  <si>
-    <t>Sofia Ramos</t>
-  </si>
-  <si>
-    <t>Kimberly</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Jana</t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
-    <t>Karina</t>
-  </si>
-  <si>
-    <t>Itzel</t>
-  </si>
-  <si>
-    <t>Paños</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Nicki</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>Montse</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Scarlett</t>
-  </si>
-  <si>
-    <t>Alexa Soto</t>
-  </si>
-  <si>
-    <t>Alexa</t>
-  </si>
-  <si>
-    <t>Kiana</t>
-  </si>
-  <si>
-    <t>Ki</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Bruna</t>
-  </si>
-  <si>
-    <t>Okeke Chidinma</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Aylin</t>
-  </si>
-  <si>
-    <t>Daniela</t>
-  </si>
-  <si>
-    <t>Aylin Avilez</t>
-  </si>
-  <si>
-    <t>Alondra</t>
-  </si>
 </sst>
 </file>
 
@@ -839,7 +757,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1025,20 +943,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -1055,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1118,12 +1022,6 @@
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,12 +1090,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L682" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L684" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -27314,45 +27208,121 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="18">
+      <c r="A682" s="15">
         <v>45896.427256006944</v>
       </c>
-      <c r="B682" s="19" t="s">
+      <c r="B682" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C682" s="19" t="s">
+      <c r="C682" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D682" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E682" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F682" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G682" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H682" s="19" t="s">
+      <c r="D682" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E682" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F682" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G682" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H682" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I682" s="19" t="s">
+      <c r="I682" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J682" s="20" t="s">
+      <c r="J682" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K682" s="19" t="s">
+      <c r="K682" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="L682" s="21">
+      <c r="L682" s="17">
         <v>2.0</v>
       </c>
     </row>
+    <row r="683">
+      <c r="A683" s="10">
+        <v>45897.433646527774</v>
+      </c>
+      <c r="B683" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C683" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D683" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E683" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F683" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G683" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H683" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I683" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J683" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K683" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L683" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="18">
+        <v>45897.52766334491</v>
+      </c>
+      <c r="B684" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C684" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D684" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E684" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F684" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G684" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H684" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I684" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J684" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K684" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L684" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J782">
+  <conditionalFormatting sqref="J1:J784">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>
@@ -27362,278 +27332,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="16.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7428" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7482" uniqueCount="238">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -757,7 +757,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -918,10 +918,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -929,13 +929,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -943,13 +943,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -959,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1021,6 +1035,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1091,7 +1108,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L684" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L689" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -27284,45 +27301,235 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="18">
+      <c r="A684" s="15">
         <v>45897.52766334491</v>
       </c>
-      <c r="B684" s="19" t="s">
+      <c r="B684" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C684" s="19" t="s">
+      <c r="C684" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D684" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E684" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F684" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G684" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H684" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I684" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J684" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K684" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L684" s="20">
+      <c r="D684" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E684" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F684" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G684" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H684" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I684" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J684" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K684" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L684" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" s="10">
+        <v>45898.37473115741</v>
+      </c>
+      <c r="B685" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C685" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D685" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E685" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F685" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G685" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H685" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I685" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J685" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K685" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L685" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="15">
+        <v>45898.382969224534</v>
+      </c>
+      <c r="B686" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C686" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D686" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E686" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F686" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G686" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H686" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I686" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J686" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K686" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L686" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="10">
+        <v>45898.38403210648</v>
+      </c>
+      <c r="B687" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C687" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D687" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E687" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F687" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G687" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H687" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I687" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J687" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K687" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L687" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="15">
+        <v>45898.3980557176</v>
+      </c>
+      <c r="B688" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C688" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D688" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E688" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F688" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G688" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H688" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I688" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J688" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K688" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="L688" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="18">
+        <v>45898.40385263889</v>
+      </c>
+      <c r="B689" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C689" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D689" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E689" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F689" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G689" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H689" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I689" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J689" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K689" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L689" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J784">
+  <conditionalFormatting sqref="J1:J789">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7428" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7675" uniqueCount="243">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -728,6 +728,21 @@
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 24 aquiles</t>
   </si>
+  <si>
+    <t>13 pantorrilla izquierda, 14 pantorrilla derecha, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>5 espinilla derecha, 6 espinilla izquierda</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 15 espalda baja, 16 espalda, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>3 rodilla derecha, 7 tobillo derecho, 15 espalda baja</t>
+  </si>
+  <si>
+    <t>2 muslo derecho, 23 gluteo derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -757,7 +772,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -918,10 +933,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -929,13 +944,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -943,13 +958,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -959,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1021,6 +1050,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1091,7 +1123,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L684" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L707" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -27284,45 +27316,919 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="18">
+      <c r="A684" s="15">
         <v>45897.52766334491</v>
       </c>
-      <c r="B684" s="19" t="s">
+      <c r="B684" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C684" s="19" t="s">
+      <c r="C684" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D684" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E684" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F684" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G684" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H684" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I684" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J684" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K684" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L684" s="20">
+      <c r="D684" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E684" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F684" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G684" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H684" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I684" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J684" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K684" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L684" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" s="10">
+        <v>45898.37473115741</v>
+      </c>
+      <c r="B685" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C685" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D685" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E685" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F685" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G685" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H685" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I685" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J685" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K685" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L685" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="15">
+        <v>45898.382969224534</v>
+      </c>
+      <c r="B686" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C686" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D686" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E686" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F686" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G686" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H686" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I686" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J686" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K686" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L686" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="10">
+        <v>45898.38403210648</v>
+      </c>
+      <c r="B687" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C687" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D687" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E687" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F687" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G687" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H687" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I687" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J687" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K687" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L687" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="15">
+        <v>45898.3980557176</v>
+      </c>
+      <c r="B688" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C688" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D688" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E688" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F688" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G688" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H688" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I688" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J688" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K688" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="L688" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="10">
+        <v>45898.40385263889</v>
+      </c>
+      <c r="B689" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C689" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D689" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E689" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F689" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G689" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H689" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I689" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J689" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K689" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L689" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="15">
+        <v>45898.41607303241</v>
+      </c>
+      <c r="B690" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C690" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D690" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E690" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F690" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G690" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H690" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I690" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J690" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K690" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="L690" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="10">
+        <v>45898.43621021991</v>
+      </c>
+      <c r="B691" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C691" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D691" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E691" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F691" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G691" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H691" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I691" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J691" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K691" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L691" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="15">
+        <v>45898.43930778935</v>
+      </c>
+      <c r="B692" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C692" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D692" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E692" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F692" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G692" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H692" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I692" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J692" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K692" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="L692" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="10">
+        <v>45898.44030100694</v>
+      </c>
+      <c r="B693" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C693" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D693" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E693" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F693" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G693" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H693" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I693" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J693" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K693" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L693" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="15">
+        <v>45898.441876944446</v>
+      </c>
+      <c r="B694" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C694" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D694" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E694" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F694" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G694" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H694" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I694" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J694" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K694" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L694" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="10">
+        <v>45898.44419736111</v>
+      </c>
+      <c r="B695" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C695" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D695" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E695" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F695" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G695" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H695" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I695" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J695" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K695" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L695" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="15">
+        <v>45898.44603269676</v>
+      </c>
+      <c r="B696" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C696" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D696" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E696" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F696" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G696" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H696" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I696" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J696" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K696" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L696" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="10">
+        <v>45898.450691087965</v>
+      </c>
+      <c r="B697" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C697" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D697" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E697" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F697" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G697" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H697" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I697" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J697" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K697" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L697" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="15">
+        <v>45898.45080841435</v>
+      </c>
+      <c r="B698" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C698" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D698" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E698" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F698" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G698" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H698" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I698" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J698" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K698" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L698" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="10">
+        <v>45898.45420304398</v>
+      </c>
+      <c r="B699" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C699" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D699" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E699" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F699" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G699" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H699" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I699" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J699" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K699" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L699" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="15">
+        <v>45898.45455864583</v>
+      </c>
+      <c r="B700" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C700" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D700" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E700" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F700" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G700" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H700" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I700" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J700" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K700" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L700" s="17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="10">
+        <v>45898.45556128472</v>
+      </c>
+      <c r="B701" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C701" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D701" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E701" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F701" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G701" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H701" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I701" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J701" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K701" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L701" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="15">
+        <v>45898.4563996875</v>
+      </c>
+      <c r="B702" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C702" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D702" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E702" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F702" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G702" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H702" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I702" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J702" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K702" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="L702" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="10">
+        <v>45898.46759930556</v>
+      </c>
+      <c r="B703" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C703" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D703" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E703" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F703" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G703" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H703" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I703" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J703" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K703" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="L703" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="15">
+        <v>45898.47154773148</v>
+      </c>
+      <c r="B704" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C704" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D704" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E704" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F704" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G704" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H704" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I704" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J704" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K704" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L704" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="10">
+        <v>45898.478440127314</v>
+      </c>
+      <c r="B705" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C705" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D705" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E705" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F705" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G705" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H705" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I705" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J705" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K705" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L705" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="15">
+        <v>45898.485071030096</v>
+      </c>
+      <c r="B706" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C706" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D706" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E706" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F706" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G706" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H706" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I706" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J706" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K706" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L706" s="17">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="18">
+        <v>45898.496091180554</v>
+      </c>
+      <c r="B707" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C707" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D707" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E707" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F707" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G707" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H707" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I707" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J707" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K707" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="L707" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J784">
+  <conditionalFormatting sqref="J1:J807">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7675" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7707" uniqueCount="243">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -772,7 +772,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -933,10 +933,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -944,13 +944,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -958,27 +958,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -988,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1050,9 +1036,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1123,7 +1106,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L707" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L710" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -28190,45 +28173,159 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="18">
+      <c r="A707" s="10">
         <v>45898.496091180554</v>
       </c>
-      <c r="B707" s="19" t="s">
+      <c r="B707" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C707" s="19" t="s">
+      <c r="C707" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D707" s="19" t="s">
+      <c r="D707" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E707" s="19" t="s">
+      <c r="E707" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F707" s="19" t="s">
+      <c r="F707" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G707" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H707" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I707" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J707" s="20" t="s">
+      <c r="G707" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H707" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I707" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J707" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K707" s="19" t="s">
+      <c r="K707" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="L707" s="21" t="s">
+      <c r="L707" s="14" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" s="15">
+        <v>45899.33411928241</v>
+      </c>
+      <c r="B708" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C708" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D708" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E708" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F708" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G708" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H708" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I708" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J708" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K708" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L708" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="10">
+        <v>45899.386321921294</v>
+      </c>
+      <c r="B709" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C709" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D709" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E709" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F709" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G709" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H709" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I709" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J709" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K709" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="L709" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="18">
+        <v>45899.39797686343</v>
+      </c>
+      <c r="B710" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C710" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D710" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E710" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F710" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G710" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H710" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I710" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J710" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K710" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L710" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J807">
+  <conditionalFormatting sqref="J1:J810">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7707" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7869" uniqueCount="245">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -743,6 +743,12 @@
   <si>
     <t>2 muslo derecho, 23 gluteo derecho</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 9 Isquiotibial izquierdo, 10 isquiotibial derecho</t>
+  </si>
+  <si>
+    <t>3 rodilla derecha, 7 tobillo derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -772,7 +778,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -933,10 +939,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -944,13 +950,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -958,13 +964,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -974,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1036,6 +1056,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1106,7 +1129,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L710" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L725" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -28287,45 +28310,615 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="18">
+      <c r="A710" s="15">
         <v>45899.39797686343</v>
       </c>
-      <c r="B710" s="19" t="s">
+      <c r="B710" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C710" s="19" t="s">
+      <c r="C710" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D710" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E710" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F710" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G710" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H710" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I710" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J710" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K710" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L710" s="20">
+      <c r="D710" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E710" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F710" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G710" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H710" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I710" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J710" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K710" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L710" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="711">
+      <c r="A711" s="10">
+        <v>45899.412200949075</v>
+      </c>
+      <c r="B711" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C711" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D711" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E711" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F711" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G711" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H711" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I711" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J711" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K711" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L711" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="15">
+        <v>45899.412982442125</v>
+      </c>
+      <c r="B712" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C712" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D712" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E712" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F712" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G712" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H712" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I712" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J712" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K712" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L712" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="10">
+        <v>45899.413107858796</v>
+      </c>
+      <c r="B713" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C713" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D713" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E713" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F713" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G713" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H713" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I713" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J713" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K713" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L713" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="15">
+        <v>45899.41560320602</v>
+      </c>
+      <c r="B714" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C714" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D714" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E714" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F714" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G714" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H714" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I714" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J714" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K714" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L714" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="10">
+        <v>45899.421528645835</v>
+      </c>
+      <c r="B715" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C715" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D715" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E715" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F715" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G715" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H715" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I715" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J715" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K715" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L715" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="15">
+        <v>45899.43410006944</v>
+      </c>
+      <c r="B716" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C716" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D716" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E716" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F716" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G716" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H716" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I716" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J716" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K716" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L716" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="10">
+        <v>45899.4355646412</v>
+      </c>
+      <c r="B717" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C717" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D717" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E717" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F717" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G717" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H717" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I717" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J717" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K717" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L717" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="15">
+        <v>45899.446259178236</v>
+      </c>
+      <c r="B718" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C718" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D718" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E718" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F718" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G718" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H718" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I718" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J718" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K718" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L718" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="10">
+        <v>45899.45361165509</v>
+      </c>
+      <c r="B719" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C719" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D719" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E719" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F719" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G719" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H719" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I719" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J719" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K719" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="L719" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="15">
+        <v>45899.46314103009</v>
+      </c>
+      <c r="B720" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C720" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D720" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E720" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F720" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G720" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H720" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I720" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J720" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K720" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L720" s="17">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="10">
+        <v>45899.48294765047</v>
+      </c>
+      <c r="B721" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C721" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D721" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E721" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F721" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G721" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H721" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I721" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J721" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K721" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L721" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="15">
+        <v>45899.49010002315</v>
+      </c>
+      <c r="B722" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C722" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D722" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E722" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F722" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G722" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H722" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I722" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J722" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K722" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L722" s="17">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="10">
+        <v>45899.4918753588</v>
+      </c>
+      <c r="B723" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C723" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D723" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E723" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F723" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G723" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H723" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I723" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J723" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K723" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="L723" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="15">
+        <v>45899.499475358796</v>
+      </c>
+      <c r="B724" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C724" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D724" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E724" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F724" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G724" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H724" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I724" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J724" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K724" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L724" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="18">
+        <v>45899.53742238426</v>
+      </c>
+      <c r="B725" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C725" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D725" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E725" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F725" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G725" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H725" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I725" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J725" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K725" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L725" s="21">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J810">
+  <conditionalFormatting sqref="J1:J825">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7869" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7879" uniqueCount="245">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -778,7 +778,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -939,10 +939,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -950,13 +950,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -964,27 +964,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -994,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1056,9 +1042,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1129,7 +1112,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L725" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L726" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -28880,45 +28863,83 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="18">
+      <c r="A725" s="10">
         <v>45899.53742238426</v>
       </c>
-      <c r="B725" s="19" t="s">
+      <c r="B725" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C725" s="19" t="s">
+      <c r="C725" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D725" s="19" t="s">
+      <c r="D725" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E725" s="19" t="s">
+      <c r="E725" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F725" s="19" t="s">
+      <c r="F725" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G725" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H725" s="19" t="s">
+      <c r="G725" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H725" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I725" s="19" t="s">
+      <c r="I725" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J725" s="20" t="s">
+      <c r="J725" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K725" s="19" t="s">
+      <c r="K725" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="L725" s="21">
+      <c r="L725" s="14">
         <v>2.0</v>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" s="18">
+        <v>45900.52605195602</v>
+      </c>
+      <c r="B726" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C726" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D726" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E726" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F726" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G726" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H726" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I726" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J726" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K726" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L726" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J825">
+  <conditionalFormatting sqref="J1:J826">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7879" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8159" uniqueCount="251">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -749,6 +749,24 @@
   <si>
     <t>3 rodilla derecha, 7 tobillo derecho</t>
   </si>
+  <si>
+    <t>Destruida</t>
+  </si>
+  <si>
+    <t>2 muslo derecho, 9 Isquiotibial izquierdo, 18 aductor derecho</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 3 rodilla derecha, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 15 espalda baja</t>
+  </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda, 12 parte trasera de la rodilla derecha, 16 espalda, 21 Plantas de los pies o empeine</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 13 pantorrilla izquierda, 14 pantorrilla derecha, 15 espalda baja, 16 espalda, 22 gluteo izquierdo</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 3 rodilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1112,7 +1130,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L726" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L752" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -28901,45 +28919,1033 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="18">
+      <c r="A726" s="15">
         <v>45900.52605195602</v>
       </c>
-      <c r="B726" s="19" t="s">
+      <c r="B726" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C726" s="19" t="s">
+      <c r="C726" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D726" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E726" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F726" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G726" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H726" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I726" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J726" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K726" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L726" s="20">
+      <c r="D726" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E726" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F726" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G726" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H726" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I726" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J726" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K726" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L726" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="727">
+      <c r="A727" s="10">
+        <v>45901.41946258102</v>
+      </c>
+      <c r="B727" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C727" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D727" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E727" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F727" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G727" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H727" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I727" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J727" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K727" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L727" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="15">
+        <v>45901.42514237268</v>
+      </c>
+      <c r="B728" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C728" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D728" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E728" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F728" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G728" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H728" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I728" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J728" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K728" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L728" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="10">
+        <v>45901.43495440972</v>
+      </c>
+      <c r="B729" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C729" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D729" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E729" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F729" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G729" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H729" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I729" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J729" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K729" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L729" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="15">
+        <v>45901.44331126157</v>
+      </c>
+      <c r="B730" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C730" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D730" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E730" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F730" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G730" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H730" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I730" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J730" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K730" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="L730" s="17">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="10">
+        <v>45901.65800311342</v>
+      </c>
+      <c r="B731" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C731" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D731" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E731" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F731" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G731" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H731" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I731" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J731" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K731" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L731" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="15">
+        <v>45901.658244907405</v>
+      </c>
+      <c r="B732" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C732" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D732" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E732" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F732" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G732" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H732" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I732" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J732" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K732" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L732" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="10">
+        <v>45901.658782928236</v>
+      </c>
+      <c r="B733" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C733" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D733" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E733" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F733" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G733" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H733" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I733" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J733" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K733" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L733" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="15">
+        <v>45901.65882481482</v>
+      </c>
+      <c r="B734" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C734" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D734" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E734" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F734" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G734" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H734" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I734" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J734" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K734" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L734" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="10">
+        <v>45901.65899769676</v>
+      </c>
+      <c r="B735" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C735" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D735" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E735" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F735" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G735" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H735" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I735" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J735" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K735" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="L735" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="15">
+        <v>45901.66625568287</v>
+      </c>
+      <c r="B736" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C736" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D736" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E736" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F736" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G736" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H736" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I736" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J736" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K736" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L736" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="10">
+        <v>45901.66639619213</v>
+      </c>
+      <c r="B737" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C737" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D737" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E737" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F737" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G737" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H737" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I737" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J737" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K737" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="L737" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="15">
+        <v>45901.66664265047</v>
+      </c>
+      <c r="B738" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C738" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D738" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E738" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F738" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G738" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H738" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I738" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J738" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K738" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L738" s="17">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="10">
+        <v>45901.6701168287</v>
+      </c>
+      <c r="B739" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C739" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D739" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E739" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F739" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G739" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H739" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I739" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J739" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K739" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L739" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="15">
+        <v>45901.67176125</v>
+      </c>
+      <c r="B740" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C740" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D740" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E740" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F740" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G740" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H740" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I740" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J740" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K740" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L740" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="10">
+        <v>45901.68527537037</v>
+      </c>
+      <c r="B741" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C741" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D741" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E741" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F741" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G741" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H741" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I741" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J741" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K741" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L741" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="15">
+        <v>45901.70364119213</v>
+      </c>
+      <c r="B742" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C742" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D742" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E742" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F742" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G742" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H742" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I742" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J742" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K742" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L742" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="10">
+        <v>45901.755501817126</v>
+      </c>
+      <c r="B743" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C743" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D743" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E743" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F743" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G743" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H743" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I743" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J743" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K743" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L743" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="15">
+        <v>45901.76046708333</v>
+      </c>
+      <c r="B744" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C744" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D744" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E744" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F744" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G744" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H744" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I744" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J744" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K744" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L744" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="10">
+        <v>45902.23743340278</v>
+      </c>
+      <c r="B745" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C745" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D745" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E745" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F745" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G745" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H745" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I745" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J745" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K745" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L745" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="15">
+        <v>45902.26883584491</v>
+      </c>
+      <c r="B746" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C746" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D746" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E746" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F746" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G746" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H746" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I746" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J746" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K746" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L746" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="10">
+        <v>45902.329935127316</v>
+      </c>
+      <c r="B747" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C747" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D747" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E747" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F747" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G747" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H747" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I747" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J747" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K747" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L747" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="15">
+        <v>45902.33030266204</v>
+      </c>
+      <c r="B748" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C748" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D748" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E748" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F748" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G748" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H748" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I748" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J748" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K748" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="L748" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="10">
+        <v>45902.331430266204</v>
+      </c>
+      <c r="B749" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C749" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D749" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E749" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F749" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G749" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H749" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I749" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J749" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K749" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L749" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="15">
+        <v>45902.33143464121</v>
+      </c>
+      <c r="B750" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C750" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D750" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E750" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F750" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G750" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H750" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I750" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J750" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K750" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L750" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="10">
+        <v>45902.36375179398</v>
+      </c>
+      <c r="B751" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C751" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D751" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E751" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F751" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G751" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H751" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I751" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J751" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K751" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L751" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="18">
+        <v>45902.3701102662</v>
+      </c>
+      <c r="B752" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C752" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D752" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E752" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F752" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G752" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H752" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I752" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J752" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K752" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L752" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J826">
+  <conditionalFormatting sqref="J1:J852">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8159" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8243" uniqueCount="252">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -767,6 +767,9 @@
   <si>
     <t>1 muslo izquierdo, 3 rodilla derecha</t>
   </si>
+  <si>
+    <t>12 parte trasera de la rodilla derecha, 21 Plantas de los pies o empeine</t>
+  </si>
 </sst>
 </file>
 
@@ -1130,7 +1133,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L752" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L760" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -29907,45 +29910,349 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="18">
+      <c r="A752" s="15">
         <v>45902.3701102662</v>
       </c>
-      <c r="B752" s="19" t="s">
+      <c r="B752" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C752" s="19" t="s">
+      <c r="C752" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D752" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E752" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F752" s="19" t="s">
+      <c r="D752" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E752" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F752" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G752" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H752" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I752" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J752" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K752" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L752" s="20" t="s">
-        <v>18</v>
+      <c r="G752" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H752" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I752" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J752" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K752" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L752" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="10">
+        <v>45902.423947800926</v>
+      </c>
+      <c r="B753" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C753" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D753" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E753" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F753" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G753" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H753" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I753" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J753" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K753" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L753" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="15">
+        <v>45902.472345625</v>
+      </c>
+      <c r="B754" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C754" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D754" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E754" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F754" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G754" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H754" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I754" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J754" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K754" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L754" s="17">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="10">
+        <v>45902.540772754626</v>
+      </c>
+      <c r="B755" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C755" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D755" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E755" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F755" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G755" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H755" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I755" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J755" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K755" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L755" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="15">
+        <v>45902.54118111111</v>
+      </c>
+      <c r="B756" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C756" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D756" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E756" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F756" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G756" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H756" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I756" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J756" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K756" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L756" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="10">
+        <v>45902.54650452547</v>
+      </c>
+      <c r="B757" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C757" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D757" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E757" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F757" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G757" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H757" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I757" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J757" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K757" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L757" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="15">
+        <v>45902.58124704861</v>
+      </c>
+      <c r="B758" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C758" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D758" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E758" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F758" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G758" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H758" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I758" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J758" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K758" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="L758" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="10">
+        <v>45902.63443760417</v>
+      </c>
+      <c r="B759" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C759" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D759" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E759" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F759" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G759" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H759" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I759" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J759" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K759" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L759" s="14">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="18">
+        <v>45902.68640140047</v>
+      </c>
+      <c r="B760" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C760" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D760" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E760" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F760" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G760" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H760" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I760" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J760" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K760" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L760" s="20">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J852">
+  <conditionalFormatting sqref="J1:J860">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8243" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8254" uniqueCount="252">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -960,10 +960,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -971,13 +971,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -985,13 +985,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1133,7 +1133,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L760" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L761" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -30214,45 +30214,83 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="18">
+      <c r="A760" s="15">
         <v>45902.68640140047</v>
       </c>
-      <c r="B760" s="19" t="s">
+      <c r="B760" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C760" s="19" t="s">
+      <c r="C760" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D760" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E760" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F760" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G760" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H760" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I760" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J760" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K760" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L760" s="20">
+      <c r="D760" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E760" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F760" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G760" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H760" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I760" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J760" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K760" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L760" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="761">
+      <c r="A761" s="18">
+        <v>45903.340586527775</v>
+      </c>
+      <c r="B761" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C761" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D761" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E761" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F761" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G761" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H761" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I761" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J761" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K761" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L761" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J860">
+  <conditionalFormatting sqref="J1:J861">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8254" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8286" uniqueCount="253">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -770,6 +770,9 @@
   <si>
     <t>12 parte trasera de la rodilla derecha, 21 Plantas de los pies o empeine</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 18 aductor derecho, 22 gluteo izquierdo</t>
+  </si>
 </sst>
 </file>
 
@@ -799,7 +802,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -960,10 +963,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -971,13 +974,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -985,13 +988,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1001,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1063,6 +1080,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1133,7 +1153,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L761" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L764" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -30252,45 +30272,159 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="18">
+      <c r="A761" s="10">
         <v>45903.340586527775</v>
       </c>
-      <c r="B761" s="19" t="s">
+      <c r="B761" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C761" s="19" t="s">
+      <c r="C761" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D761" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E761" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F761" s="19" t="s">
+      <c r="D761" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E761" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F761" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G761" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H761" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I761" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J761" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K761" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L761" s="20" t="s">
+      <c r="G761" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H761" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I761" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J761" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K761" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L761" s="14" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" s="15">
+        <v>45903.41432939815</v>
+      </c>
+      <c r="B762" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C762" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D762" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E762" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F762" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G762" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H762" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I762" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J762" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K762" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="L762" s="17">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="10">
+        <v>45904.31531209491</v>
+      </c>
+      <c r="B763" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C763" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D763" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E763" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F763" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G763" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H763" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I763" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J763" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K763" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L763" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="18">
+        <v>45904.39160773148</v>
+      </c>
+      <c r="B764" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C764" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D764" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E764" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F764" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G764" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H764" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I764" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J764" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K764" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="L764" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J861">
+  <conditionalFormatting sqref="J1:J864">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8286" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8471" uniqueCount="256">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -773,6 +773,15 @@
   <si>
     <t>2 muslo derecho, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 18 aductor derecho, 22 gluteo izquierdo</t>
   </si>
+  <si>
+    <t>15 espalda baja, 24 aquiles</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdoKim repo</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 3 rodilla derecha, 10 isquiotibial derecho, 23 gluteo derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -963,10 +972,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -974,13 +983,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1002,13 +1011,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1153,7 +1162,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L764" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L781" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -30386,45 +30395,691 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="18">
+      <c r="A764" s="15">
         <v>45904.39160773148</v>
       </c>
-      <c r="B764" s="19" t="s">
+      <c r="B764" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C764" s="19" t="s">
+      <c r="C764" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D764" s="19" t="s">
+      <c r="D764" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E764" s="19" t="s">
+      <c r="E764" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F764" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G764" s="19" t="s">
+      <c r="F764" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G764" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H764" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I764" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J764" s="20" t="s">
+      <c r="H764" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I764" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J764" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K764" s="19" t="s">
+      <c r="K764" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="L764" s="21" t="s">
-        <v>18</v>
+      <c r="L764" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="10">
+        <v>45904.40936614583</v>
+      </c>
+      <c r="B765" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C765" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D765" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E765" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F765" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G765" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H765" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I765" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J765" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K765" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L765" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="15">
+        <v>45904.44155688657</v>
+      </c>
+      <c r="B766" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C766" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D766" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E766" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F766" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G766" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H766" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I766" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J766" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K766" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="L766" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="10">
+        <v>45904.44174258102</v>
+      </c>
+      <c r="B767" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C767" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D767" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E767" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F767" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G767" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H767" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I767" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J767" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K767" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="L767" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="15">
+        <v>45904.442114652775</v>
+      </c>
+      <c r="B768" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C768" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D768" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E768" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F768" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G768" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H768" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I768" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J768" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K768" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L768" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="10">
+        <v>45904.44227545139</v>
+      </c>
+      <c r="B769" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C769" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D769" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E769" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F769" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G769" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H769" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I769" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J769" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K769" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="L769" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="15">
+        <v>45904.4423774537</v>
+      </c>
+      <c r="B770" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C770" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D770" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E770" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F770" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G770" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H770" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I770" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J770" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K770" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L770" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="10">
+        <v>45904.4429158912</v>
+      </c>
+      <c r="B771" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C771" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D771" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E771" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F771" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G771" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H771" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I771" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J771" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K771" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L771" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="15">
+        <v>45904.44406686343</v>
+      </c>
+      <c r="B772" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C772" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D772" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E772" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F772" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G772" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H772" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I772" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J772" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K772" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="L772" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="10">
+        <v>45904.444185914355</v>
+      </c>
+      <c r="B773" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C773" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D773" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E773" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F773" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G773" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H773" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I773" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J773" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K773" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L773" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="15">
+        <v>45904.44536894676</v>
+      </c>
+      <c r="B774" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C774" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D774" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E774" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F774" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G774" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H774" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I774" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J774" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K774" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L774" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="10">
+        <v>45904.45061451389</v>
+      </c>
+      <c r="B775" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C775" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D775" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E775" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F775" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G775" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H775" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I775" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J775" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K775" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L775" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="15">
+        <v>45904.451624305555</v>
+      </c>
+      <c r="B776" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C776" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D776" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E776" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F776" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G776" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H776" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I776" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J776" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K776" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="L776" s="17">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="10">
+        <v>45904.45258020834</v>
+      </c>
+      <c r="B777" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C777" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D777" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E777" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F777" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G777" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H777" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I777" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J777" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K777" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L777" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="15">
+        <v>45904.4562446412</v>
+      </c>
+      <c r="B778" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C778" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D778" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E778" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F778" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G778" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H778" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I778" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J778" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K778" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L778" s="17">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="10">
+        <v>45904.45874912037</v>
+      </c>
+      <c r="B779" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C779" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D779" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E779" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F779" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G779" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H779" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I779" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J779" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K779" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L779" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="15">
+        <v>45904.45890837963</v>
+      </c>
+      <c r="B780" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C780" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D780" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E780" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F780" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G780" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H780" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I780" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J780" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K780" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L780" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="18">
+        <v>45904.459541979166</v>
+      </c>
+      <c r="B781" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C781" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D781" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E781" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F781" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G781" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H781" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I781" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J781" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K781" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L781" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J864">
+  <conditionalFormatting sqref="J1:J881">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8471" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8492" uniqueCount="256">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -811,7 +811,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -997,20 +997,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
@@ -1027,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1089,9 +1075,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1162,7 +1145,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L781" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L783" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -31041,45 +31024,121 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="18">
+      <c r="A781" s="10">
         <v>45904.459541979166</v>
       </c>
-      <c r="B781" s="19" t="s">
+      <c r="B781" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C781" s="19" t="s">
+      <c r="C781" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D781" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E781" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F781" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G781" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H781" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I781" s="19" t="s">
+      <c r="D781" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E781" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F781" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G781" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H781" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I781" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J781" s="20" t="s">
+      <c r="J781" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K781" s="19" t="s">
+      <c r="K781" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="L781" s="21" t="s">
+      <c r="L781" s="14" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="782">
+      <c r="A782" s="15">
+        <v>45905.36259880787</v>
+      </c>
+      <c r="B782" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C782" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D782" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E782" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F782" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G782" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H782" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I782" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J782" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K782" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L782" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="18">
+        <v>45905.37836482639</v>
+      </c>
+      <c r="B783" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C783" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D783" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E783" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F783" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G783" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H783" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I783" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J783" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K783" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L783" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J881">
+  <conditionalFormatting sqref="J1:J883">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8492" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8710" uniqueCount="260">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -782,6 +782,18 @@
   <si>
     <t>1 muslo izquierdo, 3 rodilla derecha, 10 isquiotibial derecho, 23 gluteo derecho</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 22 gluteo izquierdo</t>
+  </si>
+  <si>
+    <t>15 espalda baja, 21 Plantas de los pies o empeine, 24 aquiles</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 3 rodilla derecha, 10 isquiotibial derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -811,7 +823,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -997,6 +1009,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
@@ -1013,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1075,6 +1101,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1174,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L783" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L803" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -31100,45 +31129,805 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" s="18">
+      <c r="A783" s="10">
         <v>45905.37836482639</v>
       </c>
-      <c r="B783" s="19" t="s">
+      <c r="B783" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C783" s="19" t="s">
+      <c r="C783" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D783" s="19" t="s">
+      <c r="D783" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E783" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F783" s="19" t="s">
+      <c r="E783" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F783" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G783" s="19" t="s">
+      <c r="G783" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H783" s="19" t="s">
+      <c r="H783" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I783" s="19" t="s">
+      <c r="I783" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J783" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K783" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L783" s="20">
+      <c r="J783" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K783" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L783" s="14">
         <v>5.0</v>
       </c>
     </row>
+    <row r="784">
+      <c r="A784" s="15">
+        <v>45905.409623935186</v>
+      </c>
+      <c r="B784" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C784" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D784" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E784" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F784" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G784" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H784" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I784" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J784" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K784" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L784" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="10">
+        <v>45905.410898472226</v>
+      </c>
+      <c r="B785" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C785" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D785" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E785" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F785" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G785" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H785" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I785" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J785" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K785" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L785" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="15">
+        <v>45905.411914930555</v>
+      </c>
+      <c r="B786" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C786" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D786" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E786" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F786" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G786" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H786" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I786" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J786" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K786" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L786" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="10">
+        <v>45905.41217033565</v>
+      </c>
+      <c r="B787" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C787" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D787" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E787" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F787" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G787" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H787" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I787" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J787" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K787" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="L787" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="15">
+        <v>45905.412182789354</v>
+      </c>
+      <c r="B788" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C788" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D788" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E788" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F788" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G788" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H788" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I788" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J788" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K788" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L788" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="10">
+        <v>45905.41276743056</v>
+      </c>
+      <c r="B789" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C789" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D789" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E789" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F789" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G789" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H789" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I789" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J789" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K789" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L789" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="15">
+        <v>45905.4135687963</v>
+      </c>
+      <c r="B790" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C790" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D790" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E790" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F790" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G790" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H790" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I790" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J790" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K790" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L790" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="10">
+        <v>45905.41502590278</v>
+      </c>
+      <c r="B791" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C791" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D791" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E791" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F791" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G791" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H791" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I791" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J791" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K791" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L791" s="14">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="15">
+        <v>45905.41548226852</v>
+      </c>
+      <c r="B792" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C792" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D792" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E792" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F792" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G792" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H792" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I792" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J792" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K792" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L792" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="10">
+        <v>45905.41600387731</v>
+      </c>
+      <c r="B793" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C793" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D793" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E793" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F793" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G793" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H793" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I793" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J793" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K793" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L793" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="15">
+        <v>45905.41784804398</v>
+      </c>
+      <c r="B794" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C794" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D794" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E794" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F794" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G794" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H794" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I794" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J794" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K794" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L794" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="10">
+        <v>45905.4178809838</v>
+      </c>
+      <c r="B795" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C795" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D795" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E795" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F795" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G795" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H795" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I795" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J795" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K795" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L795" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="15">
+        <v>45905.4184618287</v>
+      </c>
+      <c r="B796" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C796" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D796" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E796" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F796" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G796" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H796" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I796" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J796" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K796" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="L796" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="10">
+        <v>45905.42160054398</v>
+      </c>
+      <c r="B797" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C797" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D797" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E797" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F797" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G797" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H797" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I797" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J797" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K797" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L797" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="15">
+        <v>45905.4376312963</v>
+      </c>
+      <c r="B798" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C798" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D798" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E798" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F798" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G798" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H798" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I798" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J798" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K798" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L798" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="10">
+        <v>45905.440888287034</v>
+      </c>
+      <c r="B799" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C799" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D799" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E799" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F799" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G799" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H799" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I799" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J799" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K799" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L799" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="15">
+        <v>45905.44225550926</v>
+      </c>
+      <c r="B800" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C800" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D800" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E800" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F800" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G800" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H800" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I800" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J800" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K800" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="L800" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="10">
+        <v>45905.44388954861</v>
+      </c>
+      <c r="B801" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C801" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D801" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E801" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F801" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G801" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H801" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I801" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J801" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K801" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L801" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="15">
+        <v>45905.455603738425</v>
+      </c>
+      <c r="B802" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C802" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D802" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E802" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F802" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G802" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H802" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I802" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J802" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K802" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L802" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="18">
+        <v>45905.45677600695</v>
+      </c>
+      <c r="B803" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C803" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D803" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E803" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F803" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G803" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H803" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I803" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J803" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K803" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="L803" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J883">
+  <conditionalFormatting sqref="J1:J903">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8710" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8951" uniqueCount="263">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -794,6 +794,15 @@
   <si>
     <t>1 muslo izquierdo, 3 rodilla derecha, 10 isquiotibial derecho</t>
   </si>
+  <si>
+    <t>5 espinilla derecha, 9 Isquiotibial izquierdo</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 22 gluteo izquierdo</t>
+  </si>
+  <si>
+    <t>21 Plantas de los pies o empeine, 24 aquiles</t>
+  </si>
 </sst>
 </file>
 
@@ -823,7 +832,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1009,20 +1018,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
@@ -1039,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1101,9 +1096,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1174,7 +1166,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L803" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L825" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -31889,45 +31881,881 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="18">
+      <c r="A803" s="10">
         <v>45905.45677600695</v>
       </c>
-      <c r="B803" s="19" t="s">
+      <c r="B803" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C803" s="19" t="s">
+      <c r="C803" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D803" s="19" t="s">
+      <c r="D803" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E803" s="19" t="s">
+      <c r="E803" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F803" s="19" t="s">
+      <c r="F803" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G803" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H803" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I803" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J803" s="20" t="s">
+      <c r="G803" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H803" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I803" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J803" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K803" s="19" t="s">
+      <c r="K803" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="L803" s="21" t="s">
+      <c r="L803" s="14" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="804">
+      <c r="A804" s="15">
+        <v>45906.3161121875</v>
+      </c>
+      <c r="B804" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C804" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D804" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E804" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F804" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G804" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H804" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I804" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J804" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K804" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L804" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="10">
+        <v>45906.319882916665</v>
+      </c>
+      <c r="B805" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C805" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D805" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E805" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F805" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G805" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H805" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I805" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J805" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K805" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L805" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="15">
+        <v>45906.324235810185</v>
+      </c>
+      <c r="B806" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C806" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D806" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E806" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F806" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G806" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H806" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I806" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J806" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K806" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="L806" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="10">
+        <v>45906.324257141205</v>
+      </c>
+      <c r="B807" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C807" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D807" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E807" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F807" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G807" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H807" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I807" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J807" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K807" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L807" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="15">
+        <v>45906.32547135417</v>
+      </c>
+      <c r="B808" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C808" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D808" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E808" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F808" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G808" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H808" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I808" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J808" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K808" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L808" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="10">
+        <v>45906.32954111111</v>
+      </c>
+      <c r="B809" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C809" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D809" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E809" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F809" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G809" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H809" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I809" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J809" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K809" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L809" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="15">
+        <v>45906.33063780093</v>
+      </c>
+      <c r="B810" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C810" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D810" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E810" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F810" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G810" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H810" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I810" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J810" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K810" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L810" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="10">
+        <v>45906.33097635416</v>
+      </c>
+      <c r="B811" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C811" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D811" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E811" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F811" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G811" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H811" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I811" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J811" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K811" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L811" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="15">
+        <v>45906.33122640046</v>
+      </c>
+      <c r="B812" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C812" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D812" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E812" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F812" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G812" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H812" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I812" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J812" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K812" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L812" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="10">
+        <v>45906.333693912035</v>
+      </c>
+      <c r="B813" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C813" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D813" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E813" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F813" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G813" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H813" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I813" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J813" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K813" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L813" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="15">
+        <v>45906.334949386575</v>
+      </c>
+      <c r="B814" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C814" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D814" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E814" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F814" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G814" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H814" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I814" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J814" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K814" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L814" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="10">
+        <v>45906.33846122686</v>
+      </c>
+      <c r="B815" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C815" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D815" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E815" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F815" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G815" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H815" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I815" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J815" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K815" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L815" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="15">
+        <v>45906.33891730324</v>
+      </c>
+      <c r="B816" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C816" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D816" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E816" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F816" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G816" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H816" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I816" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J816" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K816" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L816" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="10">
+        <v>45906.346700462964</v>
+      </c>
+      <c r="B817" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C817" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D817" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E817" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F817" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G817" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H817" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I817" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J817" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K817" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L817" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="15">
+        <v>45906.34828550926</v>
+      </c>
+      <c r="B818" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C818" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D818" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E818" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F818" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G818" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H818" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I818" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J818" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K818" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L818" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="10">
+        <v>45906.34863155092</v>
+      </c>
+      <c r="B819" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C819" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D819" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E819" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F819" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G819" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H819" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I819" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J819" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K819" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L819" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="15">
+        <v>45906.351568391205</v>
+      </c>
+      <c r="B820" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C820" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D820" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E820" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F820" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G820" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H820" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I820" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J820" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K820" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L820" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="10">
+        <v>45906.351919953704</v>
+      </c>
+      <c r="B821" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C821" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D821" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E821" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F821" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G821" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H821" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I821" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J821" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K821" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L821" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="15">
+        <v>45906.35199248843</v>
+      </c>
+      <c r="B822" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C822" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D822" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E822" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F822" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G822" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H822" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I822" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J822" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K822" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L822" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="10">
+        <v>45906.35280003472</v>
+      </c>
+      <c r="B823" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C823" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D823" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E823" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F823" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G823" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H823" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I823" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J823" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K823" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L823" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="15">
+        <v>45906.35435326389</v>
+      </c>
+      <c r="B824" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C824" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D824" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E824" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F824" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G824" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H824" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I824" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J824" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K824" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L824" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="18">
+        <v>45906.356114525464</v>
+      </c>
+      <c r="B825" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C825" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D825" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E825" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F825" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G825" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H825" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I825" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J825" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K825" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L825" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J903">
+  <conditionalFormatting sqref="J1:J925">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8951" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8961" uniqueCount="263">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -993,10 +993,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1004,13 +1004,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1018,13 +1018,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1166,7 +1166,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L825" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L826" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -32717,45 +32717,83 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="18">
+      <c r="A825" s="10">
         <v>45906.356114525464</v>
       </c>
-      <c r="B825" s="19" t="s">
+      <c r="B825" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C825" s="19" t="s">
+      <c r="C825" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D825" s="19" t="s">
+      <c r="D825" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E825" s="19" t="s">
+      <c r="E825" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F825" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G825" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H825" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I825" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J825" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K825" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L825" s="20" t="s">
+      <c r="F825" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G825" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H825" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I825" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J825" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K825" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L825" s="14" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="826">
+      <c r="A826" s="18">
+        <v>45907.31874403935</v>
+      </c>
+      <c r="B826" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C826" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D826" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E826" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F826" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G826" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H826" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I826" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J826" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K826" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L826" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J925">
+  <conditionalFormatting sqref="J1:J926">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8961" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8983" uniqueCount="263">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1166,7 +1166,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L826" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L828" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -32755,45 +32755,121 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="18">
+      <c r="A826" s="15">
         <v>45907.31874403935</v>
       </c>
-      <c r="B826" s="19" t="s">
+      <c r="B826" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C826" s="19" t="s">
+      <c r="C826" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D826" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E826" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F826" s="19" t="s">
+      <c r="D826" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E826" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F826" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G826" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H826" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I826" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J826" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K826" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L826" s="20">
+      <c r="G826" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H826" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I826" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J826" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K826" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L826" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="827">
+      <c r="A827" s="10">
+        <v>45908.432637199076</v>
+      </c>
+      <c r="B827" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C827" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D827" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E827" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F827" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G827" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H827" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I827" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J827" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K827" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L827" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="18">
+        <v>45908.536755925925</v>
+      </c>
+      <c r="B828" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C828" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D828" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E828" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F828" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G828" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H828" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I828" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J828" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K828" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L828" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J926">
+  <conditionalFormatting sqref="J1:J928">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8983" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9038" uniqueCount="265">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -803,6 +803,12 @@
   <si>
     <t>21 Plantas de los pies o empeine, 24 aquiles</t>
   </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda, 21 Plantas de los pies o empeine</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
 </sst>
 </file>
 
@@ -993,10 +999,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1004,13 +1010,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1018,13 +1024,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1166,7 +1172,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L828" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L833" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -32831,45 +32837,235 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="18">
+      <c r="A828" s="15">
         <v>45908.536755925925</v>
       </c>
-      <c r="B828" s="19" t="s">
+      <c r="B828" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C828" s="19" t="s">
+      <c r="C828" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D828" s="19" t="s">
+      <c r="D828" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E828" s="19" t="s">
+      <c r="E828" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F828" s="19" t="s">
+      <c r="F828" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G828" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H828" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I828" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J828" s="19" t="s">
+      <c r="G828" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H828" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I828" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J828" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K828" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L828" s="20" t="s">
+      <c r="K828" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L828" s="17" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="829">
+      <c r="A829" s="10">
+        <v>45910.36454974537</v>
+      </c>
+      <c r="B829" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C829" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D829" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E829" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F829" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G829" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H829" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I829" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J829" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K829" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L829" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="15">
+        <v>45910.37907765046</v>
+      </c>
+      <c r="B830" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C830" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D830" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E830" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F830" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G830" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H830" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I830" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J830" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K830" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="L830" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="10">
+        <v>45910.38301435186</v>
+      </c>
+      <c r="B831" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C831" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D831" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E831" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F831" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G831" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H831" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I831" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J831" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K831" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L831" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="15">
+        <v>45910.38483981481</v>
+      </c>
+      <c r="B832" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C832" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D832" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E832" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F832" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G832" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H832" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I832" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J832" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K832" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L832" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="18">
+        <v>45910.405389085645</v>
+      </c>
+      <c r="B833" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C833" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D833" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E833" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F833" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G833" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H833" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I833" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J833" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K833" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L833" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J928">
+  <conditionalFormatting sqref="J1:J933">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9038" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9233" uniqueCount="266">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -809,6 +809,9 @@
   <si>
     <t>—</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1172,7 +1175,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L833" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L851" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -33027,45 +33030,729 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="18">
+      <c r="A833" s="10">
         <v>45910.405389085645</v>
       </c>
-      <c r="B833" s="19" t="s">
+      <c r="B833" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C833" s="19" t="s">
+      <c r="C833" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D833" s="19" t="s">
+      <c r="D833" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E833" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F833" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G833" s="19" t="s">
+      <c r="E833" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F833" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G833" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H833" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I833" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J833" s="19" t="s">
+      <c r="H833" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I833" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J833" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K833" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L833" s="20" t="s">
-        <v>18</v>
+      <c r="K833" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L833" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="15">
+        <v>45910.410289374995</v>
+      </c>
+      <c r="B834" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C834" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D834" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E834" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F834" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G834" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H834" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I834" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J834" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K834" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L834" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="10">
+        <v>45910.41030208333</v>
+      </c>
+      <c r="B835" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C835" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D835" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E835" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F835" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G835" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H835" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I835" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J835" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K835" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L835" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="15">
+        <v>45910.41046989583</v>
+      </c>
+      <c r="B836" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C836" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D836" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E836" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F836" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G836" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H836" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I836" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J836" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K836" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L836" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="10">
+        <v>45910.41048738426</v>
+      </c>
+      <c r="B837" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C837" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D837" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E837" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F837" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G837" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H837" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I837" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J837" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K837" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L837" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="15">
+        <v>45910.41053502315</v>
+      </c>
+      <c r="B838" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C838" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D838" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E838" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F838" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G838" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H838" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I838" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J838" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K838" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L838" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="10">
+        <v>45910.411084155094</v>
+      </c>
+      <c r="B839" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C839" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D839" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E839" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F839" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G839" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H839" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I839" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J839" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K839" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L839" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="15">
+        <v>45910.41144869213</v>
+      </c>
+      <c r="B840" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C840" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D840" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E840" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F840" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G840" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H840" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I840" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J840" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K840" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L840" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="10">
+        <v>45910.41244918981</v>
+      </c>
+      <c r="B841" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C841" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D841" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E841" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F841" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G841" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H841" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I841" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J841" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K841" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L841" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="15">
+        <v>45910.417378136575</v>
+      </c>
+      <c r="B842" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C842" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D842" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E842" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F842" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G842" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H842" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I842" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J842" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K842" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L842" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="10">
+        <v>45910.41763924768</v>
+      </c>
+      <c r="B843" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C843" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D843" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E843" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F843" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G843" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H843" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I843" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J843" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K843" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L843" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="15">
+        <v>45910.42115322917</v>
+      </c>
+      <c r="B844" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C844" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D844" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E844" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F844" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G844" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H844" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I844" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J844" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K844" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L844" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="10">
+        <v>45910.42490625</v>
+      </c>
+      <c r="B845" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C845" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D845" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E845" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F845" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G845" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H845" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I845" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J845" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K845" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L845" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="15">
+        <v>45911.33422568287</v>
+      </c>
+      <c r="B846" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C846" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D846" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E846" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F846" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G846" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H846" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I846" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J846" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K846" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L846" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="10">
+        <v>45911.34140631944</v>
+      </c>
+      <c r="B847" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C847" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D847" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E847" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F847" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G847" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H847" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I847" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J847" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K847" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L847" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="15">
+        <v>45911.36306405092</v>
+      </c>
+      <c r="B848" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C848" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D848" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E848" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F848" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G848" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H848" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I848" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J848" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K848" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L848" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="10">
+        <v>45911.382804479166</v>
+      </c>
+      <c r="B849" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C849" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D849" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E849" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F849" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G849" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H849" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I849" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J849" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K849" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L849" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="15">
+        <v>45911.404080092594</v>
+      </c>
+      <c r="B850" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C850" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D850" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E850" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F850" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G850" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H850" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I850" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J850" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K850" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L850" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="18">
+        <v>45911.408044386575</v>
+      </c>
+      <c r="B851" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C851" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D851" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E851" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F851" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G851" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H851" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I851" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J851" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K851" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L851" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J933">
+  <conditionalFormatting sqref="J1:J951">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9233" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9393" uniqueCount="271">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -812,6 +812,21 @@
   <si>
     <t>2 muslo derecho, 22 gluteo izquierdo, 23 gluteo derecho</t>
   </si>
+  <si>
+    <t>16 espalda, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda, 12 parte trasera de la rodilla derecha, 21 Plantas de los pies o empeine</t>
+  </si>
+  <si>
+    <t>10 isquiotibial derecho, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>2 muslo derecho, 8 tobillo izquierdo, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>7 tobillo derecho, 21 Plantas de los pies o empeine</t>
+  </si>
 </sst>
 </file>
 
@@ -1002,10 +1017,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1013,13 +1028,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1027,13 +1042,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1175,7 +1190,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L851" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L866" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -33714,45 +33729,615 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="18">
+      <c r="A851" s="10">
         <v>45911.408044386575</v>
       </c>
-      <c r="B851" s="19" t="s">
+      <c r="B851" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C851" s="19" t="s">
+      <c r="C851" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D851" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E851" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F851" s="19" t="s">
+      <c r="D851" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E851" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F851" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G851" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H851" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I851" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J851" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K851" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L851" s="20" t="s">
+      <c r="G851" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H851" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I851" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J851" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K851" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L851" s="14" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="852">
+      <c r="A852" s="15">
+        <v>45911.41091276621</v>
+      </c>
+      <c r="B852" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C852" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D852" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E852" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F852" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G852" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H852" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I852" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J852" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K852" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="L852" s="17">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="10">
+        <v>45911.41234792824</v>
+      </c>
+      <c r="B853" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C853" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D853" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E853" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F853" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G853" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H853" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I853" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J853" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K853" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L853" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="15">
+        <v>45911.414063564815</v>
+      </c>
+      <c r="B854" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C854" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D854" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E854" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F854" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G854" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H854" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I854" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J854" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K854" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L854" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="10">
+        <v>45911.414230891205</v>
+      </c>
+      <c r="B855" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C855" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D855" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E855" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F855" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G855" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H855" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I855" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J855" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K855" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="L855" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="15">
+        <v>45911.414582638885</v>
+      </c>
+      <c r="B856" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C856" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D856" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E856" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F856" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G856" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H856" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I856" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J856" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K856" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="L856" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="10">
+        <v>45911.415356122685</v>
+      </c>
+      <c r="B857" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C857" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D857" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E857" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F857" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G857" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H857" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I857" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J857" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K857" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L857" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="15">
+        <v>45911.41591152777</v>
+      </c>
+      <c r="B858" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C858" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D858" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E858" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F858" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G858" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H858" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I858" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J858" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K858" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="L858" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="10">
+        <v>45911.41628460649</v>
+      </c>
+      <c r="B859" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C859" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D859" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E859" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F859" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G859" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H859" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I859" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J859" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K859" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L859" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="15">
+        <v>45911.41927753472</v>
+      </c>
+      <c r="B860" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C860" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D860" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E860" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F860" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G860" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H860" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I860" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J860" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K860" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="L860" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="10">
+        <v>45911.41941796296</v>
+      </c>
+      <c r="B861" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C861" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D861" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E861" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F861" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G861" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H861" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I861" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J861" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K861" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="L861" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="15">
+        <v>45911.42137747685</v>
+      </c>
+      <c r="B862" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C862" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D862" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E862" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F862" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G862" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H862" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I862" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J862" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K862" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L862" s="17">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="10">
+        <v>45911.427214270836</v>
+      </c>
+      <c r="B863" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C863" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D863" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E863" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F863" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G863" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H863" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I863" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J863" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K863" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L863" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="15">
+        <v>45911.42897390046</v>
+      </c>
+      <c r="B864" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C864" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D864" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E864" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F864" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G864" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H864" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I864" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J864" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K864" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L864" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="10">
+        <v>45911.43004827546</v>
+      </c>
+      <c r="B865" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C865" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D865" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E865" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F865" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G865" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H865" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I865" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J865" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K865" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L865" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="18">
+        <v>45911.43074467593</v>
+      </c>
+      <c r="B866" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C866" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D866" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E866" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F866" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G866" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H866" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I866" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J866" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K866" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L866" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J951">
+  <conditionalFormatting sqref="J1:J966">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9459" uniqueCount="271">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1190,7 +1190,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L866" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L872" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -34299,45 +34299,273 @@
       </c>
     </row>
     <row r="866">
-      <c r="A866" s="18">
+      <c r="A866" s="15">
         <v>45911.43074467593</v>
       </c>
-      <c r="B866" s="19" t="s">
+      <c r="B866" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C866" s="19" t="s">
+      <c r="C866" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D866" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E866" s="19" t="s">
+      <c r="D866" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E866" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F866" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G866" s="19" t="s">
+      <c r="F866" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G866" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H866" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I866" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J866" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K866" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L866" s="20" t="s">
-        <v>18</v>
+      <c r="H866" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I866" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J866" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K866" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L866" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="10">
+        <v>45912.33938130787</v>
+      </c>
+      <c r="B867" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C867" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D867" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E867" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F867" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G867" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H867" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I867" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J867" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K867" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L867" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="15">
+        <v>45912.349106875</v>
+      </c>
+      <c r="B868" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C868" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D868" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E868" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F868" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G868" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H868" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I868" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J868" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K868" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L868" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="10">
+        <v>45912.38508731482</v>
+      </c>
+      <c r="B869" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C869" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D869" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E869" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F869" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G869" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H869" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I869" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J869" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K869" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L869" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="15">
+        <v>45912.390369409724</v>
+      </c>
+      <c r="B870" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C870" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D870" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E870" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F870" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G870" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H870" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I870" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J870" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K870" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L870" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="10">
+        <v>45912.39387226852</v>
+      </c>
+      <c r="B871" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C871" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D871" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E871" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F871" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G871" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H871" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I871" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J871" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K871" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L871" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="18">
+        <v>45912.40079774306</v>
+      </c>
+      <c r="B872" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C872" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D872" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E872" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F872" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G872" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H872" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I872" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J872" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K872" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L872" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J966">
+  <conditionalFormatting sqref="J1:J972">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9459" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9706" uniqueCount="277">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -827,6 +827,24 @@
   <si>
     <t>7 tobillo derecho, 21 Plantas de los pies o empeine</t>
   </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 13 pantorrilla izquierda, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 15 espalda baja, 16 espalda, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>3 rodilla derecha, 4 rodilla izquierda, 11 parte trasera de la rodilla izquierda, 12 parte trasera de la rodilla derecha, 21 Plantas de los pies o empeine</t>
+  </si>
+  <si>
+    <t>10 isquiotibial derecho, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>3 rodilla derecha, 4 rodilla izquierda, 21 Plantas de los pies o empeine</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
 </sst>
 </file>
 
@@ -856,7 +874,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -1017,10 +1035,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1028,13 +1046,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1042,13 +1060,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1058,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1120,6 +1152,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1190,7 +1225,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L872" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L895" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -34527,45 +34562,919 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" s="18">
+      <c r="A872" s="15">
         <v>45912.40079774306</v>
       </c>
-      <c r="B872" s="19" t="s">
+      <c r="B872" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C872" s="19" t="s">
+      <c r="C872" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D872" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E872" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F872" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G872" s="19" t="s">
+      <c r="D872" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E872" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F872" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G872" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H872" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I872" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J872" s="19" t="s">
+      <c r="H872" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I872" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J872" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K872" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L872" s="20" t="s">
+      <c r="K872" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L872" s="17" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="873">
+      <c r="A873" s="10">
+        <v>45912.41540237269</v>
+      </c>
+      <c r="B873" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C873" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D873" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E873" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F873" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G873" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H873" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I873" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J873" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K873" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="L873" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="15">
+        <v>45912.417794016204</v>
+      </c>
+      <c r="B874" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C874" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D874" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E874" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F874" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G874" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H874" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I874" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J874" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K874" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L874" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="10">
+        <v>45912.41843016204</v>
+      </c>
+      <c r="B875" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C875" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D875" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E875" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F875" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G875" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H875" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I875" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J875" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K875" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L875" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="15">
+        <v>45912.42019255787</v>
+      </c>
+      <c r="B876" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C876" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D876" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E876" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F876" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G876" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H876" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I876" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J876" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K876" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L876" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="10">
+        <v>45912.42023462963</v>
+      </c>
+      <c r="B877" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C877" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D877" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E877" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F877" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G877" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H877" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I877" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J877" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K877" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L877" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="15">
+        <v>45912.42034729167</v>
+      </c>
+      <c r="B878" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C878" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D878" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E878" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F878" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G878" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H878" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I878" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J878" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K878" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="L878" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="10">
+        <v>45912.42053372685</v>
+      </c>
+      <c r="B879" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C879" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D879" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E879" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F879" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G879" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H879" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I879" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J879" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K879" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L879" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="15">
+        <v>45912.42097467593</v>
+      </c>
+      <c r="B880" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C880" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D880" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E880" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F880" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G880" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H880" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I880" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J880" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K880" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L880" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="10">
+        <v>45912.42193913195</v>
+      </c>
+      <c r="B881" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C881" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D881" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E881" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F881" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G881" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H881" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I881" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J881" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K881" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L881" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="15">
+        <v>45912.42212658565</v>
+      </c>
+      <c r="B882" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C882" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D882" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E882" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F882" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G882" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H882" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I882" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J882" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K882" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L882" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="10">
+        <v>45912.4222909838</v>
+      </c>
+      <c r="B883" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C883" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D883" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E883" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F883" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G883" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H883" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I883" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J883" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K883" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L883" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="15">
+        <v>45912.42336945602</v>
+      </c>
+      <c r="B884" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C884" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D884" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E884" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F884" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G884" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H884" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I884" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J884" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K884" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L884" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="10">
+        <v>45912.42349435185</v>
+      </c>
+      <c r="B885" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C885" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D885" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E885" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F885" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G885" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H885" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I885" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J885" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K885" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L885" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="15">
+        <v>45912.42450530092</v>
+      </c>
+      <c r="B886" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C886" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D886" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E886" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F886" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G886" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H886" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I886" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J886" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K886" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L886" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="10">
+        <v>45912.42699921296</v>
+      </c>
+      <c r="B887" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C887" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D887" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E887" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F887" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G887" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H887" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I887" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J887" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K887" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L887" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="15">
+        <v>45912.4303384375</v>
+      </c>
+      <c r="B888" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C888" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D888" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E888" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F888" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G888" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H888" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I888" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J888" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K888" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L888" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="10">
+        <v>45912.44109689815</v>
+      </c>
+      <c r="B889" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C889" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D889" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E889" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F889" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G889" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H889" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I889" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J889" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K889" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L889" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="15">
+        <v>45912.443723668985</v>
+      </c>
+      <c r="B890" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C890" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D890" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E890" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F890" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G890" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H890" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I890" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J890" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K890" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L890" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="10">
+        <v>45913.364768576386</v>
+      </c>
+      <c r="B891" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C891" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D891" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E891" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F891" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G891" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H891" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I891" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J891" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K891" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L891" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="15">
+        <v>45913.36739195602</v>
+      </c>
+      <c r="B892" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C892" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D892" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E892" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F892" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G892" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H892" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I892" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J892" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K892" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L892" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="10">
+        <v>45913.37631221065</v>
+      </c>
+      <c r="B893" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C893" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D893" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E893" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F893" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G893" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H893" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I893" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J893" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K893" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L893" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="15">
+        <v>45913.38698834491</v>
+      </c>
+      <c r="B894" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C894" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D894" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E894" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F894" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G894" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H894" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I894" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J894" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K894" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L894" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="18">
+        <v>45913.39656903935</v>
+      </c>
+      <c r="B895" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C895" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D895" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E895" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F895" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G895" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H895" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I895" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J895" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K895" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="L895" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J972">
+  <conditionalFormatting sqref="J1:J995">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9706" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9866" uniqueCount="278">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -845,6 +845,9 @@
   <si>
     <t>Ni</t>
   </si>
+  <si>
+    <t>z</t>
+  </si>
 </sst>
 </file>
 
@@ -874,7 +877,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1035,10 +1038,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1046,13 +1049,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1060,27 +1063,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1090,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1152,9 +1141,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1225,7 +1211,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L895" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L910" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -35436,45 +35422,615 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" s="18">
+      <c r="A895" s="10">
         <v>45913.39656903935</v>
       </c>
-      <c r="B895" s="19" t="s">
+      <c r="B895" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C895" s="19" t="s">
+      <c r="C895" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D895" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E895" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F895" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G895" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H895" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I895" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J895" s="20" t="s">
+      <c r="D895" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E895" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F895" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G895" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H895" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I895" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J895" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K895" s="19" t="s">
+      <c r="K895" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="L895" s="21" t="s">
+      <c r="L895" s="14" t="s">
         <v>276</v>
       </c>
     </row>
+    <row r="896">
+      <c r="A896" s="15">
+        <v>45913.43432966435</v>
+      </c>
+      <c r="B896" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C896" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D896" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E896" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F896" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G896" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H896" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I896" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J896" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K896" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L896" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="10">
+        <v>45913.46775694445</v>
+      </c>
+      <c r="B897" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C897" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D897" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E897" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F897" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G897" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H897" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I897" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J897" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K897" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L897" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="15">
+        <v>45913.46802305555</v>
+      </c>
+      <c r="B898" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C898" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D898" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E898" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F898" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G898" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H898" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I898" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J898" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K898" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L898" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="10">
+        <v>45913.46900878473</v>
+      </c>
+      <c r="B899" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C899" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D899" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E899" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F899" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G899" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H899" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I899" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J899" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K899" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L899" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="15">
+        <v>45913.46901072917</v>
+      </c>
+      <c r="B900" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C900" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D900" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E900" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F900" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G900" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H900" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I900" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J900" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K900" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L900" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="10">
+        <v>45913.46979895834</v>
+      </c>
+      <c r="B901" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C901" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D901" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E901" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F901" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G901" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H901" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I901" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J901" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K901" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L901" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="15">
+        <v>45913.47594260417</v>
+      </c>
+      <c r="B902" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C902" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D902" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E902" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F902" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G902" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H902" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I902" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J902" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K902" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L902" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="10">
+        <v>45913.476751689814</v>
+      </c>
+      <c r="B903" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C903" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D903" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E903" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F903" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G903" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H903" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I903" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J903" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K903" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L903" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="15">
+        <v>45913.48063780092</v>
+      </c>
+      <c r="B904" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C904" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D904" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E904" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F904" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G904" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H904" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I904" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J904" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K904" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L904" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="10">
+        <v>45913.490731377315</v>
+      </c>
+      <c r="B905" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C905" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D905" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E905" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F905" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G905" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H905" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I905" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J905" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K905" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="L905" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="15">
+        <v>45913.49371876157</v>
+      </c>
+      <c r="B906" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C906" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D906" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E906" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F906" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G906" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H906" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I906" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J906" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K906" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L906" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="10">
+        <v>45913.49616841435</v>
+      </c>
+      <c r="B907" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C907" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D907" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E907" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F907" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G907" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H907" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I907" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J907" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K907" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L907" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="15">
+        <v>45913.5008391088</v>
+      </c>
+      <c r="B908" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C908" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D908" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E908" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F908" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G908" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H908" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I908" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J908" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K908" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L908" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="10">
+        <v>45913.53961944445</v>
+      </c>
+      <c r="B909" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C909" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D909" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E909" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F909" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G909" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H909" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I909" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J909" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K909" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L909" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="18">
+        <v>45914.35389997685</v>
+      </c>
+      <c r="B910" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C910" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D910" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E910" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F910" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G910" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H910" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I910" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J910" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K910" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L910" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J995">
+  <conditionalFormatting sqref="J1:J1010">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9866" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10105" uniqueCount="279">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -848,6 +848,9 @@
   <si>
     <t>z</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1211,7 +1214,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L910" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L932" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -35992,45 +35995,881 @@
       </c>
     </row>
     <row r="910">
-      <c r="A910" s="18">
+      <c r="A910" s="15">
         <v>45914.35389997685</v>
       </c>
-      <c r="B910" s="19" t="s">
+      <c r="B910" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C910" s="19" t="s">
+      <c r="C910" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D910" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E910" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F910" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G910" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H910" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I910" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J910" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K910" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L910" s="20">
+      <c r="D910" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E910" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F910" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G910" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H910" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I910" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J910" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K910" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L910" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="911">
+      <c r="A911" s="10">
+        <v>45915.467957175926</v>
+      </c>
+      <c r="B911" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C911" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D911" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E911" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F911" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G911" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H911" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I911" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J911" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K911" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L911" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="15">
+        <v>45915.62963555555</v>
+      </c>
+      <c r="B912" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C912" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D912" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E912" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F912" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G912" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H912" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I912" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J912" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K912" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L912" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="10">
+        <v>45916.27893635417</v>
+      </c>
+      <c r="B913" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C913" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D913" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E913" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F913" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G913" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H913" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I913" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J913" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K913" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L913" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="15">
+        <v>45916.29992875</v>
+      </c>
+      <c r="B914" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C914" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D914" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E914" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F914" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G914" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H914" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I914" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J914" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K914" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L914" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="10">
+        <v>45916.302656134256</v>
+      </c>
+      <c r="B915" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C915" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D915" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E915" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F915" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G915" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H915" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I915" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J915" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K915" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="L915" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="15">
+        <v>45916.305618425926</v>
+      </c>
+      <c r="B916" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C916" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D916" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E916" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F916" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G916" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H916" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I916" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J916" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K916" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L916" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="10">
+        <v>45916.306621932876</v>
+      </c>
+      <c r="B917" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C917" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D917" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E917" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F917" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G917" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H917" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I917" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J917" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K917" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L917" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="15">
+        <v>45916.33630829861</v>
+      </c>
+      <c r="B918" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C918" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D918" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E918" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F918" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G918" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H918" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I918" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J918" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K918" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L918" s="17">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="10">
+        <v>45916.3402487037</v>
+      </c>
+      <c r="B919" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C919" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D919" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E919" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F919" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G919" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H919" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I919" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J919" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K919" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L919" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="15">
+        <v>45916.38122758102</v>
+      </c>
+      <c r="B920" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C920" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D920" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E920" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F920" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G920" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H920" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I920" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J920" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K920" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L920" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="10">
+        <v>45916.38174894676</v>
+      </c>
+      <c r="B921" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C921" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D921" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E921" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F921" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G921" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H921" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I921" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J921" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K921" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L921" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="15">
+        <v>45916.38990221065</v>
+      </c>
+      <c r="B922" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C922" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D922" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E922" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F922" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G922" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H922" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I922" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J922" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K922" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L922" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="10">
+        <v>45916.390052256946</v>
+      </c>
+      <c r="B923" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C923" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D923" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E923" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F923" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G923" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H923" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I923" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J923" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K923" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L923" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="15">
+        <v>45916.390147881946</v>
+      </c>
+      <c r="B924" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C924" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D924" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E924" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F924" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G924" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H924" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I924" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J924" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K924" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L924" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="10">
+        <v>45916.390280300926</v>
+      </c>
+      <c r="B925" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C925" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D925" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E925" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F925" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G925" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H925" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I925" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J925" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K925" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="L925" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="15">
+        <v>45916.390538368054</v>
+      </c>
+      <c r="B926" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C926" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D926" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E926" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F926" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G926" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H926" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I926" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J926" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K926" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L926" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="10">
+        <v>45916.39064246528</v>
+      </c>
+      <c r="B927" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C927" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D927" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E927" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F927" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G927" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H927" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I927" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J927" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K927" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L927" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="15">
+        <v>45916.39069532407</v>
+      </c>
+      <c r="B928" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C928" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D928" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E928" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F928" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G928" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H928" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I928" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J928" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K928" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L928" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="10">
+        <v>45916.391054629625</v>
+      </c>
+      <c r="B929" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C929" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D929" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E929" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F929" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G929" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H929" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I929" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J929" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K929" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L929" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="15">
+        <v>45916.39368581018</v>
+      </c>
+      <c r="B930" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C930" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D930" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E930" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F930" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G930" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H930" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I930" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J930" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K930" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L930" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="10">
+        <v>45916.40353804398</v>
+      </c>
+      <c r="B931" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C931" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D931" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E931" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F931" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G931" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H931" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I931" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J931" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K931" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L931" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="18">
+        <v>45916.40629402778</v>
+      </c>
+      <c r="B932" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C932" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D932" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E932" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F932" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G932" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H932" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I932" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J932" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K932" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L932" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1010">
+  <conditionalFormatting sqref="J1:J1032">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10105" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10160" uniqueCount="280">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -851,6 +851,9 @@
   <si>
     <t>2 muslo derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>4 rodilla izquierda, 10 isquiotibial derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -880,7 +883,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -1041,10 +1044,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1052,13 +1055,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1066,13 +1069,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1082,7 +1099,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1144,6 +1161,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1214,7 +1234,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L932" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L937" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -36831,45 +36851,235 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" s="18">
+      <c r="A932" s="15">
         <v>45916.40629402778</v>
       </c>
-      <c r="B932" s="19" t="s">
+      <c r="B932" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C932" s="19" t="s">
+      <c r="C932" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D932" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E932" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F932" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G932" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H932" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I932" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J932" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K932" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L932" s="20">
+      <c r="D932" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E932" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F932" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G932" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H932" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I932" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J932" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K932" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L932" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="933">
+      <c r="A933" s="10">
+        <v>45916.4088940625</v>
+      </c>
+      <c r="B933" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C933" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D933" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E933" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F933" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G933" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H933" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I933" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J933" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K933" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L933" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="15">
+        <v>45917.30981200231</v>
+      </c>
+      <c r="B934" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C934" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D934" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E934" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F934" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G934" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H934" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I934" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J934" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K934" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L934" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="10">
+        <v>45917.39474491898</v>
+      </c>
+      <c r="B935" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C935" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D935" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E935" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F935" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G935" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H935" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I935" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J935" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K935" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L935" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="15">
+        <v>45917.396809768514</v>
+      </c>
+      <c r="B936" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C936" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D936" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E936" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F936" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G936" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H936" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I936" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J936" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K936" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="L936" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="18">
+        <v>45917.40602846065</v>
+      </c>
+      <c r="B937" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C937" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D937" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E937" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F937" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G937" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H937" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I937" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J937" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K937" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L937" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1032">
+  <conditionalFormatting sqref="J1:J1037">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10160" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10343" uniqueCount="282">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -854,6 +854,12 @@
   <si>
     <t>4 rodilla izquierda, 10 isquiotibial derecho</t>
   </si>
+  <si>
+    <t>Annia</t>
+  </si>
+  <si>
+    <t>8 tobillo izquierdo, 10 isquiotibial derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1044,10 +1050,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1055,13 +1061,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1083,13 +1089,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1234,7 +1240,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L937" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L954" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -37041,45 +37047,691 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" s="18">
+      <c r="A937" s="10">
         <v>45917.40602846065</v>
       </c>
-      <c r="B937" s="19" t="s">
+      <c r="B937" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C937" s="19" t="s">
+      <c r="C937" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D937" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E937" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F937" s="19" t="s">
+      <c r="D937" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E937" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F937" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G937" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H937" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I937" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J937" s="20" t="s">
+      <c r="G937" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H937" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I937" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J937" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K937" s="19" t="s">
+      <c r="K937" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="L937" s="21" t="s">
+      <c r="L937" s="14" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="938">
+      <c r="A938" s="15">
+        <v>45917.41021236111</v>
+      </c>
+      <c r="B938" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C938" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D938" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E938" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F938" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G938" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H938" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I938" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J938" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K938" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L938" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="10">
+        <v>45917.415381643514</v>
+      </c>
+      <c r="B939" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C939" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D939" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E939" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F939" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G939" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H939" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I939" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J939" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K939" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L939" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="15">
+        <v>45917.415562546295</v>
+      </c>
+      <c r="B940" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C940" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D940" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E940" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F940" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G940" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H940" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I940" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J940" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K940" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L940" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="10">
+        <v>45917.415570625</v>
+      </c>
+      <c r="B941" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C941" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D941" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E941" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F941" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G941" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H941" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I941" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J941" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K941" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L941" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="15">
+        <v>45917.4157225</v>
+      </c>
+      <c r="B942" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C942" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D942" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E942" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F942" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G942" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H942" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I942" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J942" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K942" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L942" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="10">
+        <v>45917.416573333336</v>
+      </c>
+      <c r="B943" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C943" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D943" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E943" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F943" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G943" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H943" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I943" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J943" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K943" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="L943" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="15">
+        <v>45917.41805467593</v>
+      </c>
+      <c r="B944" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C944" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D944" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E944" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F944" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G944" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H944" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I944" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J944" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K944" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L944" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="10">
+        <v>45917.41874175926</v>
+      </c>
+      <c r="B945" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C945" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D945" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E945" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F945" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G945" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H945" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I945" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J945" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K945" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L945" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="15">
+        <v>45917.419089421295</v>
+      </c>
+      <c r="B946" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C946" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D946" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E946" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F946" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G946" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H946" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I946" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J946" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K946" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L946" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="10">
+        <v>45917.419218090276</v>
+      </c>
+      <c r="B947" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C947" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D947" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E947" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F947" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G947" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H947" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I947" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J947" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K947" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L947" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="15">
+        <v>45917.42296488426</v>
+      </c>
+      <c r="B948" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C948" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D948" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E948" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F948" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G948" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H948" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I948" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J948" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K948" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="L948" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="10">
+        <v>45917.42300601852</v>
+      </c>
+      <c r="B949" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C949" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D949" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E949" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F949" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G949" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H949" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I949" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J949" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K949" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L949" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="15">
+        <v>45917.42424049768</v>
+      </c>
+      <c r="B950" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C950" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D950" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E950" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F950" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G950" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H950" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I950" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J950" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K950" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L950" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="10">
+        <v>45917.42770885417</v>
+      </c>
+      <c r="B951" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C951" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D951" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E951" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F951" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G951" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H951" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I951" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J951" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K951" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L951" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="15">
+        <v>45917.435678009264</v>
+      </c>
+      <c r="B952" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C952" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D952" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E952" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F952" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G952" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H952" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I952" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J952" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K952" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L952" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="10">
+        <v>45917.44503253472</v>
+      </c>
+      <c r="B953" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C953" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D953" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E953" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F953" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G953" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H953" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I953" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J953" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K953" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L953" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="18">
+        <v>45917.45211370371</v>
+      </c>
+      <c r="B954" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C954" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D954" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E954" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F954" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G954" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H954" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I954" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J954" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K954" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L954" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1037">
+  <conditionalFormatting sqref="J1:J1054">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10343" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10417" uniqueCount="284">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -860,6 +860,12 @@
   <si>
     <t>8 tobillo izquierdo, 10 isquiotibial derecho</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 9 Isquiotibial izquierdo, 15 espalda baja, 22 gluteo izquierdo, 23 gluteo derecho, 24 aquiles</t>
+  </si>
+  <si>
+    <t>13 pantorrilla izquierda, 22 gluteo izquierdo</t>
+  </si>
 </sst>
 </file>
 
@@ -1050,10 +1056,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1061,13 +1067,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1089,13 +1095,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1240,7 +1246,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L954" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L961" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -37693,45 +37699,311 @@
       </c>
     </row>
     <row r="954">
-      <c r="A954" s="18">
+      <c r="A954" s="15">
         <v>45917.45211370371</v>
       </c>
-      <c r="B954" s="19" t="s">
+      <c r="B954" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C954" s="19" t="s">
+      <c r="C954" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D954" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E954" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F954" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G954" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H954" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I954" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J954" s="20" t="s">
+      <c r="D954" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E954" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F954" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G954" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H954" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I954" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J954" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K954" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L954" s="21">
+      <c r="K954" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L954" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="955">
+      <c r="A955" s="10">
+        <v>45918.43834245371</v>
+      </c>
+      <c r="B955" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C955" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D955" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E955" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F955" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G955" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H955" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I955" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J955" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K955" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L955" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="15">
+        <v>45919.39344738426</v>
+      </c>
+      <c r="B956" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C956" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D956" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E956" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F956" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G956" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H956" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I956" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J956" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K956" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="L956" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="10">
+        <v>45919.3937941551</v>
+      </c>
+      <c r="B957" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C957" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D957" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E957" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F957" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G957" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H957" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I957" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J957" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K957" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L957" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="15">
+        <v>45919.39442372685</v>
+      </c>
+      <c r="B958" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C958" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D958" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E958" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F958" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G958" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H958" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I958" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J958" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K958" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L958" s="17">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="10">
+        <v>45919.39516252315</v>
+      </c>
+      <c r="B959" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C959" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D959" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E959" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F959" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G959" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H959" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I959" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J959" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K959" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L959" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="15">
+        <v>45919.397948032405</v>
+      </c>
+      <c r="B960" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C960" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D960" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E960" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F960" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G960" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H960" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I960" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J960" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K960" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L960" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="18">
+        <v>45919.403969618055</v>
+      </c>
+      <c r="B961" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C961" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D961" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E961" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F961" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G961" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H961" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I961" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J961" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K961" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="L961" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1054">
+  <conditionalFormatting sqref="J1:J1061">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10417" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10720" uniqueCount="289">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -866,6 +866,21 @@
   <si>
     <t>13 pantorrilla izquierda, 22 gluteo izquierdo</t>
   </si>
+  <si>
+    <t xml:space="preserve">3er </t>
+  </si>
+  <si>
+    <t>2 muslo derecho, 9 Isquiotibial izquierdo, 22 gluteo izquierdo, 23 gluteo derecho, 24 aquiles</t>
+  </si>
+  <si>
+    <t>Tercera</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 13 pantorrilla izquierda, 22 gluteo izquierdo</t>
+  </si>
+  <si>
+    <t>3 rodilla derecha, 4 rodilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -895,7 +910,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1081,20 +1096,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
@@ -1111,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1173,9 +1174,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1246,7 +1244,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L961" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L989" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -37965,45 +37963,1109 @@
       </c>
     </row>
     <row r="961">
-      <c r="A961" s="18">
+      <c r="A961" s="10">
         <v>45919.403969618055</v>
       </c>
-      <c r="B961" s="19" t="s">
+      <c r="B961" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C961" s="19" t="s">
+      <c r="C961" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D961" s="19" t="s">
+      <c r="D961" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E961" s="19" t="s">
+      <c r="E961" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F961" s="19" t="s">
+      <c r="F961" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G961" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H961" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I961" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J961" s="20" t="s">
+      <c r="G961" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H961" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I961" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J961" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K961" s="19" t="s">
+      <c r="K961" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="L961" s="21" t="s">
-        <v>18</v>
+      <c r="L961" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="15">
+        <v>45919.41346835648</v>
+      </c>
+      <c r="B962" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C962" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D962" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E962" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F962" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G962" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H962" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I962" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J962" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K962" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L962" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="10">
+        <v>45919.41557693287</v>
+      </c>
+      <c r="B963" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C963" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D963" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E963" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F963" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G963" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H963" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I963" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J963" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K963" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L963" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="15">
+        <v>45919.43924241899</v>
+      </c>
+      <c r="B964" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C964" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D964" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E964" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F964" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G964" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H964" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I964" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J964" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K964" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L964" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="10">
+        <v>45919.47019141204</v>
+      </c>
+      <c r="B965" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C965" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D965" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E965" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F965" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G965" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H965" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I965" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J965" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K965" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L965" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="15">
+        <v>45919.48800369213</v>
+      </c>
+      <c r="B966" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C966" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D966" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E966" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F966" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G966" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H966" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I966" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J966" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K966" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L966" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="10">
+        <v>45919.501211932875</v>
+      </c>
+      <c r="B967" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C967" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D967" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E967" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F967" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G967" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H967" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I967" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J967" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K967" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L967" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="15">
+        <v>45919.5021859838</v>
+      </c>
+      <c r="B968" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C968" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D968" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E968" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F968" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G968" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H968" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I968" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J968" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K968" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L968" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="10">
+        <v>45919.50328524306</v>
+      </c>
+      <c r="B969" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C969" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D969" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E969" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F969" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G969" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H969" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I969" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J969" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K969" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L969" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="15">
+        <v>45919.55431232639</v>
+      </c>
+      <c r="B970" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C970" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D970" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E970" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F970" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G970" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H970" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I970" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J970" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K970" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L970" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="10">
+        <v>45920.31190052083</v>
+      </c>
+      <c r="B971" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C971" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D971" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E971" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F971" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G971" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H971" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I971" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J971" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K971" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L971" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="15">
+        <v>45920.31320337963</v>
+      </c>
+      <c r="B972" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C972" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D972" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E972" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F972" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G972" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H972" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I972" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J972" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K972" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L972" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="10">
+        <v>45920.315965925925</v>
+      </c>
+      <c r="B973" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C973" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D973" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E973" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F973" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G973" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H973" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I973" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J973" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K973" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L973" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="15">
+        <v>45920.331418877315</v>
+      </c>
+      <c r="B974" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C974" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D974" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E974" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F974" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G974" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H974" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I974" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J974" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K974" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="L974" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="10">
+        <v>45920.3339547338</v>
+      </c>
+      <c r="B975" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C975" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D975" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E975" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F975" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G975" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H975" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I975" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J975" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K975" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L975" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="15">
+        <v>45920.335165625</v>
+      </c>
+      <c r="B976" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C976" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D976" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E976" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F976" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G976" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H976" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I976" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J976" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K976" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L976" s="17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="10">
+        <v>45920.342682291666</v>
+      </c>
+      <c r="B977" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C977" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D977" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E977" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F977" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G977" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H977" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I977" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J977" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K977" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L977" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="15">
+        <v>45920.3486543287</v>
+      </c>
+      <c r="B978" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C978" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D978" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E978" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F978" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G978" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H978" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I978" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J978" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K978" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L978" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="10">
+        <v>45920.349038518514</v>
+      </c>
+      <c r="B979" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C979" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D979" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E979" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F979" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G979" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H979" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I979" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J979" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K979" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L979" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="15">
+        <v>45920.34967710648</v>
+      </c>
+      <c r="B980" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C980" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D980" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E980" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F980" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G980" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H980" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I980" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J980" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K980" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L980" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="10">
+        <v>45920.35065934028</v>
+      </c>
+      <c r="B981" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C981" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D981" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E981" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F981" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G981" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H981" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I981" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J981" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K981" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L981" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="15">
+        <v>45920.35127425926</v>
+      </c>
+      <c r="B982" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C982" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D982" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E982" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F982" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G982" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H982" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I982" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J982" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K982" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L982" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="10">
+        <v>45920.35305799769</v>
+      </c>
+      <c r="B983" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C983" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D983" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E983" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F983" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G983" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H983" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I983" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J983" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K983" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L983" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="15">
+        <v>45920.35462895833</v>
+      </c>
+      <c r="B984" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C984" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D984" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E984" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F984" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G984" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H984" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I984" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J984" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K984" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L984" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="10">
+        <v>45920.35549461805</v>
+      </c>
+      <c r="B985" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C985" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D985" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E985" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F985" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G985" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H985" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I985" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J985" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K985" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L985" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="15">
+        <v>45920.35650866898</v>
+      </c>
+      <c r="B986" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C986" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D986" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E986" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F986" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G986" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H986" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I986" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J986" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K986" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="L986" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="10">
+        <v>45920.35832532408</v>
+      </c>
+      <c r="B987" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C987" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D987" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E987" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F987" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G987" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H987" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I987" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J987" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K987" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L987" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="15">
+        <v>45920.36027943287</v>
+      </c>
+      <c r="B988" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C988" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D988" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E988" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F988" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G988" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H988" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I988" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J988" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K988" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L988" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="18">
+        <v>45920.36523231481</v>
+      </c>
+      <c r="B989" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C989" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D989" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E989" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F989" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G989" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H989" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I989" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J989" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K989" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L989" s="20">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1061">
+  <conditionalFormatting sqref="J1:J1089">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10720" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10905" uniqueCount="293">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -881,6 +881,18 @@
   <si>
     <t>3 rodilla derecha, 4 rodilla izquierda</t>
   </si>
+  <si>
+    <t>17 aductor izquierdo, 18 aductor derecho, 19 hombro derecho, 20 hombro izquierdo</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 22 gluteo izquierdo</t>
+  </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda, 12 parte trasera de la rodilla derecha, 24 aquiles</t>
+  </si>
+  <si>
+    <t>4to</t>
+  </si>
 </sst>
 </file>
 
@@ -1071,10 +1083,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1082,13 +1094,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1096,13 +1108,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1244,7 +1256,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L989" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1006" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -39027,45 +39039,691 @@
       </c>
     </row>
     <row r="989">
-      <c r="A989" s="18">
+      <c r="A989" s="10">
         <v>45920.36523231481</v>
       </c>
-      <c r="B989" s="19" t="s">
+      <c r="B989" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C989" s="19" t="s">
+      <c r="C989" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D989" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E989" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F989" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G989" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H989" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I989" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J989" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K989" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L989" s="20">
+      <c r="D989" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E989" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F989" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G989" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H989" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I989" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J989" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K989" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L989" s="14">
         <v>0.0</v>
       </c>
     </row>
+    <row r="990">
+      <c r="A990" s="15">
+        <v>45921.338829699074</v>
+      </c>
+      <c r="B990" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C990" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D990" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E990" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F990" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G990" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H990" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I990" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J990" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K990" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L990" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="10">
+        <v>45921.34422005787</v>
+      </c>
+      <c r="B991" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C991" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D991" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E991" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F991" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G991" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H991" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I991" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J991" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K991" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L991" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="15">
+        <v>45921.34542474537</v>
+      </c>
+      <c r="B992" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C992" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D992" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E992" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F992" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G992" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H992" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I992" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J992" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K992" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L992" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="10">
+        <v>45921.3483302199</v>
+      </c>
+      <c r="B993" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C993" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D993" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E993" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F993" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G993" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H993" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I993" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J993" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K993" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L993" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="15">
+        <v>45921.349042754635</v>
+      </c>
+      <c r="B994" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C994" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D994" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E994" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F994" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G994" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H994" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I994" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J994" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K994" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L994" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="10">
+        <v>45921.34919653935</v>
+      </c>
+      <c r="B995" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C995" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D995" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E995" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F995" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G995" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H995" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I995" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J995" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K995" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L995" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="15">
+        <v>45921.34936396991</v>
+      </c>
+      <c r="B996" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C996" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D996" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E996" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F996" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G996" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H996" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I996" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J996" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K996" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="L996" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="10">
+        <v>45921.349819780095</v>
+      </c>
+      <c r="B997" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C997" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D997" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E997" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F997" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G997" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H997" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I997" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J997" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K997" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="L997" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="15">
+        <v>45921.350710659724</v>
+      </c>
+      <c r="B998" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C998" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D998" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E998" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F998" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G998" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H998" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I998" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J998" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K998" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L998" s="17">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="10">
+        <v>45921.35273615741</v>
+      </c>
+      <c r="B999" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C999" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D999" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E999" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F999" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G999" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H999" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I999" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J999" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K999" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L999" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="15">
+        <v>45921.35290677083</v>
+      </c>
+      <c r="B1000" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1000" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1000" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1000" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1000" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1000" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1000" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1000" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1000" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1000" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1000" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="10">
+        <v>45921.3614825</v>
+      </c>
+      <c r="B1001" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1001" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1001" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1001" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1001" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1001" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1001" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1001" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1001" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1001" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1001" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="15">
+        <v>45921.3624528125</v>
+      </c>
+      <c r="B1002" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1002" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1002" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1002" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1002" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1002" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1002" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1002" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1002" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1002" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1002" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="10">
+        <v>45921.363513634264</v>
+      </c>
+      <c r="B1003" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1003" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1003" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1003" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1003" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1003" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1003" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1003" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1003" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1003" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1003" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="15">
+        <v>45921.36578126157</v>
+      </c>
+      <c r="B1004" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1004" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1004" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1004" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1004" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1004" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1004" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1004" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1004" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1004" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1004" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="10">
+        <v>45921.368244212965</v>
+      </c>
+      <c r="B1005" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1005" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1005" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1005" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1005" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1005" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1005" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1005" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1005" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1005" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1005" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="18">
+        <v>45921.38030682871</v>
+      </c>
+      <c r="B1006" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1006" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1006" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1006" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1006" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1006" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1006" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1006" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1006" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1006" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1006" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1089">
+  <conditionalFormatting sqref="J1:J1106">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10905" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10916" uniqueCount="293">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -922,7 +922,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -1083,10 +1083,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1094,13 +1094,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1108,13 +1108,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1124,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1186,6 +1200,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1256,7 +1273,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1006" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1007" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -39685,45 +39702,83 @@
       </c>
     </row>
     <row r="1006">
-      <c r="A1006" s="18">
+      <c r="A1006" s="15">
         <v>45921.38030682871</v>
       </c>
-      <c r="B1006" s="19" t="s">
+      <c r="B1006" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C1006" s="19" t="s">
+      <c r="C1006" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D1006" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1006" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1006" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1006" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1006" s="19" t="s">
+      <c r="D1006" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1006" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1006" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1006" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1006" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I1006" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1006" s="19" t="s">
+      <c r="I1006" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1006" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K1006" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1006" s="20" t="s">
+      <c r="K1006" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1006" s="17" t="s">
         <v>292</v>
       </c>
     </row>
+    <row r="1007">
+      <c r="A1007" s="18">
+        <v>45923.40088540509</v>
+      </c>
+      <c r="B1007" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1007" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1007" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1007" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1007" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1007" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1007" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1007" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1007" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1007" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1007" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1106">
+  <conditionalFormatting sqref="J1:J1107">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10916" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11237" uniqueCount="298">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -893,6 +893,21 @@
   <si>
     <t>4to</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 22 gluteo izquierdo</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>2 muslo derecho, 11 parte trasera de la rodilla izquierda, 12 parte trasera de la rodilla derecha, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 16 espalda</t>
+  </si>
+  <si>
+    <t>8 tobillo izquierdo, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1273,7 +1288,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1007" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1037" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -39740,45 +39755,1185 @@
       </c>
     </row>
     <row r="1007">
-      <c r="A1007" s="18">
+      <c r="A1007" s="10">
         <v>45923.40088540509</v>
       </c>
-      <c r="B1007" s="19" t="s">
+      <c r="B1007" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C1007" s="19" t="s">
+      <c r="C1007" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1007" s="19" t="s">
+      <c r="D1007" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E1007" s="19" t="s">
+      <c r="E1007" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F1007" s="19" t="s">
+      <c r="F1007" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G1007" s="19" t="s">
+      <c r="G1007" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H1007" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1007" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1007" s="20" t="s">
+      <c r="H1007" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1007" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1007" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1007" s="19" t="s">
+      <c r="K1007" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L1007" s="21" t="s">
-        <v>18</v>
+      <c r="L1007" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="15">
+        <v>45923.418047534724</v>
+      </c>
+      <c r="B1008" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1008" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1008" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1008" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1008" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1008" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1008" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1008" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1008" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1008" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1008" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="10">
+        <v>45923.43336821759</v>
+      </c>
+      <c r="B1009" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1009" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1009" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1009" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1009" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1009" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1009" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1009" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1009" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1009" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1009" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="15">
+        <v>45923.47259513889</v>
+      </c>
+      <c r="B1010" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1010" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1010" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1010" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1010" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1010" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1010" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1010" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1010" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1010" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1010" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="10">
+        <v>45923.48289039352</v>
+      </c>
+      <c r="B1011" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1011" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1011" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1011" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1011" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1011" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1011" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1011" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1011" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1011" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1011" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="15">
+        <v>45923.48292444444</v>
+      </c>
+      <c r="B1012" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1012" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1012" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1012" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1012" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1012" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1012" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1012" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1012" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1012" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1012" s="17">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="10">
+        <v>45923.483320590276</v>
+      </c>
+      <c r="B1013" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1013" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1013" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1013" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1013" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1013" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1013" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1013" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1013" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1013" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1013" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="15">
+        <v>45923.483903113425</v>
+      </c>
+      <c r="B1014" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1014" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1014" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1014" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1014" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1014" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1014" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1014" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1014" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1014" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="L1014" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="10">
+        <v>45923.485057847225</v>
+      </c>
+      <c r="B1015" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1015" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1015" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1015" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1015" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1015" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1015" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1015" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1015" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1015" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1015" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="15">
+        <v>45923.489642291664</v>
+      </c>
+      <c r="B1016" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1016" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1016" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1016" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1016" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1016" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1016" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1016" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1016" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1016" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1016" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="10">
+        <v>45923.49131831019</v>
+      </c>
+      <c r="B1017" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1017" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1017" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1017" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1017" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1017" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1017" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1017" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1017" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1017" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1017" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="15">
+        <v>45923.49326378472</v>
+      </c>
+      <c r="B1018" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1018" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1018" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1018" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1018" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1018" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1018" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1018" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1018" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1018" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1018" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="10">
+        <v>45923.500166365746</v>
+      </c>
+      <c r="B1019" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1019" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1019" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1019" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1019" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1019" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1019" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1019" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1019" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1019" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1019" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="15">
+        <v>45923.50670056713</v>
+      </c>
+      <c r="B1020" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1020" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1020" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1020" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1020" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1020" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1020" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1020" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1020" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1020" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1020" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="10">
+        <v>45924.314461898146</v>
+      </c>
+      <c r="B1021" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1021" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1021" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1021" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1021" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1021" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1021" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1021" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1021" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1021" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1021" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="15">
+        <v>45924.33523662037</v>
+      </c>
+      <c r="B1022" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1022" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1022" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1022" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1022" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1022" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1022" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1022" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1022" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1022" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1022" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="10">
+        <v>45924.339786909724</v>
+      </c>
+      <c r="B1023" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1023" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1023" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1023" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1023" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1023" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1023" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1023" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1023" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1023" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1023" s="14">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="15">
+        <v>45924.346291064816</v>
+      </c>
+      <c r="B1024" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1024" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1024" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1024" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1024" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1024" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1024" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1024" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1024" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1024" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1024" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="10">
+        <v>45924.355123113426</v>
+      </c>
+      <c r="B1025" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1025" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1025" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1025" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1025" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1025" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1025" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1025" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1025" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1025" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1025" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="15">
+        <v>45924.35638755787</v>
+      </c>
+      <c r="B1026" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1026" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1026" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1026" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1026" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1026" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1026" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1026" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1026" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1026" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1026" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="10">
+        <v>45924.35852101852</v>
+      </c>
+      <c r="B1027" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1027" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1027" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1027" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1027" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1027" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1027" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1027" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1027" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1027" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1027" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="15">
+        <v>45924.3590209838</v>
+      </c>
+      <c r="B1028" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1028" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1028" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1028" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1028" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1028" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1028" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1028" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1028" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1028" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1028" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="10">
+        <v>45924.365097766204</v>
+      </c>
+      <c r="B1029" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1029" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1029" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1029" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1029" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1029" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1029" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1029" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1029" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1029" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1029" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="15">
+        <v>45924.36765731481</v>
+      </c>
+      <c r="B1030" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1030" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1030" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1030" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1030" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1030" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1030" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1030" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1030" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1030" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1030" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="10">
+        <v>45924.367777974534</v>
+      </c>
+      <c r="B1031" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1031" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1031" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1031" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1031" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1031" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1031" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1031" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1031" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1031" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1031" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="15">
+        <v>45924.36794564815</v>
+      </c>
+      <c r="B1032" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1032" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1032" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1032" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1032" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1032" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1032" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1032" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1032" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1032" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1032" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="10">
+        <v>45924.368331875</v>
+      </c>
+      <c r="B1033" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1033" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1033" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1033" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1033" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1033" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1033" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1033" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1033" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1033" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1033" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="15">
+        <v>45924.36974328704</v>
+      </c>
+      <c r="B1034" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1034" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1034" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1034" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1034" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1034" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1034" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1034" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1034" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1034" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="L1034" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="10">
+        <v>45924.370804895836</v>
+      </c>
+      <c r="B1035" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1035" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1035" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1035" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1035" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1035" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1035" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1035" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1035" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1035" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1035" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="15">
+        <v>45924.37332760417</v>
+      </c>
+      <c r="B1036" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1036" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1036" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1036" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1036" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1036" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1036" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1036" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1036" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1036" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1036" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="18">
+        <v>45924.37406634259</v>
+      </c>
+      <c r="B1037" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1037" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1037" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1037" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1037" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1037" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1037" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1037" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1037" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1037" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1037" s="21">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1107">
+  <conditionalFormatting sqref="J1:J1137">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11237" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11452" uniqueCount="301">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -908,6 +908,15 @@
   <si>
     <t>8 tobillo izquierdo, 22 gluteo izquierdo, 23 gluteo derecho</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha, 24 aquiles</t>
+  </si>
+  <si>
+    <t>8 tobillo izquierdo, 17 aductor izquierdo, 18 aductor derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -937,7 +946,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1123,20 +1132,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
@@ -1153,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1215,9 +1210,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1288,7 +1280,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1037" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1057" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -40895,45 +40887,805 @@
       </c>
     </row>
     <row r="1037">
-      <c r="A1037" s="18">
+      <c r="A1037" s="10">
         <v>45924.37406634259</v>
       </c>
-      <c r="B1037" s="19" t="s">
+      <c r="B1037" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1037" s="19" t="s">
+      <c r="C1037" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1037" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1037" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1037" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1037" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1037" s="19" t="s">
+      <c r="D1037" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1037" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1037" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1037" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1037" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I1037" s="19" t="s">
+      <c r="I1037" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J1037" s="20" t="s">
+      <c r="J1037" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1037" s="19" t="s">
+      <c r="K1037" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="L1037" s="21">
+      <c r="L1037" s="14">
         <v>2.0</v>
       </c>
     </row>
+    <row r="1038">
+      <c r="A1038" s="15">
+        <v>45925.32639232639</v>
+      </c>
+      <c r="B1038" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1038" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1038" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1038" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1038" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1038" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1038" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1038" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1038" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1038" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1038" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="10">
+        <v>45925.34630819444</v>
+      </c>
+      <c r="B1039" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1039" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1039" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1039" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1039" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1039" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1039" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1039" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1039" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1039" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1039" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="15">
+        <v>45925.349528425926</v>
+      </c>
+      <c r="B1040" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1040" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1040" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1040" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1040" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1040" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1040" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1040" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1040" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1040" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1040" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="10">
+        <v>45925.35015025463</v>
+      </c>
+      <c r="B1041" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1041" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1041" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1041" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1041" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1041" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1041" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1041" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1041" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1041" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1041" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="15">
+        <v>45925.35042270833</v>
+      </c>
+      <c r="B1042" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1042" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1042" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1042" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1042" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1042" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1042" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1042" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1042" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1042" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1042" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="10">
+        <v>45925.35047672453</v>
+      </c>
+      <c r="B1043" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1043" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1043" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1043" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1043" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1043" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1043" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1043" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1043" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1043" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="L1043" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="15">
+        <v>45925.35077804398</v>
+      </c>
+      <c r="B1044" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1044" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1044" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1044" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1044" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1044" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1044" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1044" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1044" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1044" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1044" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="10">
+        <v>45925.35128392361</v>
+      </c>
+      <c r="B1045" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1045" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1045" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1045" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1045" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1045" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1045" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1045" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1045" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1045" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1045" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="15">
+        <v>45925.35377613426</v>
+      </c>
+      <c r="B1046" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1046" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1046" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1046" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1046" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1046" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1046" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1046" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1046" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1046" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1046" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="10">
+        <v>45925.35381689815</v>
+      </c>
+      <c r="B1047" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1047" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1047" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1047" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1047" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1047" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1047" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1047" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1047" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1047" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1047" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="15">
+        <v>45925.35392491898</v>
+      </c>
+      <c r="B1048" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1048" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1048" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1048" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1048" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1048" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1048" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1048" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1048" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1048" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1048" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="10">
+        <v>45925.354153611115</v>
+      </c>
+      <c r="B1049" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1049" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1049" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1049" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1049" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1049" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1049" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1049" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1049" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1049" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1049" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="15">
+        <v>45925.355961180554</v>
+      </c>
+      <c r="B1050" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1050" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1050" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1050" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1050" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1050" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1050" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1050" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1050" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1050" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1050" s="17">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="10">
+        <v>45925.35843446759</v>
+      </c>
+      <c r="B1051" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1051" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1051" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1051" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1051" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1051" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1051" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1051" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1051" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1051" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1051" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="15">
+        <v>45925.35903975695</v>
+      </c>
+      <c r="B1052" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1052" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1052" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1052" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1052" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1052" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1052" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1052" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1052" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1052" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1052" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="10">
+        <v>45925.36125153935</v>
+      </c>
+      <c r="B1053" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1053" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1053" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1053" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1053" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1053" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1053" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1053" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1053" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1053" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="L1053" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="15">
+        <v>45925.361372175925</v>
+      </c>
+      <c r="B1054" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1054" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1054" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1054" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1054" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1054" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1054" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1054" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1054" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1054" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1054" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="10">
+        <v>45925.37037929398</v>
+      </c>
+      <c r="B1055" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1055" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1055" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1055" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1055" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1055" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1055" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1055" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1055" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1055" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1055" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="15">
+        <v>45925.373660509256</v>
+      </c>
+      <c r="B1056" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1056" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1056" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1056" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1056" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1056" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1056" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1056" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1056" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1056" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1056" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="18">
+        <v>45925.38276407408</v>
+      </c>
+      <c r="B1057" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1057" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1057" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1057" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1057" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1057" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1057" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1057" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1057" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1057" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1057" s="20">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1137">
+  <conditionalFormatting sqref="J1:J1157">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11452" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11773" uniqueCount="306">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -917,6 +917,21 @@
   <si>
     <t>8 tobillo izquierdo, 17 aductor izquierdo, 18 aductor derecho</t>
   </si>
+  <si>
+    <t>5 espinilla derecha, 6 espinilla izquierda, 13 pantorrilla izquierda, 14 pantorrilla derecha, 19 hombro derecho, 20 hombro izquierdo</t>
+  </si>
+  <si>
+    <t>8 tobillo izquierdo, 16 espalda, 17 aductor izquierdo, 18 aductor derecho</t>
+  </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha, 21 Plantas de los pies o empeine, 24 aquiles</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 13 pantorrilla izquierda, 14 pantorrilla derecha, 22 gluteo izquierdo</t>
+  </si>
+  <si>
+    <t>5 espinilla derecha, 6 espinilla izquierda, 13 pantorrilla izquierda, 14 pantorrilla derecha, 16 espalda</t>
+  </si>
 </sst>
 </file>
 
@@ -946,7 +961,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -1132,6 +1147,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
@@ -1148,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1210,6 +1239,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1280,7 +1312,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1057" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1087" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -41647,45 +41679,1185 @@
       </c>
     </row>
     <row r="1057">
-      <c r="A1057" s="18">
+      <c r="A1057" s="10">
         <v>45925.38276407408</v>
       </c>
-      <c r="B1057" s="19" t="s">
+      <c r="B1057" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1057" s="19" t="s">
+      <c r="C1057" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D1057" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1057" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1057" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1057" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1057" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1057" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1057" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1057" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1057" s="20">
+      <c r="D1057" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1057" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1057" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1057" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1057" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1057" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1057" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1057" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1057" s="14">
         <v>0.0</v>
       </c>
     </row>
+    <row r="1058">
+      <c r="A1058" s="15">
+        <v>45927.46023241898</v>
+      </c>
+      <c r="B1058" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1058" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1058" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1058" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1058" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1058" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1058" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1058" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1058" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1058" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1058" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="10">
+        <v>45927.63901561343</v>
+      </c>
+      <c r="B1059" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1059" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1059" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1059" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1059" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1059" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1059" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1059" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1059" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1059" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1059" s="14">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="15">
+        <v>45927.640211238424</v>
+      </c>
+      <c r="B1060" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1060" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1060" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1060" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1060" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1060" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1060" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1060" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1060" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1060" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1060" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="10">
+        <v>45927.640453263884</v>
+      </c>
+      <c r="B1061" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1061" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1061" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1061" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1061" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1061" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1061" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1061" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1061" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1061" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1061" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="15">
+        <v>45927.641258738426</v>
+      </c>
+      <c r="B1062" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1062" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1062" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1062" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1062" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1062" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1062" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1062" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1062" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1062" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1062" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="10">
+        <v>45927.641333506945</v>
+      </c>
+      <c r="B1063" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1063" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1063" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1063" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1063" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1063" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1063" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1063" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1063" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1063" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1063" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="15">
+        <v>45927.641396562496</v>
+      </c>
+      <c r="B1064" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1064" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1064" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1064" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1064" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1064" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1064" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1064" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1064" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1064" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1064" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="10">
+        <v>45927.64275128472</v>
+      </c>
+      <c r="B1065" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1065" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1065" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1065" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1065" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1065" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1065" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1065" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1065" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1065" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1065" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="15">
+        <v>45927.65464396991</v>
+      </c>
+      <c r="B1066" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1066" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1066" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1066" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1066" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1066" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1066" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1066" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1066" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1066" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1066" s="17">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="10">
+        <v>45928.35414553241</v>
+      </c>
+      <c r="B1067" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1067" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1067" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1067" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1067" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1067" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1067" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1067" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1067" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1067" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1067" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="15">
+        <v>45928.36158534722</v>
+      </c>
+      <c r="B1068" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1068" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1068" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1068" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1068" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1068" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1068" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1068" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1068" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1068" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1068" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="10">
+        <v>45928.363141712965</v>
+      </c>
+      <c r="B1069" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1069" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1069" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1069" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1069" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1069" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1069" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1069" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1069" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1069" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1069" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="15">
+        <v>45928.366190381945</v>
+      </c>
+      <c r="B1070" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1070" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1070" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1070" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1070" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1070" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1070" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1070" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1070" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1070" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1070" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="10">
+        <v>45928.367217604165</v>
+      </c>
+      <c r="B1071" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1071" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1071" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1071" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1071" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1071" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1071" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1071" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1071" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1071" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1071" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="15">
+        <v>45928.3675612963</v>
+      </c>
+      <c r="B1072" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1072" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1072" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1072" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1072" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1072" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1072" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1072" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1072" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1072" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="L1072" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="10">
+        <v>45928.37120609954</v>
+      </c>
+      <c r="B1073" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1073" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1073" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1073" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1073" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1073" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1073" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1073" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1073" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1073" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1073" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="15">
+        <v>45928.37563231481</v>
+      </c>
+      <c r="B1074" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1074" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1074" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1074" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1074" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1074" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1074" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1074" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1074" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1074" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1074" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="10">
+        <v>45928.37572445602</v>
+      </c>
+      <c r="B1075" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1075" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1075" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1075" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1075" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1075" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1075" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1075" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1075" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1075" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1075" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="15">
+        <v>45928.375846863426</v>
+      </c>
+      <c r="B1076" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1076" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1076" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1076" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1076" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1076" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1076" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1076" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1076" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1076" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1076" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="10">
+        <v>45928.37796385417</v>
+      </c>
+      <c r="B1077" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1077" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1077" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1077" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1077" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1077" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1077" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1077" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1077" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1077" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="L1077" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="15">
+        <v>45928.380014375</v>
+      </c>
+      <c r="B1078" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1078" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1078" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1078" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1078" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1078" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1078" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1078" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1078" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1078" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1078" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="10">
+        <v>45928.38330850695</v>
+      </c>
+      <c r="B1079" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1079" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1079" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1079" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1079" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1079" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1079" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1079" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1079" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1079" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1079" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="15">
+        <v>45928.38954945602</v>
+      </c>
+      <c r="B1080" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1080" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1080" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1080" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1080" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1080" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1080" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1080" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1080" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1080" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1080" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="10">
+        <v>45928.39029141204</v>
+      </c>
+      <c r="B1081" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1081" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1081" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1081" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1081" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1081" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1081" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1081" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1081" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1081" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1081" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="15">
+        <v>45928.39043883102</v>
+      </c>
+      <c r="B1082" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1082" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1082" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1082" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1082" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1082" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1082" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1082" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1082" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1082" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1082" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="10">
+        <v>45928.39098306713</v>
+      </c>
+      <c r="B1083" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1083" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1083" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1083" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1083" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1083" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1083" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1083" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1083" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1083" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1083" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="15">
+        <v>45928.39272402778</v>
+      </c>
+      <c r="B1084" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1084" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1084" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1084" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1084" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1084" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1084" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1084" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1084" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1084" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1084" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="10">
+        <v>45928.393658125</v>
+      </c>
+      <c r="B1085" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1085" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1085" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1085" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1085" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1085" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1085" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1085" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1085" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1085" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1085" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="15">
+        <v>45928.393711111115</v>
+      </c>
+      <c r="B1086" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1086" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1086" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1086" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1086" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1086" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1086" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1086" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1086" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1086" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1086" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="18">
+        <v>45928.397718148146</v>
+      </c>
+      <c r="B1087" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1087" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1087" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1087" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1087" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1087" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1087" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1087" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1087" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1087" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1087" s="21">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1157">
+  <conditionalFormatting sqref="J1:J1187">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11773" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11815" uniqueCount="306">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -961,7 +961,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1147,20 +1147,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
@@ -1177,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1239,9 +1225,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1312,7 +1295,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1087" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1091" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -42819,45 +42802,197 @@
       </c>
     </row>
     <row r="1087">
-      <c r="A1087" s="18">
+      <c r="A1087" s="10">
         <v>45928.397718148146</v>
       </c>
-      <c r="B1087" s="19" t="s">
+      <c r="B1087" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C1087" s="19" t="s">
+      <c r="C1087" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D1087" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1087" s="19" t="s">
+      <c r="D1087" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1087" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1087" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1087" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1087" s="19" t="s">
+      <c r="F1087" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1087" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1087" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I1087" s="19" t="s">
+      <c r="I1087" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J1087" s="20" t="s">
+      <c r="J1087" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K1087" s="19" t="s">
+      <c r="K1087" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="L1087" s="21">
+      <c r="L1087" s="14">
         <v>3.0</v>
       </c>
     </row>
+    <row r="1088">
+      <c r="A1088" s="15">
+        <v>45929.315718391204</v>
+      </c>
+      <c r="B1088" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1088" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1088" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1088" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1088" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1088" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1088" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1088" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1088" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1088" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1088" s="17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="10">
+        <v>45929.38569246528</v>
+      </c>
+      <c r="B1089" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1089" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1089" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1089" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1089" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1089" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1089" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1089" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1089" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1089" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1089" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="15">
+        <v>45929.40418008102</v>
+      </c>
+      <c r="B1090" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1090" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1090" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1090" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1090" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1090" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1090" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1090" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1090" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1090" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1090" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="18">
+        <v>45929.40468356482</v>
+      </c>
+      <c r="B1091" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1091" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1091" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1091" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1091" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1091" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1091" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1091" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1091" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1091" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1091" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1187">
+  <conditionalFormatting sqref="J1:J1191">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11815" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11975" uniqueCount="306">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1122,10 +1122,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1133,13 +1133,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1147,13 +1147,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1091" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1106" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -42954,45 +42954,615 @@
       </c>
     </row>
     <row r="1091">
-      <c r="A1091" s="18">
+      <c r="A1091" s="10">
         <v>45929.40468356482</v>
       </c>
-      <c r="B1091" s="19" t="s">
+      <c r="B1091" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C1091" s="19" t="s">
+      <c r="C1091" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D1091" s="19" t="s">
+      <c r="D1091" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E1091" s="19" t="s">
+      <c r="E1091" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F1091" s="19" t="s">
+      <c r="F1091" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G1091" s="19" t="s">
+      <c r="G1091" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H1091" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1091" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1091" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1091" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1091" s="20" t="s">
-        <v>18</v>
+      <c r="H1091" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1091" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1091" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1091" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1091" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="15">
+        <v>45929.40876722222</v>
+      </c>
+      <c r="B1092" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1092" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1092" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1092" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1092" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1092" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1092" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1092" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1092" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1092" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1092" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="10">
+        <v>45929.42761278935</v>
+      </c>
+      <c r="B1093" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1093" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1093" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1093" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1093" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1093" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1093" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1093" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1093" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1093" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1093" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="15">
+        <v>45929.427703124995</v>
+      </c>
+      <c r="B1094" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1094" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1094" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1094" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1094" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1094" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1094" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1094" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1094" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1094" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1094" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="10">
+        <v>45929.42788027778</v>
+      </c>
+      <c r="B1095" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1095" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1095" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1095" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1095" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1095" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1095" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1095" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1095" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1095" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1095" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="15">
+        <v>45929.42842309028</v>
+      </c>
+      <c r="B1096" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1096" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1096" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1096" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1096" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1096" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1096" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1096" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1096" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1096" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1096" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="10">
+        <v>45929.42936197917</v>
+      </c>
+      <c r="B1097" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1097" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1097" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1097" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1097" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1097" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1097" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1097" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1097" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1097" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1097" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="15">
+        <v>45929.42957015046</v>
+      </c>
+      <c r="B1098" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1098" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1098" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1098" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1098" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1098" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1098" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1098" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1098" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1098" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1098" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="10">
+        <v>45929.431517812496</v>
+      </c>
+      <c r="B1099" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1099" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1099" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1099" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1099" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1099" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1099" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1099" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1099" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1099" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1099" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="15">
+        <v>45929.43178915509</v>
+      </c>
+      <c r="B1100" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1100" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1100" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1100" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1100" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1100" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1100" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1100" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1100" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1100" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1100" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="10">
+        <v>45929.43690771991</v>
+      </c>
+      <c r="B1101" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1101" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1101" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1101" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1101" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1101" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1101" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1101" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1101" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="15">
+        <v>45929.44635783565</v>
+      </c>
+      <c r="B1102" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1102" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1102" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1102" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1102" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1102" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1102" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1102" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1102" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1102" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1102" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="10">
+        <v>45929.44637962963</v>
+      </c>
+      <c r="B1103" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1103" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1103" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1103" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1103" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1103" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1103" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1103" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1103" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1103" s="14">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="15">
+        <v>45929.44772899305</v>
+      </c>
+      <c r="B1104" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1104" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1104" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1104" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1104" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1104" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1104" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1104" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1104" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1104" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1104" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="10">
+        <v>45929.44934203704</v>
+      </c>
+      <c r="B1105" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1105" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1105" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1105" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1105" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1105" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1105" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1105" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1105" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1105" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1105" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="18">
+        <v>45929.53683298611</v>
+      </c>
+      <c r="B1106" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1106" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1106" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1106" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1106" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1106" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1106" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1106" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1106" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1106" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1106" s="20">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1191">
+  <conditionalFormatting sqref="J1:J1206">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11975" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12006" uniqueCount="306">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1122,10 +1122,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1133,13 +1133,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1147,13 +1147,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1106" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1109" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -43524,45 +43524,159 @@
       </c>
     </row>
     <row r="1106">
-      <c r="A1106" s="18">
+      <c r="A1106" s="15">
         <v>45929.53683298611</v>
       </c>
-      <c r="B1106" s="19" t="s">
+      <c r="B1106" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C1106" s="19" t="s">
+      <c r="C1106" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D1106" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1106" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1106" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1106" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1106" s="19" t="s">
+      <c r="D1106" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1106" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1106" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1106" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1106" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I1106" s="19" t="s">
+      <c r="I1106" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J1106" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1106" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1106" s="20">
+      <c r="J1106" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1106" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1106" s="17">
         <v>2.0</v>
       </c>
     </row>
+    <row r="1107">
+      <c r="A1107" s="10">
+        <v>45930.42772775463</v>
+      </c>
+      <c r="B1107" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1107" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1107" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1107" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1107" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1107" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1107" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1107" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="15">
+        <v>45930.449568703705</v>
+      </c>
+      <c r="B1108" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1108" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1108" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1108" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1108" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1108" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1108" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1108" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1108" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1108" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1108" s="17">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="18">
+        <v>45930.449934062504</v>
+      </c>
+      <c r="B1109" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1109" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1109" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1109" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1109" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1109" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1109" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1109" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1109" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1109" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1109" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1206">
+  <conditionalFormatting sqref="J1:J1209">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12006" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12144" uniqueCount="310">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -932,6 +932,18 @@
   <si>
     <t>5 espinilla derecha, 6 espinilla izquierda, 13 pantorrilla izquierda, 14 pantorrilla derecha, 16 espalda</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 11 parte trasera de la rodilla izquierda, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha, 24 aquiles</t>
+  </si>
+  <si>
+    <t>18 aductor derecho, 22 gluteo izquierdo</t>
+  </si>
+  <si>
+    <t>7 tobillo derecho, 9 Isquiotibial izquierdo, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1122,10 +1134,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1133,13 +1145,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1147,13 +1159,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1295,7 +1307,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1109" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1122" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -43638,45 +43650,539 @@
       </c>
     </row>
     <row r="1109">
-      <c r="A1109" s="18">
+      <c r="A1109" s="10">
         <v>45930.449934062504</v>
       </c>
-      <c r="B1109" s="19" t="s">
+      <c r="B1109" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C1109" s="19" t="s">
+      <c r="C1109" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D1109" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1109" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1109" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1109" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1109" s="19" t="s">
+      <c r="D1109" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1109" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1109" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1109" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I1109" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1109" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1109" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1109" s="20">
+      <c r="I1109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1109" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1109" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1109" s="14">
         <v>5.0</v>
       </c>
     </row>
+    <row r="1110">
+      <c r="A1110" s="15">
+        <v>45931.4750509838</v>
+      </c>
+      <c r="B1110" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1110" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1110" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1110" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1110" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1110" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1110" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1110" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1110" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1110" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1110" s="17">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="10">
+        <v>45931.47562315973</v>
+      </c>
+      <c r="B1111" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1111" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1111" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1111" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1111" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1111" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1111" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1111" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1111" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1111" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1111" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="15">
+        <v>45931.47607295139</v>
+      </c>
+      <c r="B1112" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1112" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1112" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1112" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1112" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1112" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1112" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1112" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1112" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1112" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="L1112" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="10">
+        <v>45931.481491631945</v>
+      </c>
+      <c r="B1113" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1113" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1113" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1113" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1113" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1113" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1113" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1113" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1113" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="15">
+        <v>45931.481855474536</v>
+      </c>
+      <c r="B1114" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1114" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1114" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1114" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1114" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1114" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1114" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1114" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1114" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1114" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1114" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="10">
+        <v>45931.51394386574</v>
+      </c>
+      <c r="B1115" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1115" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1115" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1115" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1115" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1115" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1115" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1115" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="15">
+        <v>45931.51416987268</v>
+      </c>
+      <c r="B1116" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1116" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1116" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1116" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1116" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1116" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1116" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1116" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1116" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1116" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="L1116" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="10">
+        <v>45931.550228796295</v>
+      </c>
+      <c r="B1117" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1117" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1117" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1117" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1117" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1117" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1117" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1117" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1117" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="15">
+        <v>45931.56308325232</v>
+      </c>
+      <c r="B1118" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1118" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1118" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1118" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1118" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1118" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1118" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1118" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1118" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1118" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1118" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="10">
+        <v>45931.57389447917</v>
+      </c>
+      <c r="B1119" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1119" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1119" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1119" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1119" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1119" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1119" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1119" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="15">
+        <v>45931.575834814816</v>
+      </c>
+      <c r="B1120" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1120" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1120" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1120" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1120" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1120" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1120" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1120" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1120" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1120" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1120" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="10">
+        <v>45931.58466637731</v>
+      </c>
+      <c r="B1121" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1121" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1121" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1121" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1121" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1121" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1121" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1121" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1121" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1121" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="18">
+        <v>45931.62232244213</v>
+      </c>
+      <c r="B1122" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1122" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1122" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1122" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1122" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1122" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1122" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1122" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1122" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1122" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1122" s="20">
+        <v>6.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1209">
+  <conditionalFormatting sqref="J1:J1222">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12144" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12418" uniqueCount="311">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -944,6 +944,9 @@
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1307,7 +1310,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1122" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1148" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -44144,45 +44147,1027 @@
       </c>
     </row>
     <row r="1122">
-      <c r="A1122" s="18">
+      <c r="A1122" s="15">
         <v>45931.62232244213</v>
       </c>
-      <c r="B1122" s="19" t="s">
+      <c r="B1122" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C1122" s="19" t="s">
+      <c r="C1122" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D1122" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1122" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1122" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1122" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1122" s="19" t="s">
+      <c r="D1122" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1122" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1122" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1122" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1122" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I1122" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1122" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1122" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1122" s="20">
+      <c r="I1122" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1122" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1122" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1122" s="17">
         <v>6.0</v>
       </c>
     </row>
+    <row r="1123">
+      <c r="A1123" s="10">
+        <v>45932.419287488425</v>
+      </c>
+      <c r="B1123" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1123" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1123" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1123" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1123" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1123" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1123" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1123" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="15">
+        <v>45932.43213922453</v>
+      </c>
+      <c r="B1124" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1124" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1124" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1124" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1124" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1124" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1124" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1124" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1124" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1124" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1124" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="10">
+        <v>45932.44620277778</v>
+      </c>
+      <c r="B1125" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1125" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1125" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1125" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1125" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1125" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1125" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1125" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1125" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1125" s="14">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="15">
+        <v>45932.5042437963</v>
+      </c>
+      <c r="B1126" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1126" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1126" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1126" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1126" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1126" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1126" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1126" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1126" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1126" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1126" s="17">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="10">
+        <v>45932.50425680555</v>
+      </c>
+      <c r="B1127" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1127" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1127" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1127" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1127" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1127" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1127" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1127" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1127" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="15">
+        <v>45932.504330752316</v>
+      </c>
+      <c r="B1128" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1128" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1128" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1128" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1128" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1128" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1128" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1128" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1128" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1128" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1128" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="10">
+        <v>45932.504551157406</v>
+      </c>
+      <c r="B1129" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1129" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1129" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1129" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1129" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1129" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1129" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1129" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1129" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="15">
+        <v>45932.50461497685</v>
+      </c>
+      <c r="B1130" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1130" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1130" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1130" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1130" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1130" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1130" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1130" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1130" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1130" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1130" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="10">
+        <v>45932.50531059028</v>
+      </c>
+      <c r="B1131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1131" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1131" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1131" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1131" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1131" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1131" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1131" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1131" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1131" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="15">
+        <v>45932.5059203125</v>
+      </c>
+      <c r="B1132" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1132" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1132" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1132" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1132" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1132" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1132" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1132" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1132" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1132" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1132" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="10">
+        <v>45932.50893121528</v>
+      </c>
+      <c r="B1133" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1133" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1133" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1133" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1133" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1133" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1133" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1133" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="15">
+        <v>45932.512277870366</v>
+      </c>
+      <c r="B1134" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1134" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1134" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1134" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1134" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1134" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1134" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1134" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1134" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1134" s="17">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="10">
+        <v>45932.52264931713</v>
+      </c>
+      <c r="B1135" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1135" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1135" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1135" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1135" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1135" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1135" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1135" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1135" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="15">
+        <v>45932.531466782406</v>
+      </c>
+      <c r="B1136" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1136" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1136" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1136" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1136" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1136" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1136" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1136" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1136" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1136" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1136" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="10">
+        <v>45932.5414246875</v>
+      </c>
+      <c r="B1137" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1137" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1137" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1137" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1137" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1137" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1137" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1137" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="15">
+        <v>45932.54513990741</v>
+      </c>
+      <c r="B1138" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1138" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1138" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1138" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1138" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1138" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1138" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1138" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1138" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1138" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1138" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="10">
+        <v>45932.6350521412</v>
+      </c>
+      <c r="B1139" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1139" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1139" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1139" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1139" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1139" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1139" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1139" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1139" s="14">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="15">
+        <v>45933.36561769676</v>
+      </c>
+      <c r="B1140" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1140" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1140" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1140" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1140" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1140" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1140" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1140" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1140" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1140" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1140" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="10">
+        <v>45933.38469993055</v>
+      </c>
+      <c r="B1141" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1141" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1141" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1141" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1141" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1141" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1141" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1141" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1141" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1141" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="15">
+        <v>45933.39277319444</v>
+      </c>
+      <c r="B1142" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1142" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1142" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1142" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1142" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1142" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1142" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1142" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1142" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1142" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1142" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="10">
+        <v>45933.40018809028</v>
+      </c>
+      <c r="B1143" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1143" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1143" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1143" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1143" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1143" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1143" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1143" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="15">
+        <v>45933.400652303244</v>
+      </c>
+      <c r="B1144" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1144" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1144" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1144" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1144" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1144" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1144" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1144" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1144" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1144" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1144" s="17">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="10">
+        <v>45933.40244005787</v>
+      </c>
+      <c r="B1145" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1145" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1145" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1145" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1145" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1145" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1145" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1145" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1145" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="15">
+        <v>45933.404107187496</v>
+      </c>
+      <c r="B1146" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1146" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1146" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1146" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1146" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1146" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1146" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1146" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1146" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1146" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1146" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="10">
+        <v>45933.40551568287</v>
+      </c>
+      <c r="B1147" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1147" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1147" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1147" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1147" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1147" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1147" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1147" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="18">
+        <v>45933.40807186342</v>
+      </c>
+      <c r="B1148" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1148" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1148" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1148" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1148" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1148" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1148" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1148" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1148" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1148" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1148" s="20">
+        <v>6.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1222">
+  <conditionalFormatting sqref="J1:J1248">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12418" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12558" uniqueCount="312">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -947,6 +947,9 @@
   <si>
     <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -976,7 +979,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -1137,10 +1140,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1148,13 +1151,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1162,13 +1165,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1178,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1240,6 +1257,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1310,7 +1330,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1148" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1161" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -45129,45 +45149,539 @@
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" s="18">
+      <c r="A1148" s="15">
         <v>45933.40807186342</v>
       </c>
-      <c r="B1148" s="19" t="s">
+      <c r="B1148" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C1148" s="19" t="s">
+      <c r="C1148" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D1148" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1148" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1148" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1148" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1148" s="19" t="s">
+      <c r="D1148" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1148" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1148" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1148" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1148" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I1148" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1148" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1148" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1148" s="20">
+      <c r="I1148" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1148" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1148" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1148" s="17">
         <v>6.0</v>
       </c>
     </row>
+    <row r="1149">
+      <c r="A1149" s="10">
+        <v>45933.40914163194</v>
+      </c>
+      <c r="B1149" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1149" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1149" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1149" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1149" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1149" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1149" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1149" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1149" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1149" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="15">
+        <v>45933.41163347222</v>
+      </c>
+      <c r="B1150" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1150" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1150" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1150" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1150" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1150" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1150" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1150" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1150" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1150" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1150" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="10">
+        <v>45933.41533217592</v>
+      </c>
+      <c r="B1151" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1151" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1151" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1151" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1151" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1151" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1151" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1151" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1151" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="15">
+        <v>45933.41622422454</v>
+      </c>
+      <c r="B1152" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1152" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1152" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1152" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1152" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1152" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1152" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1152" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1152" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1152" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1152" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="10">
+        <v>45933.41781571759</v>
+      </c>
+      <c r="B1153" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1153" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1153" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1153" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1153" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1153" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1153" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1153" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1153" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1153" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1153" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="15">
+        <v>45933.42095197916</v>
+      </c>
+      <c r="B1154" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1154" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1154" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1154" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1154" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1154" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1154" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1154" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1154" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1154" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1154" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="10">
+        <v>45933.424873067124</v>
+      </c>
+      <c r="B1155" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1155" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1155" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1155" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1155" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1155" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1155" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1155" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1155" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1155" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1155" s="14">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="15">
+        <v>45933.42585856481</v>
+      </c>
+      <c r="B1156" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1156" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1156" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1156" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1156" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1156" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1156" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1156" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1156" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1156" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1156" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="10">
+        <v>45933.426362812505</v>
+      </c>
+      <c r="B1157" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1157" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1157" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1157" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1157" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1157" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1157" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1157" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1157" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1157" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1157" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="15">
+        <v>45933.43338806713</v>
+      </c>
+      <c r="B1158" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1158" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1158" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1158" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1158" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1158" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1158" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1158" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1158" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1158" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1158" s="17">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="10">
+        <v>45933.43363626157</v>
+      </c>
+      <c r="B1159" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1159" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1159" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1159" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1159" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1159" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1159" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1159" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1159" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="15">
+        <v>45933.43532913194</v>
+      </c>
+      <c r="B1160" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1160" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1160" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1160" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1160" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1160" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1160" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1160" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1160" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1160" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1160" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="18">
+        <v>45933.46828828704</v>
+      </c>
+      <c r="B1161" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1161" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1161" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1161" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1161" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1161" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1161" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1161" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1161" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1161" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1161" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1248">
+  <conditionalFormatting sqref="J1:J1261">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12558" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12621" uniqueCount="313">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -950,6 +950,9 @@
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 22 gluteo izquierdo, 23 gluteo derecho</t>
   </si>
+  <si>
+    <t>12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 24 aquiles</t>
+  </si>
 </sst>
 </file>
 
@@ -1330,7 +1333,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1161" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1167" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -45643,45 +45646,273 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" s="18">
+      <c r="A1161" s="10">
         <v>45933.46828828704</v>
       </c>
-      <c r="B1161" s="19" t="s">
+      <c r="B1161" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C1161" s="19" t="s">
+      <c r="C1161" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1161" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1161" s="19" t="s">
+      <c r="D1161" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1161" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1161" s="19" t="s">
+      <c r="F1161" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G1161" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1161" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1161" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1161" s="20" t="s">
+      <c r="G1161" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1161" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1161" s="19" t="s">
+      <c r="K1161" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="L1161" s="21" t="s">
+      <c r="L1161" s="14" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="1162">
+      <c r="A1162" s="15">
+        <v>45934.313403148146</v>
+      </c>
+      <c r="B1162" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1162" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1162" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1162" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1162" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1162" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1162" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1162" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1162" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1162" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1162" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="10">
+        <v>45934.373799699075</v>
+      </c>
+      <c r="B1163" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1163" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1163" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1163" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1163" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1163" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1163" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1163" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1163" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1163" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1163" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="15">
+        <v>45934.37382652778</v>
+      </c>
+      <c r="B1164" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1164" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1164" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1164" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1164" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1164" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1164" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1164" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1164" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1164" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1164" s="17">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="10">
+        <v>45934.3793346875</v>
+      </c>
+      <c r="B1165" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1165" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1165" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1165" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1165" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1165" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1165" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1165" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1165" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1165" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1165" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="15">
+        <v>45934.384378993054</v>
+      </c>
+      <c r="B1166" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1166" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1166" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1166" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1166" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1166" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1166" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1166" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1166" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1166" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1166" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="18">
+        <v>45934.404933275466</v>
+      </c>
+      <c r="B1167" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1167" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1167" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1167" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1167" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1167" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1167" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1167" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1167" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1167" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1167" s="21">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1261">
+  <conditionalFormatting sqref="J1:J1267">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12621" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12973" uniqueCount="319">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -953,6 +953,24 @@
   <si>
     <t>12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 24 aquiles</t>
   </si>
+  <si>
+    <t>15 espalda baja, 16 espalda</t>
+  </si>
+  <si>
+    <t>10 isquiotibial derecho, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>12 parte trasera de la rodilla derecha, 24 aquiles</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 15 espalda baja, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1143,10 +1161,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1154,13 +1172,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1182,13 +1200,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1333,7 +1351,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1167" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1200" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -45874,45 +45892,1299 @@
       </c>
     </row>
     <row r="1167">
-      <c r="A1167" s="18">
+      <c r="A1167" s="10">
         <v>45934.404933275466</v>
       </c>
-      <c r="B1167" s="19" t="s">
+      <c r="B1167" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C1167" s="19" t="s">
+      <c r="C1167" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D1167" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1167" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1167" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1167" s="19" t="s">
+      <c r="D1167" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1167" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1167" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1167" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H1167" s="19" t="s">
+      <c r="H1167" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I1167" s="19" t="s">
+      <c r="I1167" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="J1167" s="20" t="s">
+      <c r="J1167" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1167" s="19" t="s">
+      <c r="K1167" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="L1167" s="21">
+      <c r="L1167" s="14">
         <v>1.0</v>
       </c>
     </row>
+    <row r="1168">
+      <c r="A1168" s="15">
+        <v>45934.41011694445</v>
+      </c>
+      <c r="B1168" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1168" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1168" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1168" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1168" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1168" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1168" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1168" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1168" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1168" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1168" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="10">
+        <v>45934.41125160879</v>
+      </c>
+      <c r="B1169" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1169" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1169" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1169" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1169" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1169" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1169" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1169" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1169" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1169" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="15">
+        <v>45934.41173299769</v>
+      </c>
+      <c r="B1170" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1170" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1170" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1170" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1170" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1170" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1170" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1170" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1170" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1170" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1170" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="10">
+        <v>45934.412019282405</v>
+      </c>
+      <c r="B1171" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1171" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1171" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1171" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1171" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1171" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1171" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1171" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1171" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="15">
+        <v>45934.412476875004</v>
+      </c>
+      <c r="B1172" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1172" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1172" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1172" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1172" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1172" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1172" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1172" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1172" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1172" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1172" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="10">
+        <v>45934.412663877316</v>
+      </c>
+      <c r="B1173" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1173" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1173" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1173" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1173" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1173" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1173" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1173" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1173" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1173" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1173" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="15">
+        <v>45934.41291585648</v>
+      </c>
+      <c r="B1174" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1174" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1174" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1174" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1174" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1174" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1174" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1174" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1174" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1174" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1174" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="10">
+        <v>45934.41465319444</v>
+      </c>
+      <c r="B1175" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1175" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1175" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1175" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1175" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1175" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1175" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1175" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1175" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1175" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1175" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="15">
+        <v>45934.41592717593</v>
+      </c>
+      <c r="B1176" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1176" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1176" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1176" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1176" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1176" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1176" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1176" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1176" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1176" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1176" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="10">
+        <v>45934.41868815973</v>
+      </c>
+      <c r="B1177" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1177" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1177" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1177" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1177" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1177" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1177" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1177" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1177" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1177" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1177" s="14">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="15">
+        <v>45934.428823078706</v>
+      </c>
+      <c r="B1178" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1178" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1178" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1178" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1178" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1178" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1178" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1178" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1178" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1178" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1178" s="17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="10">
+        <v>45934.43856751158</v>
+      </c>
+      <c r="B1179" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1179" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1179" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1179" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1179" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1179" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1179" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1179" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1179" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="15">
+        <v>45934.44009449074</v>
+      </c>
+      <c r="B1180" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1180" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1180" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1180" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1180" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1180" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1180" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1180" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1180" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1180" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1180" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="10">
+        <v>45934.47034591435</v>
+      </c>
+      <c r="B1181" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1181" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1181" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1181" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1181" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1181" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1181" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1181" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1181" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1181" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1181" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="15">
+        <v>45935.3477589699</v>
+      </c>
+      <c r="B1182" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1182" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1182" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1182" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1182" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1182" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1182" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1182" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1182" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1182" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1182" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="10">
+        <v>45935.37222936343</v>
+      </c>
+      <c r="B1183" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1183" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1183" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1183" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1183" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1183" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1183" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1183" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1183" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1183" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1183" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="15">
+        <v>45935.37296972222</v>
+      </c>
+      <c r="B1184" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1184" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1184" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1184" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1184" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1184" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1184" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1184" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1184" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1184" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1184" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="10">
+        <v>45935.37301753472</v>
+      </c>
+      <c r="B1185" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1185" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1185" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1185" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1185" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1185" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1185" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1185" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1185" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1185" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1185" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="15">
+        <v>45935.37357688657</v>
+      </c>
+      <c r="B1186" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1186" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1186" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1186" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1186" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1186" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1186" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1186" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1186" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1186" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1186" s="17">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="10">
+        <v>45935.37446195602</v>
+      </c>
+      <c r="B1187" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1187" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1187" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1187" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1187" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1187" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1187" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1187" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1187" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1187" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1187" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="15">
+        <v>45935.37626119213</v>
+      </c>
+      <c r="B1188" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1188" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1188" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1188" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1188" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1188" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1188" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1188" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1188" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1188" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="L1188" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="10">
+        <v>45935.377137187505</v>
+      </c>
+      <c r="B1189" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1189" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1189" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1189" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1189" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1189" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1189" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1189" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1189" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1189" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1189" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="15">
+        <v>45935.37733982639</v>
+      </c>
+      <c r="B1190" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1190" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1190" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1190" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1190" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1190" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1190" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1190" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1190" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1190" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1190" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="10">
+        <v>45935.3786374537</v>
+      </c>
+      <c r="B1191" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1191" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1191" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1191" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1191" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1191" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1191" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1191" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1191" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1191" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="L1191" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="15">
+        <v>45935.38034689815</v>
+      </c>
+      <c r="B1192" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1192" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1192" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1192" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1192" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1192" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1192" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1192" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1192" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1192" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1192" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="10">
+        <v>45935.38319565972</v>
+      </c>
+      <c r="B1193" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1193" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1193" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1193" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1193" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1193" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1193" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1193" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1193" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1193" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1193" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="15">
+        <v>45935.3844425</v>
+      </c>
+      <c r="B1194" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1194" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1194" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1194" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1194" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1194" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1194" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1194" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1194" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1194" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1194" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="10">
+        <v>45935.38598358796</v>
+      </c>
+      <c r="B1195" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1195" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1195" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1195" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1195" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1195" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1195" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1195" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1195" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1195" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1195" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="15">
+        <v>45935.388292083335</v>
+      </c>
+      <c r="B1196" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1196" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1196" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1196" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1196" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1196" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1196" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1196" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1196" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1196" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1196" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="10">
+        <v>45935.3896283912</v>
+      </c>
+      <c r="B1197" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1197" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1197" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1197" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1197" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1197" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1197" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1197" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1197" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1197" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1197" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="15">
+        <v>45935.391300358795</v>
+      </c>
+      <c r="B1198" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1198" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1198" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1198" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1198" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1198" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1198" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1198" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1198" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1198" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1198" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="10">
+        <v>45935.40132064815</v>
+      </c>
+      <c r="B1199" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1199" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1199" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1199" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1199" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1199" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1199" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1199" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1199" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1199" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1199" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="18">
+        <v>45935.40785754629</v>
+      </c>
+      <c r="B1200" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1200" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1200" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1200" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1200" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1200" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1200" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1200" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1200" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1200" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1200" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1267">
+  <conditionalFormatting sqref="J1:J1300">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12973" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12984" uniqueCount="319">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1161,10 +1161,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1172,13 +1172,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1200,13 +1200,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1351,7 +1351,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1200" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1201" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -47146,45 +47146,83 @@
       </c>
     </row>
     <row r="1200">
-      <c r="A1200" s="18">
+      <c r="A1200" s="15">
         <v>45935.40785754629</v>
       </c>
-      <c r="B1200" s="19" t="s">
+      <c r="B1200" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C1200" s="19" t="s">
+      <c r="C1200" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D1200" s="19" t="s">
+      <c r="D1200" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E1200" s="19" t="s">
+      <c r="E1200" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F1200" s="19" t="s">
+      <c r="F1200" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G1200" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1200" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1200" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1200" s="20" t="s">
+      <c r="G1200" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1200" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1200" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1200" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1200" s="19" t="s">
+      <c r="K1200" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="L1200" s="21" t="s">
+      <c r="L1200" s="17" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" s="18">
+        <v>45936.36897981481</v>
+      </c>
+      <c r="B1201" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1201" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1201" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1201" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1201" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1201" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1201" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1201" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1201" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1201" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1201" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1300">
+  <conditionalFormatting sqref="J1:J1301">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12984" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13006" uniqueCount="320">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -971,6 +971,9 @@
   <si>
     <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 15 espalda baja, 22 gluteo izquierdo, 23 gluteo derecho</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 13 pantorrilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -1351,7 +1354,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1201" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1203" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -47184,45 +47187,121 @@
       </c>
     </row>
     <row r="1201">
-      <c r="A1201" s="18">
+      <c r="A1201" s="10">
         <v>45936.36897981481</v>
       </c>
-      <c r="B1201" s="19" t="s">
+      <c r="B1201" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C1201" s="19" t="s">
+      <c r="C1201" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1201" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1201" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1201" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1201" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1201" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1201" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1201" s="20" t="s">
+      <c r="D1201" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1201" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1201" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1201" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1201" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1201" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1201" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1201" s="19" t="s">
+      <c r="K1201" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="L1201" s="21" t="s">
+      <c r="L1201" s="14" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" s="15">
+        <v>45937.38248321759</v>
+      </c>
+      <c r="B1202" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1202" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1202" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1202" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1202" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1202" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1202" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1202" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1202" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1202" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1202" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="18">
+        <v>45937.38687188657</v>
+      </c>
+      <c r="B1203" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1203" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1203" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1203" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1203" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1203" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1203" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1203" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1203" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1203" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1203" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1301">
+  <conditionalFormatting sqref="J1:J1303">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13006" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13200" uniqueCount="327">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -974,6 +974,27 @@
   <si>
     <t>2 muslo derecho, 13 pantorrilla izquierda</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha, 24 aquiles</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>10 isquiotibial derecho, 18 aductor derecho, 22 gluteo izquierdo</t>
+  </si>
+  <si>
+    <t>3er</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 14 pantorrilla derecha, 16 espalda</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 19 hombro derecho, 20 hombro izquierdo, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X</t>
+  </si>
 </sst>
 </file>
 
@@ -1354,7 +1375,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1203" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1221" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -47263,45 +47284,729 @@
       </c>
     </row>
     <row r="1203">
-      <c r="A1203" s="18">
+      <c r="A1203" s="10">
         <v>45937.38687188657</v>
       </c>
-      <c r="B1203" s="19" t="s">
+      <c r="B1203" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C1203" s="19" t="s">
+      <c r="C1203" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D1203" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1203" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1203" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1203" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1203" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1203" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1203" s="20" t="s">
+      <c r="D1203" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1203" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1203" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1203" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1203" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1203" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1203" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1203" s="19" t="s">
+      <c r="K1203" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="L1203" s="21" t="s">
+      <c r="L1203" s="14" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" s="15">
+        <v>45937.55275019676</v>
+      </c>
+      <c r="B1204" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1204" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1204" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1204" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1204" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1204" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1204" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1204" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1204" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1204" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="L1204" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="10">
+        <v>45937.55300043982</v>
+      </c>
+      <c r="B1205" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1205" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1205" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1205" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1205" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1205" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1205" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1205" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1205" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1205" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1205" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="15">
+        <v>45937.55360186343</v>
+      </c>
+      <c r="B1206" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1206" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1206" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1206" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1206" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1206" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1206" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1206" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1206" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1206" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1206" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="10">
+        <v>45937.5537034838</v>
+      </c>
+      <c r="B1207" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1207" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1207" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1207" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1207" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1207" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1207" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1207" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1207" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1207" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1207" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="15">
+        <v>45937.65640515047</v>
+      </c>
+      <c r="B1208" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1208" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1208" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1208" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1208" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1208" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1208" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1208" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1208" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1208" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1208" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="10">
+        <v>45937.90292479166</v>
+      </c>
+      <c r="B1209" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1209" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1209" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1209" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1209" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1209" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1209" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1209" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1209" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1209" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1209" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="15">
+        <v>45938.31788440973</v>
+      </c>
+      <c r="B1210" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1210" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1210" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1210" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1210" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1210" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1210" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1210" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1210" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1210" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1210" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="10">
+        <v>45938.32266398148</v>
+      </c>
+      <c r="B1211" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1211" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1211" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1211" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1211" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1211" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1211" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1211" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1211" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1211" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1211" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="15">
+        <v>45938.32324416666</v>
+      </c>
+      <c r="B1212" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1212" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1212" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1212" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1212" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1212" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1212" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1212" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1212" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1212" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1212" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="10">
+        <v>45938.32497372685</v>
+      </c>
+      <c r="B1213" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1213" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1213" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1213" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1213" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1213" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1213" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1213" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1213" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1213" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1213" s="14">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="15">
+        <v>45938.34109271991</v>
+      </c>
+      <c r="B1214" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1214" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1214" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1214" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1214" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1214" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1214" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1214" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1214" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1214" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1214" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="10">
+        <v>45938.34374829861</v>
+      </c>
+      <c r="B1215" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1215" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1215" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1215" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1215" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1215" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1215" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1215" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1215" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1215" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1215" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="15">
+        <v>45938.34555238426</v>
+      </c>
+      <c r="B1216" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1216" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1216" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1216" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1216" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1216" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1216" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1216" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1216" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1216" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="L1216" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="10">
+        <v>45938.34657142361</v>
+      </c>
+      <c r="B1217" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1217" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1217" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1217" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1217" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1217" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1217" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1217" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1217" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1217" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1217" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="15">
+        <v>45938.34865366898</v>
+      </c>
+      <c r="B1218" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1218" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1218" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1218" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1218" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1218" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1218" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1218" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1218" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1218" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1218" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="10">
+        <v>45938.354352083334</v>
+      </c>
+      <c r="B1219" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1219" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1219" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1219" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1219" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1219" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1219" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1219" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1219" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1219" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1219" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="15">
+        <v>45938.35854925926</v>
+      </c>
+      <c r="B1220" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1220" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1220" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1220" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1220" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1220" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1220" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1220" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1220" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1220" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1220" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="18">
+        <v>45938.35948131944</v>
+      </c>
+      <c r="B1221" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1221" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1221" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1221" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1221" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1221" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1221" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1221" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1221" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1221" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1221" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1303">
+  <conditionalFormatting sqref="J1:J1321">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13200" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13308" uniqueCount="329">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -995,6 +995,12 @@
   <si>
     <t xml:space="preserve"> X</t>
   </si>
+  <si>
+    <t>12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha, 24 aquiles</t>
+  </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -1375,7 +1381,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1221" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1231" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -47968,45 +47974,425 @@
       </c>
     </row>
     <row r="1221">
-      <c r="A1221" s="18">
+      <c r="A1221" s="10">
         <v>45938.35948131944</v>
       </c>
-      <c r="B1221" s="19" t="s">
+      <c r="B1221" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1221" s="19" t="s">
+      <c r="C1221" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D1221" s="19" t="s">
+      <c r="D1221" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E1221" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1221" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1221" s="19" t="s">
+      <c r="E1221" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1221" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1221" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H1221" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1221" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1221" s="20" t="s">
+      <c r="H1221" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1221" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1221" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K1221" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1221" s="21">
+      <c r="K1221" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1221" s="14">
         <v>0.0</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" s="15">
+        <v>45939.38069777778</v>
+      </c>
+      <c r="B1222" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1222" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1222" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1222" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1222" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1222" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1222" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1222" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1222" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1222" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1222" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="10">
+        <v>45939.38092818287</v>
+      </c>
+      <c r="B1223" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1223" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1223" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1223" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1223" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1223" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1223" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1223" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1223" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1223" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1223" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="15">
+        <v>45939.390670625</v>
+      </c>
+      <c r="B1224" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1224" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1224" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1224" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1224" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1224" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1224" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1224" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1224" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1224" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1224" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="10">
+        <v>45939.40463150463</v>
+      </c>
+      <c r="B1225" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1225" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1225" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1225" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1225" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1225" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1225" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1225" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1225" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1225" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1225" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="15">
+        <v>45939.404738819445</v>
+      </c>
+      <c r="B1226" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1226" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1226" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1226" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1226" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1226" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1226" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1226" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1226" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1226" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1226" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="10">
+        <v>45939.4089049537</v>
+      </c>
+      <c r="B1227" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1227" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1227" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1227" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1227" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1227" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1227" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1227" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1227" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1227" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1227" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="15">
+        <v>45939.41251734954</v>
+      </c>
+      <c r="B1228" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1228" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1228" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1228" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1228" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1228" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1228" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1228" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1228" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1228" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1228" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="10">
+        <v>45939.41261811343</v>
+      </c>
+      <c r="B1229" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1229" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1229" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1229" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1229" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1229" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1229" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1229" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1229" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1229" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1229" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="15">
+        <v>45939.4126354051</v>
+      </c>
+      <c r="B1230" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1230" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1230" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1230" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1230" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1230" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1230" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1230" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1230" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1230" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1230" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="18">
+        <v>45939.41368541667</v>
+      </c>
+      <c r="B1231" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1231" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1231" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1231" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1231" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1231" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1231" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1231" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1231" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1231" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1231" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1321">
+  <conditionalFormatting sqref="J1:J1331">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13308" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13373" uniqueCount="331">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1001,6 +1001,12 @@
   <si>
     <t>11 parte trasera de la rodilla izquierda</t>
   </si>
+  <si>
+    <t>10 isquiotibial derecho, 18 aductor derecho, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>6 espinilla izquierda, 10 isquiotibial derecho, 18 aductor derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1381,7 +1387,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1231" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1237" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -48354,45 +48360,273 @@
       </c>
     </row>
     <row r="1231">
-      <c r="A1231" s="18">
+      <c r="A1231" s="10">
         <v>45939.41368541667</v>
       </c>
-      <c r="B1231" s="19" t="s">
+      <c r="B1231" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1231" s="19" t="s">
+      <c r="C1231" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D1231" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1231" s="19" t="s">
+      <c r="D1231" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1231" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F1231" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1231" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1231" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1231" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1231" s="20" t="s">
+      <c r="F1231" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1231" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1231" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1231" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1231" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1231" s="19" t="s">
+      <c r="K1231" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="L1231" s="21" t="s">
+      <c r="L1231" s="14" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" s="15">
+        <v>45939.418353078705</v>
+      </c>
+      <c r="B1232" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1232" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1232" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1232" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1232" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1232" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1232" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1232" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1232" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1232" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1232" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="10">
+        <v>45939.41996384259</v>
+      </c>
+      <c r="B1233" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1233" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1233" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1233" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1233" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1233" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1233" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1233" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1233" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1233" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1233" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="15">
+        <v>45939.4250220949</v>
+      </c>
+      <c r="B1234" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1234" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1234" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1234" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1234" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1234" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1234" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1234" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1234" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1234" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1234" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="10">
+        <v>45939.43304027778</v>
+      </c>
+      <c r="B1235" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1235" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1235" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1235" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1235" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1235" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1235" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1235" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1235" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1235" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1235" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="15">
+        <v>45939.44036734954</v>
+      </c>
+      <c r="B1236" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1236" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1236" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1236" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1236" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1236" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1236" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1236" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1236" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1236" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1236" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="18">
+        <v>45939.444045625</v>
+      </c>
+      <c r="B1237" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1237" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1237" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1237" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1237" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1237" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1237" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1237" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1237" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1237" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1237" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1331">
+  <conditionalFormatting sqref="J1:J1337">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13373" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13718" uniqueCount="335">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1007,6 +1007,18 @@
   <si>
     <t>6 espinilla izquierda, 10 isquiotibial derecho, 18 aductor derecho</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 17 aductor izquierdo</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 16 espalda, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ningún </t>
+  </si>
 </sst>
 </file>
 
@@ -1036,7 +1048,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1222,20 +1234,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
@@ -1252,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1314,9 +1312,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1387,7 +1382,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1237" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1269" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -48588,45 +48583,1261 @@
       </c>
     </row>
     <row r="1237">
-      <c r="A1237" s="18">
+      <c r="A1237" s="10">
         <v>45939.444045625</v>
       </c>
-      <c r="B1237" s="19" t="s">
+      <c r="B1237" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1237" s="19" t="s">
+      <c r="C1237" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D1237" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1237" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1237" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1237" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1237" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1237" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1237" s="20" t="s">
+      <c r="D1237" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1237" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1237" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1237" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1237" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1237" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1237" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1237" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1237" s="21">
+      <c r="K1237" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1237" s="14">
         <v>0.0</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" s="15">
+        <v>45941.431065763885</v>
+      </c>
+      <c r="B1238" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1238" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1238" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1238" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1238" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1238" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1238" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1238" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1238" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1238" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1238" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="10">
+        <v>45941.455825439814</v>
+      </c>
+      <c r="B1239" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1239" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1239" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1239" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1239" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1239" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1239" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1239" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1239" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1239" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1239" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="15">
+        <v>45941.457441770835</v>
+      </c>
+      <c r="B1240" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1240" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1240" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1240" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1240" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1240" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1240" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1240" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1240" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1240" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1240" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="10">
+        <v>45941.46163130787</v>
+      </c>
+      <c r="B1241" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1241" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1241" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1241" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1241" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1241" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1241" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1241" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1241" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1241" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1241" s="14">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="15">
+        <v>45941.47718615741</v>
+      </c>
+      <c r="B1242" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1242" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1242" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1242" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1242" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1242" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1242" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1242" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1242" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1242" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1242" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="10">
+        <v>45941.49499680556</v>
+      </c>
+      <c r="B1243" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1243" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1243" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1243" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1243" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1243" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1243" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1243" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1243" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1243" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1243" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="15">
+        <v>45941.51208534722</v>
+      </c>
+      <c r="B1244" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1244" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1244" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1244" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1244" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1244" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1244" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1244" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1244" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1244" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1244" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="10">
+        <v>45941.526032615744</v>
+      </c>
+      <c r="B1245" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1245" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1245" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1245" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1245" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1245" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1245" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1245" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1245" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1245" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1245" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="15">
+        <v>45941.54464450231</v>
+      </c>
+      <c r="B1246" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1246" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1246" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1246" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1246" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1246" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1246" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1246" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1246" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1246" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1246" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="10">
+        <v>45941.56421060185</v>
+      </c>
+      <c r="B1247" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1247" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1247" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1247" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1247" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1247" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1247" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1247" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1247" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1247" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1247" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="15">
+        <v>45941.566592303236</v>
+      </c>
+      <c r="B1248" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1248" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1248" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1248" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1248" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1248" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1248" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1248" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1248" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1248" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1248" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="10">
+        <v>45941.5739596875</v>
+      </c>
+      <c r="B1249" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1249" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1249" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1249" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1249" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1249" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1249" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1249" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1249" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1249" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1249" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="15">
+        <v>45941.602346354164</v>
+      </c>
+      <c r="B1250" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1250" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1250" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1250" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1250" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1250" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1250" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1250" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1250" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1250" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1250" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="10">
+        <v>45941.62766326389</v>
+      </c>
+      <c r="B1251" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1251" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1251" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1251" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1251" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1251" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1251" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1251" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1251" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1251" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1251" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="15">
+        <v>45942.352413113425</v>
+      </c>
+      <c r="B1252" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1252" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1252" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1252" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1252" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1252" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1252" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1252" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1252" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1252" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1252" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="10">
+        <v>45942.36831297453</v>
+      </c>
+      <c r="B1253" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1253" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1253" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1253" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1253" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1253" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1253" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1253" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1253" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1253" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1253" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="15">
+        <v>45942.37953142361</v>
+      </c>
+      <c r="B1254" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1254" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1254" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1254" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1254" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1254" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1254" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1254" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1254" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1254" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1254" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="10">
+        <v>45942.380409606485</v>
+      </c>
+      <c r="B1255" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1255" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1255" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1255" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1255" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1255" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1255" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1255" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1255" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1255" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1255" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="15">
+        <v>45942.38061953704</v>
+      </c>
+      <c r="B1256" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1256" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1256" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1256" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1256" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1256" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1256" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1256" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1256" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1256" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1256" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="10">
+        <v>45942.38183263889</v>
+      </c>
+      <c r="B1257" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1257" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1257" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1257" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1257" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1257" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1257" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1257" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1257" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1257" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1257" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="15">
+        <v>45942.382869594905</v>
+      </c>
+      <c r="B1258" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1258" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1258" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1258" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1258" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1258" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1258" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1258" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1258" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1258" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1258" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="10">
+        <v>45942.38332253472</v>
+      </c>
+      <c r="B1259" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1259" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1259" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1259" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1259" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1259" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1259" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1259" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1259" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1259" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1259" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="15">
+        <v>45942.3842934375</v>
+      </c>
+      <c r="B1260" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1260" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1260" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1260" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1260" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1260" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1260" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1260" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1260" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1260" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1260" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="10">
+        <v>45942.38545239583</v>
+      </c>
+      <c r="B1261" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1261" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1261" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1261" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1261" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1261" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1261" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1261" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1261" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1261" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1261" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="15">
+        <v>45942.387009618054</v>
+      </c>
+      <c r="B1262" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1262" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1262" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1262" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1262" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1262" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1262" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1262" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1262" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1262" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="L1262" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="10">
+        <v>45942.38910532407</v>
+      </c>
+      <c r="B1263" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1263" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1263" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1263" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1263" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1263" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1263" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1263" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1263" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1263" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1263" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="15">
+        <v>45942.38944212963</v>
+      </c>
+      <c r="B1264" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1264" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1264" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1264" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1264" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1264" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1264" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1264" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1264" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1264" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1264" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="10">
+        <v>45942.39076920139</v>
+      </c>
+      <c r="B1265" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1265" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1265" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1265" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1265" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1265" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1265" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1265" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1265" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1265" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1265" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="15">
+        <v>45942.39331668981</v>
+      </c>
+      <c r="B1266" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1266" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1266" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1266" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1266" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1266" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1266" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1266" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1266" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1266" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1266" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="10">
+        <v>45942.39507518518</v>
+      </c>
+      <c r="B1267" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1267" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1267" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1267" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1267" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1267" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1267" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1267" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1267" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1267" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1267" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="15">
+        <v>45942.39839327546</v>
+      </c>
+      <c r="B1268" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1268" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1268" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1268" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1268" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1268" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1268" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1268" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1268" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1268" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1268" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="18">
+        <v>45942.40779355324</v>
+      </c>
+      <c r="B1269" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1269" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1269" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1269" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1269" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1269" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1269" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1269" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1269" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1269" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1269" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1337">
+  <conditionalFormatting sqref="J1:J1369">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13718" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13858" uniqueCount="337">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1019,6 +1019,12 @@
   <si>
     <t xml:space="preserve">Ningún </t>
   </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>3 rodilla derecha, 7 tobillo derecho, 9 Isquiotibial izquierdo</t>
+  </si>
 </sst>
 </file>
 
@@ -1048,7 +1054,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -1209,10 +1215,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1220,13 +1226,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1234,13 +1240,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1250,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1312,6 +1332,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1382,7 +1405,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1269" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1282" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -49799,45 +49822,539 @@
       </c>
     </row>
     <row r="1269">
-      <c r="A1269" s="18">
+      <c r="A1269" s="10">
         <v>45942.40779355324</v>
       </c>
-      <c r="B1269" s="19" t="s">
+      <c r="B1269" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C1269" s="19" t="s">
+      <c r="C1269" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1269" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1269" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1269" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1269" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1269" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1269" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1269" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1269" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1269" s="20" t="s">
+      <c r="D1269" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1269" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1269" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1269" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1269" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1269" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1269" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1269" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1269" s="14" t="s">
         <v>334</v>
       </c>
     </row>
+    <row r="1270">
+      <c r="A1270" s="15">
+        <v>45943.371233240745</v>
+      </c>
+      <c r="B1270" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1270" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1270" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1270" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1270" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1270" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1270" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1270" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1270" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1270" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1270" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="10">
+        <v>45943.37551804398</v>
+      </c>
+      <c r="B1271" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1271" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1271" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1271" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1271" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1271" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1271" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1271" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1271" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1271" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1271" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="15">
+        <v>45943.39740789351</v>
+      </c>
+      <c r="B1272" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1272" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1272" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1272" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1272" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1272" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1272" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1272" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1272" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1272" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1272" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="10">
+        <v>45943.40333516204</v>
+      </c>
+      <c r="B1273" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1273" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1273" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1273" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1273" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1273" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1273" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1273" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1273" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1273" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1273" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="15">
+        <v>45943.40365047454</v>
+      </c>
+      <c r="B1274" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1274" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1274" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1274" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1274" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1274" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1274" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1274" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1274" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1274" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="L1274" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="10">
+        <v>45943.403800775464</v>
+      </c>
+      <c r="B1275" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1275" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1275" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1275" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1275" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1275" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1275" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1275" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1275" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1275" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1275" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="15">
+        <v>45943.40439969907</v>
+      </c>
+      <c r="B1276" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1276" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1276" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1276" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1276" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1276" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1276" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1276" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1276" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1276" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1276" s="17">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="10">
+        <v>45943.405132604166</v>
+      </c>
+      <c r="B1277" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1277" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1277" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1277" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1277" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1277" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1277" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1277" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1277" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1277" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1277" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="15">
+        <v>45943.405673182875</v>
+      </c>
+      <c r="B1278" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1278" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1278" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1278" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1278" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1278" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1278" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1278" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1278" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1278" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1278" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="10">
+        <v>45943.406113715275</v>
+      </c>
+      <c r="B1279" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1279" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1279" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1279" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1279" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1279" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1279" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1279" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1279" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1279" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1279" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="15">
+        <v>45943.40642038194</v>
+      </c>
+      <c r="B1280" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1280" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1280" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1280" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1280" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1280" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1280" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1280" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1280" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1280" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1280" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="10">
+        <v>45943.40730111111</v>
+      </c>
+      <c r="B1281" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1281" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1281" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1281" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1281" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1281" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1281" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1281" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1281" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1281" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1281" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="18">
+        <v>45943.40754646991</v>
+      </c>
+      <c r="B1282" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1282" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1282" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1282" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1282" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1282" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1282" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1282" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1282" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1282" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1282" s="21">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1369">
+  <conditionalFormatting sqref="J1:J1382">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13858" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14127" uniqueCount="339">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1025,6 +1025,12 @@
   <si>
     <t>3 rodilla derecha, 7 tobillo derecho, 9 Isquiotibial izquierdo</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 16 espalda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pero estoy enferma </t>
+  </si>
 </sst>
 </file>
 
@@ -1215,10 +1221,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1226,13 +1232,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1254,13 +1260,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1405,7 +1411,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1282" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1307" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -50316,45 +50322,995 @@
       </c>
     </row>
     <row r="1282">
-      <c r="A1282" s="18">
+      <c r="A1282" s="15">
         <v>45943.40754646991</v>
       </c>
-      <c r="B1282" s="19" t="s">
+      <c r="B1282" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C1282" s="19" t="s">
+      <c r="C1282" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1282" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1282" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1282" s="19" t="s">
+      <c r="D1282" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1282" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1282" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G1282" s="19" t="s">
+      <c r="G1282" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H1282" s="19" t="s">
+      <c r="H1282" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I1282" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1282" s="20" t="s">
+      <c r="I1282" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1282" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1282" s="19" t="s">
+      <c r="K1282" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L1282" s="21">
+      <c r="L1282" s="17">
         <v>4.0</v>
       </c>
     </row>
+    <row r="1283">
+      <c r="A1283" s="10">
+        <v>45943.409774583335</v>
+      </c>
+      <c r="B1283" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1283" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1283" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1283" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1283" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1283" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1283" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1283" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1283" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1283" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1283" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="15">
+        <v>45943.409987534724</v>
+      </c>
+      <c r="B1284" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1284" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1284" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1284" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1284" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1284" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1284" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1284" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1284" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1284" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1284" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="10">
+        <v>45943.41269172454</v>
+      </c>
+      <c r="B1285" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1285" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1285" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1285" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1285" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1285" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1285" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1285" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1285" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1285" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1285" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="15">
+        <v>45943.41418769676</v>
+      </c>
+      <c r="B1286" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1286" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1286" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1286" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1286" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1286" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1286" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1286" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1286" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1286" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1286" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="10">
+        <v>45943.42144445602</v>
+      </c>
+      <c r="B1287" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1287" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1287" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1287" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1287" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1287" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1287" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1287" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1287" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1287" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1287" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="15">
+        <v>45943.42929883102</v>
+      </c>
+      <c r="B1288" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1288" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1288" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1288" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1288" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1288" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1288" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1288" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1288" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1288" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1288" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="10">
+        <v>45943.44059172454</v>
+      </c>
+      <c r="B1289" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1289" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1289" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1289" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1289" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1289" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1289" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1289" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1289" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1289" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1289" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="15">
+        <v>45944.34234412037</v>
+      </c>
+      <c r="B1290" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1290" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1290" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1290" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1290" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1290" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1290" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1290" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1290" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1290" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1290" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="10">
+        <v>45944.360378275465</v>
+      </c>
+      <c r="B1291" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1291" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1291" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1291" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1291" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1291" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1291" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1291" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1291" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1291" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1291" s="14">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="15">
+        <v>45944.361949467595</v>
+      </c>
+      <c r="B1292" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1292" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1292" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1292" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1292" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1292" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1292" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1292" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1292" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1292" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1292" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="10">
+        <v>45944.36439289352</v>
+      </c>
+      <c r="B1293" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1293" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1293" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1293" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1293" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1293" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1293" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1293" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1293" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1293" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1293" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="15">
+        <v>45944.36732306713</v>
+      </c>
+      <c r="B1294" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1294" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1294" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1294" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1294" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1294" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1294" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1294" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1294" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1294" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1294" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="10">
+        <v>45944.36816262732</v>
+      </c>
+      <c r="B1295" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1295" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1295" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1295" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1295" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1295" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1295" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1295" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1295" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1295" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1295" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="15">
+        <v>45944.36846158565</v>
+      </c>
+      <c r="B1296" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1296" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1296" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1296" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1296" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1296" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1296" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1296" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1296" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1296" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1296" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="10">
+        <v>45944.36906819444</v>
+      </c>
+      <c r="B1297" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1297" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1297" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1297" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1297" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1297" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1297" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1297" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1297" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1297" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1297" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="15">
+        <v>45944.37231623843</v>
+      </c>
+      <c r="B1298" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1298" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1298" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1298" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1298" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1298" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1298" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1298" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1298" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1298" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1298" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="10">
+        <v>45944.37242555556</v>
+      </c>
+      <c r="B1299" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1299" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1299" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1299" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1299" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1299" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1299" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1299" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1299" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1299" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1299" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="15">
+        <v>45944.373233125</v>
+      </c>
+      <c r="B1300" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1300" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1300" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1300" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1300" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1300" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1300" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1300" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1300" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1300" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1300" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="10">
+        <v>45944.37518444445</v>
+      </c>
+      <c r="B1301" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1301" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1301" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1301" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1301" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1301" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1301" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1301" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1301" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1301" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1301" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="15">
+        <v>45944.37871200232</v>
+      </c>
+      <c r="B1302" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1302" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1302" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1302" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1302" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1302" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1302" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1302" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1302" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1302" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1302" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="10">
+        <v>45944.38058237269</v>
+      </c>
+      <c r="B1303" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1303" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1303" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1303" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1303" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1303" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1303" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1303" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1303" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1303" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1303" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="15">
+        <v>45944.389476041666</v>
+      </c>
+      <c r="B1304" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1304" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1304" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1304" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1304" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1304" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1304" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1304" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1304" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1304" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1304" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="10">
+        <v>45944.393579826385</v>
+      </c>
+      <c r="B1305" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1305" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1305" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1305" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1305" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1305" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1305" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1305" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1305" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1305" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1305" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="15">
+        <v>45944.395567326384</v>
+      </c>
+      <c r="B1306" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1306" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1306" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1306" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1306" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1306" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1306" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1306" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1306" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1306" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1306" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="18">
+        <v>45944.408712442135</v>
+      </c>
+      <c r="B1307" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1307" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1307" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1307" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1307" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1307" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1307" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1307" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1307" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1307" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1307" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1382">
+  <conditionalFormatting sqref="J1:J1407">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14127" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14149" uniqueCount="339">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1307" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1309" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -51272,45 +51272,121 @@
       </c>
     </row>
     <row r="1307">
-      <c r="A1307" s="18">
+      <c r="A1307" s="10">
         <v>45944.408712442135</v>
       </c>
-      <c r="B1307" s="19" t="s">
+      <c r="B1307" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C1307" s="19" t="s">
+      <c r="C1307" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D1307" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1307" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1307" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1307" s="19" t="s">
+      <c r="D1307" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1307" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1307" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1307" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H1307" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1307" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1307" s="20" t="s">
+      <c r="H1307" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1307" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1307" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K1307" s="19" t="s">
+      <c r="K1307" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L1307" s="21">
+      <c r="L1307" s="14">
         <v>0.0</v>
       </c>
     </row>
+    <row r="1308">
+      <c r="A1308" s="15">
+        <v>45944.41140931713</v>
+      </c>
+      <c r="B1308" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1308" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1308" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1308" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1308" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1308" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1308" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1308" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1308" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1308" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1308" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="18">
+        <v>45945.402526053236</v>
+      </c>
+      <c r="B1309" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1309" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1309" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1309" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1309" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1309" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1309" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1309" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1309" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1309" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1309" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1407">
+  <conditionalFormatting sqref="J1:J1409">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14149" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14225" uniqueCount="341">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1031,6 +1031,12 @@
   <si>
     <t xml:space="preserve">No pero estoy enferma </t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 4 rodilla izquierda, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 17 aductor izquierdo</t>
+  </si>
 </sst>
 </file>
 
@@ -1221,10 +1227,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1232,13 +1238,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1260,13 +1266,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1411,7 +1417,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1309" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1316" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -51348,45 +51354,311 @@
       </c>
     </row>
     <row r="1309">
-      <c r="A1309" s="18">
+      <c r="A1309" s="10">
         <v>45945.402526053236</v>
       </c>
-      <c r="B1309" s="19" t="s">
+      <c r="B1309" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1309" s="19" t="s">
+      <c r="C1309" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D1309" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1309" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1309" s="19" t="s">
+      <c r="D1309" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1309" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1309" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G1309" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1309" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1309" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1309" s="20" t="s">
+      <c r="G1309" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1309" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1309" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1309" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1309" s="19" t="s">
+      <c r="K1309" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="L1309" s="21" t="s">
+      <c r="L1309" s="14" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="1310">
+      <c r="A1310" s="15">
+        <v>45945.47750333333</v>
+      </c>
+      <c r="B1310" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1310" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1310" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1310" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1310" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1310" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1310" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1310" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1310" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1310" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1310" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="10">
+        <v>45946.333170682876</v>
+      </c>
+      <c r="B1311" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1311" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1311" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1311" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1311" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1311" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1311" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1311" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1311" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1311" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1311" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="15">
+        <v>45946.34021846065</v>
+      </c>
+      <c r="B1312" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1312" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1312" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1312" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1312" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1312" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1312" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1312" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1312" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1312" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1312" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="10">
+        <v>45946.345473587964</v>
+      </c>
+      <c r="B1313" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1313" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1313" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1313" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1313" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1313" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1313" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1313" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1313" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1313" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1313" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="15">
+        <v>45946.34555950231</v>
+      </c>
+      <c r="B1314" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1314" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1314" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1314" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1314" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1314" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1314" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1314" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1314" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1314" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="L1314" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="10">
+        <v>45946.352273171295</v>
+      </c>
+      <c r="B1315" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1315" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1315" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1315" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1315" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1315" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1315" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1315" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1315" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1315" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="L1315" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="18">
+        <v>45946.4085621875</v>
+      </c>
+      <c r="B1316" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1316" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1316" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1316" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1316" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1316" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1316" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1316" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1316" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1316" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1316" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1409">
+  <conditionalFormatting sqref="J1:J1416">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14225" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14484" uniqueCount="344">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1037,6 +1037,15 @@
   <si>
     <t>1 muslo izquierdo, 17 aductor izquierdo</t>
   </si>
+  <si>
+    <t>13 pantorrilla izquierda, 20 hombro izquierdo</t>
+  </si>
+  <si>
+    <t>6 espinilla izquierda, 8 tobillo izquierdo, 9 Isquiotibial izquierdo, 10 isquiotibial derecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. </t>
+  </si>
 </sst>
 </file>
 
@@ -1403,10 +1412,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Respuestas de formulario 1-style">
+    <tableStyle count="4" pivot="0" name="Respuestas de formulario 1-style">
       <tableStyleElement dxfId="2" type="headerRow"/>
       <tableStyleElement dxfId="3" type="firstRowStripe"/>
       <tableStyleElement dxfId="4" type="secondRowStripe"/>
+      <tableStyleElement dxfId="1" size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1417,7 +1427,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1316" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1340" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -51620,45 +51630,957 @@
       </c>
     </row>
     <row r="1316">
-      <c r="A1316" s="18">
+      <c r="A1316" s="15">
         <v>45946.4085621875</v>
       </c>
-      <c r="B1316" s="19" t="s">
+      <c r="B1316" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1316" s="19" t="s">
+      <c r="C1316" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D1316" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1316" s="19" t="s">
+      <c r="D1316" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1316" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F1316" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1316" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1316" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1316" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1316" s="20" t="s">
+      <c r="F1316" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1316" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1316" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1316" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1316" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1316" s="19" t="s">
+      <c r="K1316" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="L1316" s="21" t="s">
+      <c r="L1316" s="17" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="1317">
+      <c r="A1317" s="10">
+        <v>45946.69264026621</v>
+      </c>
+      <c r="B1317" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1317" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1317" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1317" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1317" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1317" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1317" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1317" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1317" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1317" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1317" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="15">
+        <v>45946.69271942129</v>
+      </c>
+      <c r="B1318" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1318" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1318" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1318" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1318" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1318" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1318" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1318" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1318" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1318" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1318" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="10">
+        <v>45946.692830925924</v>
+      </c>
+      <c r="B1319" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1319" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1319" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1319" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1319" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1319" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1319" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1319" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1319" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1319" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1319" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="15">
+        <v>45946.69347331018</v>
+      </c>
+      <c r="B1320" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1320" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1320" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1320" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1320" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1320" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1320" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1320" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1320" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1320" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1320" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="10">
+        <v>45946.69589045139</v>
+      </c>
+      <c r="B1321" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1321" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1321" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1321" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1321" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1321" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1321" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1321" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1321" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1321" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1321" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="15">
+        <v>45946.69654956018</v>
+      </c>
+      <c r="B1322" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1322" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1322" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1322" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1322" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1322" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1322" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1322" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1322" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1322" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1322" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="10">
+        <v>45946.70003144676</v>
+      </c>
+      <c r="B1323" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1323" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1323" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1323" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1323" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1323" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1323" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1323" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1323" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1323" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1323" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="15">
+        <v>45946.70176694445</v>
+      </c>
+      <c r="B1324" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1324" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1324" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1324" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1324" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1324" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1324" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1324" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1324" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1324" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1324" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="10">
+        <v>45946.70203173611</v>
+      </c>
+      <c r="B1325" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1325" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1325" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1325" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1325" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1325" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1325" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1325" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1325" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1325" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="L1325" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="15">
+        <v>45946.71010049769</v>
+      </c>
+      <c r="B1326" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1326" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1326" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1326" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1326" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1326" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1326" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1326" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1326" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1326" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1326" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="10">
+        <v>45946.71247366898</v>
+      </c>
+      <c r="B1327" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1327" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1327" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1327" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1327" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1327" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1327" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1327" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1327" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1327" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1327" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="15">
+        <v>45947.28321006944</v>
+      </c>
+      <c r="B1328" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1328" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1328" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1328" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1328" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1328" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1328" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1328" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1328" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1328" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1328" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="10">
+        <v>45947.30519408565</v>
+      </c>
+      <c r="B1329" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1329" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1329" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1329" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1329" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1329" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1329" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1329" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1329" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1329" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="L1329" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="15">
+        <v>45947.40966282407</v>
+      </c>
+      <c r="B1330" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1330" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1330" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1330" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1330" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1330" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1330" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1330" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1330" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1330" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1330" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="10">
+        <v>45947.41974974537</v>
+      </c>
+      <c r="B1331" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1331" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1331" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1331" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1331" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1331" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1331" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1331" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1331" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1331" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1331" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="15">
+        <v>45947.41995070602</v>
+      </c>
+      <c r="B1332" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1332" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1332" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1332" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1332" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1332" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1332" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1332" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1332" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1332" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1332" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="10">
+        <v>45947.419975509256</v>
+      </c>
+      <c r="B1333" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1333" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1333" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1333" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1333" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1333" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1333" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1333" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1333" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1333" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1333" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="15">
+        <v>45947.42088297453</v>
+      </c>
+      <c r="B1334" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1334" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1334" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1334" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1334" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1334" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1334" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1334" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1334" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1334" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1334" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="10">
+        <v>45947.421968379625</v>
+      </c>
+      <c r="B1335" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1335" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1335" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1335" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1335" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1335" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1335" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1335" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1335" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1335" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1335" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="15">
+        <v>45947.42298914352</v>
+      </c>
+      <c r="B1336" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1336" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1336" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1336" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1336" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1336" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1336" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1336" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1336" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1336" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="L1336" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="10">
+        <v>45947.42383932871</v>
+      </c>
+      <c r="B1337" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1337" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1337" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1337" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1337" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1337" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1337" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1337" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1337" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1337" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1337" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="15">
+        <v>45947.43112518519</v>
+      </c>
+      <c r="B1338" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1338" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1338" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1338" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1338" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1338" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1338" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1338" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1338" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1338" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1338" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="10">
+        <v>45947.43127833333</v>
+      </c>
+      <c r="B1339" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1339" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1339" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1339" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1339" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1339" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1339" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1339" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1339" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1339" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1339" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="18">
+        <v>45947.43514785879</v>
+      </c>
+      <c r="B1340" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1340" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1340" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1340" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1340" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1340" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1340" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1340" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1340" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1340" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1340" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1416">
+  <conditionalFormatting sqref="J1:J1440">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14484" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14505" uniqueCount="345">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1046,6 +1046,9 @@
   <si>
     <t xml:space="preserve">. </t>
   </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 16 espalda</t>
+  </si>
 </sst>
 </file>
 
@@ -1427,7 +1430,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1340" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1342" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -52542,45 +52545,121 @@
       </c>
     </row>
     <row r="1340">
-      <c r="A1340" s="18">
+      <c r="A1340" s="15">
         <v>45947.43514785879</v>
       </c>
-      <c r="B1340" s="19" t="s">
+      <c r="B1340" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C1340" s="19" t="s">
+      <c r="C1340" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D1340" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1340" s="19" t="s">
+      <c r="D1340" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1340" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F1340" s="19" t="s">
+      <c r="F1340" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G1340" s="19" t="s">
+      <c r="G1340" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H1340" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1340" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1340" s="20" t="s">
+      <c r="H1340" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1340" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1340" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1340" s="19" t="s">
+      <c r="K1340" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="L1340" s="21">
+      <c r="L1340" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="1341">
+      <c r="A1341" s="10">
+        <v>45947.56450741898</v>
+      </c>
+      <c r="B1341" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1341" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1341" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1341" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1341" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1341" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1341" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1341" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1341" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1341" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="L1341" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="18">
+        <v>45948.33946671296</v>
+      </c>
+      <c r="B1342" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1342" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1342" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1342" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1342" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1342" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1342" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1342" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1342" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1342" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1342" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1440">
+  <conditionalFormatting sqref="J1:J1442">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14505" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14634" uniqueCount="347">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1049,6 +1049,12 @@
   <si>
     <t>9 Isquiotibial izquierdo, 16 espalda</t>
   </si>
+  <si>
+    <t>13 pantorrilla izquierda, 14 pantorrilla derecha, 22 gluteo izquierdo</t>
+  </si>
+  <si>
+    <t>14 pantorrilla derecha, 15 espalda baja, 16 espalda, 19 hombro derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1430,7 +1436,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1342" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1354" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -52621,45 +52627,501 @@
       </c>
     </row>
     <row r="1342">
-      <c r="A1342" s="18">
+      <c r="A1342" s="15">
         <v>45948.33946671296</v>
       </c>
-      <c r="B1342" s="19" t="s">
+      <c r="B1342" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C1342" s="19" t="s">
+      <c r="C1342" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D1342" s="19" t="s">
+      <c r="D1342" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E1342" s="19" t="s">
+      <c r="E1342" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F1342" s="19" t="s">
+      <c r="F1342" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G1342" s="19" t="s">
+      <c r="G1342" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H1342" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1342" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1342" s="20" t="s">
+      <c r="H1342" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1342" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1342" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1342" s="19" t="s">
+      <c r="K1342" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="L1342" s="21" t="s">
+      <c r="L1342" s="17" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="1343">
+      <c r="A1343" s="10">
+        <v>45949.375007905095</v>
+      </c>
+      <c r="B1343" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1343" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1343" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1343" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1343" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1343" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1343" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1343" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1343" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1343" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1343" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="15">
+        <v>45949.37658489583</v>
+      </c>
+      <c r="B1344" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1344" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1344" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1344" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1344" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1344" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1344" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1344" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1344" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1344" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1344" s="17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="10">
+        <v>45949.37732372685</v>
+      </c>
+      <c r="B1345" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1345" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1345" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1345" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1345" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1345" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1345" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1345" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1345" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1345" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1345" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="15">
+        <v>45949.39930319444</v>
+      </c>
+      <c r="B1346" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1346" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1346" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1346" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1346" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1346" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1346" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1346" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1346" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1346" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1346" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="10">
+        <v>45949.4008796875</v>
+      </c>
+      <c r="B1347" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1347" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1347" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1347" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1347" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1347" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1347" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1347" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1347" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1347" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1347" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="15">
+        <v>45949.40162201389</v>
+      </c>
+      <c r="B1348" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1348" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1348" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1348" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1348" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1348" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1348" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1348" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1348" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1348" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1348" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="10">
+        <v>45949.40348503472</v>
+      </c>
+      <c r="B1349" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1349" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1349" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1349" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1349" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1349" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1349" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1349" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1349" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1349" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1349" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="15">
+        <v>45949.40535969907</v>
+      </c>
+      <c r="B1350" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1350" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1350" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1350" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1350" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1350" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1350" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1350" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1350" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1350" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1350" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="10">
+        <v>45949.40769806713</v>
+      </c>
+      <c r="B1351" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1351" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1351" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1351" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1351" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1351" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1351" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1351" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1351" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1351" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="15">
+        <v>45949.41234876157</v>
+      </c>
+      <c r="B1352" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1352" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1352" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1352" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1352" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1352" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1352" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1352" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1352" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1352" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1352" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="10">
+        <v>45949.41326489583</v>
+      </c>
+      <c r="B1353" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1353" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1353" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1353" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1353" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1353" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1353" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1353" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1353" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1353" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1353" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="18">
+        <v>45949.41328934028</v>
+      </c>
+      <c r="B1354" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1354" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1354" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1354" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1354" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1354" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1354" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1354" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1354" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1354" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1354" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1442">
+  <conditionalFormatting sqref="J1:J1454">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14634" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14849" uniqueCount="354">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1055,6 +1055,27 @@
   <si>
     <t>14 pantorrilla derecha, 15 espalda baja, 16 espalda, 19 hombro derecho</t>
   </si>
+  <si>
+    <t>6 espinilla izquierda, 8 tobillo izquierdo, 16 espalda</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 17 aductor izquierdo, 18 aductor derecho, 19 hombro derecho</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>6 espinilla izquierda, 9 Isquiotibial izquierdo, 18 aductor derecho</t>
+  </si>
+  <si>
+    <t>No (He estado vomitando la cena en casa y con Diarrea…)</t>
+  </si>
+  <si>
+    <t>5 espinilla derecha, 14 pantorrilla derecha, 16 espalda, 19 hombro derecho</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 22 gluteo izquierdo</t>
+  </si>
 </sst>
 </file>
 
@@ -1436,7 +1457,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1354" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1374" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -53083,45 +53104,805 @@
       </c>
     </row>
     <row r="1354">
-      <c r="A1354" s="18">
+      <c r="A1354" s="15">
         <v>45949.41328934028</v>
       </c>
-      <c r="B1354" s="19" t="s">
+      <c r="B1354" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C1354" s="19" t="s">
+      <c r="C1354" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="D1354" s="19" t="s">
+      <c r="D1354" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E1354" s="19" t="s">
+      <c r="E1354" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1354" s="19" t="s">
+      <c r="F1354" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G1354" s="19" t="s">
+      <c r="G1354" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H1354" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1354" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1354" s="20" t="s">
+      <c r="H1354" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1354" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1354" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1354" s="19" t="s">
+      <c r="K1354" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="L1354" s="21">
+      <c r="L1354" s="17">
         <v>0.0</v>
       </c>
     </row>
+    <row r="1355">
+      <c r="A1355" s="10">
+        <v>45949.447309236115</v>
+      </c>
+      <c r="B1355" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1355" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1355" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1355" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1355" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1355" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1355" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1355" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1355" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1355" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1355" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="15">
+        <v>45949.741626284725</v>
+      </c>
+      <c r="B1356" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1356" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1356" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1356" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1356" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1356" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1356" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1356" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1356" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1356" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="L1356" s="17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="10">
+        <v>45950.370034374995</v>
+      </c>
+      <c r="B1357" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1357" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1357" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1357" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1357" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1357" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1357" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1357" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1357" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1357" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1357" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="15">
+        <v>45950.37020716435</v>
+      </c>
+      <c r="B1358" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1358" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1358" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1358" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1358" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1358" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1358" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1358" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1358" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1358" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="L1358" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="10">
+        <v>45950.37042523148</v>
+      </c>
+      <c r="B1359" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1359" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1359" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1359" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1359" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1359" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1359" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1359" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1359" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1359" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1359" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="15">
+        <v>45950.37262712963</v>
+      </c>
+      <c r="B1360" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1360" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1360" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1360" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1360" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1360" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1360" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1360" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1360" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1360" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1360" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="10">
+        <v>45950.37279516204</v>
+      </c>
+      <c r="B1361" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1361" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1361" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1361" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1361" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1361" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1361" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1361" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1361" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1361" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1361" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="15">
+        <v>45950.374472511576</v>
+      </c>
+      <c r="B1362" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1362" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1362" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1362" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1362" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1362" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1362" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1362" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1362" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1362" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1362" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="10">
+        <v>45950.37555405093</v>
+      </c>
+      <c r="B1363" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1363" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1363" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1363" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1363" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1363" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1363" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1363" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1363" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1363" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1363" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="15">
+        <v>45950.3759167824</v>
+      </c>
+      <c r="B1364" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1364" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1364" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1364" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1364" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1364" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1364" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1364" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1364" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1364" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1364" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="10">
+        <v>45950.376042523145</v>
+      </c>
+      <c r="B1365" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1365" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1365" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1365" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1365" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1365" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1365" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1365" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1365" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1365" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="L1365" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="15">
+        <v>45950.37699344907</v>
+      </c>
+      <c r="B1366" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1366" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1366" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1366" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1366" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1366" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1366" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1366" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1366" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1366" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1366" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="10">
+        <v>45950.38016804398</v>
+      </c>
+      <c r="B1367" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1367" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1367" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1367" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1367" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1367" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1367" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1367" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1367" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1367" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1367" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="15">
+        <v>45950.39364645834</v>
+      </c>
+      <c r="B1368" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1368" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1368" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1368" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1368" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1368" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1368" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1368" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1368" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1368" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1368" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="10">
+        <v>45950.397894027774</v>
+      </c>
+      <c r="B1369" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1369" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1369" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1369" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1369" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1369" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1369" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1369" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1369" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1369" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1369" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="15">
+        <v>45950.40314328704</v>
+      </c>
+      <c r="B1370" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1370" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1370" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1370" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1370" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1370" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1370" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1370" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1370" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1370" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1370" s="17">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="10">
+        <v>45950.40866869213</v>
+      </c>
+      <c r="B1371" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1371" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1371" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1371" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1371" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1371" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1371" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1371" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1371" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1371" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1371" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="15">
+        <v>45950.422549490744</v>
+      </c>
+      <c r="B1372" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1372" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1372" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1372" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1372" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1372" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1372" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1372" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1372" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1372" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L1372" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="10">
+        <v>45950.425157418984</v>
+      </c>
+      <c r="B1373" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1373" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1373" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1373" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1373" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1373" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1373" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1373" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1373" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1373" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1373" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="18">
+        <v>45950.425747037036</v>
+      </c>
+      <c r="B1374" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1374" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1374" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1374" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1374" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1374" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1374" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1374" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1374" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1374" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="L1374" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1454">
+  <conditionalFormatting sqref="J1:J1474">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14849" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15020" uniqueCount="359">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1076,6 +1076,21 @@
   <si>
     <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 22 gluteo izquierdo</t>
   </si>
+  <si>
+    <t>10 isquiotibial derecho, 19 hombro derecho</t>
+  </si>
+  <si>
+    <t>No. Me encuentro un poco mejor pero volví a vomitar antes de dormir líquido.</t>
+  </si>
+  <si>
+    <t>6 espinilla izquierda, 18 aductor derecho</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 15 espalda baja, 16 espalda</t>
+  </si>
+  <si>
+    <t>3ro</t>
+  </si>
 </sst>
 </file>
 
@@ -1105,7 +1120,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -1291,20 +1306,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE06666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE06666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE06666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -1321,7 +1322,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1383,9 +1384,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1457,7 +1455,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1374" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1390" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -53864,45 +53862,653 @@
       </c>
     </row>
     <row r="1374">
-      <c r="A1374" s="18">
+      <c r="A1374" s="15">
         <v>45950.425747037036</v>
       </c>
-      <c r="B1374" s="19" t="s">
+      <c r="B1374" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C1374" s="19" t="s">
+      <c r="C1374" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D1374" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1374" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1374" s="19" t="s">
+      <c r="D1374" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1374" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1374" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G1374" s="19" t="s">
+      <c r="G1374" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H1374" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1374" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1374" s="20" t="s">
+      <c r="H1374" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1374" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1374" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1374" s="19" t="s">
+      <c r="K1374" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="L1374" s="21" t="s">
+      <c r="L1374" s="17" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="1375">
+      <c r="A1375" s="10">
+        <v>45951.26543758102</v>
+      </c>
+      <c r="B1375" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1375" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1375" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1375" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1375" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1375" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1375" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1375" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1375" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1375" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="L1375" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="15">
+        <v>45951.26601203704</v>
+      </c>
+      <c r="B1376" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1376" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1376" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1376" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1376" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1376" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1376" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1376" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1376" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1376" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1376" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="10">
+        <v>45951.26795804398</v>
+      </c>
+      <c r="B1377" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1377" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1377" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1377" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1377" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1377" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1377" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1377" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1377" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1377" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1377" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="15">
+        <v>45951.27087662037</v>
+      </c>
+      <c r="B1378" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1378" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1378" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1378" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1378" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1378" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1378" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1378" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1378" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1378" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1378" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="10">
+        <v>45951.271985115745</v>
+      </c>
+      <c r="B1379" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1379" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1379" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1379" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1379" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1379" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1379" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1379" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1379" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1379" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1379" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="15">
+        <v>45951.27202822917</v>
+      </c>
+      <c r="B1380" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1380" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1380" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1380" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1380" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1380" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1380" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1380" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1380" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1380" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1380" s="17">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="10">
+        <v>45951.27597165509</v>
+      </c>
+      <c r="B1381" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1381" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1381" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1381" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1381" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1381" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1381" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1381" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1381" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1381" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1381" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="15">
+        <v>45951.28100292824</v>
+      </c>
+      <c r="B1382" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1382" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1382" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1382" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1382" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1382" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1382" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1382" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1382" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1382" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1382" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="10">
+        <v>45951.281046874996</v>
+      </c>
+      <c r="B1383" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1383" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1383" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1383" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1383" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1383" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1383" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1383" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1383" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1383" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1383" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="15">
+        <v>45951.2813584838</v>
+      </c>
+      <c r="B1384" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1384" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1384" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1384" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1384" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1384" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1384" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1384" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1384" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1384" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1384" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="10">
+        <v>45951.28366372685</v>
+      </c>
+      <c r="B1385" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1385" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1385" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1385" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1385" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1385" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1385" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1385" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1385" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1385" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1385" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="15">
+        <v>45951.28997875</v>
+      </c>
+      <c r="B1386" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1386" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1386" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1386" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1386" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1386" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1386" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1386" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1386" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1386" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1386" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="10">
+        <v>45951.29249412037</v>
+      </c>
+      <c r="B1387" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1387" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1387" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1387" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1387" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1387" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1387" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1387" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1387" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1387" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1387" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="15">
+        <v>45951.293426828706</v>
+      </c>
+      <c r="B1388" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1388" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1388" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1388" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1388" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1388" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1388" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1388" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1388" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1388" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1388" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="10">
+        <v>45951.29878778935</v>
+      </c>
+      <c r="B1389" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1389" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1389" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1389" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1389" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1389" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1389" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1389" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1389" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1389" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1389" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="18">
+        <v>45951.307110775466</v>
+      </c>
+      <c r="B1390" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1390" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1390" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1390" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1390" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1390" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1390" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1390" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1390" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1390" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1390" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1474">
+  <conditionalFormatting sqref="J1:J1490">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15020" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15179" uniqueCount="360">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1091,6 +1091,9 @@
   <si>
     <t>3ro</t>
   </si>
+  <si>
+    <t>10 isquiotibial derecho, 15 espalda baja, 16 espalda, 19 hombro derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1120,7 +1123,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -1281,10 +1284,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1292,13 +1295,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1306,13 +1309,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE06666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE06666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE06666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1322,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1384,6 +1401,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1455,7 +1475,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1390" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1405" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -54470,45 +54490,615 @@
       </c>
     </row>
     <row r="1390">
-      <c r="A1390" s="18">
+      <c r="A1390" s="15">
         <v>45951.307110775466</v>
       </c>
-      <c r="B1390" s="19" t="s">
+      <c r="B1390" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C1390" s="19" t="s">
+      <c r="C1390" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D1390" s="19" t="s">
+      <c r="D1390" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E1390" s="19" t="s">
+      <c r="E1390" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F1390" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1390" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1390" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1390" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1390" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1390" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1390" s="20" t="s">
+      <c r="F1390" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1390" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1390" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1390" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1390" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1390" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1390" s="17" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="1391">
+      <c r="A1391" s="10">
+        <v>45952.266348668985</v>
+      </c>
+      <c r="B1391" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1391" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1391" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1391" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1391" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1391" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1391" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1391" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1391" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1391" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1391" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="15">
+        <v>45952.269370891205</v>
+      </c>
+      <c r="B1392" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1392" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1392" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1392" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1392" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1392" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1392" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1392" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1392" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1392" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1392" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="10">
+        <v>45952.26965472222</v>
+      </c>
+      <c r="B1393" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1393" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1393" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1393" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1393" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1393" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1393" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1393" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1393" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1393" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1393" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="15">
+        <v>45952.26990179398</v>
+      </c>
+      <c r="B1394" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1394" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1394" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1394" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1394" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1394" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1394" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1394" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1394" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1394" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1394" s="17">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="10">
+        <v>45952.27074436343</v>
+      </c>
+      <c r="B1395" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1395" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1395" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1395" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1395" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1395" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1395" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1395" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1395" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1395" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1395" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="15">
+        <v>45952.27305971065</v>
+      </c>
+      <c r="B1396" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1396" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1396" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1396" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1396" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1396" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1396" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1396" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1396" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1396" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1396" s="17">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="10">
+        <v>45952.274282488426</v>
+      </c>
+      <c r="B1397" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1397" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1397" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1397" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1397" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1397" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1397" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1397" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1397" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1397" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1397" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="15">
+        <v>45952.278245891204</v>
+      </c>
+      <c r="B1398" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1398" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1398" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1398" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1398" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1398" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1398" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1398" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1398" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1398" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1398" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="10">
+        <v>45952.27851909722</v>
+      </c>
+      <c r="B1399" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1399" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1399" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1399" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1399" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1399" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1399" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1399" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1399" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1399" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1399" s="14">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="15">
+        <v>45952.283817476855</v>
+      </c>
+      <c r="B1400" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1400" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1400" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1400" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1400" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1400" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1400" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1400" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1400" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1400" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1400" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="10">
+        <v>45952.290739965276</v>
+      </c>
+      <c r="B1401" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1401" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1401" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1401" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1401" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1401" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1401" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1401" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1401" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1401" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1401" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="15">
+        <v>45952.29214372685</v>
+      </c>
+      <c r="B1402" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1402" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1402" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1402" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1402" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1402" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1402" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1402" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1402" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1402" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1402" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="10">
+        <v>45952.29747925926</v>
+      </c>
+      <c r="B1403" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1403" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1403" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1403" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1403" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1403" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1403" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1403" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1403" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1403" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1403" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="15">
+        <v>45952.3017830787</v>
+      </c>
+      <c r="B1404" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1404" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1404" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1404" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1404" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1404" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1404" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1404" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1404" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1404" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1404" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="18">
+        <v>45952.307107719906</v>
+      </c>
+      <c r="B1405" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1405" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1405" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1405" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1405" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1405" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1405" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1405" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1405" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1405" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1405" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1490">
+  <conditionalFormatting sqref="J1:J1505">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15179" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15190" uniqueCount="360">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1284,10 +1284,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1295,13 +1295,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1323,13 +1323,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1475,7 +1475,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1405" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1406" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -55060,45 +55060,83 @@
       </c>
     </row>
     <row r="1405">
-      <c r="A1405" s="18">
+      <c r="A1405" s="10">
         <v>45952.307107719906</v>
       </c>
-      <c r="B1405" s="19" t="s">
+      <c r="B1405" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1405" s="19" t="s">
+      <c r="C1405" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D1405" s="19" t="s">
+      <c r="D1405" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E1405" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1405" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1405" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1405" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1405" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1405" s="20" t="s">
+      <c r="E1405" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1405" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1405" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1405" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1405" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1405" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1405" s="19" t="s">
+      <c r="K1405" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="L1405" s="21">
+      <c r="L1405" s="14">
         <v>0.0</v>
       </c>
     </row>
+    <row r="1406">
+      <c r="A1406" s="18">
+        <v>45953.317873935186</v>
+      </c>
+      <c r="B1406" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1406" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1406" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1406" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1406" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1406" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1406" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1406" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1406" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1406" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1406" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1505">
+  <conditionalFormatting sqref="J1:J1506">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15190" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15350" uniqueCount="361">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1094,6 +1094,9 @@
   <si>
     <t>10 isquiotibial derecho, 15 espalda baja, 16 espalda, 19 hombro derecho</t>
   </si>
+  <si>
+    <t>10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 24 aquiles</t>
+  </si>
 </sst>
 </file>
 
@@ -1239,7 +1242,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1406" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1421" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -54899,8 +54902,578 @@
         <v>37</v>
       </c>
     </row>
+    <row r="1407">
+      <c r="A1407" s="6">
+        <v>45957.359342372685</v>
+      </c>
+      <c r="B1407" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1407" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1407" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1407" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1407" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1407" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1407" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1407" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1407" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1407" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L1407" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="6">
+        <v>45957.41163675926</v>
+      </c>
+      <c r="B1408" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1408" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1408" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1408" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1408" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1408" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1408" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1408" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1408" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1408" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1408" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="6">
+        <v>45957.41164855324</v>
+      </c>
+      <c r="B1409" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1409" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1409" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1409" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1409" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1409" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1409" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1409" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1409" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1409" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1409" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="6">
+        <v>45957.41169518519</v>
+      </c>
+      <c r="B1410" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1410" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1410" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1410" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1410" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1410" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1410" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1410" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1410" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1410" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1410" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="6">
+        <v>45957.41175854167</v>
+      </c>
+      <c r="B1411" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1411" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1411" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1411" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1411" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1411" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1411" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1411" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="6">
+        <v>45957.41197854167</v>
+      </c>
+      <c r="B1412" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1412" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1412" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1412" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1412" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1412" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1412" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1412" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1412" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1412" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1412" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="6">
+        <v>45957.41207986111</v>
+      </c>
+      <c r="B1413" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1413" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1413" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1413" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1413" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1413" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1413" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1413" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1413" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1413" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1413" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="6">
+        <v>45957.412270381945</v>
+      </c>
+      <c r="B1414" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1414" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1414" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1414" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1414" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1414" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1414" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1414" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1414" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1414" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1414" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="6">
+        <v>45957.41563555556</v>
+      </c>
+      <c r="B1415" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1415" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1415" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1415" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1415" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1415" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1415" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1415" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1415" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1415" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1415" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="6">
+        <v>45957.41701454861</v>
+      </c>
+      <c r="B1416" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1416" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1416" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1416" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1416" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1416" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1416" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1416" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1416" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1416" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1416" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="6">
+        <v>45957.41946483796</v>
+      </c>
+      <c r="B1417" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1417" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1417" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1417" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1417" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1417" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1417" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1417" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1417" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1417" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1417" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="6">
+        <v>45957.42831670139</v>
+      </c>
+      <c r="B1418" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1418" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1418" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1418" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1418" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1418" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1418" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1418" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1418" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1418" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1418" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="6">
+        <v>45957.43695538194</v>
+      </c>
+      <c r="B1419" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1419" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1419" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1419" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1419" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1419" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1419" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1419" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1419" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1419" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1419" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="6">
+        <v>45957.447830150464</v>
+      </c>
+      <c r="B1420" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1420" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1420" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1420" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1420" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1420" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1420" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1420" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1420" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1420" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1420" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="6">
+        <v>45957.44903621528</v>
+      </c>
+      <c r="B1421" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1421" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1421" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1421" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1421" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1421" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1421" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1421" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1421" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1421" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1421" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1506">
+  <conditionalFormatting sqref="J1:J1521">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15350" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15427" uniqueCount="362">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1097,6 +1097,9 @@
   <si>
     <t>10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 24 aquiles</t>
   </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1242,7 +1245,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1421" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1428" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -55472,8 +55475,274 @@
         <v>31</v>
       </c>
     </row>
+    <row r="1422">
+      <c r="A1422" s="6">
+        <v>45957.46515653935</v>
+      </c>
+      <c r="B1422" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1422" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1422" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1422" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1422" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1422" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1422" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1422" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1422" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1422" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1422" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="6">
+        <v>45958.37585167824</v>
+      </c>
+      <c r="B1423" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1423" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1423" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1423" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1423" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1423" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1423" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1423" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1423" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1423" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1423" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="6">
+        <v>45958.40546369213</v>
+      </c>
+      <c r="B1424" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1424" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1424" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1424" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1424" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1424" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1424" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1424" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1424" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1424" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1424" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="6">
+        <v>45958.40880172454</v>
+      </c>
+      <c r="B1425" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1425" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1425" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1425" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1425" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1425" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1425" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1425" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1425" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1425" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1425" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="6">
+        <v>45958.435564444444</v>
+      </c>
+      <c r="B1426" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1426" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1426" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1426" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1426" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1426" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1426" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1426" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1426" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1426" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L1426" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="6">
+        <v>45958.44380435185</v>
+      </c>
+      <c r="B1427" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1427" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1427" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1427" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1427" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1427" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1427" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1427" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1427" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1427" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1427" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="6">
+        <v>45958.44541501158</v>
+      </c>
+      <c r="B1428" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1428" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1428" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1428" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1428" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1428" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1428" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1428" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1428" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1428" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1428" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1521">
+  <conditionalFormatting sqref="J1:J1528">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15427" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15479" uniqueCount="362">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1245,7 +1245,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1428" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1433" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -55741,8 +55741,198 @@
         <v>52</v>
       </c>
     </row>
+    <row r="1429">
+      <c r="A1429" s="6">
+        <v>45958.46072342593</v>
+      </c>
+      <c r="B1429" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1429" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1429" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1429" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1429" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1429" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1429" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1429" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1429" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1429" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1429" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="6">
+        <v>45958.46318878472</v>
+      </c>
+      <c r="B1430" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1430" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1430" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1430" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1430" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1430" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1430" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1430" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1430" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1430" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1430" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="6">
+        <v>45958.46326642361</v>
+      </c>
+      <c r="B1431" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1431" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1431" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1431" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1431" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1431" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1431" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1431" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1431" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1431" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1431" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="6">
+        <v>45958.49614319444</v>
+      </c>
+      <c r="B1432" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1432" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1432" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1432" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1432" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1432" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1432" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1432" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1432" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1432" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1432" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="6">
+        <v>45958.521010729164</v>
+      </c>
+      <c r="B1433" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1433" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1433" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1433" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1433" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1433" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1433" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1433" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1433" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1433" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1433" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1528">
+  <conditionalFormatting sqref="J1:J1533">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15479" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15681" uniqueCount="362">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1245,7 +1245,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1433" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1452" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -55931,8 +55931,730 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1434">
+      <c r="A1434" s="6">
+        <v>45959.45803519676</v>
+      </c>
+      <c r="B1434" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1434" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1434" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1434" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1434" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1434" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1434" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1434" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1434" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1434" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1434" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="6">
+        <v>45960.333853379634</v>
+      </c>
+      <c r="B1435" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1435" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1435" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1435" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1435" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1435" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1435" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1435" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1435" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1435" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1435" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="6">
+        <v>45960.334344131945</v>
+      </c>
+      <c r="B1436" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1436" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1436" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1436" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1436" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1436" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1436" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1436" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1436" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1436" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1436" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="6">
+        <v>45960.377915833335</v>
+      </c>
+      <c r="B1437" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1437" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1437" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1437" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1437" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1437" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1437" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1437" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1437" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1437" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1437" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="6">
+        <v>45960.39972583333</v>
+      </c>
+      <c r="B1438" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1438" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1438" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1438" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1438" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1438" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1438" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1438" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1438" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1438" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1438" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="6">
+        <v>45960.40038652778</v>
+      </c>
+      <c r="B1439" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1439" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1439" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1439" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1439" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1439" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1439" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1439" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1439" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1439" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1439" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="6">
+        <v>45960.40173125</v>
+      </c>
+      <c r="B1440" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1440" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1440" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1440" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1440" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1440" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1440" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1440" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1440" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1440" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1440" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="6">
+        <v>45960.40239756944</v>
+      </c>
+      <c r="B1441" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1441" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1441" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1441" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1441" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1441" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1441" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1441" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1441" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1441" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1441" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="6">
+        <v>45960.4040793287</v>
+      </c>
+      <c r="B1442" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1442" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1442" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1442" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1442" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1442" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1442" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1442" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1442" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1442" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1442" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="6">
+        <v>45960.40682210648</v>
+      </c>
+      <c r="B1443" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1443" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1443" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1443" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1443" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1443" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1443" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1443" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1443" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1443" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1443" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="6">
+        <v>45960.40810163194</v>
+      </c>
+      <c r="B1444" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1444" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1444" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1444" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1444" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1444" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1444" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1444" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1444" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1444" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1444" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="6">
+        <v>45960.4090278588</v>
+      </c>
+      <c r="B1445" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1445" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1445" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1445" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1445" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1445" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1445" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1445" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1445" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1445" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1445" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="6">
+        <v>45960.411564166665</v>
+      </c>
+      <c r="B1446" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1446" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1446" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1446" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1446" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1446" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1446" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1446" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1446" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1446" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1446" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="6">
+        <v>45960.414231840274</v>
+      </c>
+      <c r="B1447" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1447" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1447" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1447" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1447" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1447" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1447" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1447" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1447" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1447" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1447" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="6">
+        <v>45960.4170232176</v>
+      </c>
+      <c r="B1448" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1448" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1448" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1448" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1448" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1448" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1448" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1448" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1448" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1448" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1448" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="6">
+        <v>45960.41989311343</v>
+      </c>
+      <c r="B1449" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1449" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1449" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1449" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1449" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1449" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1449" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1449" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1449" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1449" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1449" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="6">
+        <v>45960.42369244213</v>
+      </c>
+      <c r="B1450" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1450" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1450" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1450" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1450" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1450" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1450" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1450" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1450" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1450" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1450" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="6">
+        <v>45960.42799</v>
+      </c>
+      <c r="B1451" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1451" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1451" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1451" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1451" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1451" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1451" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1451" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1451" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1451" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1451" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="6">
+        <v>45960.43755436342</v>
+      </c>
+      <c r="B1452" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1452" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1452" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1452" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1452" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1452" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1452" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1452" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1452" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1452" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1452" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1533">
+  <conditionalFormatting sqref="J1:J1552">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15681" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15872" uniqueCount="364">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1100,6 +1100,12 @@
   <si>
     <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 5 espinilla derecha, 6 espinilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -1245,7 +1251,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1452" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1470" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -56653,8 +56659,692 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="1453">
+      <c r="A1453" s="6">
+        <v>45961.33157700232</v>
+      </c>
+      <c r="B1453" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1453" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1453" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1453" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1453" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1453" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1453" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1453" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1453" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1453" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1453" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="6">
+        <v>45961.33401358796</v>
+      </c>
+      <c r="B1454" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1454" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1454" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1454" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1454" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1454" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1454" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1454" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1454" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1454" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1454" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="6">
+        <v>45961.33654771991</v>
+      </c>
+      <c r="B1455" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1455" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1455" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1455" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1455" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1455" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1455" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1455" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1455" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1455" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1455" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="6">
+        <v>45961.347992870375</v>
+      </c>
+      <c r="B1456" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1456" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1456" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1456" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1456" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1456" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1456" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1456" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1456" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1456" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1456" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="6">
+        <v>45961.355442395834</v>
+      </c>
+      <c r="B1457" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1457" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1457" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1457" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1457" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1457" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1457" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1457" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1457" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1457" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L1457" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="6">
+        <v>45961.355579641204</v>
+      </c>
+      <c r="B1458" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1458" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1458" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1458" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1458" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1458" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1458" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1458" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1458" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1458" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1458" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="6">
+        <v>45961.35712239583</v>
+      </c>
+      <c r="B1459" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1459" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1459" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1459" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1459" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1459" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1459" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1459" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1459" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1459" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1459" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="6">
+        <v>45961.3575412037</v>
+      </c>
+      <c r="B1460" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1460" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1460" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1460" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1460" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1460" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1460" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1460" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1460" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1460" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1460" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="6">
+        <v>45961.357712083336</v>
+      </c>
+      <c r="B1461" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1461" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1461" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1461" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1461" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1461" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1461" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1461" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1461" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1461" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1461" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="6">
+        <v>45961.35841020833</v>
+      </c>
+      <c r="B1462" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1462" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1462" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1462" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1462" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1462" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1462" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1462" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1462" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1462" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1462" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="6">
+        <v>45961.35932311343</v>
+      </c>
+      <c r="B1463" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1463" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1463" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1463" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1463" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1463" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1463" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1463" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1463" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1463" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1463" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="6">
+        <v>45961.3596021875</v>
+      </c>
+      <c r="B1464" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1464" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1464" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1464" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1464" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1464" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1464" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1464" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1464" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1464" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1464" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="6">
+        <v>45961.360457268514</v>
+      </c>
+      <c r="B1465" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1465" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1465" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1465" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1465" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1465" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1465" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1465" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1465" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1465" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1465" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="6">
+        <v>45961.3606233912</v>
+      </c>
+      <c r="B1466" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1466" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1466" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1466" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1466" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1466" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1466" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1466" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1466" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1466" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1466" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="6">
+        <v>45961.36131606482</v>
+      </c>
+      <c r="B1467" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1467" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1467" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1467" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1467" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1467" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1467" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1467" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1467" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1467" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1467" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="6">
+        <v>45961.36133594907</v>
+      </c>
+      <c r="B1468" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1468" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1468" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1468" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1468" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1468" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1468" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1468" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1468" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1468" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L1468" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="6">
+        <v>45961.36257856482</v>
+      </c>
+      <c r="B1469" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1469" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1469" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1469" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1469" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1469" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1469" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1469" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1469" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1469" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1469" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="6">
+        <v>45961.36563533565</v>
+      </c>
+      <c r="B1470" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1470" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1470" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1470" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1470" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1470" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1470" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1470" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1470" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1470" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1470" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1552">
+  <conditionalFormatting sqref="J1:J1570">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15872" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15894" uniqueCount="365">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1106,6 +1106,9 @@
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 5 espinilla derecha, 6 espinilla izquierda</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 17 aductor izquierdo, 18 aductor derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1251,7 +1254,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1470" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1472" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -57343,8 +57346,84 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="1471">
+      <c r="A1471" s="6">
+        <v>45962.46687359954</v>
+      </c>
+      <c r="B1471" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1471" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1471" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1471" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1471" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1471" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1471" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1471" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1471" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1471" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1471" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="6">
+        <v>45963.351016898145</v>
+      </c>
+      <c r="B1472" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1472" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1472" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1472" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1472" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1472" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1472" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1472" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1472" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1472" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L1472" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1570">
+  <conditionalFormatting sqref="J1:J1572">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15894" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16100" uniqueCount="367">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1109,6 +1109,12 @@
   <si>
     <t>1 muslo izquierdo, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 17 aductor izquierdo, 18 aductor derecho</t>
   </si>
+  <si>
+    <t>Mi z</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 16 espalda, 17 aductor izquierdo, 18 aductor derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1254,7 +1260,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1472" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1491" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -57422,8 +57428,730 @@
         <v>72</v>
       </c>
     </row>
+    <row r="1473">
+      <c r="A1473" s="6">
+        <v>45964.368890185186</v>
+      </c>
+      <c r="B1473" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1473" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1473" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1473" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1473" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1473" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1473" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1473" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1473" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1473" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1473" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="6">
+        <v>45964.398693055555</v>
+      </c>
+      <c r="B1474" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1474" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1474" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1474" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1474" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1474" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1474" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1474" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1474" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1474" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1474" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="6">
+        <v>45964.41104032408</v>
+      </c>
+      <c r="B1475" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1475" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1475" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1475" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1475" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1475" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1475" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1475" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1475" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1475" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1475" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="6">
+        <v>45964.4111318287</v>
+      </c>
+      <c r="B1476" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1476" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1476" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1476" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1476" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1476" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1476" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1476" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1476" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1476" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1476" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="6">
+        <v>45964.41286438657</v>
+      </c>
+      <c r="B1477" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1477" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1477" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1477" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1477" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1477" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1477" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1477" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1477" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1477" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1477" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="6">
+        <v>45964.413113449074</v>
+      </c>
+      <c r="B1478" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1478" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1478" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1478" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1478" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1478" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1478" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1478" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1478" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1478" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1478" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="6">
+        <v>45964.41314822917</v>
+      </c>
+      <c r="B1479" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1479" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1479" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1479" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1479" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1479" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1479" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1479" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1479" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1479" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1479" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="6">
+        <v>45964.4132396875</v>
+      </c>
+      <c r="B1480" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1480" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1480" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1480" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1480" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1480" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1480" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1480" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1480" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1480" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1480" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="6">
+        <v>45964.414501747684</v>
+      </c>
+      <c r="B1481" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1481" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1481" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1481" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1481" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1481" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1481" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1481" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1481" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1481" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1481" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="6">
+        <v>45964.417956296296</v>
+      </c>
+      <c r="B1482" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1482" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1482" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1482" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1482" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1482" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1482" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1482" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1482" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1482" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1482" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="6">
+        <v>45964.42035194444</v>
+      </c>
+      <c r="B1483" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1483" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1483" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1483" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1483" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1483" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1483" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1483" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1483" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1483" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1483" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="6">
+        <v>45964.42108932871</v>
+      </c>
+      <c r="B1484" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1484" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1484" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1484" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1484" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1484" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1484" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1484" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1484" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1484" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1484" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="6">
+        <v>45964.42389501157</v>
+      </c>
+      <c r="B1485" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1485" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1485" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1485" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1485" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1485" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1485" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1485" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1485" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1485" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1485" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="6">
+        <v>45964.42774972222</v>
+      </c>
+      <c r="B1486" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1486" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1486" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1486" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1486" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1486" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1486" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1486" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1486" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1486" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1486" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="6">
+        <v>45964.43092599537</v>
+      </c>
+      <c r="B1487" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1487" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1487" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1487" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1487" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1487" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1487" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1487" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1487" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1487" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1487" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="6">
+        <v>45964.434216574075</v>
+      </c>
+      <c r="B1488" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1488" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1488" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1488" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1488" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1488" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1488" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1488" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1488" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1488" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1488" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="6">
+        <v>45964.437782673616</v>
+      </c>
+      <c r="B1489" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1489" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1489" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1489" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1489" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1489" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1489" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1489" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1489" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1489" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1489" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="6">
+        <v>45964.43927289352</v>
+      </c>
+      <c r="B1490" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1490" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1490" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1490" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1490" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1490" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1490" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1490" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1490" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1490" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1490" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="6">
+        <v>45964.445305914356</v>
+      </c>
+      <c r="B1491" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1491" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1491" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1491" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1491" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1491" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1491" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1491" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1491" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1491" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1491" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1572">
+  <conditionalFormatting sqref="J1:J1591">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16100" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16272" uniqueCount="371">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1115,6 +1115,18 @@
   <si>
     <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 16 espalda, 17 aductor izquierdo, 18 aductor derecho</t>
   </si>
+  <si>
+    <t>5 espinilla derecha, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 15 espalda baja, 16 espalda</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 9 Isquiotibial izquierdo</t>
+  </si>
+  <si>
+    <t>13 pantorrilla izquierda, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1260,7 +1272,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1491" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1507" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -58150,8 +58162,616 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1492">
+      <c r="A1492" s="6">
+        <v>45964.45219699074</v>
+      </c>
+      <c r="B1492" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1492" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1492" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1492" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1492" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1492" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1492" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1492" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1492" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1492" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1492" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="6">
+        <v>45965.2763421875</v>
+      </c>
+      <c r="B1493" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1493" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1493" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1493" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1493" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1493" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1493" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1493" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1493" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1493" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1493" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="6">
+        <v>45965.303218726855</v>
+      </c>
+      <c r="B1494" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1494" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1494" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1494" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1494" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1494" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1494" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1494" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1494" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1494" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1494" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="6">
+        <v>45965.309888020834</v>
+      </c>
+      <c r="B1495" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1495" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1495" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1495" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1495" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1495" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1495" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1495" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1495" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1495" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1495" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="6">
+        <v>45965.31698112268</v>
+      </c>
+      <c r="B1496" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1496" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1496" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1496" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1496" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1496" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1496" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1496" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1496" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1496" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L1496" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="6">
+        <v>45965.330683611115</v>
+      </c>
+      <c r="B1497" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1497" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1497" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1497" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1497" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1497" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1497" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1497" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1497" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1497" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1497" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="6">
+        <v>45965.33090527778</v>
+      </c>
+      <c r="B1498" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1498" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1498" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1498" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1498" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1498" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1498" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1498" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1498" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1498" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1498" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="6">
+        <v>45965.331996168985</v>
+      </c>
+      <c r="B1499" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1499" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1499" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1499" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1499" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1499" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1499" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1499" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1499" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1499" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1499" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="6">
+        <v>45965.33326407407</v>
+      </c>
+      <c r="B1500" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1500" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1500" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1500" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1500" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1500" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1500" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1500" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1500" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1500" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1500" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="6">
+        <v>45965.33569547454</v>
+      </c>
+      <c r="B1501" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1501" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1501" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1501" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1501" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1501" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1501" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1501" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1501" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1501" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1501" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="6">
+        <v>45965.33643458333</v>
+      </c>
+      <c r="B1502" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1502" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1502" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1502" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1502" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1502" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1502" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1502" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1502" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1502" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1502" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="6">
+        <v>45965.34286821759</v>
+      </c>
+      <c r="B1503" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1503" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1503" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1503" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1503" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1503" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1503" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1503" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1503" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1503" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1503" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="6">
+        <v>45965.34819293981</v>
+      </c>
+      <c r="B1504" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1504" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1504" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1504" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1504" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1504" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1504" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1504" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1504" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1504" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1504" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="6">
+        <v>45965.35579454861</v>
+      </c>
+      <c r="B1505" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1505" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1505" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1505" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1505" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1505" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1505" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1505" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1505" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1505" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1505" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="6">
+        <v>45965.36630084491</v>
+      </c>
+      <c r="B1506" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1506" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1506" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1506" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1506" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1506" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1506" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1506" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1506" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1506" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L1506" s="7">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="6">
+        <v>45965.395853298614</v>
+      </c>
+      <c r="B1507" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1507" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1507" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1507" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1507" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1507" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1507" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1507" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1507" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1507" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L1507" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1591">
+  <conditionalFormatting sqref="J1:J1607">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16272" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16455" uniqueCount="374">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1127,6 +1127,15 @@
   <si>
     <t>13 pantorrilla izquierda, 22 gluteo izquierdo, 23 gluteo derecho</t>
   </si>
+  <si>
+    <t>6 espinilla izquierda, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 12 parte trasera de la rodilla derecha, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>16 espalda, 19 hombro derecho, 20 hombro izquierdo</t>
+  </si>
 </sst>
 </file>
 
@@ -1272,7 +1281,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1507" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1524" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -58770,8 +58779,654 @@
         <v>31</v>
       </c>
     </row>
+    <row r="1508">
+      <c r="A1508" s="6">
+        <v>45966.359892962966</v>
+      </c>
+      <c r="B1508" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1508" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1508" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1508" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1508" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1508" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1508" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1508" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1508" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1508" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L1508" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="6">
+        <v>45966.364124699074</v>
+      </c>
+      <c r="B1509" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1509" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1509" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1509" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1509" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1509" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1509" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1509" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1509" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1509" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1509" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="6">
+        <v>45966.36838612269</v>
+      </c>
+      <c r="B1510" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1510" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1510" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1510" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1510" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1510" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1510" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1510" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1510" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1510" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L1510" s="7">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="6">
+        <v>45966.3683872338</v>
+      </c>
+      <c r="B1511" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1511" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1511" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1511" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1511" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1511" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1511" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1511" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1511" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1511" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1511" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="6">
+        <v>45966.3684997338</v>
+      </c>
+      <c r="B1512" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1512" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1512" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1512" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1512" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1512" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1512" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1512" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1512" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1512" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1512" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="6">
+        <v>45966.368799247684</v>
+      </c>
+      <c r="B1513" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1513" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1513" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1513" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1513" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1513" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1513" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1513" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1513" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1513" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1513" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="6">
+        <v>45966.36888248843</v>
+      </c>
+      <c r="B1514" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1514" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1514" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1514" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1514" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1514" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1514" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1514" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1514" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1514" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1514" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="6">
+        <v>45966.36946469908</v>
+      </c>
+      <c r="B1515" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1515" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1515" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1515" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1515" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1515" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1515" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1515" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1515" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1515" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1515" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="6">
+        <v>45966.369663715275</v>
+      </c>
+      <c r="B1516" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1516" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1516" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1516" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1516" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1516" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1516" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1516" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1516" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1516" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1516" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="6">
+        <v>45966.37171583333</v>
+      </c>
+      <c r="B1517" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1517" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1517" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1517" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1517" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1517" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1517" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1517" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1517" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1517" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1517" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="6">
+        <v>45966.377589826385</v>
+      </c>
+      <c r="B1518" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1518" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1518" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1518" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1518" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1518" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1518" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1518" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1518" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1518" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1518" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="6">
+        <v>45966.37936997685</v>
+      </c>
+      <c r="B1519" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1519" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1519" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1519" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1519" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1519" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1519" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1519" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1519" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1519" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1519" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="6">
+        <v>45966.38092638889</v>
+      </c>
+      <c r="B1520" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1520" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1520" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1520" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1520" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1520" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1520" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1520" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1520" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1520" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L1520" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="6">
+        <v>45966.38225956018</v>
+      </c>
+      <c r="B1521" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1521" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1521" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1521" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1521" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1521" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1521" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1521" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1521" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1521" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1521" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="6">
+        <v>45966.382825127315</v>
+      </c>
+      <c r="B1522" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1522" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1522" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1522" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1522" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1522" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1522" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1522" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1522" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1522" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1522" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="6">
+        <v>45966.384412037034</v>
+      </c>
+      <c r="B1523" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1523" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1523" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1523" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1523" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1523" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1523" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1523" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1523" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1523" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1523" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="6">
+        <v>45966.387326192125</v>
+      </c>
+      <c r="B1524" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1524" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1524" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1524" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1524" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1524" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1524" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1524" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1524" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1524" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1524" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1607">
+  <conditionalFormatting sqref="J1:J1624">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16532" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16562" uniqueCount="377">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1290,7 +1290,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1531" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1534" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -59700,8 +59700,122 @@
         <v>31</v>
       </c>
     </row>
+    <row r="1532" ht="22.5" customHeight="1">
+      <c r="A1532" s="6">
+        <v>45968.454135486114</v>
+      </c>
+      <c r="B1532" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1532" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1532" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1532" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1532" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1532" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1532" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1532" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1532" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1532" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1532" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1533" ht="22.5" customHeight="1">
+      <c r="A1533" s="6">
+        <v>45968.466575266204</v>
+      </c>
+      <c r="B1533" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1533" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1533" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1533" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1533" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1533" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1533" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1533" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1533" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1533" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1533" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1534" ht="22.5" customHeight="1">
+      <c r="A1534" s="6">
+        <v>45968.539742939814</v>
+      </c>
+      <c r="B1534" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1534" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1534" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1534" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1534" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1534" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1534" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1534" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1534" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1534" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1534" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1631">
+  <conditionalFormatting sqref="J1:J1634">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16562" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16744" uniqueCount="381">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1145,6 +1145,18 @@
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 21 Plantas de los pies o empeine</t>
   </si>
+  <si>
+    <t>14 pantorrilla derecha, 17 aductor izquierdo, 18 aductor derecho, 20 hombro izquierdo</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>4 rodilla izquierda</t>
+  </si>
+  <si>
+    <t>3 rodilla derecha, 9 Isquiotibial izquierdo, 10 isquiotibial derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1290,7 +1302,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1534" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1551" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -59814,8 +59826,654 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1535" ht="22.5" customHeight="1">
+      <c r="A1535" s="6">
+        <v>45969.50751732639</v>
+      </c>
+      <c r="B1535" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1535" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1535" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1535" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1535" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1535" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1535" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1535" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1535" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1535" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1535" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1536" ht="22.5" customHeight="1">
+      <c r="A1536" s="6">
+        <v>45969.508087615744</v>
+      </c>
+      <c r="B1536" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1536" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1536" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1536" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1536" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1536" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1536" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1536" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1536" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1536" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1536" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1537" ht="22.5" customHeight="1">
+      <c r="A1537" s="6">
+        <v>45969.50864534722</v>
+      </c>
+      <c r="B1537" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1537" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1537" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1537" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1537" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1537" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1537" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1537" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1537" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1537" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1537" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1538" ht="22.5" customHeight="1">
+      <c r="A1538" s="6">
+        <v>45969.510840717594</v>
+      </c>
+      <c r="B1538" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1538" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1538" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1538" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1538" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1538" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1538" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1538" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1538" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1538" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1538" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1539" ht="22.5" customHeight="1">
+      <c r="A1539" s="6">
+        <v>45969.51200215278</v>
+      </c>
+      <c r="B1539" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1539" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1539" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1539" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1539" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1539" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1539" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1539" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1539" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1539" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1539" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1540" ht="22.5" customHeight="1">
+      <c r="A1540" s="6">
+        <v>45969.51423357639</v>
+      </c>
+      <c r="B1540" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1540" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1540" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1540" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1540" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1540" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1540" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1540" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1540" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1540" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1540" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1541" ht="22.5" customHeight="1">
+      <c r="A1541" s="6">
+        <v>45969.514633287035</v>
+      </c>
+      <c r="B1541" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1541" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1541" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1541" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1541" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1541" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1541" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1541" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1541" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1541" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1541" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1542" ht="22.5" customHeight="1">
+      <c r="A1542" s="6">
+        <v>45969.51821190972</v>
+      </c>
+      <c r="B1542" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1542" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1542" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1542" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1542" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1542" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1542" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1542" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1542" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1542" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1542" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1543" ht="22.5" customHeight="1">
+      <c r="A1543" s="6">
+        <v>45969.52094744213</v>
+      </c>
+      <c r="B1543" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1543" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1543" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1543" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1543" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1543" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1543" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1543" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1543" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1543" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1543" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1544" ht="22.5" customHeight="1">
+      <c r="A1544" s="6">
+        <v>45969.52113979167</v>
+      </c>
+      <c r="B1544" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1544" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1544" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1544" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1544" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1544" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1544" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1544" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1544" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1544" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L1544" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1545" ht="22.5" customHeight="1">
+      <c r="A1545" s="6">
+        <v>45969.52153372685</v>
+      </c>
+      <c r="B1545" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1545" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1545" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1545" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1545" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1545" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1545" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1545" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1545" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1545" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1545" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1546" ht="22.5" customHeight="1">
+      <c r="A1546" s="6">
+        <v>45969.521620150466</v>
+      </c>
+      <c r="B1546" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1546" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1546" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1546" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1546" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1546" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1546" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1546" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1546" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1546" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1546" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1547" ht="22.5" customHeight="1">
+      <c r="A1547" s="6">
+        <v>45969.52908337963</v>
+      </c>
+      <c r="B1547" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1547" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1547" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1547" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1547" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1547" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1547" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1547" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1547" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1547" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1547" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1548" ht="22.5" customHeight="1">
+      <c r="A1548" s="6">
+        <v>45969.530620335645</v>
+      </c>
+      <c r="B1548" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1548" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1548" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1548" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1548" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1548" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1548" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1548" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1548" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1548" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1548" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1549" ht="22.5" customHeight="1">
+      <c r="A1549" s="6">
+        <v>45969.53487682871</v>
+      </c>
+      <c r="B1549" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1549" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1549" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1549" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1549" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1549" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1549" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1549" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1549" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1549" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1549" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1550" ht="22.5" customHeight="1">
+      <c r="A1550" s="6">
+        <v>45969.54737339121</v>
+      </c>
+      <c r="B1550" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1550" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1550" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1550" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1550" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1550" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1550" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1550" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1550" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1550" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1550" s="7">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="1551" ht="22.5" customHeight="1">
+      <c r="A1551" s="6">
+        <v>45969.573958078705</v>
+      </c>
+      <c r="B1551" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1551" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1551" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1551" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1551" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1551" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1551" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1551" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1551" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1551" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1551" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1634">
+  <conditionalFormatting sqref="J1:J1651">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16744" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16873" uniqueCount="382">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1157,6 +1157,9 @@
   <si>
     <t>3 rodilla derecha, 9 Isquiotibial izquierdo, 10 isquiotibial derecho</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 10 isquiotibial derecho, 12 parte trasera de la rodilla derecha, 14 pantorrilla derecha, 18 aductor derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1302,7 +1305,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1551" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1563" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -60472,8 +60475,464 @@
         <v>31</v>
       </c>
     </row>
+    <row r="1552" ht="22.5" customHeight="1">
+      <c r="A1552" s="6">
+        <v>45970.53339865741</v>
+      </c>
+      <c r="B1552" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1552" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1552" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1552" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1552" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1552" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1552" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1552" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1552" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1552" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1552" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1553" ht="22.5" customHeight="1">
+      <c r="A1553" s="6">
+        <v>45971.403794467595</v>
+      </c>
+      <c r="B1553" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1553" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1553" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1553" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1553" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1553" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1553" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1553" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1553" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1553" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1553" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1554" ht="22.5" customHeight="1">
+      <c r="A1554" s="6">
+        <v>45971.43025471065</v>
+      </c>
+      <c r="B1554" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1554" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1554" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1554" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1554" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1554" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1554" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1554" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1554" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1554" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1554" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1555" ht="22.5" customHeight="1">
+      <c r="A1555" s="6">
+        <v>45971.430464143516</v>
+      </c>
+      <c r="B1555" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1555" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1555" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1555" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1555" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1555" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1555" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1555" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1555" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1555" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1555" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1556" ht="22.5" customHeight="1">
+      <c r="A1556" s="6">
+        <v>45971.43071943287</v>
+      </c>
+      <c r="B1556" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1556" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1556" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1556" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1556" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1556" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1556" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1556" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1556" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1556" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1556" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1557" ht="22.5" customHeight="1">
+      <c r="A1557" s="6">
+        <v>45971.431058518516</v>
+      </c>
+      <c r="B1557" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1557" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1557" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1557" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1557" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1557" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1557" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1557" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1557" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1557" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1557" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1558" ht="22.5" customHeight="1">
+      <c r="A1558" s="6">
+        <v>45971.431206712965</v>
+      </c>
+      <c r="B1558" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1558" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1558" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1558" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1558" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1558" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1558" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1558" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1558" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1558" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1558" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1559" ht="22.5" customHeight="1">
+      <c r="A1559" s="6">
+        <v>45971.43194741898</v>
+      </c>
+      <c r="B1559" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1559" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1559" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1559" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1559" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1559" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1559" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1559" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1559" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1559" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L1559" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1560" ht="22.5" customHeight="1">
+      <c r="A1560" s="6">
+        <v>45971.43845751157</v>
+      </c>
+      <c r="B1560" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1560" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1560" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1560" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1560" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1560" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1560" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1560" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1560" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1560" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1560" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1561" ht="22.5" customHeight="1">
+      <c r="A1561" s="6">
+        <v>45971.4394934375</v>
+      </c>
+      <c r="B1561" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1561" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1561" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1561" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1561" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1561" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1561" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1561" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1561" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1561" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L1561" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1562" ht="22.5" customHeight="1">
+      <c r="A1562" s="6">
+        <v>45971.44609675926</v>
+      </c>
+      <c r="B1562" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1562" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1562" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1562" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1562" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1562" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1562" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1562" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1562" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1562" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1562" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1563" ht="22.5" customHeight="1">
+      <c r="A1563" s="6">
+        <v>45971.44783138889</v>
+      </c>
+      <c r="B1563" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1563" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1563" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1563" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1563" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1563" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1563" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1563" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1563" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1563" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1563" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1651">
+  <conditionalFormatting sqref="J1:J1663">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16873" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17087" uniqueCount="387">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1160,6 +1160,21 @@
   <si>
     <t>2 muslo derecho, 10 isquiotibial derecho, 12 parte trasera de la rodilla derecha, 14 pantorrilla derecha, 18 aductor derecho</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 15 espalda baja</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 17 aductor izquierdo, 18 aductor derecho</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 7 tobillo derecho</t>
+  </si>
+  <si>
+    <t>2 muslo derecho, 14 pantorrilla derecha, 18 aductor derecho</t>
+  </si>
+  <si>
+    <t>Ningúno</t>
+  </si>
 </sst>
 </file>
 
@@ -1305,7 +1320,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1563" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1583" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -60931,8 +60946,768 @@
         <v>31</v>
       </c>
     </row>
+    <row r="1564" ht="22.5" customHeight="1">
+      <c r="A1564" s="6">
+        <v>45971.4557646412</v>
+      </c>
+      <c r="B1564" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1564" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1564" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1564" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1564" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1564" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1564" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1564" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1564" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1564" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1564" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1565" ht="22.5" customHeight="1">
+      <c r="A1565" s="6">
+        <v>45971.45585063657</v>
+      </c>
+      <c r="B1565" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1565" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1565" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1565" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1565" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1565" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1565" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1565" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1565" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1565" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L1565" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1566" ht="22.5" customHeight="1">
+      <c r="A1566" s="6">
+        <v>45971.46597871528</v>
+      </c>
+      <c r="B1566" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1566" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1566" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1566" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1566" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1566" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1566" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1566" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1566" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1566" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L1566" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1567" ht="22.5" customHeight="1">
+      <c r="A1567" s="6">
+        <v>45971.46897840277</v>
+      </c>
+      <c r="B1567" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1567" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1567" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1567" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1567" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1567" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1567" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1567" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1567" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1567" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1567" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1568" ht="22.5" customHeight="1">
+      <c r="A1568" s="6">
+        <v>45971.47221157407</v>
+      </c>
+      <c r="B1568" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1568" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1568" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1568" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1568" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1568" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1568" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1568" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1568" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1568" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1568" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1569" ht="22.5" customHeight="1">
+      <c r="A1569" s="6">
+        <v>45972.33075550926</v>
+      </c>
+      <c r="B1569" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1569" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1569" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1569" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1569" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1569" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1569" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1569" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1569" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1569" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1569" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1570" ht="22.5" customHeight="1">
+      <c r="A1570" s="6">
+        <v>45972.33538474537</v>
+      </c>
+      <c r="B1570" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1570" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1570" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1570" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1570" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1570" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1570" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1570" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1570" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1570" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1570" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1571" ht="22.5" customHeight="1">
+      <c r="A1571" s="6">
+        <v>45972.336447222224</v>
+      </c>
+      <c r="B1571" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1571" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1571" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1571" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1571" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1571" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1571" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1571" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1571" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1571" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1571" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1572" ht="22.5" customHeight="1">
+      <c r="A1572" s="6">
+        <v>45972.33777891204</v>
+      </c>
+      <c r="B1572" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1572" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1572" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1572" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1572" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1572" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1572" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1572" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1572" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1572" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1572" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1573" ht="22.5" customHeight="1">
+      <c r="A1573" s="6">
+        <v>45972.341376909724</v>
+      </c>
+      <c r="B1573" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1573" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1573" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1573" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1573" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1573" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1573" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1573" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1573" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1573" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1573" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1574" ht="22.5" customHeight="1">
+      <c r="A1574" s="6">
+        <v>45972.344263402774</v>
+      </c>
+      <c r="B1574" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1574" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1574" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1574" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1574" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1574" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1574" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1574" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1574" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1574" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1574" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1575" ht="22.5" customHeight="1">
+      <c r="A1575" s="6">
+        <v>45972.345407581015</v>
+      </c>
+      <c r="B1575" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1575" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1575" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1575" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1575" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1575" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1575" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1575" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1575" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1575" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1575" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1576" ht="22.5" customHeight="1">
+      <c r="A1576" s="6">
+        <v>45972.346461284724</v>
+      </c>
+      <c r="B1576" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1576" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1576" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1576" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1576" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1576" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1576" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1576" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1576" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1576" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L1576" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1577" ht="22.5" customHeight="1">
+      <c r="A1577" s="6">
+        <v>45972.346496886574</v>
+      </c>
+      <c r="B1577" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1577" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1577" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1577" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1577" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1577" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1577" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1577" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1577" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1577" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L1577" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1578" ht="22.5" customHeight="1">
+      <c r="A1578" s="6">
+        <v>45972.34665689815</v>
+      </c>
+      <c r="B1578" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1578" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1578" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1578" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1578" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1578" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1578" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1578" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1578" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1578" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1578" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1579" ht="22.5" customHeight="1">
+      <c r="A1579" s="6">
+        <v>45972.348661550925</v>
+      </c>
+      <c r="B1579" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1579" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1579" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1579" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1579" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1579" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1579" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1579" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1579" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1579" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1579" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1580" ht="22.5" customHeight="1">
+      <c r="A1580" s="6">
+        <v>45972.351668993055</v>
+      </c>
+      <c r="B1580" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1580" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1580" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1580" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1580" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1580" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1580" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1580" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1580" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1580" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1580" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1581" ht="22.5" customHeight="1">
+      <c r="A1581" s="6">
+        <v>45972.354715856476</v>
+      </c>
+      <c r="B1581" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1581" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1581" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1581" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1581" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1581" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1581" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1581" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1581" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1581" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1581" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1582" ht="22.5" customHeight="1">
+      <c r="A1582" s="6">
+        <v>45972.35678630787</v>
+      </c>
+      <c r="B1582" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1582" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1582" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1582" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1582" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1582" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1582" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1582" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1582" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1582" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1582" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1583" ht="22.5" customHeight="1">
+      <c r="A1583" s="6">
+        <v>45972.370451932875</v>
+      </c>
+      <c r="B1583" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1583" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1583" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1583" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1583" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1583" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1583" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1583" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1583" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1583" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1583" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1663">
+  <conditionalFormatting sqref="J1:J1683">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17087" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17269" uniqueCount="387">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1320,7 +1320,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1583" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1600" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -61706,8 +61706,654 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1584" ht="22.5" customHeight="1">
+      <c r="A1584" s="6">
+        <v>45973.344150590274</v>
+      </c>
+      <c r="B1584" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1584" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1584" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1584" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1584" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1584" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1584" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1584" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1584" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1584" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1584" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1585" ht="22.5" customHeight="1">
+      <c r="A1585" s="6">
+        <v>45973.351671400465</v>
+      </c>
+      <c r="B1585" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1585" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1585" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1585" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1585" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1585" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1585" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1585" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1585" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1585" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1585" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1586" ht="22.5" customHeight="1">
+      <c r="A1586" s="6">
+        <v>45973.362784756944</v>
+      </c>
+      <c r="B1586" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1586" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1586" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1586" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1586" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1586" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1586" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1586" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1586" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1586" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L1586" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1587" ht="22.5" customHeight="1">
+      <c r="A1587" s="6">
+        <v>45973.36850121528</v>
+      </c>
+      <c r="B1587" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1587" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1587" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1587" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1587" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1587" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1587" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1587" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1587" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1587" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1587" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1588" ht="22.5" customHeight="1">
+      <c r="A1588" s="6">
+        <v>45973.36954586806</v>
+      </c>
+      <c r="B1588" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1588" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1588" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1588" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1588" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1588" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1588" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1588" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1588" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1588" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1588" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1589" ht="22.5" customHeight="1">
+      <c r="A1589" s="6">
+        <v>45973.37118543981</v>
+      </c>
+      <c r="B1589" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1589" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1589" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1589" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1589" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1589" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1589" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1589" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1589" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1589" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1589" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1590" ht="22.5" customHeight="1">
+      <c r="A1590" s="6">
+        <v>45973.37125002315</v>
+      </c>
+      <c r="B1590" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1590" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1590" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1590" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1590" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1590" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1590" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1590" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1590" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1590" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L1590" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1591" ht="22.5" customHeight="1">
+      <c r="A1591" s="6">
+        <v>45973.37146834491</v>
+      </c>
+      <c r="B1591" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1591" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1591" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1591" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1591" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1591" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1591" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1591" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1591" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1591" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1591" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1592" ht="22.5" customHeight="1">
+      <c r="A1592" s="6">
+        <v>45973.372792106486</v>
+      </c>
+      <c r="B1592" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1592" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1592" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1592" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1592" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1592" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1592" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1592" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1592" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1592" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1592" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1593" ht="22.5" customHeight="1">
+      <c r="A1593" s="6">
+        <v>45973.37593491898</v>
+      </c>
+      <c r="B1593" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1593" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1593" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1593" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1593" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1593" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1593" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1593" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1593" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1593" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1593" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1594" ht="22.5" customHeight="1">
+      <c r="A1594" s="6">
+        <v>45973.37930788194</v>
+      </c>
+      <c r="B1594" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1594" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1594" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1594" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1594" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1594" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1594" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1594" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1594" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1594" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1594" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1595" ht="22.5" customHeight="1">
+      <c r="A1595" s="6">
+        <v>45973.3802790162</v>
+      </c>
+      <c r="B1595" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1595" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1595" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1595" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1595" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1595" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1595" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1595" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1595" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1595" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1595" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1596" ht="22.5" customHeight="1">
+      <c r="A1596" s="6">
+        <v>45973.38268408565</v>
+      </c>
+      <c r="B1596" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1596" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1596" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1596" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1596" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1596" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1596" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1596" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1596" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1596" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1596" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1597" ht="22.5" customHeight="1">
+      <c r="A1597" s="6">
+        <v>45973.38307113426</v>
+      </c>
+      <c r="B1597" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1597" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1597" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1597" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1597" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1597" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1597" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1597" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1597" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1597" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1597" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1598" ht="22.5" customHeight="1">
+      <c r="A1598" s="6">
+        <v>45973.39715256944</v>
+      </c>
+      <c r="B1598" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1598" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1598" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1598" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1598" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1598" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1598" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1598" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1598" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1598" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1598" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1599" ht="22.5" customHeight="1">
+      <c r="A1599" s="6">
+        <v>45973.39789944445</v>
+      </c>
+      <c r="B1599" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1599" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1599" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1599" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1599" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1599" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1599" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1599" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1599" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1599" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1599" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1600" ht="22.5" customHeight="1">
+      <c r="A1600" s="6">
+        <v>45973.40423585648</v>
+      </c>
+      <c r="B1600" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1600" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1600" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1600" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1600" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1600" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1600" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1600" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1600" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1600" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1600" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1683">
+  <conditionalFormatting sqref="J1:J1700">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17269" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17279" uniqueCount="387">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1320,7 +1320,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1600" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1601" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -62352,8 +62352,46 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1601" ht="22.5" customHeight="1">
+      <c r="A1601" s="6">
+        <v>45974.57628366898</v>
+      </c>
+      <c r="B1601" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1601" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1601" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1601" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1601" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1601" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1601" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1601" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1601" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1601" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1601" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1700">
+  <conditionalFormatting sqref="J1:J1701">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17279" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17430" uniqueCount="389">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1175,6 +1175,12 @@
   <si>
     <t>Ningúno</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>5 espinilla derecha, 6 espinilla izquierda, 13 pantorrilla izquierda, 14 pantorrilla derecha, 15 espalda baja</t>
+  </si>
 </sst>
 </file>
 
@@ -1320,7 +1326,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1601" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1615" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -62390,8 +62396,540 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1602" ht="22.5" customHeight="1">
+      <c r="A1602" s="6">
+        <v>45975.518953935185</v>
+      </c>
+      <c r="B1602" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1602" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1602" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1602" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1602" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1602" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1602" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1602" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1602" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1602" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1602" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1603" ht="22.5" customHeight="1">
+      <c r="A1603" s="6">
+        <v>45975.5481616551</v>
+      </c>
+      <c r="B1603" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1603" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1603" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1603" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1603" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1603" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1603" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1603" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1603" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1603" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1603" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1604" ht="22.5" customHeight="1">
+      <c r="A1604" s="6">
+        <v>45975.60498643518</v>
+      </c>
+      <c r="B1604" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1604" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1604" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1604" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1604" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1604" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1604" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1604" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1604" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1604" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1604" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1605" ht="22.5" customHeight="1">
+      <c r="A1605" s="6">
+        <v>45975.60537892361</v>
+      </c>
+      <c r="B1605" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1605" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1605" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1605" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1605" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1605" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1605" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1605" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1605" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1605" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L1605" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1606" ht="22.5" customHeight="1">
+      <c r="A1606" s="6">
+        <v>45975.62539238426</v>
+      </c>
+      <c r="B1606" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1606" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1606" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1606" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1606" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1606" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1606" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1606" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1606" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1606" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L1606" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1607" ht="22.5" customHeight="1">
+      <c r="A1607" s="6">
+        <v>45975.62606972222</v>
+      </c>
+      <c r="B1607" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1607" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1607" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1607" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1607" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1607" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1607" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1607" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1607" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1607" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1607" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1608" ht="22.5" customHeight="1">
+      <c r="A1608" s="6">
+        <v>45975.62696818287</v>
+      </c>
+      <c r="B1608" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1608" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1608" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1608" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1608" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1608" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1608" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1608" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1608" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1608" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1608" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1609" ht="22.5" customHeight="1">
+      <c r="A1609" s="6">
+        <v>45975.628250497684</v>
+      </c>
+      <c r="B1609" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1609" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1609" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1609" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1609" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1609" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1609" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1609" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1609" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1609" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1609" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1610" ht="22.5" customHeight="1">
+      <c r="A1610" s="6">
+        <v>45975.63143060185</v>
+      </c>
+      <c r="B1610" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1610" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1610" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1610" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1610" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1610" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1610" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1610" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1610" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1610" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1610" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1611" ht="22.5" customHeight="1">
+      <c r="A1611" s="6">
+        <v>45975.633218773146</v>
+      </c>
+      <c r="B1611" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1611" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1611" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1611" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1611" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1611" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1611" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1611" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1611" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1611" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1611" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1612" ht="22.5" customHeight="1">
+      <c r="A1612" s="6">
+        <v>45975.635364444446</v>
+      </c>
+      <c r="B1612" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1612" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1612" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1612" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1612" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1612" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1612" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1612" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1612" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1612" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1612" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1613" ht="22.5" customHeight="1">
+      <c r="A1613" s="6">
+        <v>45975.6357638426</v>
+      </c>
+      <c r="B1613" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1613" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1613" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1613" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1613" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1613" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1613" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1613" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1613" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1613" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1613" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1614" ht="22.5" customHeight="1">
+      <c r="A1614" s="6">
+        <v>45975.643577152776</v>
+      </c>
+      <c r="B1614" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1614" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1614" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1614" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1614" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1614" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1614" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1614" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1614" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1614" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1614" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1615" ht="22.5" customHeight="1">
+      <c r="A1615" s="6">
+        <v>45975.6552614699</v>
+      </c>
+      <c r="B1615" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1615" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1615" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1615" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1615" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1615" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1615" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1615" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1615" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1615" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1615" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1701">
+  <conditionalFormatting sqref="J1:J1715">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17430" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17600" uniqueCount="391">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1181,6 +1181,12 @@
   <si>
     <t>5 espinilla derecha, 6 espinilla izquierda, 13 pantorrilla izquierda, 14 pantorrilla derecha, 15 espalda baja</t>
   </si>
+  <si>
+    <t>10 isquiotibial derecho, 16 espalda, 18 aductor derecho, 19 hombro derecho, 20 hombro izquierdo</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 12 parte trasera de la rodilla derecha, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1326,7 +1332,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1615" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1631" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -62928,8 +62934,616 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1616" ht="22.5" customHeight="1">
+      <c r="A1616" s="6">
+        <v>45976.45894513889</v>
+      </c>
+      <c r="B1616" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1616" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1616" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1616" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1616" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1616" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1616" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1616" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1616" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1616" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1616" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1617" ht="22.5" customHeight="1">
+      <c r="A1617" s="6">
+        <v>45976.536627187495</v>
+      </c>
+      <c r="B1617" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1617" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1617" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1617" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1617" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1617" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1617" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1617" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1617" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1617" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1617" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1618" ht="22.5" customHeight="1">
+      <c r="A1618" s="6">
+        <v>45976.5407333912</v>
+      </c>
+      <c r="B1618" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1618" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1618" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1618" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1618" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1618" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1618" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1618" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1618" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1618" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1618" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1619" ht="22.5" customHeight="1">
+      <c r="A1619" s="6">
+        <v>45976.567808402775</v>
+      </c>
+      <c r="B1619" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1619" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1619" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1619" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1619" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1619" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1619" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1619" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1619" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1619" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1619" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1620" ht="22.5" customHeight="1">
+      <c r="A1620" s="6">
+        <v>45976.58204108797</v>
+      </c>
+      <c r="B1620" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1620" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1620" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1620" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1620" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1620" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1620" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1620" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1620" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1620" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1620" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1621" ht="22.5" customHeight="1">
+      <c r="A1621" s="6">
+        <v>45976.592908032406</v>
+      </c>
+      <c r="B1621" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1621" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1621" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1621" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1621" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1621" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1621" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1621" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1621" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1621" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1621" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1622" ht="22.5" customHeight="1">
+      <c r="A1622" s="6">
+        <v>45976.608929803246</v>
+      </c>
+      <c r="B1622" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1622" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1622" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1622" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1622" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1622" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1622" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1622" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1622" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1622" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1622" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1623" ht="22.5" customHeight="1">
+      <c r="A1623" s="6">
+        <v>45976.60948568287</v>
+      </c>
+      <c r="B1623" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1623" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1623" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1623" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1623" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1623" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1623" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1623" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1623" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1623" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1623" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1624" ht="22.5" customHeight="1">
+      <c r="A1624" s="6">
+        <v>45976.60994608796</v>
+      </c>
+      <c r="B1624" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1624" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1624" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1624" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1624" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1624" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1624" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1624" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1624" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1624" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1624" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1625" ht="22.5" customHeight="1">
+      <c r="A1625" s="6">
+        <v>45976.61084262731</v>
+      </c>
+      <c r="B1625" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1625" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1625" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1625" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1625" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1625" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1625" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1625" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1625" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1625" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1625" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1626" ht="22.5" customHeight="1">
+      <c r="A1626" s="6">
+        <v>45976.61280716435</v>
+      </c>
+      <c r="B1626" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1626" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1626" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1626" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1626" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1626" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1626" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1626" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1626" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1626" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1626" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1627" ht="22.5" customHeight="1">
+      <c r="A1627" s="6">
+        <v>45976.616207037034</v>
+      </c>
+      <c r="B1627" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1627" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1627" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1627" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1627" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1627" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1627" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1627" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1627" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1627" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1627" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1628" ht="22.5" customHeight="1">
+      <c r="A1628" s="6">
+        <v>45976.61850680556</v>
+      </c>
+      <c r="B1628" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1628" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1628" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1628" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1628" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1628" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1628" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1628" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1628" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1628" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1628" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1629" ht="22.5" customHeight="1">
+      <c r="A1629" s="6">
+        <v>45976.62450795139</v>
+      </c>
+      <c r="B1629" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1629" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1629" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1629" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1629" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1629" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1629" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1629" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1629" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1629" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1629" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1630" ht="22.5" customHeight="1">
+      <c r="A1630" s="6">
+        <v>45976.624679444445</v>
+      </c>
+      <c r="B1630" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1630" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1630" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1630" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1630" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1630" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1630" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1630" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1630" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1630" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1630" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1631" ht="22.5" customHeight="1">
+      <c r="A1631" s="6">
+        <v>45976.630078981485</v>
+      </c>
+      <c r="B1631" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1631" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1631" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1631" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1631" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1631" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1631" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1631" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1631" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1631" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1631" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1715">
+  <conditionalFormatting sqref="J1:J1731">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17600" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17676" uniqueCount="391">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1332,7 +1332,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1631" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1638" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -63542,8 +63542,274 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="1632" ht="22.5" customHeight="1">
+      <c r="A1632" s="6">
+        <v>45978.35557267361</v>
+      </c>
+      <c r="B1632" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1632" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1632" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1632" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1632" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1632" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1632" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1632" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1632" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1632" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1632" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1633" ht="22.5" customHeight="1">
+      <c r="A1633" s="6">
+        <v>45978.42261851852</v>
+      </c>
+      <c r="B1633" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1633" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1633" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1633" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1633" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1633" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1633" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1633" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1633" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1633" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1633" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1634" ht="22.5" customHeight="1">
+      <c r="A1634" s="6">
+        <v>45978.42266482639</v>
+      </c>
+      <c r="B1634" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1634" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1634" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1634" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1634" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1634" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1634" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1634" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1634" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1634" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1634" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1635" ht="22.5" customHeight="1">
+      <c r="A1635" s="6">
+        <v>45978.42332888889</v>
+      </c>
+      <c r="B1635" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1635" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1635" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1635" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1635" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1635" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1635" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1635" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1635" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1635" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1635" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1636" ht="22.5" customHeight="1">
+      <c r="A1636" s="6">
+        <v>45978.44560594908</v>
+      </c>
+      <c r="B1636" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1636" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1636" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1636" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1636" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1636" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1636" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1636" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1636" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1636" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1636" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1637" ht="22.5" customHeight="1">
+      <c r="A1637" s="6">
+        <v>45978.44865651621</v>
+      </c>
+      <c r="B1637" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1637" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1637" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1637" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1637" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1637" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1637" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1637" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1637" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1637" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1637" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1638" ht="22.5" customHeight="1">
+      <c r="A1638" s="6">
+        <v>45978.44903138889</v>
+      </c>
+      <c r="B1638" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1638" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1638" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1638" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1638" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1638" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1638" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1638" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1638" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1638" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1638" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1731">
+  <conditionalFormatting sqref="J1:J1738">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17676" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17929" uniqueCount="394">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1187,6 +1187,15 @@
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 12 parte trasera de la rodilla derecha, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>13 pantorrilla izquierda, 14 pantorrilla derecha, 15 espalda baja</t>
+  </si>
+  <si>
+    <t>16 espalda, 18 aductor derecho, 19 hombro derecho, 20 hombro izquierdo</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 17 aductor izquierdo, 18 aductor derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1332,7 +1341,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1638" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1662" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -63808,8 +63817,920 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="1639" ht="22.5" customHeight="1">
+      <c r="A1639" s="6">
+        <v>45978.452137824075</v>
+      </c>
+      <c r="B1639" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1639" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1639" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1639" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1639" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1639" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1639" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1639" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1639" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1639" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1639" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1640" ht="22.5" customHeight="1">
+      <c r="A1640" s="6">
+        <v>45978.45237503472</v>
+      </c>
+      <c r="B1640" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1640" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1640" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1640" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1640" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1640" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1640" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1640" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1640" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1640" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1640" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1641" ht="22.5" customHeight="1">
+      <c r="A1641" s="6">
+        <v>45978.452871319445</v>
+      </c>
+      <c r="B1641" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1641" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1641" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1641" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1641" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1641" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1641" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1641" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1641" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1641" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1641" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="1642" ht="22.5" customHeight="1">
+      <c r="A1642" s="6">
+        <v>45978.45509733797</v>
+      </c>
+      <c r="B1642" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1642" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1642" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1642" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1642" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1642" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1642" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1642" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1642" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1642" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1642" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1643" ht="22.5" customHeight="1">
+      <c r="A1643" s="6">
+        <v>45978.45512633101</v>
+      </c>
+      <c r="B1643" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1643" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1643" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1643" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1643" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1643" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1643" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1643" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1643" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1643" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1643" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1644" ht="22.5" customHeight="1">
+      <c r="A1644" s="6">
+        <v>45978.45815451389</v>
+      </c>
+      <c r="B1644" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1644" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1644" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1644" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1644" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1644" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1644" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1644" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1644" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1644" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1644" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1645" ht="22.5" customHeight="1">
+      <c r="A1645" s="6">
+        <v>45978.47796954861</v>
+      </c>
+      <c r="B1645" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1645" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1645" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1645" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1645" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1645" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1645" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1645" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1645" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1645" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1645" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1646" ht="22.5" customHeight="1">
+      <c r="A1646" s="6">
+        <v>45978.49400693287</v>
+      </c>
+      <c r="B1646" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1646" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1646" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1646" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1646" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1646" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1646" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1646" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1646" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1646" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1646" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1647" ht="22.5" customHeight="1">
+      <c r="A1647" s="6">
+        <v>45978.52504145833</v>
+      </c>
+      <c r="B1647" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1647" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1647" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1647" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1647" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1647" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1647" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1647" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1647" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1647" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1647" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1648" ht="22.5" customHeight="1">
+      <c r="A1648" s="6">
+        <v>45979.336825949074</v>
+      </c>
+      <c r="B1648" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1648" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1648" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1648" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1648" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1648" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1648" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1648" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1648" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1648" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1648" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1649" ht="22.5" customHeight="1">
+      <c r="A1649" s="6">
+        <v>45979.339298969906</v>
+      </c>
+      <c r="B1649" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1649" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1649" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1649" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1649" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1649" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1649" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1649" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1649" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1649" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1649" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1650" ht="22.5" customHeight="1">
+      <c r="A1650" s="6">
+        <v>45979.342745243055</v>
+      </c>
+      <c r="B1650" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1650" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1650" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1650" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1650" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1650" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1650" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1650" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1650" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1650" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L1650" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1651" ht="22.5" customHeight="1">
+      <c r="A1651" s="6">
+        <v>45979.34518304398</v>
+      </c>
+      <c r="B1651" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1651" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1651" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1651" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1651" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1651" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1651" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1651" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1651" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1651" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1651" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1652" ht="22.5" customHeight="1">
+      <c r="A1652" s="6">
+        <v>45979.35202607639</v>
+      </c>
+      <c r="B1652" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1652" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1652" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1652" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1652" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1652" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1652" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1652" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1652" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1652" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1652" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1653" ht="22.5" customHeight="1">
+      <c r="A1653" s="6">
+        <v>45979.3569305787</v>
+      </c>
+      <c r="B1653" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1653" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1653" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1653" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1653" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1653" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1653" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1653" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1653" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1653" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1653" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1654" ht="22.5" customHeight="1">
+      <c r="A1654" s="6">
+        <v>45979.35759142361</v>
+      </c>
+      <c r="B1654" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1654" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1654" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1654" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1654" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1654" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1654" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1654" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1654" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1654" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L1654" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1655" ht="22.5" customHeight="1">
+      <c r="A1655" s="6">
+        <v>45979.3580833912</v>
+      </c>
+      <c r="B1655" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1655" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1655" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1655" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1655" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1655" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1655" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1655" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1655" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1655" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1655" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1656" ht="22.5" customHeight="1">
+      <c r="A1656" s="6">
+        <v>45979.359119166664</v>
+      </c>
+      <c r="B1656" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1656" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1656" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1656" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1656" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1656" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1656" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1656" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1656" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1656" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1656" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1657" ht="22.5" customHeight="1">
+      <c r="A1657" s="6">
+        <v>45979.36692547453</v>
+      </c>
+      <c r="B1657" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1657" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1657" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1657" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1657" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1657" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1657" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1657" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1657" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1657" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1657" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1658" ht="22.5" customHeight="1">
+      <c r="A1658" s="6">
+        <v>45979.36858653935</v>
+      </c>
+      <c r="B1658" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1658" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1658" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1658" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1658" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1658" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1658" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1658" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1658" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1658" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L1658" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1659" ht="22.5" customHeight="1">
+      <c r="A1659" s="6">
+        <v>45979.370431435185</v>
+      </c>
+      <c r="B1659" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1659" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1659" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1659" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1659" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1659" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1659" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1659" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1659" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1659" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1659" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1660" ht="22.5" customHeight="1">
+      <c r="A1660" s="6">
+        <v>45979.37261446759</v>
+      </c>
+      <c r="B1660" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1660" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1660" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1660" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1660" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1660" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1660" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1660" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1660" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1660" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L1660" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1661" ht="22.5" customHeight="1">
+      <c r="A1661" s="6">
+        <v>45979.37814821759</v>
+      </c>
+      <c r="B1661" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1661" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1661" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1661" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1661" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1661" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1661" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1661" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1661" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1661" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1661" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1662" ht="22.5" customHeight="1">
+      <c r="A1662" s="6">
+        <v>45979.3894640162</v>
+      </c>
+      <c r="B1662" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1662" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1662" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1662" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1662" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1662" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1662" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1662" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1662" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1662" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1662" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1738">
+  <conditionalFormatting sqref="J1:J1762">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17929" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18100" uniqueCount="395">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1196,6 +1196,9 @@
   <si>
     <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha, 17 aductor izquierdo, 18 aductor derecho</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1341,7 +1344,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1662" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1678" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -64729,8 +64732,616 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1663" ht="22.5" customHeight="1">
+      <c r="A1663" s="6">
+        <v>45980.37918649305</v>
+      </c>
+      <c r="B1663" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1663" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1663" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1663" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1663" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1663" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1663" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1663" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1663" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1663" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1663" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1664" ht="22.5" customHeight="1">
+      <c r="A1664" s="6">
+        <v>45980.38318821759</v>
+      </c>
+      <c r="B1664" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1664" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1664" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1664" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1664" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1664" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1664" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1664" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1664" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1664" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1664" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1665" ht="22.5" customHeight="1">
+      <c r="A1665" s="6">
+        <v>45980.388782546295</v>
+      </c>
+      <c r="B1665" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1665" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1665" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1665" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1665" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1665" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1665" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1665" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1665" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1665" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1665" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1666" ht="22.5" customHeight="1">
+      <c r="A1666" s="6">
+        <v>45980.38888239583</v>
+      </c>
+      <c r="B1666" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1666" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1666" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1666" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1666" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1666" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1666" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1666" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1666" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1666" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1666" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1667" ht="22.5" customHeight="1">
+      <c r="A1667" s="6">
+        <v>45980.389092488425</v>
+      </c>
+      <c r="B1667" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1667" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1667" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1667" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1667" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1667" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1667" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1667" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1667" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1667" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1667" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1668" ht="22.5" customHeight="1">
+      <c r="A1668" s="6">
+        <v>45980.3892012963</v>
+      </c>
+      <c r="B1668" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1668" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1668" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1668" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1668" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1668" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1668" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1668" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1668" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1668" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1668" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1669" ht="22.5" customHeight="1">
+      <c r="A1669" s="6">
+        <v>45980.3900231713</v>
+      </c>
+      <c r="B1669" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1669" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1669" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1669" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1669" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1669" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1669" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1669" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1669" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1669" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L1669" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1670" ht="22.5" customHeight="1">
+      <c r="A1670" s="6">
+        <v>45980.39023440972</v>
+      </c>
+      <c r="B1670" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1670" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1670" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1670" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1670" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1670" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1670" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1670" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1670" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1670" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1670" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1671" ht="22.5" customHeight="1">
+      <c r="A1671" s="6">
+        <v>45980.390853958335</v>
+      </c>
+      <c r="B1671" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1671" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1671" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1671" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1671" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1671" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1671" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1671" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1671" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1671" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1671" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1672" ht="22.5" customHeight="1">
+      <c r="A1672" s="6">
+        <v>45980.39187556713</v>
+      </c>
+      <c r="B1672" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1672" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1672" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1672" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1672" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1672" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1672" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1672" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1672" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1672" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1672" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1673" ht="22.5" customHeight="1">
+      <c r="A1673" s="6">
+        <v>45980.39189459491</v>
+      </c>
+      <c r="B1673" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1673" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1673" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1673" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1673" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1673" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1673" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1673" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1673" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1673" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1673" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1674" ht="22.5" customHeight="1">
+      <c r="A1674" s="6">
+        <v>45980.39525826389</v>
+      </c>
+      <c r="B1674" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1674" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1674" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1674" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1674" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1674" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1674" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1674" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1674" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1674" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1674" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1675" ht="22.5" customHeight="1">
+      <c r="A1675" s="6">
+        <v>45980.40612034722</v>
+      </c>
+      <c r="B1675" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1675" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1675" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1675" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1675" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1675" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1675" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1675" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1675" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1675" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1675" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1676" ht="22.5" customHeight="1">
+      <c r="A1676" s="6">
+        <v>45980.40756689815</v>
+      </c>
+      <c r="B1676" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1676" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1676" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1676" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1676" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1676" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1676" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1676" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1676" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1676" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1676" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1677" ht="22.5" customHeight="1">
+      <c r="A1677" s="6">
+        <v>45980.40935173611</v>
+      </c>
+      <c r="B1677" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1677" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1677" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1677" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1677" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1677" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1677" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1677" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1677" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1677" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1677" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1678" ht="22.5" customHeight="1">
+      <c r="A1678" s="6">
+        <v>45980.409695740746</v>
+      </c>
+      <c r="B1678" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1678" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1678" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1678" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1678" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1678" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1678" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1678" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1678" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1678" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1678" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1762">
+  <conditionalFormatting sqref="J1:J1778">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18100" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18111" uniqueCount="396">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1199,6 +1199,9 @@
   <si>
     <t>1 muslo izquierdo, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 4 rodilla izquierda, 12 parte trasera de la rodilla derecha, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1344,7 +1347,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1678" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1679" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -65340,8 +65343,46 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1679" ht="22.5" customHeight="1">
+      <c r="A1679" s="6">
+        <v>45982.43330464121</v>
+      </c>
+      <c r="B1679" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1679" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1679" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1679" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1679" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1679" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1679" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1679" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1679" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1679" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L1679" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1778">
+  <conditionalFormatting sqref="J1:J1779">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18111" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18293" uniqueCount="398">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1202,6 +1202,12 @@
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 4 rodilla izquierda, 12 parte trasera de la rodilla derecha, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>19 hombro derecho</t>
+  </si>
+  <si>
+    <t>19 hombro derecho, 22 gluteo izquierdo</t>
+  </si>
 </sst>
 </file>
 
@@ -1347,7 +1353,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1679" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1696" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -65381,8 +65387,654 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1680" ht="22.5" customHeight="1">
+      <c r="A1680" s="6">
+        <v>45982.502632372685</v>
+      </c>
+      <c r="B1680" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1680" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1680" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1680" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1680" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1680" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1680" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1680" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1680" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1680" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1680" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1681" ht="22.5" customHeight="1">
+      <c r="A1681" s="6">
+        <v>45982.62116322917</v>
+      </c>
+      <c r="B1681" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1681" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1681" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1681" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1681" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1681" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1681" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1681" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1681" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1681" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1681" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1682" ht="22.5" customHeight="1">
+      <c r="A1682" s="6">
+        <v>45982.62133184027</v>
+      </c>
+      <c r="B1682" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1682" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1682" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1682" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1682" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1682" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1682" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1682" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1682" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1682" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1682" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1683" ht="22.5" customHeight="1">
+      <c r="A1683" s="6">
+        <v>45982.62148052083</v>
+      </c>
+      <c r="B1683" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1683" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1683" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1683" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1683" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1683" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1683" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1683" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1683" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1683" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1683" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1684" ht="22.5" customHeight="1">
+      <c r="A1684" s="6">
+        <v>45982.62155568287</v>
+      </c>
+      <c r="B1684" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1684" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1684" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1684" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1684" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1684" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1684" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1684" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1684" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1684" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1684" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1685" ht="22.5" customHeight="1">
+      <c r="A1685" s="6">
+        <v>45982.622063159724</v>
+      </c>
+      <c r="B1685" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1685" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1685" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1685" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1685" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1685" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1685" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1685" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1685" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1685" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1685" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1686" ht="22.5" customHeight="1">
+      <c r="A1686" s="6">
+        <v>45982.62231028936</v>
+      </c>
+      <c r="B1686" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1686" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1686" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1686" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1686" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1686" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1686" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1686" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1686" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1686" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1686" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1687" ht="22.5" customHeight="1">
+      <c r="A1687" s="6">
+        <v>45982.62280025463</v>
+      </c>
+      <c r="B1687" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1687" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1687" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1687" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1687" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1687" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1687" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1687" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1687" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1687" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1687" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1688" ht="22.5" customHeight="1">
+      <c r="A1688" s="6">
+        <v>45982.62308189815</v>
+      </c>
+      <c r="B1688" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1688" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1688" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1688" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1688" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1688" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1688" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1688" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1688" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1688" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1688" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1689" ht="22.5" customHeight="1">
+      <c r="A1689" s="6">
+        <v>45982.626655405096</v>
+      </c>
+      <c r="B1689" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1689" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1689" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1689" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1689" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1689" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1689" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1689" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1689" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1689" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1689" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1690" ht="22.5" customHeight="1">
+      <c r="A1690" s="6">
+        <v>45982.63930545139</v>
+      </c>
+      <c r="B1690" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1690" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1690" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1690" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1690" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1690" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1690" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1690" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1690" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1690" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1690" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1691" ht="22.5" customHeight="1">
+      <c r="A1691" s="6">
+        <v>45983.33438039351</v>
+      </c>
+      <c r="B1691" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1691" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1691" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1691" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1691" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1691" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1691" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1691" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1691" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1691" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1691" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1692" ht="22.5" customHeight="1">
+      <c r="A1692" s="6">
+        <v>45983.3700683912</v>
+      </c>
+      <c r="B1692" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1692" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1692" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1692" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1692" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1692" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1692" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1692" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1692" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1692" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1692" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1693" ht="22.5" customHeight="1">
+      <c r="A1693" s="6">
+        <v>45983.37023133102</v>
+      </c>
+      <c r="B1693" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1693" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1693" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1693" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1693" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1693" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1693" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1693" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1693" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1693" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1693" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1694" ht="22.5" customHeight="1">
+      <c r="A1694" s="6">
+        <v>45983.37792050926</v>
+      </c>
+      <c r="B1694" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1694" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1694" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1694" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1694" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1694" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1694" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1694" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1694" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1694" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1694" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1695" ht="22.5" customHeight="1">
+      <c r="A1695" s="6">
+        <v>45983.38505726852</v>
+      </c>
+      <c r="B1695" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1695" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1695" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1695" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1695" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1695" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1695" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1695" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1695" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1695" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1695" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1696" ht="22.5" customHeight="1">
+      <c r="A1696" s="6">
+        <v>45983.3965375463</v>
+      </c>
+      <c r="B1696" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1696" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1696" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1696" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1696" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1696" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1696" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1696" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1696" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1696" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1696" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1779">
+  <conditionalFormatting sqref="J1:J1796">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18293" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18389" uniqueCount="399">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1208,6 +1208,9 @@
   <si>
     <t>19 hombro derecho, 22 gluteo izquierdo</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 19 hombro derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1353,7 +1356,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1696" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1705" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -66033,8 +66036,350 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1697" ht="22.5" customHeight="1">
+      <c r="A1697" s="6">
+        <v>45991.33425799769</v>
+      </c>
+      <c r="B1697" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1697" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1697" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1697" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1697" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1697" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1697" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1697" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1697" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1697" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1697" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1698" ht="22.5" customHeight="1">
+      <c r="A1698" s="6">
+        <v>45991.36775696759</v>
+      </c>
+      <c r="B1698" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1698" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1698" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1698" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1698" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1698" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1698" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1698" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1698" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1698" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1698" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1699" ht="22.5" customHeight="1">
+      <c r="A1699" s="6">
+        <v>45991.370016932866</v>
+      </c>
+      <c r="B1699" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1699" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1699" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1699" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1699" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1699" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1699" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1699" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1699" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1699" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1699" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1700" ht="22.5" customHeight="1">
+      <c r="A1700" s="6">
+        <v>45991.37005113426</v>
+      </c>
+      <c r="B1700" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1700" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1700" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1700" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1700" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1700" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1700" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1700" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1700" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1700" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1700" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1701" ht="22.5" customHeight="1">
+      <c r="A1701" s="6">
+        <v>45991.37013462963</v>
+      </c>
+      <c r="B1701" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1701" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1701" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1701" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1701" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1701" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1701" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1701" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1701" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1701" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1701" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1702" ht="22.5" customHeight="1">
+      <c r="A1702" s="6">
+        <v>45991.372147974536</v>
+      </c>
+      <c r="B1702" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1702" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1702" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1702" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1702" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1702" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1702" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1702" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1702" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1702" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1702" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1703" ht="22.5" customHeight="1">
+      <c r="A1703" s="6">
+        <v>45991.37360233796</v>
+      </c>
+      <c r="B1703" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1703" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1703" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1703" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1703" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1703" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1703" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1703" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1703" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1703" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L1703" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1704" ht="22.5" customHeight="1">
+      <c r="A1704" s="6">
+        <v>45991.3756180787</v>
+      </c>
+      <c r="B1704" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1704" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1704" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1704" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1704" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1704" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1704" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1704" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1704" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1704" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1704" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1705" ht="22.5" customHeight="1">
+      <c r="A1705" s="6">
+        <v>45991.375927430556</v>
+      </c>
+      <c r="B1705" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1705" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1705" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1705" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1705" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1705" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1705" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1705" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1705" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1705" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1705" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1796">
+  <conditionalFormatting sqref="J1:J1805">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18389" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18517" uniqueCount="399">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1356,7 +1356,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1705" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1717" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -66378,8 +66378,464 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1706" ht="22.5" customHeight="1">
+      <c r="A1706" s="6">
+        <v>45992.32524677084</v>
+      </c>
+      <c r="B1706" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1706" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1706" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1706" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1706" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1706" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1706" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1706" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1706" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1706" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1706" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1707" ht="22.5" customHeight="1">
+      <c r="A1707" s="6">
+        <v>45992.34469859954</v>
+      </c>
+      <c r="B1707" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1707" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1707" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1707" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1707" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1707" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1707" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1707" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1707" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1707" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1707" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1708" ht="22.5" customHeight="1">
+      <c r="A1708" s="6">
+        <v>45992.34477621528</v>
+      </c>
+      <c r="B1708" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1708" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1708" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1708" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1708" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1708" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1708" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1708" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1708" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1708" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1708" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1709" ht="22.5" customHeight="1">
+      <c r="A1709" s="6">
+        <v>45992.34478429398</v>
+      </c>
+      <c r="B1709" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1709" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1709" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1709" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1709" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1709" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1709" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1709" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1709" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1709" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1709" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1710" ht="22.5" customHeight="1">
+      <c r="A1710" s="6">
+        <v>45992.34487518518</v>
+      </c>
+      <c r="B1710" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1710" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1710" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1710" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1710" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1710" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1710" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1710" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1710" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1710" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1710" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1711" ht="22.5" customHeight="1">
+      <c r="A1711" s="6">
+        <v>45992.3465885301</v>
+      </c>
+      <c r="B1711" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1711" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1711" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1711" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1711" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1711" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1711" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1711" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1711" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1711" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1711" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1712" ht="22.5" customHeight="1">
+      <c r="A1712" s="6">
+        <v>45992.34679415509</v>
+      </c>
+      <c r="B1712" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1712" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1712" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1712" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1712" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1712" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1712" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1712" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1712" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1712" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1712" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1713" ht="22.5" customHeight="1">
+      <c r="A1713" s="6">
+        <v>45992.35092434028</v>
+      </c>
+      <c r="B1713" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1713" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1713" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1713" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1713" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1713" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1713" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1713" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1713" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1713" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1713" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1714" ht="22.5" customHeight="1">
+      <c r="A1714" s="6">
+        <v>45992.352200995374</v>
+      </c>
+      <c r="B1714" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1714" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1714" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1714" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1714" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1714" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1714" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1714" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1714" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1714" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1714" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1715" ht="22.5" customHeight="1">
+      <c r="A1715" s="6">
+        <v>45992.355914479165</v>
+      </c>
+      <c r="B1715" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1715" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1715" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1715" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1715" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1715" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1715" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1715" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1715" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1715" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1715" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1716" ht="22.5" customHeight="1">
+      <c r="A1716" s="6">
+        <v>45992.35941754629</v>
+      </c>
+      <c r="B1716" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1716" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1716" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1716" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1716" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1716" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1716" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1716" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1716" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1716" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1716" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1717" ht="22.5" customHeight="1">
+      <c r="A1717" s="6">
+        <v>45992.36080547454</v>
+      </c>
+      <c r="B1717" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1717" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1717" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1717" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1717" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1717" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1717" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1717" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1717" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1717" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1717" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1805">
+  <conditionalFormatting sqref="J1:J1817">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,13 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1729</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18517" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18645" uniqueCount="399">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1356,7 +1357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1717" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1729" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1729"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -1573,6 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1591,7 +1594,8 @@
     <col customWidth="1" min="9" max="9" width="18.88"/>
     <col customWidth="1" min="10" max="10" width="29.13"/>
     <col customWidth="1" min="11" max="11" width="50.75"/>
-    <col customWidth="1" min="12" max="18" width="18.88"/>
+    <col customWidth="1" min="12" max="12" width="26.25"/>
+    <col customWidth="1" min="13" max="18" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
@@ -66834,12 +66838,471 @@
         <v>31</v>
       </c>
     </row>
+    <row r="1718" ht="22.5" customHeight="1">
+      <c r="A1718" s="6">
+        <v>45993.31407493056</v>
+      </c>
+      <c r="B1718" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1718" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1718" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1718" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1718" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1718" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1718" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1718" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1718" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1718" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1718" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1719" ht="22.5" customHeight="1">
+      <c r="A1719" s="6">
+        <v>45993.32021672453</v>
+      </c>
+      <c r="B1719" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1719" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1719" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1719" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1719" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1719" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1719" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1719" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1719" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1719" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1719" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1720" ht="22.5" customHeight="1">
+      <c r="A1720" s="6">
+        <v>45993.326252326384</v>
+      </c>
+      <c r="B1720" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1720" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1720" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1720" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1720" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1720" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1720" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1720" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1720" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1720" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1720" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1721" ht="22.5" customHeight="1">
+      <c r="A1721" s="6">
+        <v>45993.32661456018</v>
+      </c>
+      <c r="B1721" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1721" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1721" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1721" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1721" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1721" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1721" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1721" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1721" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1721" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1721" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1722" ht="22.5" customHeight="1">
+      <c r="A1722" s="6">
+        <v>45993.331753506944</v>
+      </c>
+      <c r="B1722" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1722" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1722" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1722" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1722" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1722" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1722" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1722" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1722" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1722" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L1722" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1723" ht="22.5" customHeight="1">
+      <c r="A1723" s="6">
+        <v>45993.3343555787</v>
+      </c>
+      <c r="B1723" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1723" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1723" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1723" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1723" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1723" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1723" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1723" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1723" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1723" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1723" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1724" ht="22.5" customHeight="1">
+      <c r="A1724" s="6">
+        <v>45993.33566887732</v>
+      </c>
+      <c r="B1724" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1724" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1724" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1724" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1724" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1724" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1724" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1724" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1724" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1724" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1724" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1725" ht="22.5" customHeight="1">
+      <c r="A1725" s="6">
+        <v>45993.33902648148</v>
+      </c>
+      <c r="B1725" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1725" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1725" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1725" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1725" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1725" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1725" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1725" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1725" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1725" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1725" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1726" ht="22.5" customHeight="1">
+      <c r="A1726" s="6">
+        <v>45993.34309383102</v>
+      </c>
+      <c r="B1726" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1726" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1726" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1726" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1726" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1726" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1726" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1726" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1726" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1726" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1726" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1727" ht="22.5" customHeight="1">
+      <c r="A1727" s="6">
+        <v>45993.34586914352</v>
+      </c>
+      <c r="B1727" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1727" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1727" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1727" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1727" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1727" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1727" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1727" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1727" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1727" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1727" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1728" ht="22.5" customHeight="1">
+      <c r="A1728" s="6">
+        <v>45993.34654346065</v>
+      </c>
+      <c r="B1728" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1728" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1728" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1728" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1728" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1728" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1728" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1728" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1728" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1728" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1728" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1729" ht="22.5" customHeight="1">
+      <c r="A1729" s="6">
+        <v>45993.34827050926</v>
+      </c>
+      <c r="B1729" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1729" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1729" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1729" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1729" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1729" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1729" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1729" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1729" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1729" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1729" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1817">
+  <conditionalFormatting sqref="J1:J1829">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1729</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1737</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18645" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18731" uniqueCount="400">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1212,6 +1212,9 @@
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 19 hombro derecho</t>
   </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 19 hombro derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1357,8 +1360,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1729" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1729"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1737" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1737"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -67294,8 +67297,312 @@
         <v>233</v>
       </c>
     </row>
+    <row r="1730" ht="22.5" customHeight="1">
+      <c r="A1730" s="6">
+        <v>45994.3598581713</v>
+      </c>
+      <c r="B1730" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1730" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1730" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1730" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1730" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1730" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1730" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1730" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1730" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1730" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1730" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1731" ht="22.5" customHeight="1">
+      <c r="A1731" s="6">
+        <v>45994.40195803241</v>
+      </c>
+      <c r="B1731" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1731" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1731" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1731" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1731" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1731" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1731" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1731" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1731" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1731" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1731" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1732" ht="22.5" customHeight="1">
+      <c r="A1732" s="6">
+        <v>45994.40203694445</v>
+      </c>
+      <c r="B1732" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1732" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1732" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1732" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1732" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1732" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1732" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1732" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1732" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1732" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1732" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1733" ht="22.5" customHeight="1">
+      <c r="A1733" s="6">
+        <v>45994.40237011574</v>
+      </c>
+      <c r="B1733" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1733" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1733" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1733" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1733" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1733" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1733" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1733" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1733" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1733" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1733" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1734" ht="22.5" customHeight="1">
+      <c r="A1734" s="6">
+        <v>45994.402953425924</v>
+      </c>
+      <c r="B1734" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1734" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1734" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1734" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1734" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1734" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1734" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1734" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1734" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1734" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1734" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1735" ht="22.5" customHeight="1">
+      <c r="A1735" s="6">
+        <v>45994.40378653935</v>
+      </c>
+      <c r="B1735" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1735" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1735" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1735" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1735" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1735" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1735" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1735" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1735" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1735" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1735" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1736" ht="22.5" customHeight="1">
+      <c r="A1736" s="6">
+        <v>45994.40437527778</v>
+      </c>
+      <c r="B1736" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1736" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1736" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1736" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1736" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1736" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1736" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1736" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1736" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1736" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1736" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1737" ht="22.5" customHeight="1">
+      <c r="A1737" s="6">
+        <v>45994.40489297453</v>
+      </c>
+      <c r="B1737" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1737" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1737" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1737" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1737" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1737" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1737" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1737" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1737" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1737" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L1737" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1829">
+  <conditionalFormatting sqref="J1:J1837">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1737</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1738</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18731" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18742" uniqueCount="401">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1215,6 +1215,9 @@
   <si>
     <t>9 Isquiotibial izquierdo, 19 hombro derecho</t>
   </si>
+  <si>
+    <t>Primero</t>
+  </si>
 </sst>
 </file>
 
@@ -1360,8 +1363,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1737" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1737"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1738" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1738"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -67601,8 +67604,46 @@
         <v>52</v>
       </c>
     </row>
+    <row r="1738" ht="22.5" customHeight="1">
+      <c r="A1738" s="6">
+        <v>45995.298811493056</v>
+      </c>
+      <c r="B1738" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1738" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1738" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1738" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1738" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1738" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1738" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1738" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1738" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1738" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1738" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1837">
+  <conditionalFormatting sqref="J1:J1838">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -1286,16 +1286,6 @@
     <dxf>
       <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
         <patternFill patternType="none"/>
       </fill>
       <border/>
@@ -1346,13 +1336,23 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle count="4" pivot="0" name="Respuestas de formulario 1-style">
-      <tableStyleElement dxfId="2" type="headerRow"/>
-      <tableStyleElement dxfId="3" type="firstRowStripe"/>
-      <tableStyleElement dxfId="4" type="secondRowStripe"/>
-      <tableStyleElement dxfId="5" size="0" type="wholeTable"/>
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -67644,7 +67644,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1838">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="adolorido">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1738</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1745</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18742" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18818" uniqueCount="402">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1218,6 +1218,9 @@
   <si>
     <t>Primero</t>
   </si>
+  <si>
+    <t xml:space="preserve"> No</t>
+  </si>
 </sst>
 </file>
 
@@ -1363,8 +1366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1738" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1738"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1745" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1745"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -67642,8 +67645,274 @@
         <v>400</v>
       </c>
     </row>
+    <row r="1739" ht="22.5" customHeight="1">
+      <c r="A1739" s="6">
+        <v>46018.42336804398</v>
+      </c>
+      <c r="B1739" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1739" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1739" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1739" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1739" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1739" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1739" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1739" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1739" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1739" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1739" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1740" ht="22.5" customHeight="1">
+      <c r="A1740" s="6">
+        <v>46018.42352165509</v>
+      </c>
+      <c r="B1740" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1740" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1740" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1740" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1740" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1740" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1740" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1740" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1740" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1740" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1740" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1741" ht="22.5" customHeight="1">
+      <c r="A1741" s="6">
+        <v>46018.42499167824</v>
+      </c>
+      <c r="B1741" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1741" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1741" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1741" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1741" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1741" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1741" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1741" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1741" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1741" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1741" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1742" ht="22.5" customHeight="1">
+      <c r="A1742" s="6">
+        <v>46018.42507197917</v>
+      </c>
+      <c r="B1742" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1742" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1742" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1742" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1742" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1742" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1742" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1742" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1742" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1742" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1742" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1743" ht="22.5" customHeight="1">
+      <c r="A1743" s="6">
+        <v>46018.425898807865</v>
+      </c>
+      <c r="B1743" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1743" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1743" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1743" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1743" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1743" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1743" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1743" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1743" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1743" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1743" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1744" ht="22.5" customHeight="1">
+      <c r="A1744" s="6">
+        <v>46018.428343321764</v>
+      </c>
+      <c r="B1744" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1744" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1744" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1744" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1744" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1744" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1744" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1744" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1744" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1744" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1744" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1745" ht="22.5" customHeight="1">
+      <c r="A1745" s="6">
+        <v>46018.44167482639</v>
+      </c>
+      <c r="B1745" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1745" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1745" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1745" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1745" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1745" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1745" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1745" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1745" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1745" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1745" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1838">
+  <conditionalFormatting sqref="J1:J1845">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1745</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1746</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18818" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18829" uniqueCount="402">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1366,8 +1366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1745" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1745"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1746" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1746"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -67911,8 +67911,46 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1746" ht="22.5" customHeight="1">
+      <c r="A1746" s="6">
+        <v>46019.312569953705</v>
+      </c>
+      <c r="B1746" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1746" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1746" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1746" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1746" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1746" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1746" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1746" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1746" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1746" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1746" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1845">
+  <conditionalFormatting sqref="J1:J1846">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1746</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1755</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18829" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18927" uniqueCount="403">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1221,6 +1221,9 @@
   <si>
     <t xml:space="preserve"> No</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 3 rodilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1366,8 +1369,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1746" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1746"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1755" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1755"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -67949,8 +67952,350 @@
         <v>72</v>
       </c>
     </row>
+    <row r="1747" ht="22.5" customHeight="1">
+      <c r="A1747" s="6">
+        <v>46020.31437877315</v>
+      </c>
+      <c r="B1747" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1747" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1747" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1747" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1747" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1747" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1747" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1747" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1747" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1747" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1747" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1748" ht="22.5" customHeight="1">
+      <c r="A1748" s="6">
+        <v>46020.35732064815</v>
+      </c>
+      <c r="B1748" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1748" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1748" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1748" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1748" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1748" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1748" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1748" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1748" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1748" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1748" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1749" ht="22.5" customHeight="1">
+      <c r="A1749" s="6">
+        <v>46020.35819965278</v>
+      </c>
+      <c r="B1749" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1749" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1749" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1749" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1749" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1749" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1749" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1749" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1749" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1749" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1749" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1750" ht="22.5" customHeight="1">
+      <c r="A1750" s="6">
+        <v>46020.35847178241</v>
+      </c>
+      <c r="B1750" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1750" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1750" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1750" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1750" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1750" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1750" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1750" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1750" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1750" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1750" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1751" ht="22.5" customHeight="1">
+      <c r="A1751" s="6">
+        <v>46020.3605803588</v>
+      </c>
+      <c r="B1751" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1751" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1751" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1751" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1751" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1751" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1751" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1751" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1751" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1751" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1751" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1752" ht="22.5" customHeight="1">
+      <c r="A1752" s="6">
+        <v>46020.36226877315</v>
+      </c>
+      <c r="B1752" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1752" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1752" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1752" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1752" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1752" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1752" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1752" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1752" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1752" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1752" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1753" ht="22.5" customHeight="1">
+      <c r="A1753" s="6">
+        <v>46020.37457850695</v>
+      </c>
+      <c r="B1753" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1753" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1753" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1753" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1753" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1753" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1753" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1753" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1753" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1753" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1753" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1754" ht="22.5" customHeight="1">
+      <c r="A1754" s="6">
+        <v>46020.383665601854</v>
+      </c>
+      <c r="B1754" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1754" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1754" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1754" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1754" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1754" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1754" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1754" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1754" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1754" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1754" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1755" ht="22.5" customHeight="1">
+      <c r="A1755" s="6">
+        <v>46020.40024702546</v>
+      </c>
+      <c r="B1755" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1755" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1755" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1755" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1755" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1755" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1755" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1755" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1755" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1755" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1755" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1846">
+  <conditionalFormatting sqref="J1:J1855">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1755</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1768</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18927" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19068" uniqueCount="404">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1224,6 +1224,9 @@
   <si>
     <t>2 muslo derecho, 3 rodilla derecha</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -1369,8 +1372,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1755" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1755"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1768" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1768"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -68294,8 +68297,502 @@
         <v>212</v>
       </c>
     </row>
+    <row r="1756" ht="22.5" customHeight="1">
+      <c r="A1756" s="6">
+        <v>46021.28481787037</v>
+      </c>
+      <c r="B1756" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1756" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1756" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1756" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1756" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1756" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1756" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1756" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1756" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1756" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1756" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1757" ht="22.5" customHeight="1">
+      <c r="A1757" s="6">
+        <v>46021.314089004634</v>
+      </c>
+      <c r="B1757" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1757" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1757" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1757" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1757" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1757" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1757" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1757" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1757" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1757" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1757" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1758" ht="22.5" customHeight="1">
+      <c r="A1758" s="6">
+        <v>46021.31445684028</v>
+      </c>
+      <c r="B1758" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1758" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1758" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1758" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1758" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1758" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1758" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1758" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1758" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1758" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1758" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1759" ht="22.5" customHeight="1">
+      <c r="A1759" s="6">
+        <v>46021.31499273148</v>
+      </c>
+      <c r="B1759" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1759" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1759" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1759" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1759" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1759" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1759" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1759" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1759" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1759" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1759" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="1760" ht="22.5" customHeight="1">
+      <c r="A1760" s="6">
+        <v>46021.31594579861</v>
+      </c>
+      <c r="B1760" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1760" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1760" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1760" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1760" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1760" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1760" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1760" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1760" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1760" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1760" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1761" ht="22.5" customHeight="1">
+      <c r="A1761" s="6">
+        <v>46021.32361976852</v>
+      </c>
+      <c r="B1761" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1761" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1761" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1761" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1761" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1761" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1761" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1761" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1761" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1761" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1761" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1762" ht="22.5" customHeight="1">
+      <c r="A1762" s="6">
+        <v>46021.32505679398</v>
+      </c>
+      <c r="B1762" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1762" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1762" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1762" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1762" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1762" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1762" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1762" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1762" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1762" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1762" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1763" ht="22.5" customHeight="1">
+      <c r="A1763" s="6">
+        <v>46021.32558078704</v>
+      </c>
+      <c r="B1763" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1763" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1763" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1763" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1763" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1763" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1763" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1763" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1763" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1763" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1763" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1764" ht="22.5" customHeight="1">
+      <c r="A1764" s="6">
+        <v>46021.32888526621</v>
+      </c>
+      <c r="B1764" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1764" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1764" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1764" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1764" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1764" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1764" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1764" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1764" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1764" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1764" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1765" ht="22.5" customHeight="1">
+      <c r="A1765" s="6">
+        <v>46021.33051878472</v>
+      </c>
+      <c r="B1765" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1765" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1765" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1765" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1765" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1765" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1765" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1765" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1765" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1765" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1765" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1766" ht="22.5" customHeight="1">
+      <c r="A1766" s="6">
+        <v>46021.33175017362</v>
+      </c>
+      <c r="B1766" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1766" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1766" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1766" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1766" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1766" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1766" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1766" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1766" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1766" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1766" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1767" ht="22.5" customHeight="1">
+      <c r="A1767" s="6">
+        <v>46021.33225946759</v>
+      </c>
+      <c r="B1767" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1767" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1767" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1767" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1767" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1767" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1767" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1767" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1767" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1767" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1767" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1768" ht="22.5" customHeight="1">
+      <c r="A1768" s="6">
+        <v>46021.34159888889</v>
+      </c>
+      <c r="B1768" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1768" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1768" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1768" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1768" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1768" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1768" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1768" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1768" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1768" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1768" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1855">
+  <conditionalFormatting sqref="J1:J1868">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1768</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1774</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19068" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19132" uniqueCount="404">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1372,8 +1372,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1768" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1768"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1774" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1774"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -68791,8 +68791,236 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="1769" ht="22.5" customHeight="1">
+      <c r="A1769" s="6">
+        <v>46022.25219738426</v>
+      </c>
+      <c r="B1769" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1769" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1769" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1769" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1769" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1769" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1769" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1769" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1769" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1769" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1769" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1770" ht="22.5" customHeight="1">
+      <c r="A1770" s="6">
+        <v>46022.252342824075</v>
+      </c>
+      <c r="B1770" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1770" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1770" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1770" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1770" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1770" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1770" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1770" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1770" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1770" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1770" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1771" ht="22.5" customHeight="1">
+      <c r="A1771" s="6">
+        <v>46022.25776518519</v>
+      </c>
+      <c r="B1771" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1771" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1771" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1771" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1771" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1771" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1771" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1771" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1771" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1771" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1771" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1772" ht="22.5" customHeight="1">
+      <c r="A1772" s="6">
+        <v>46022.26208140046</v>
+      </c>
+      <c r="B1772" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1772" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1772" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1772" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1772" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1772" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1772" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1772" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1772" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1772" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1772" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1773" ht="22.5" customHeight="1">
+      <c r="A1773" s="6">
+        <v>46022.26251885417</v>
+      </c>
+      <c r="B1773" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1773" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1773" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1773" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1773" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1773" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1773" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1773" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1773" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1773" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1773" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1774" ht="22.5" customHeight="1">
+      <c r="A1774" s="6">
+        <v>46022.26668376157</v>
+      </c>
+      <c r="B1774" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1774" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1774" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1774" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1774" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1774" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1774" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1774" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1774" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1774" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1774" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1868">
+  <conditionalFormatting sqref="J1:J1874">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1774</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1803</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19132" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19442" uniqueCount="406">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1227,6 +1227,12 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>20 hombro izquierdo, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1372,8 +1378,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1774" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1774"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1803" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1803"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -69019,8 +69025,1110 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1775" ht="22.5" customHeight="1">
+      <c r="A1775" s="6">
+        <v>46024.57525253472</v>
+      </c>
+      <c r="B1775" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1775" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1775" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1775" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1775" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1775" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1775" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1775" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1775" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1775" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1775" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1776" ht="22.5" customHeight="1">
+      <c r="A1776" s="6">
+        <v>46024.59181142361</v>
+      </c>
+      <c r="B1776" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1776" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1776" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1776" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1776" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1776" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1776" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1776" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1776" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1776" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1776" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1777" ht="22.5" customHeight="1">
+      <c r="A1777" s="6">
+        <v>46024.59213980324</v>
+      </c>
+      <c r="B1777" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1777" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1777" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1777" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1777" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1777" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1777" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1777" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1777" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1777" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1777" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1778" ht="22.5" customHeight="1">
+      <c r="A1778" s="6">
+        <v>46024.592529490736</v>
+      </c>
+      <c r="B1778" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1778" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1778" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1778" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1778" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1778" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1778" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1778" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1778" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1778" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1778" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1779" ht="22.5" customHeight="1">
+      <c r="A1779" s="6">
+        <v>46024.59291363426</v>
+      </c>
+      <c r="B1779" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1779" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1779" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1779" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1779" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1779" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1779" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1779" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1779" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1779" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1779" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1780" ht="22.5" customHeight="1">
+      <c r="A1780" s="6">
+        <v>46024.5935437963</v>
+      </c>
+      <c r="B1780" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1780" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1780" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1780" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1780" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1780" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1780" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1780" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1780" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1780" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1780" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1781" ht="22.5" customHeight="1">
+      <c r="A1781" s="6">
+        <v>46024.59384865741</v>
+      </c>
+      <c r="B1781" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1781" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1781" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1781" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1781" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1781" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1781" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1781" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1781" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1781" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1781" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1782" ht="22.5" customHeight="1">
+      <c r="A1782" s="6">
+        <v>46024.593920046296</v>
+      </c>
+      <c r="B1782" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1782" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1782" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1782" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1782" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1782" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1782" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1782" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1782" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1782" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1782" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1783" ht="22.5" customHeight="1">
+      <c r="A1783" s="6">
+        <v>46024.59396315972</v>
+      </c>
+      <c r="B1783" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1783" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1783" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1783" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1783" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1783" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1783" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1783" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1783" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1783" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1783" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1784" ht="22.5" customHeight="1">
+      <c r="A1784" s="6">
+        <v>46024.59401898149</v>
+      </c>
+      <c r="B1784" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1784" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1784" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1784" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1784" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1784" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1784" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1784" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1784" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1784" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1784" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1785" ht="22.5" customHeight="1">
+      <c r="A1785" s="6">
+        <v>46024.595666388894</v>
+      </c>
+      <c r="B1785" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1785" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1785" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1785" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1785" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1785" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1785" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1785" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1785" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1785" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1785" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1786" ht="22.5" customHeight="1">
+      <c r="A1786" s="6">
+        <v>46024.59808193287</v>
+      </c>
+      <c r="B1786" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1786" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1786" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1786" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1786" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1786" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1786" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1786" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1786" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1786" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1786" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1787" ht="22.5" customHeight="1">
+      <c r="A1787" s="6">
+        <v>46024.599816608796</v>
+      </c>
+      <c r="B1787" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1787" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1787" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1787" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1787" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1787" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1787" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1787" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1787" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1787" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1787" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1788" ht="22.5" customHeight="1">
+      <c r="A1788" s="6">
+        <v>46024.603462743056</v>
+      </c>
+      <c r="B1788" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1788" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1788" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1788" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1788" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1788" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1788" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1788" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1788" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1788" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1788" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1789" ht="22.5" customHeight="1">
+      <c r="A1789" s="6">
+        <v>46025.33819863426</v>
+      </c>
+      <c r="B1789" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1789" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1789" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1789" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1789" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1789" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1789" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1789" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1789" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1789" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1789" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1790" ht="22.5" customHeight="1">
+      <c r="A1790" s="6">
+        <v>46025.34031890046</v>
+      </c>
+      <c r="B1790" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1790" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1790" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1790" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1790" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1790" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1790" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1790" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1790" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1790" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1790" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1791" ht="22.5" customHeight="1">
+      <c r="A1791" s="6">
+        <v>46025.3432466088</v>
+      </c>
+      <c r="B1791" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1791" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1791" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1791" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1791" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1791" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1791" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1791" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1791" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1791" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1791" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1792" ht="22.5" customHeight="1">
+      <c r="A1792" s="6">
+        <v>46025.36814731482</v>
+      </c>
+      <c r="B1792" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1792" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1792" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1792" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1792" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1792" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1792" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1792" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1792" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1792" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1792" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1793" ht="22.5" customHeight="1">
+      <c r="A1793" s="6">
+        <v>46025.36994863426</v>
+      </c>
+      <c r="B1793" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1793" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1793" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1793" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1793" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1793" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1793" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1793" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1793" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1793" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1793" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1794" ht="22.5" customHeight="1">
+      <c r="A1794" s="6">
+        <v>46025.37310619213</v>
+      </c>
+      <c r="B1794" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1794" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1794" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1794" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1794" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1794" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1794" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1794" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1794" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1794" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1794" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1795" ht="22.5" customHeight="1">
+      <c r="A1795" s="6">
+        <v>46025.37658777778</v>
+      </c>
+      <c r="B1795" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1795" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1795" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1795" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1795" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1795" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1795" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1795" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1795" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1795" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1795" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1796" ht="22.5" customHeight="1">
+      <c r="A1796" s="6">
+        <v>46025.38131953704</v>
+      </c>
+      <c r="B1796" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1796" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1796" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1796" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1796" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1796" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1796" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1796" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1796" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1796" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1796" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1797" ht="22.5" customHeight="1">
+      <c r="A1797" s="6">
+        <v>46025.381575625</v>
+      </c>
+      <c r="B1797" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1797" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1797" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1797" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1797" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1797" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1797" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1797" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1797" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1797" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L1797" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1798" ht="22.5" customHeight="1">
+      <c r="A1798" s="6">
+        <v>46025.38743820602</v>
+      </c>
+      <c r="B1798" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1798" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1798" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1798" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1798" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1798" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1798" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1798" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1798" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1798" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1798" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1799" ht="22.5" customHeight="1">
+      <c r="A1799" s="6">
+        <v>46025.39039559028</v>
+      </c>
+      <c r="B1799" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1799" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1799" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1799" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1799" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1799" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1799" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1799" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1799" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1799" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1799" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1800" ht="22.5" customHeight="1">
+      <c r="A1800" s="6">
+        <v>46025.394321307875</v>
+      </c>
+      <c r="B1800" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1800" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1800" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1800" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1800" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1800" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1800" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1800" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1800" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1800" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1800" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1801" ht="22.5" customHeight="1">
+      <c r="A1801" s="6">
+        <v>46025.406852824075</v>
+      </c>
+      <c r="B1801" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1801" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1801" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1801" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1801" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1801" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1801" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1801" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1801" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1801" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1801" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1802" ht="22.5" customHeight="1">
+      <c r="A1802" s="6">
+        <v>46025.414774074074</v>
+      </c>
+      <c r="B1802" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1802" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1802" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1802" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1802" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1802" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1802" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1802" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1802" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1802" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1802" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1803" ht="22.5" customHeight="1">
+      <c r="A1803" s="6">
+        <v>46025.41514096065</v>
+      </c>
+      <c r="B1803" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1803" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1803" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1803" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1803" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1803" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1803" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1803" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1803" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1803" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1803" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1874">
+  <conditionalFormatting sqref="J1:J1903">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1803</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1817</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19442" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19593" uniqueCount="408">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1233,6 +1233,12 @@
   <si>
     <t>14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 16 espalda, 19 hombro derecho, 20 hombro izquierdo, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 17 aductor izquierdo</t>
+  </si>
 </sst>
 </file>
 
@@ -1378,8 +1384,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1803" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1803"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1817" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1817"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -70127,8 +70133,540 @@
         <v>31</v>
       </c>
     </row>
+    <row r="1804" ht="22.5" customHeight="1">
+      <c r="A1804" s="6">
+        <v>46026.33338447916</v>
+      </c>
+      <c r="B1804" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1804" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1804" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1804" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1804" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1804" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1804" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1804" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1804" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1804" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1804" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1805" ht="22.5" customHeight="1">
+      <c r="A1805" s="6">
+        <v>46026.3339589699</v>
+      </c>
+      <c r="B1805" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1805" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1805" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1805" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1805" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1805" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1805" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1805" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1805" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1805" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1805" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1806" ht="22.5" customHeight="1">
+      <c r="A1806" s="6">
+        <v>46026.33606153935</v>
+      </c>
+      <c r="B1806" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1806" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1806" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1806" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1806" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1806" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1806" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1806" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1806" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1806" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L1806" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1807" ht="22.5" customHeight="1">
+      <c r="A1807" s="6">
+        <v>46026.34699290509</v>
+      </c>
+      <c r="B1807" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1807" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1807" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1807" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1807" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1807" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1807" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1807" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1807" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1807" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1807" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1808" ht="22.5" customHeight="1">
+      <c r="A1808" s="6">
+        <v>46026.34946518519</v>
+      </c>
+      <c r="B1808" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1808" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1808" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1808" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1808" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1808" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1808" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1808" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1808" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1808" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1808" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1809" ht="22.5" customHeight="1">
+      <c r="A1809" s="6">
+        <v>46026.34951630787</v>
+      </c>
+      <c r="B1809" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1809" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1809" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1809" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1809" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1809" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1809" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1809" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1809" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1809" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1809" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1810" ht="22.5" customHeight="1">
+      <c r="A1810" s="6">
+        <v>46026.351753993054</v>
+      </c>
+      <c r="B1810" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1810" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1810" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1810" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1810" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1810" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1810" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1810" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1810" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1810" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1810" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1811" ht="22.5" customHeight="1">
+      <c r="A1811" s="6">
+        <v>46026.35459215278</v>
+      </c>
+      <c r="B1811" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1811" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1811" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1811" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1811" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1811" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1811" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1811" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1811" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1811" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1811" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1812" ht="22.5" customHeight="1">
+      <c r="A1812" s="6">
+        <v>46026.36071112269</v>
+      </c>
+      <c r="B1812" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1812" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1812" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1812" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1812" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1812" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1812" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1812" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1812" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1812" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L1812" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1813" ht="22.5" customHeight="1">
+      <c r="A1813" s="6">
+        <v>46026.363504560184</v>
+      </c>
+      <c r="B1813" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1813" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1813" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1813" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1813" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1813" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1813" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1813" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1813" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1813" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1813" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1814" ht="22.5" customHeight="1">
+      <c r="A1814" s="6">
+        <v>46026.36398554398</v>
+      </c>
+      <c r="B1814" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1814" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1814" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1814" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1814" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1814" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1814" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1814" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1814" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1814" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1814" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1815" ht="22.5" customHeight="1">
+      <c r="A1815" s="6">
+        <v>46026.36449100694</v>
+      </c>
+      <c r="B1815" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1815" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1815" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1815" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1815" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1815" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1815" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1815" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1815" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1815" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1815" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1816" ht="22.5" customHeight="1">
+      <c r="A1816" s="6">
+        <v>46026.36535965277</v>
+      </c>
+      <c r="B1816" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1816" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1816" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1816" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1816" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1816" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1816" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1816" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1816" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1816" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1816" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1817" ht="22.5" customHeight="1">
+      <c r="A1817" s="6">
+        <v>46026.371788379634</v>
+      </c>
+      <c r="B1817" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1817" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1817" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1817" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1817" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1817" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1817" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1817" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1817" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1817" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1817" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1903">
+  <conditionalFormatting sqref="J1:J1917">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1817</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1818</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19593" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19604" uniqueCount="410">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1239,6 +1239,12 @@
   <si>
     <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 17 aductor izquierdo</t>
   </si>
+  <si>
+    <t>Xcaret</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
 </sst>
 </file>
 
@@ -1384,8 +1390,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1817" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1817"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1818" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1818"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -70665,8 +70671,46 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="1818" ht="22.5" customHeight="1">
+      <c r="A1818" s="6">
+        <v>46027.4448790625</v>
+      </c>
+      <c r="B1818" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1818" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1818" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1818" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1818" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1818" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1818" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1818" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1818" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1818" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1818" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1917">
+  <conditionalFormatting sqref="J1:J1918">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1818</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1830</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19604" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19733" uniqueCount="417">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1240,10 +1240,31 @@
     <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 17 aductor izquierdo</t>
   </si>
   <si>
-    <t>Xcaret</t>
+    <t>Xcaret Pineda</t>
   </si>
   <si>
     <t>N/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. </t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 4 rodilla izquierda</t>
+  </si>
+  <si>
+    <t>8 tobillo izquierdo, 11 parte trasera de la rodilla izquierda, 13 pantorrilla izquierda</t>
+  </si>
+  <si>
+    <t>Julie Lopez</t>
+  </si>
+  <si>
+    <t>Annia Mejía</t>
+  </si>
+  <si>
+    <t>4 rodilla izquierda, 9 Isquiotibial izquierdo, 10 isquiotibial derecho</t>
+  </si>
+  <si>
+    <t>Giana Riley</t>
   </si>
 </sst>
 </file>
@@ -1390,8 +1411,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1818" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1818"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1830" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1830"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -70709,8 +70730,464 @@
         <v>409</v>
       </c>
     </row>
+    <row r="1819" ht="22.5" customHeight="1">
+      <c r="A1819" s="6">
+        <v>46028.30589768519</v>
+      </c>
+      <c r="B1819" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1819" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1819" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1819" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1819" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1819" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1819" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1819" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1819" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1819" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1819" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1820" ht="22.5" customHeight="1">
+      <c r="A1820" s="6">
+        <v>46028.33617850694</v>
+      </c>
+      <c r="B1820" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1820" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1820" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1820" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1820" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1820" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1820" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1820" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1820" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1820" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1820" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1821" ht="22.5" customHeight="1">
+      <c r="A1821" s="6">
+        <v>46028.39999502315</v>
+      </c>
+      <c r="B1821" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1821" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1821" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1821" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1821" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1821" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1821" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1821" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1821" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1821" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1821" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1822" ht="22.5" customHeight="1">
+      <c r="A1822" s="6">
+        <v>46028.44426842593</v>
+      </c>
+      <c r="B1822" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1822" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1822" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1822" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1822" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1822" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1822" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1822" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1822" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1822" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L1822" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1823" ht="22.5" customHeight="1">
+      <c r="A1823" s="6">
+        <v>46028.44544185185</v>
+      </c>
+      <c r="B1823" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1823" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1823" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1823" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1823" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1823" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1823" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1823" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1823" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1823" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1823" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1824" ht="22.5" customHeight="1">
+      <c r="A1824" s="6">
+        <v>46028.445609710645</v>
+      </c>
+      <c r="B1824" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1824" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1824" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1824" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1824" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1824" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1824" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1824" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1824" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1824" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L1824" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1825" ht="22.5" customHeight="1">
+      <c r="A1825" s="6">
+        <v>46028.44610746528</v>
+      </c>
+      <c r="B1825" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1825" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1825" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1825" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1825" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1825" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1825" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1825" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1825" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1825" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1825" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1826" ht="22.5" customHeight="1">
+      <c r="A1826" s="6">
+        <v>46028.44623259259</v>
+      </c>
+      <c r="B1826" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1826" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1826" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1826" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1826" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1826" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1826" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1826" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1826" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1826" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1826" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1827" ht="22.5" customHeight="1">
+      <c r="A1827" s="6">
+        <v>46028.44638194444</v>
+      </c>
+      <c r="B1827" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1827" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1827" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1827" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1827" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1827" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1827" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1827" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1827" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1827" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1827" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1828" ht="22.5" customHeight="1">
+      <c r="A1828" s="6">
+        <v>46028.447162349534</v>
+      </c>
+      <c r="B1828" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1828" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1828" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1828" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1828" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1828" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1828" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1828" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1828" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1828" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L1828" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1829" ht="22.5" customHeight="1">
+      <c r="A1829" s="6">
+        <v>46028.45003291666</v>
+      </c>
+      <c r="B1829" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1829" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1829" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1829" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1829" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1829" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1829" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1829" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1829" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1829" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1829" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1830" ht="22.5" customHeight="1">
+      <c r="A1830" s="6">
+        <v>46028.453123009254</v>
+      </c>
+      <c r="B1830" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1830" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1830" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1830" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1830" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1830" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1830" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1830" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1830" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1830" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1830" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1918">
+  <conditionalFormatting sqref="J1:J1930">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1830</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1853</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19733" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19981" uniqueCount="423">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1266,6 +1266,24 @@
   <si>
     <t>Giana Riley</t>
   </si>
+  <si>
+    <t>Isa Haas</t>
+  </si>
+  <si>
+    <t>13 pantorrilla izquierda, 14 pantorrilla derecha, 17 aductor izquierdo</t>
+  </si>
+  <si>
+    <t>10 isquiotibial derecho, 17 aductor izquierdo</t>
+  </si>
+  <si>
+    <t>4 rodilla izquierda, 17 aductor izquierdo, 18 aductor derecho</t>
+  </si>
+  <si>
+    <t>6 espinilla izquierda, 9 Isquiotibial izquierdo, 11 parte trasera de la rodilla izquierda, 13 pantorrilla izquierda</t>
+  </si>
+  <si>
+    <t>Gaby García</t>
+  </si>
 </sst>
 </file>
 
@@ -1411,8 +1429,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1830" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1830"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1853" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1853"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -71186,8 +71204,882 @@
         <v>409</v>
       </c>
     </row>
+    <row r="1831" ht="22.5" customHeight="1">
+      <c r="A1831" s="6">
+        <v>46028.45552315972</v>
+      </c>
+      <c r="B1831" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1831" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1831" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1831" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1831" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1831" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1831" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1831" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1831" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1831" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1831" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1832" ht="22.5" customHeight="1">
+      <c r="A1832" s="6">
+        <v>46028.46424070602</v>
+      </c>
+      <c r="B1832" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1832" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1832" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1832" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1832" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1832" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1832" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1832" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1832" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1832" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1832" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1833" ht="22.5" customHeight="1">
+      <c r="A1833" s="6">
+        <v>46028.470252858795</v>
+      </c>
+      <c r="B1833" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1833" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1833" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1833" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1833" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1833" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1833" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1833" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1833" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1833" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1833" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1834" ht="22.5" customHeight="1">
+      <c r="A1834" s="6">
+        <v>46029.27848054398</v>
+      </c>
+      <c r="B1834" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1834" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1834" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1834" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1834" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1834" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1834" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1834" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1834" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1834" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1834" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1835" ht="22.5" customHeight="1">
+      <c r="A1835" s="6">
+        <v>46029.3030702199</v>
+      </c>
+      <c r="B1835" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1835" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1835" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1835" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1835" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1835" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1835" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1835" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1835" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1835" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1835" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1836" ht="22.5" customHeight="1">
+      <c r="A1836" s="6">
+        <v>46029.306455972226</v>
+      </c>
+      <c r="B1836" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1836" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1836" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1836" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1836" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1836" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1836" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1836" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1836" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1836" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1836" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1837" ht="22.5" customHeight="1">
+      <c r="A1837" s="6">
+        <v>46029.33764758102</v>
+      </c>
+      <c r="B1837" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1837" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1837" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1837" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1837" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1837" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1837" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1837" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1837" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1837" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1837" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1838" ht="22.5" customHeight="1">
+      <c r="A1838" s="6">
+        <v>46029.33769814815</v>
+      </c>
+      <c r="B1838" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1838" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1838" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1838" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1838" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1838" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1838" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1838" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1838" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1838" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1838" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1839" ht="22.5" customHeight="1">
+      <c r="A1839" s="6">
+        <v>46029.33830668981</v>
+      </c>
+      <c r="B1839" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1839" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1839" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1839" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1839" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1839" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1839" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1839" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1839" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1839" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1839" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1840" ht="22.5" customHeight="1">
+      <c r="A1840" s="6">
+        <v>46029.33908960648</v>
+      </c>
+      <c r="B1840" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1840" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1840" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1840" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1840" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1840" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1840" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1840" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1840" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1840" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L1840" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1841" ht="22.5" customHeight="1">
+      <c r="A1841" s="6">
+        <v>46029.33922504629</v>
+      </c>
+      <c r="B1841" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1841" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1841" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1841" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1841" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1841" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1841" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1841" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1841" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1841" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L1841" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1842" ht="22.5" customHeight="1">
+      <c r="A1842" s="6">
+        <v>46029.339351620365</v>
+      </c>
+      <c r="B1842" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1842" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1842" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1842" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1842" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1842" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1842" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1842" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1842" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1842" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1842" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1843" ht="22.5" customHeight="1">
+      <c r="A1843" s="6">
+        <v>46029.33965222222</v>
+      </c>
+      <c r="B1843" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1843" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1843" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1843" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1843" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1843" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1843" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1843" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1843" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1843" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1843" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="1844" ht="22.5" customHeight="1">
+      <c r="A1844" s="6">
+        <v>46029.340067303245</v>
+      </c>
+      <c r="B1844" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1844" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1844" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1844" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1844" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1844" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1844" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1844" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1844" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1844" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1844" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1845" ht="22.5" customHeight="1">
+      <c r="A1845" s="6">
+        <v>46029.34052471065</v>
+      </c>
+      <c r="B1845" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1845" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1845" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1845" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1845" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1845" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1845" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1845" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1845" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1845" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1845" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1846" ht="22.5" customHeight="1">
+      <c r="A1846" s="6">
+        <v>46029.34065773148</v>
+      </c>
+      <c r="B1846" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1846" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1846" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1846" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1846" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1846" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1846" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1846" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1846" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1846" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1846" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1847" ht="22.5" customHeight="1">
+      <c r="A1847" s="6">
+        <v>46029.340906944446</v>
+      </c>
+      <c r="B1847" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1847" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1847" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1847" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1847" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1847" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1847" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1847" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1847" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1847" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L1847" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1848" ht="22.5" customHeight="1">
+      <c r="A1848" s="6">
+        <v>46029.34156082176</v>
+      </c>
+      <c r="B1848" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1848" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1848" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1848" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1848" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1848" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1848" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1848" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1848" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1848" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1848" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1849" ht="22.5" customHeight="1">
+      <c r="A1849" s="6">
+        <v>46029.342414548606</v>
+      </c>
+      <c r="B1849" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1849" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1849" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1849" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1849" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1849" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1849" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1849" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1849" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1849" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1849" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1850" ht="22.5" customHeight="1">
+      <c r="A1850" s="6">
+        <v>46029.34386130787</v>
+      </c>
+      <c r="B1850" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1850" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1850" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1850" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1850" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1850" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1850" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1850" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1850" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1850" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1850" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1851" ht="22.5" customHeight="1">
+      <c r="A1851" s="6">
+        <v>46029.34475296296</v>
+      </c>
+      <c r="B1851" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1851" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1851" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1851" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1851" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1851" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1851" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1851" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1851" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1851" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1851" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1852" ht="22.5" customHeight="1">
+      <c r="A1852" s="6">
+        <v>46029.345864409726</v>
+      </c>
+      <c r="B1852" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1852" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1852" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1852" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1852" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1852" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1852" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1852" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1852" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1852" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L1852" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1853" ht="22.5" customHeight="1">
+      <c r="A1853" s="6">
+        <v>46029.35113210648</v>
+      </c>
+      <c r="B1853" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1853" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1853" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1853" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1853" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1853" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1853" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1853" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1853" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1853" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1853" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1930">
+  <conditionalFormatting sqref="J1:J1953">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -1255,7 +1255,7 @@
     <t>8 tobillo izquierdo, 11 parte trasera de la rodilla izquierda, 13 pantorrilla izquierda</t>
   </si>
   <si>
-    <t>Julie Lopez</t>
+    <t>Julie López</t>
   </si>
   <si>
     <t>Annia Mejía</t>
@@ -1282,7 +1282,7 @@
     <t>6 espinilla izquierda, 9 Isquiotibial izquierdo, 11 parte trasera de la rodilla izquierda, 13 pantorrilla izquierda</t>
   </si>
   <si>
-    <t>Gaby García</t>
+    <t>Gabriela García</t>
   </si>
 </sst>
 </file>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -409,7 +409,7 @@
     <t>Alondra Cabanillas</t>
   </si>
   <si>
-    <t>Priscila</t>
+    <t>Priscila Flor da Silva</t>
   </si>
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 6 espinilla izquierda, 8 tobillo izquierdo</t>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1853</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1871</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19981" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20175" uniqueCount="425">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1284,6 +1284,12 @@
   <si>
     <t>Gabriela García</t>
   </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 11 parte trasera de la rodilla izquierda</t>
+  </si>
+  <si>
+    <t>4 rodilla izquierda, 21 Plantas de los pies o empeine</t>
+  </si>
 </sst>
 </file>
 
@@ -1429,8 +1435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1853" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1853"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1871" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1871"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -72078,8 +72084,692 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1854" ht="22.5" customHeight="1">
+      <c r="A1854" s="6">
+        <v>46030.35339438658</v>
+      </c>
+      <c r="B1854" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1854" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1854" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1854" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1854" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1854" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1854" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1854" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1854" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1854" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1854" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1855" ht="22.5" customHeight="1">
+      <c r="A1855" s="6">
+        <v>46030.36963072917</v>
+      </c>
+      <c r="B1855" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1855" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1855" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1855" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1855" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1855" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1855" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1855" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1855" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1855" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1855" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1856" ht="22.5" customHeight="1">
+      <c r="A1856" s="6">
+        <v>46030.36986726851</v>
+      </c>
+      <c r="B1856" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1856" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1856" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1856" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1856" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1856" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1856" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1856" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1856" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1856" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1856" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1857" ht="22.5" customHeight="1">
+      <c r="A1857" s="6">
+        <v>46030.37445105324</v>
+      </c>
+      <c r="B1857" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1857" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1857" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1857" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1857" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1857" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1857" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1857" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1857" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1857" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1857" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1858" ht="22.5" customHeight="1">
+      <c r="A1858" s="6">
+        <v>46030.37544820602</v>
+      </c>
+      <c r="B1858" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1858" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1858" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1858" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1858" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1858" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1858" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1858" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1858" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1858" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1858" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1859" ht="22.5" customHeight="1">
+      <c r="A1859" s="6">
+        <v>46030.376124849536</v>
+      </c>
+      <c r="B1859" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1859" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1859" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1859" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1859" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1859" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1859" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1859" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1859" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1859" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1859" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1860" ht="22.5" customHeight="1">
+      <c r="A1860" s="6">
+        <v>46030.377756319445</v>
+      </c>
+      <c r="B1860" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1860" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1860" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1860" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1860" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1860" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1860" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1860" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1860" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1860" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1860" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1861" ht="22.5" customHeight="1">
+      <c r="A1861" s="6">
+        <v>46030.379311122684</v>
+      </c>
+      <c r="B1861" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1861" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1861" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1861" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1861" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1861" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1861" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1861" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1861" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1861" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1861" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1862" ht="22.5" customHeight="1">
+      <c r="A1862" s="6">
+        <v>46030.38235489583</v>
+      </c>
+      <c r="B1862" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1862" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1862" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1862" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1862" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1862" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1862" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1862" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1862" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1862" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1862" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1863" ht="22.5" customHeight="1">
+      <c r="A1863" s="6">
+        <v>46030.385700196755</v>
+      </c>
+      <c r="B1863" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1863" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1863" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1863" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1863" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1863" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1863" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1863" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1863" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1863" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1863" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1864" ht="22.5" customHeight="1">
+      <c r="A1864" s="6">
+        <v>46030.38985070602</v>
+      </c>
+      <c r="B1864" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1864" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1864" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1864" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1864" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1864" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1864" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1864" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1864" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1864" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1864" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1865" ht="22.5" customHeight="1">
+      <c r="A1865" s="6">
+        <v>46030.39294502315</v>
+      </c>
+      <c r="B1865" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1865" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1865" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1865" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1865" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1865" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1865" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1865" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1865" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1865" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1865" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1866" ht="22.5" customHeight="1">
+      <c r="A1866" s="6">
+        <v>46030.39498252315</v>
+      </c>
+      <c r="B1866" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1866" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1866" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1866" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1866" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1866" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1866" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1866" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1866" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1866" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1866" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1867" ht="22.5" customHeight="1">
+      <c r="A1867" s="6">
+        <v>46030.396895972226</v>
+      </c>
+      <c r="B1867" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1867" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1867" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1867" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1867" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1867" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1867" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1867" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1867" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1867" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1867" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1868" ht="22.5" customHeight="1">
+      <c r="A1868" s="6">
+        <v>46030.409145937505</v>
+      </c>
+      <c r="B1868" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1868" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1868" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1868" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1868" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1868" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1868" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1868" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1868" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1868" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1868" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1869" ht="22.5" customHeight="1">
+      <c r="A1869" s="6">
+        <v>46030.409420474534</v>
+      </c>
+      <c r="B1869" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1869" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1869" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1869" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1869" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1869" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1869" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1869" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1869" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1869" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1869" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1870" ht="22.5" customHeight="1">
+      <c r="A1870" s="6">
+        <v>46030.412025428246</v>
+      </c>
+      <c r="B1870" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1870" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1870" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1870" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1870" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1870" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1870" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1870" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1870" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1870" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L1870" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1871" ht="22.5" customHeight="1">
+      <c r="A1871" s="6">
+        <v>46030.42616809028</v>
+      </c>
+      <c r="B1871" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1871" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1871" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1871" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1871" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1871" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1871" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1871" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1871" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1871" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1871" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1953">
+  <conditionalFormatting sqref="J1:J1971">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1871</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1891</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20175" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20390" uniqueCount="426">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1290,6 +1290,9 @@
   <si>
     <t>4 rodilla izquierda, 21 Plantas de los pies o empeine</t>
   </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
 </sst>
 </file>
 
@@ -1435,8 +1438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1871" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1871"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1891" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1891"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -72768,8 +72771,768 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="1872" ht="22.5" customHeight="1">
+      <c r="A1872" s="6">
+        <v>46030.5792750463</v>
+      </c>
+      <c r="B1872" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1872" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1872" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1872" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1872" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1872" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1872" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1872" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1872" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1872" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1872" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1873" ht="22.5" customHeight="1">
+      <c r="A1873" s="6">
+        <v>46031.221184988426</v>
+      </c>
+      <c r="B1873" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1873" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1873" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1873" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1873" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1873" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1873" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1873" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1873" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1873" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1873" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1874" ht="22.5" customHeight="1">
+      <c r="A1874" s="6">
+        <v>46031.24726672454</v>
+      </c>
+      <c r="B1874" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1874" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1874" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1874" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1874" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1874" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1874" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1874" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1874" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1874" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1874" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1875" ht="22.5" customHeight="1">
+      <c r="A1875" s="6">
+        <v>46031.25898590278</v>
+      </c>
+      <c r="B1875" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1875" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1875" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1875" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1875" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1875" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1875" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1875" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1875" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1875" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1875" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1876" ht="22.5" customHeight="1">
+      <c r="A1876" s="6">
+        <v>46031.26349744213</v>
+      </c>
+      <c r="B1876" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1876" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1876" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1876" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1876" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1876" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1876" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1876" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1876" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1876" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1876" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1877" ht="22.5" customHeight="1">
+      <c r="A1877" s="6">
+        <v>46031.26557667824</v>
+      </c>
+      <c r="B1877" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1877" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1877" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1877" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1877" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1877" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1877" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1877" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1877" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1877" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1877" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1878" ht="22.5" customHeight="1">
+      <c r="A1878" s="6">
+        <v>46031.268330625</v>
+      </c>
+      <c r="B1878" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1878" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1878" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1878" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1878" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1878" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1878" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1878" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1878" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1878" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1878" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1879" ht="22.5" customHeight="1">
+      <c r="A1879" s="6">
+        <v>46031.269282905094</v>
+      </c>
+      <c r="B1879" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1879" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1879" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1879" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1879" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1879" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1879" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1879" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1879" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1879" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1879" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1880" ht="22.5" customHeight="1">
+      <c r="A1880" s="6">
+        <v>46031.270585289356</v>
+      </c>
+      <c r="B1880" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1880" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1880" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1880" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1880" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1880" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1880" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1880" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1880" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1880" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1880" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1881" ht="22.5" customHeight="1">
+      <c r="A1881" s="6">
+        <v>46031.27066473379</v>
+      </c>
+      <c r="B1881" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1881" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1881" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1881" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1881" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1881" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1881" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1881" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1881" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1881" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1881" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1882" ht="22.5" customHeight="1">
+      <c r="A1882" s="6">
+        <v>46031.27109744213</v>
+      </c>
+      <c r="B1882" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1882" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1882" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1882" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1882" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1882" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1882" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1882" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1882" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1882" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1882" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1883" ht="22.5" customHeight="1">
+      <c r="A1883" s="6">
+        <v>46031.27179695602</v>
+      </c>
+      <c r="B1883" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1883" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1883" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1883" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1883" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1883" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1883" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1883" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1883" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1883" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1883" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1884" ht="22.5" customHeight="1">
+      <c r="A1884" s="6">
+        <v>46031.27195480324</v>
+      </c>
+      <c r="B1884" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1884" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1884" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1884" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1884" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1884" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1884" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1884" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1884" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1884" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1884" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1885" ht="22.5" customHeight="1">
+      <c r="A1885" s="6">
+        <v>46031.272844618055</v>
+      </c>
+      <c r="B1885" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1885" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1885" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1885" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1885" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1885" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1885" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1885" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1885" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1885" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1885" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1886" ht="22.5" customHeight="1">
+      <c r="A1886" s="6">
+        <v>46031.274288506946</v>
+      </c>
+      <c r="B1886" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1886" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1886" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1886" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1886" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1886" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1886" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1886" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1886" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1886" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1886" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="1887" ht="22.5" customHeight="1">
+      <c r="A1887" s="6">
+        <v>46031.275354004625</v>
+      </c>
+      <c r="B1887" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1887" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1887" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1887" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1887" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1887" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1887" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1887" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1887" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1887" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1887" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1888" ht="22.5" customHeight="1">
+      <c r="A1888" s="6">
+        <v>46031.275638437495</v>
+      </c>
+      <c r="B1888" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1888" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1888" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1888" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1888" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1888" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1888" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1888" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1888" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1888" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1888" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1889" ht="22.5" customHeight="1">
+      <c r="A1889" s="6">
+        <v>46031.279944016205</v>
+      </c>
+      <c r="B1889" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1889" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1889" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1889" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1889" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1889" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1889" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1889" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1889" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1889" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1889" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1890" ht="22.5" customHeight="1">
+      <c r="A1890" s="6">
+        <v>46031.41235615741</v>
+      </c>
+      <c r="B1890" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1890" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1890" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1890" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1890" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1890" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1890" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1890" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1890" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1890" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1890" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="1891" ht="22.5" customHeight="1">
+      <c r="A1891" s="6">
+        <v>46031.41269077546</v>
+      </c>
+      <c r="B1891" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1891" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1891" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1891" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1891" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1891" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1891" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1891" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1891" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1891" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1891" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1971">
+  <conditionalFormatting sqref="J1:J1991">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1891</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1898</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20390" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20464" uniqueCount="426">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1438,8 +1438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1891" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1891"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1898" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1898"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -73531,8 +73531,274 @@
         <v>115</v>
       </c>
     </row>
+    <row r="1892" ht="22.5" customHeight="1">
+      <c r="A1892" s="6">
+        <v>46032.69232986111</v>
+      </c>
+      <c r="B1892" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1892" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1892" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1892" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1892" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1892" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1892" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1892" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1892" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1892" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1892" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1893" ht="22.5" customHeight="1">
+      <c r="A1893" s="6">
+        <v>46032.73280041666</v>
+      </c>
+      <c r="B1893" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1893" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1893" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1893" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1893" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1893" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1893" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1893" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1893" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1893" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1893" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1894" ht="22.5" customHeight="1">
+      <c r="A1894" s="6">
+        <v>46032.733000162036</v>
+      </c>
+      <c r="B1894" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1894" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1894" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1894" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1894" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1894" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1894" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1894" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1894" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1894" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1894" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1895" ht="22.5" customHeight="1">
+      <c r="A1895" s="6">
+        <v>46033.44283453704</v>
+      </c>
+      <c r="B1895" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1895" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1895" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1895" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1895" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1895" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1895" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1895" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1895" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1895" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1895" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1896" ht="22.5" customHeight="1">
+      <c r="A1896" s="6">
+        <v>46033.44308037037</v>
+      </c>
+      <c r="B1896" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1896" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1896" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1896" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1896" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1896" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1896" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1896" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1896" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1896" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1896" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1897" ht="22.5" customHeight="1">
+      <c r="A1897" s="6">
+        <v>46033.44421769676</v>
+      </c>
+      <c r="B1897" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1897" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1897" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1897" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1897" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1897" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1897" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1897" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1897" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1897" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1897" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1898" ht="22.5" customHeight="1">
+      <c r="A1898" s="6">
+        <v>46033.44617243056</v>
+      </c>
+      <c r="B1898" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1898" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1898" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1898" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1898" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1898" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1898" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1898" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1898" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1898" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1898" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1991">
+  <conditionalFormatting sqref="J1:J1998">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1898</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1922</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20464" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20720" uniqueCount="427">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1293,6 +1293,9 @@
   <si>
     <t xml:space="preserve">no </t>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
@@ -1438,8 +1441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1898" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1898"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1922" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1922"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -73797,8 +73800,920 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="1899" ht="22.5" customHeight="1">
+      <c r="A1899" s="6">
+        <v>46033.45192979167</v>
+      </c>
+      <c r="B1899" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1899" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1899" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1899" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1899" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1899" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1899" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1899" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1899" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1899" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1899" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1900" ht="22.5" customHeight="1">
+      <c r="A1900" s="6">
+        <v>46033.45210427084</v>
+      </c>
+      <c r="B1900" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1900" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1900" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1900" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1900" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1900" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1900" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1900" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1900" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1900" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1900" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1901" ht="22.5" customHeight="1">
+      <c r="A1901" s="6">
+        <v>46033.45448123843</v>
+      </c>
+      <c r="B1901" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1901" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1901" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1901" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1901" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1901" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1901" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1901" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1901" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1901" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1901" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1902" ht="22.5" customHeight="1">
+      <c r="A1902" s="6">
+        <v>46033.46198759259</v>
+      </c>
+      <c r="B1902" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1902" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1902" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1902" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1902" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1902" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1902" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1902" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1902" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1902" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L1902" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1903" ht="22.5" customHeight="1">
+      <c r="A1903" s="6">
+        <v>46033.47025459491</v>
+      </c>
+      <c r="B1903" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1903" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1903" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1903" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1903" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1903" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1903" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1903" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1903" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1903" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1903" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1904" ht="22.5" customHeight="1">
+      <c r="A1904" s="6">
+        <v>46033.473131122686</v>
+      </c>
+      <c r="B1904" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1904" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1904" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1904" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1904" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1904" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1904" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1904" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1904" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1904" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1904" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1905" ht="22.5" customHeight="1">
+      <c r="A1905" s="6">
+        <v>46033.47448309028</v>
+      </c>
+      <c r="B1905" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1905" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1905" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1905" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1905" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1905" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1905" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1905" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1905" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1905" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1905" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1906" ht="22.5" customHeight="1">
+      <c r="A1906" s="6">
+        <v>46033.487512175925</v>
+      </c>
+      <c r="B1906" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1906" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1906" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1906" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1906" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1906" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1906" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1906" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1906" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1906" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1906" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1907" ht="22.5" customHeight="1">
+      <c r="A1907" s="6">
+        <v>46033.514501377314</v>
+      </c>
+      <c r="B1907" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1907" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1907" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1907" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1907" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1907" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1907" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1907" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1907" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1907" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1907" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1908" ht="22.5" customHeight="1">
+      <c r="A1908" s="6">
+        <v>46033.515242407404</v>
+      </c>
+      <c r="B1908" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1908" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1908" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1908" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1908" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1908" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1908" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1908" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1908" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1908" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1908" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1909" ht="22.5" customHeight="1">
+      <c r="A1909" s="6">
+        <v>46033.861183298606</v>
+      </c>
+      <c r="B1909" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1909" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1909" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1909" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1909" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1909" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1909" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1909" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1909" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1909" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1909" s="7">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="1910" ht="22.5" customHeight="1">
+      <c r="A1910" s="6">
+        <v>46034.34966278935</v>
+      </c>
+      <c r="B1910" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1910" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1910" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1910" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1910" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1910" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1910" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1910" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1910" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1910" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L1910" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1911" ht="22.5" customHeight="1">
+      <c r="A1911" s="6">
+        <v>46034.35972341435</v>
+      </c>
+      <c r="B1911" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1911" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1911" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1911" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1911" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1911" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1911" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1911" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1911" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1911" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1911" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1912" ht="22.5" customHeight="1">
+      <c r="A1912" s="6">
+        <v>46034.4227233912</v>
+      </c>
+      <c r="B1912" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1912" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1912" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1912" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1912" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1912" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1912" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1912" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1912" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1912" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1912" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1913" ht="22.5" customHeight="1">
+      <c r="A1913" s="6">
+        <v>46034.42426297454</v>
+      </c>
+      <c r="B1913" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1913" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1913" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1913" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1913" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1913" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1913" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1913" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1913" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1913" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1913" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1914" ht="22.5" customHeight="1">
+      <c r="A1914" s="6">
+        <v>46034.425010879626</v>
+      </c>
+      <c r="B1914" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1914" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1914" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1914" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1914" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1914" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1914" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1914" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1914" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1914" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1914" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1915" ht="22.5" customHeight="1">
+      <c r="A1915" s="6">
+        <v>46034.426318067126</v>
+      </c>
+      <c r="B1915" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1915" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1915" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1915" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1915" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1915" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1915" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1915" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1915" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1915" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1915" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1916" ht="22.5" customHeight="1">
+      <c r="A1916" s="6">
+        <v>46034.426923645835</v>
+      </c>
+      <c r="B1916" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1916" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1916" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1916" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1916" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1916" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1916" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1916" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1916" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1916" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L1916" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1917" ht="22.5" customHeight="1">
+      <c r="A1917" s="6">
+        <v>46034.43039674769</v>
+      </c>
+      <c r="B1917" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1917" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1917" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1917" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1917" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1917" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1917" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1917" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1917" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1917" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1917" s="7">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="1918" ht="22.5" customHeight="1">
+      <c r="A1918" s="6">
+        <v>46034.43231261574</v>
+      </c>
+      <c r="B1918" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1918" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1918" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1918" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1918" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1918" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1918" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1918" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1918" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1918" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1918" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1919" ht="22.5" customHeight="1">
+      <c r="A1919" s="6">
+        <v>46034.43767924768</v>
+      </c>
+      <c r="B1919" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1919" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1919" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1919" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1919" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1919" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1919" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1919" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1919" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1919" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1919" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1920" ht="22.5" customHeight="1">
+      <c r="A1920" s="6">
+        <v>46034.44746402778</v>
+      </c>
+      <c r="B1920" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1920" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1920" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1920" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1920" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1920" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1920" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1920" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1920" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1920" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1920" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1921" ht="22.5" customHeight="1">
+      <c r="A1921" s="6">
+        <v>46034.4490387963</v>
+      </c>
+      <c r="B1921" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1921" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1921" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1921" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1921" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1921" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1921" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1921" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1921" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1921" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1921" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1922" ht="22.5" customHeight="1">
+      <c r="A1922" s="6">
+        <v>46034.45106547454</v>
+      </c>
+      <c r="B1922" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1922" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1922" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1922" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1922" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1922" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1922" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1922" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1922" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1922" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1922" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1998">
+  <conditionalFormatting sqref="J1:J2022">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1922</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1946</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20720" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20980" uniqueCount="432">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1296,6 +1296,21 @@
   <si>
     <t xml:space="preserve">  </t>
   </si>
+  <si>
+    <t>4 rodilla izquierda, 9 Isquiotibial izquierdo, 11 parte trasera de la rodilla izquierda, 16 espalda</t>
+  </si>
+  <si>
+    <t>2 muslo derecho, 3 rodilla derecha, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 11 parte trasera de la rodilla izquierda, 13 pantorrilla izquierda, 21 Plantas de los pies o empeine</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>Nn</t>
+  </si>
 </sst>
 </file>
 
@@ -1441,8 +1456,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1922" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1922"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1946" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1946"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -74712,8 +74727,920 @@
         <v>72</v>
       </c>
     </row>
+    <row r="1923" ht="22.5" customHeight="1">
+      <c r="A1923" s="6">
+        <v>46034.465772696756</v>
+      </c>
+      <c r="B1923" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1923" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1923" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1923" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1923" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1923" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1923" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1923" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1923" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1923" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1923" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1924" ht="22.5" customHeight="1">
+      <c r="A1924" s="6">
+        <v>46034.47076556713</v>
+      </c>
+      <c r="B1924" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1924" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1924" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1924" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1924" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1924" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1924" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1924" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1924" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1924" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1924" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1925" ht="22.5" customHeight="1">
+      <c r="A1925" s="6">
+        <v>46034.47685332176</v>
+      </c>
+      <c r="B1925" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1925" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1925" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1925" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1925" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1925" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1925" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1925" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1925" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1925" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L1925" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1926" ht="22.5" customHeight="1">
+      <c r="A1926" s="6">
+        <v>46034.482087048615</v>
+      </c>
+      <c r="B1926" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1926" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1926" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1926" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1926" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1926" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1926" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1926" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1926" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1926" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1926" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1927" ht="22.5" customHeight="1">
+      <c r="A1927" s="6">
+        <v>46034.494151875</v>
+      </c>
+      <c r="B1927" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1927" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1927" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1927" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1927" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1927" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1927" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1927" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1927" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1927" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1927" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1928" ht="22.5" customHeight="1">
+      <c r="A1928" s="6">
+        <v>46035.32219648148</v>
+      </c>
+      <c r="B1928" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1928" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1928" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1928" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1928" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1928" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1928" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1928" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1928" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1928" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1928" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1929" ht="22.5" customHeight="1">
+      <c r="A1929" s="6">
+        <v>46035.333964537036</v>
+      </c>
+      <c r="B1929" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1929" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1929" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1929" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1929" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1929" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1929" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1929" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1929" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1929" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1929" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1930" ht="22.5" customHeight="1">
+      <c r="A1930" s="6">
+        <v>46035.35814930555</v>
+      </c>
+      <c r="B1930" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1930" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1930" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1930" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1930" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1930" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1930" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1930" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1930" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1930" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1930" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1931" ht="22.5" customHeight="1">
+      <c r="A1931" s="6">
+        <v>46035.36213267361</v>
+      </c>
+      <c r="B1931" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1931" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1931" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1931" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1931" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1931" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1931" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1931" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1931" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1931" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1931" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1932" ht="22.5" customHeight="1">
+      <c r="A1932" s="6">
+        <v>46035.36929400463</v>
+      </c>
+      <c r="B1932" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1932" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1932" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1932" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1932" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1932" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1932" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1932" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1932" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1932" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L1932" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1933" ht="22.5" customHeight="1">
+      <c r="A1933" s="6">
+        <v>46035.373190370374</v>
+      </c>
+      <c r="B1933" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1933" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1933" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1933" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1933" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1933" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1933" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1933" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1933" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1933" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1933" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1934" ht="22.5" customHeight="1">
+      <c r="A1934" s="6">
+        <v>46035.376331886575</v>
+      </c>
+      <c r="B1934" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1934" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1934" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1934" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1934" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1934" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1934" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1934" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1934" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1934" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1934" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1935" ht="22.5" customHeight="1">
+      <c r="A1935" s="6">
+        <v>46035.37639063658</v>
+      </c>
+      <c r="B1935" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1935" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1935" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1935" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1935" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1935" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1935" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1935" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1935" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1935" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1935" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1936" ht="22.5" customHeight="1">
+      <c r="A1936" s="6">
+        <v>46035.376704780094</v>
+      </c>
+      <c r="B1936" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1936" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1936" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1936" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1936" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1936" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1936" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1936" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1936" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1936" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L1936" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1937" ht="22.5" customHeight="1">
+      <c r="A1937" s="6">
+        <v>46035.38094202546</v>
+      </c>
+      <c r="B1937" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1937" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1937" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1937" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1937" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1937" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1937" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1937" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1937" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1937" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1937" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1938" ht="22.5" customHeight="1">
+      <c r="A1938" s="6">
+        <v>46035.38656263889</v>
+      </c>
+      <c r="B1938" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1938" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1938" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1938" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1938" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1938" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1938" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1938" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1938" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1938" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1938" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1939" ht="22.5" customHeight="1">
+      <c r="A1939" s="6">
+        <v>46035.38830438658</v>
+      </c>
+      <c r="B1939" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1939" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1939" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1939" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1939" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1939" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1939" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1939" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1939" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1939" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1939" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1940" ht="22.5" customHeight="1">
+      <c r="A1940" s="6">
+        <v>46035.38869496528</v>
+      </c>
+      <c r="B1940" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1940" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1940" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1940" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1940" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1940" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1940" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1940" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1940" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1940" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1940" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1941" ht="22.5" customHeight="1">
+      <c r="A1941" s="6">
+        <v>46035.38931056713</v>
+      </c>
+      <c r="B1941" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1941" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1941" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1941" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1941" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1941" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1941" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1941" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1941" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1941" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1941" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1942" ht="22.5" customHeight="1">
+      <c r="A1942" s="6">
+        <v>46035.389528113425</v>
+      </c>
+      <c r="B1942" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1942" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1942" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1942" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1942" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1942" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1942" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1942" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1942" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1942" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1942" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1943" ht="22.5" customHeight="1">
+      <c r="A1943" s="6">
+        <v>46035.39038894676</v>
+      </c>
+      <c r="B1943" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1943" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1943" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1943" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1943" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1943" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1943" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1943" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1943" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1943" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1943" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1944" ht="22.5" customHeight="1">
+      <c r="A1944" s="6">
+        <v>46035.39270861111</v>
+      </c>
+      <c r="B1944" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1944" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1944" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1944" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1944" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1944" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1944" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1944" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1944" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1944" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1944" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1945" ht="22.5" customHeight="1">
+      <c r="A1945" s="6">
+        <v>46035.40631855324</v>
+      </c>
+      <c r="B1945" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1945" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1945" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1945" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1945" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1945" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1945" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1945" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1945" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1945" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L1945" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1946" ht="22.5" customHeight="1">
+      <c r="A1946" s="6">
+        <v>46035.407018819446</v>
+      </c>
+      <c r="B1946" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1946" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1946" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1946" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1946" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1946" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1946" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1946" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1946" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1946" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1946" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2022">
+  <conditionalFormatting sqref="J1:J2046">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1946</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1964</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20980" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21175" uniqueCount="435">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1311,6 +1311,15 @@
   <si>
     <t>Nn</t>
   </si>
+  <si>
+    <t>14 pantorrilla derecha, 17 aductor izquierdo</t>
+  </si>
+  <si>
+    <t>N.a</t>
+  </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda, 15 espalda baja</t>
+  </si>
 </sst>
 </file>
 
@@ -1455,9 +1464,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1946" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1946"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1964" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1964"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -75639,8 +75652,692 @@
         <v>115</v>
       </c>
     </row>
+    <row r="1947" ht="22.5" customHeight="1">
+      <c r="A1947" s="6">
+        <v>46036.338583703706</v>
+      </c>
+      <c r="B1947" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1947" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1947" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1947" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1947" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1947" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1947" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1947" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1947" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1947" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1947" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1948" ht="22.5" customHeight="1">
+      <c r="A1948" s="6">
+        <v>46036.34284550926</v>
+      </c>
+      <c r="B1948" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1948" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1948" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1948" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1948" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1948" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1948" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1948" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1948" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1948" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1948" s="7">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="1949" ht="22.5" customHeight="1">
+      <c r="A1949" s="6">
+        <v>46036.362626539354</v>
+      </c>
+      <c r="B1949" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1949" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1949" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1949" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1949" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1949" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1949" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1949" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1949" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1949" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1949" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1950" ht="22.5" customHeight="1">
+      <c r="A1950" s="6">
+        <v>46036.38015560185</v>
+      </c>
+      <c r="B1950" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1950" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1950" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1950" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1950" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1950" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1950" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1950" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1950" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1950" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1950" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1951" ht="22.5" customHeight="1">
+      <c r="A1951" s="6">
+        <v>46036.38053927083</v>
+      </c>
+      <c r="B1951" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1951" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1951" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1951" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1951" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1951" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1951" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1951" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1951" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1951" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1951" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1952" ht="22.5" customHeight="1">
+      <c r="A1952" s="6">
+        <v>46036.38065605324</v>
+      </c>
+      <c r="B1952" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1952" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1952" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1952" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1952" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1952" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1952" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1952" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1952" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1952" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1952" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1953" ht="22.5" customHeight="1">
+      <c r="A1953" s="6">
+        <v>46036.380661944444</v>
+      </c>
+      <c r="B1953" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1953" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1953" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1953" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1953" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1953" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1953" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1953" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1953" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1953" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L1953" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1954" ht="22.5" customHeight="1">
+      <c r="A1954" s="6">
+        <v>46036.38142695602</v>
+      </c>
+      <c r="B1954" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1954" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1954" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1954" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1954" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1954" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1954" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1954" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1954" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1954" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1954" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="1955" ht="22.5" customHeight="1">
+      <c r="A1955" s="6">
+        <v>46036.38173892361</v>
+      </c>
+      <c r="B1955" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1955" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1955" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1955" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1955" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1955" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1955" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1955" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1955" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1955" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1955" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1956" ht="22.5" customHeight="1">
+      <c r="A1956" s="6">
+        <v>46036.38226403935</v>
+      </c>
+      <c r="B1956" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1956" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1956" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1956" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1956" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1956" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1956" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1956" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1956" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1956" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1956" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1957" ht="22.5" customHeight="1">
+      <c r="A1957" s="6">
+        <v>46036.38308085648</v>
+      </c>
+      <c r="B1957" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1957" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1957" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1957" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1957" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1957" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1957" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1957" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1957" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1957" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1957" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1958" ht="22.5" customHeight="1">
+      <c r="A1958" s="6">
+        <v>46036.38654383102</v>
+      </c>
+      <c r="B1958" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1958" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1958" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1958" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1958" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1958" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1958" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1958" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1958" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1958" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1958" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1959" ht="22.5" customHeight="1">
+      <c r="A1959" s="6">
+        <v>46036.390776643515</v>
+      </c>
+      <c r="B1959" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1959" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1959" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1959" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1959" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1959" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1959" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1959" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1959" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1959" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1959" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1960" ht="22.5" customHeight="1">
+      <c r="A1960" s="6">
+        <v>46036.3947653588</v>
+      </c>
+      <c r="B1960" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1960" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1960" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1960" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1960" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1960" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1960" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1960" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1960" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1960" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L1960" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1961" ht="22.5" customHeight="1">
+      <c r="A1961" s="6">
+        <v>46036.396401481485</v>
+      </c>
+      <c r="B1961" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1961" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1961" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1961" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1961" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1961" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1961" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1961" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1961" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1961" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1961" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1962" ht="22.5" customHeight="1">
+      <c r="A1962" s="6">
+        <v>46036.39961591436</v>
+      </c>
+      <c r="B1962" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1962" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1962" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1962" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1962" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1962" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1962" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1962" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1962" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1962" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1962" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1963" ht="22.5" customHeight="1">
+      <c r="A1963" s="6">
+        <v>46036.4049682176</v>
+      </c>
+      <c r="B1963" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1963" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1963" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1963" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1963" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1963" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1963" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1963" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1963" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1963" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1963" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1964" ht="22.5" customHeight="1">
+      <c r="A1964" s="6">
+        <v>46036.41482679398</v>
+      </c>
+      <c r="B1964" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1964" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1964" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1964" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1964" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1964" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1964" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1964" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1964" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1964" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1964" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2046">
+  <conditionalFormatting sqref="J1:J2064">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1964</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1966</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21175" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21196" uniqueCount="435">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1469,8 +1469,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1964" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1964"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1966" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1966"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -76336,8 +76336,84 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1965" ht="22.5" customHeight="1">
+      <c r="A1965" s="6">
+        <v>46036.616419872684</v>
+      </c>
+      <c r="B1965" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1965" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1965" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1965" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1965" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1965" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1965" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1965" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1965" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1965" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1965" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1966" ht="22.5" customHeight="1">
+      <c r="A1966" s="6">
+        <v>46037.36416576389</v>
+      </c>
+      <c r="B1966" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1966" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1966" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1966" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1966" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1966" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1966" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1966" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1966" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1966" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1966" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2064">
+  <conditionalFormatting sqref="J1:J2066">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1966</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1987</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21196" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21422" uniqueCount="438">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1320,6 +1320,15 @@
   <si>
     <t>11 parte trasera de la rodilla izquierda, 15 espalda baja</t>
   </si>
+  <si>
+    <t>14 pantorrilla derecha, 17 aductor izquierdo, 22 gluteo izquierdo, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 10 isquiotibial derecho, 11 parte trasera de la rodilla izquierda</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 13 pantorrilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -1469,8 +1478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1966" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1966"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1987" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1987"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -76412,8 +76421,806 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1967" ht="22.5" customHeight="1">
+      <c r="A1967" s="6">
+        <v>46038.342126400465</v>
+      </c>
+      <c r="B1967" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1967" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1967" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1967" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1967" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1967" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1967" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1967" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1967" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1967" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1967" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1968" ht="22.5" customHeight="1">
+      <c r="A1968" s="6">
+        <v>46038.34315199074</v>
+      </c>
+      <c r="B1968" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1968" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1968" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1968" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1968" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1968" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1968" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1968" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1968" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1968" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1968" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1969" ht="22.5" customHeight="1">
+      <c r="A1969" s="6">
+        <v>46038.357576979164</v>
+      </c>
+      <c r="B1969" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1969" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1969" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1969" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1969" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1969" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1969" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1969" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1969" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1969" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1969" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1970" ht="22.5" customHeight="1">
+      <c r="A1970" s="6">
+        <v>46038.35960703704</v>
+      </c>
+      <c r="B1970" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1970" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1970" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1970" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1970" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1970" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1970" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1970" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1970" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1970" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1970" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1971" ht="22.5" customHeight="1">
+      <c r="A1971" s="6">
+        <v>46038.3701166088</v>
+      </c>
+      <c r="B1971" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1971" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1971" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1971" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1971" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1971" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1971" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1971" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1971" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1971" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L1971" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1972" ht="22.5" customHeight="1">
+      <c r="A1972" s="6">
+        <v>46038.3756278125</v>
+      </c>
+      <c r="B1972" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1972" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1972" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1972" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1972" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1972" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1972" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1972" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1972" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1972" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1972" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1973" ht="22.5" customHeight="1">
+      <c r="A1973" s="6">
+        <v>46038.37743664352</v>
+      </c>
+      <c r="B1973" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1973" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1973" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1973" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1973" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1973" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1973" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1973" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1973" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1973" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1973" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1974" ht="22.5" customHeight="1">
+      <c r="A1974" s="6">
+        <v>46038.378158761574</v>
+      </c>
+      <c r="B1974" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1974" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1974" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1974" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1974" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1974" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1974" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1974" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1974" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1974" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1974" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1975" ht="22.5" customHeight="1">
+      <c r="A1975" s="6">
+        <v>46038.37842666666</v>
+      </c>
+      <c r="B1975" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1975" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1975" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1975" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1975" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1975" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1975" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1975" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1975" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1975" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1975" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1976" ht="22.5" customHeight="1">
+      <c r="A1976" s="6">
+        <v>46038.37899710648</v>
+      </c>
+      <c r="B1976" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1976" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1976" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1976" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1976" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1976" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1976" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1976" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1976" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1976" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1976" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1977" ht="22.5" customHeight="1">
+      <c r="A1977" s="6">
+        <v>46038.38050868055</v>
+      </c>
+      <c r="B1977" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1977" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1977" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1977" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1977" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1977" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1977" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1977" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1977" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1977" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1977" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1978" ht="22.5" customHeight="1">
+      <c r="A1978" s="6">
+        <v>46038.38077662037</v>
+      </c>
+      <c r="B1978" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1978" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1978" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1978" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1978" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1978" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1978" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1978" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1978" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1978" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1978" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1979" ht="22.5" customHeight="1">
+      <c r="A1979" s="6">
+        <v>46038.38214043982</v>
+      </c>
+      <c r="B1979" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1979" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1979" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1979" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1979" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1979" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1979" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1979" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1979" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1979" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1979" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1980" ht="22.5" customHeight="1">
+      <c r="A1980" s="6">
+        <v>46038.38227664352</v>
+      </c>
+      <c r="B1980" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1980" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1980" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1980" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1980" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1980" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1980" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1980" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1980" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1980" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1980" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1981" ht="22.5" customHeight="1">
+      <c r="A1981" s="6">
+        <v>46038.38498159722</v>
+      </c>
+      <c r="B1981" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1981" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1981" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1981" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1981" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1981" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1981" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1981" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1981" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1981" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1981" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1982" ht="22.5" customHeight="1">
+      <c r="A1982" s="6">
+        <v>46038.387544259254</v>
+      </c>
+      <c r="B1982" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1982" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1982" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1982" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1982" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1982" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1982" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1982" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1982" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1982" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1982" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1983" ht="22.5" customHeight="1">
+      <c r="A1983" s="6">
+        <v>46038.38865715278</v>
+      </c>
+      <c r="B1983" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1983" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1983" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1983" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1983" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1983" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1983" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1983" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1983" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1983" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L1983" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1984" ht="22.5" customHeight="1">
+      <c r="A1984" s="6">
+        <v>46038.391027986116</v>
+      </c>
+      <c r="B1984" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1984" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1984" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1984" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1984" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1984" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1984" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1984" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1984" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1984" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1984" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1985" ht="22.5" customHeight="1">
+      <c r="A1985" s="6">
+        <v>46038.39584913194</v>
+      </c>
+      <c r="B1985" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1985" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1985" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1985" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1985" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1985" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1985" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1985" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1985" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1985" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1985" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1986" ht="22.5" customHeight="1">
+      <c r="A1986" s="6">
+        <v>46038.39627305555</v>
+      </c>
+      <c r="B1986" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1986" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1986" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1986" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1986" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1986" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1986" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1986" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1986" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1986" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1986" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1987" ht="22.5" customHeight="1">
+      <c r="A1987" s="6">
+        <v>46038.401020254634</v>
+      </c>
+      <c r="B1987" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1987" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1987" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1987" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1987" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1987" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1987" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1987" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1987" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1987" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1987" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2066">
+  <conditionalFormatting sqref="J1:J2087">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1987</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1991</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21422" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21463" uniqueCount="439">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1329,6 +1329,9 @@
   <si>
     <t>1 muslo izquierdo, 13 pantorrilla izquierda</t>
   </si>
+  <si>
+    <t>Geyse Ferreira</t>
+  </si>
 </sst>
 </file>
 
@@ -1478,8 +1481,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1987" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1987"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1991" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$1991"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -77219,8 +77222,160 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="1988" ht="22.5" customHeight="1">
+      <c r="A1988" s="6">
+        <v>46039.35813238426</v>
+      </c>
+      <c r="B1988" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1988" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1988" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1988" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1988" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1988" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1988" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1988" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1988" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1988" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1988" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1989" ht="22.5" customHeight="1">
+      <c r="A1989" s="6">
+        <v>46039.42255641204</v>
+      </c>
+      <c r="B1989" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1989" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1989" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1989" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1989" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1989" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1989" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1989" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1989" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1989" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1989" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1990" ht="22.5" customHeight="1">
+      <c r="A1990" s="6">
+        <v>46039.42257841435</v>
+      </c>
+      <c r="B1990" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1990" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1990" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1990" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1990" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1990" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1990" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1990" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1990" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1990" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1990" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1991" ht="22.5" customHeight="1">
+      <c r="A1991" s="6">
+        <v>46039.4328962037</v>
+      </c>
+      <c r="B1991" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1991" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1991" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1991" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1991" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1991" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1991" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1991" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1991" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1991" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1991" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2087">
+  <conditionalFormatting sqref="J1:J2091">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$1991</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2014</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21463" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21709" uniqueCount="440">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1332,6 +1332,9 @@
   <si>
     <t>Geyse Ferreira</t>
   </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda, 13 pantorrilla izquierda, 14 pantorrilla derecha, 16 espalda</t>
+  </si>
 </sst>
 </file>
 
@@ -1481,8 +1484,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L1991" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$1991"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2014" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2014"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -77374,8 +77377,882 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="1992" ht="22.5" customHeight="1">
+      <c r="A1992" s="6">
+        <v>46039.47483543982</v>
+      </c>
+      <c r="B1992" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1992" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1992" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1992" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1992" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1992" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1992" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1992" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1992" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1992" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1992" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1993" ht="22.5" customHeight="1">
+      <c r="A1993" s="6">
+        <v>46040.316218125</v>
+      </c>
+      <c r="B1993" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1993" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1993" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1993" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1993" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1993" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1993" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1993" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1993" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1993" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1993" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1994" ht="22.5" customHeight="1">
+      <c r="A1994" s="6">
+        <v>46040.32123681713</v>
+      </c>
+      <c r="B1994" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1994" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1994" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1994" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1994" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1994" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1994" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1994" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1994" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1994" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1994" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1995" ht="22.5" customHeight="1">
+      <c r="A1995" s="6">
+        <v>46040.33070180556</v>
+      </c>
+      <c r="B1995" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1995" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1995" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1995" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1995" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1995" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1995" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1995" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1995" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1995" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1995" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1996" ht="22.5" customHeight="1">
+      <c r="A1996" s="6">
+        <v>46040.33089560185</v>
+      </c>
+      <c r="B1996" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1996" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1996" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1996" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1996" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1996" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1996" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1996" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1996" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1996" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1996" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1997" ht="22.5" customHeight="1">
+      <c r="A1997" s="6">
+        <v>46040.33163914352</v>
+      </c>
+      <c r="B1997" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1997" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1997" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1997" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1997" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1997" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1997" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1997" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1997" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1997" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1997" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1998" ht="22.5" customHeight="1">
+      <c r="A1998" s="6">
+        <v>46040.33168425926</v>
+      </c>
+      <c r="B1998" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1998" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1998" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1998" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1998" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1998" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1998" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1998" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1998" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1998" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1998" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1999" ht="22.5" customHeight="1">
+      <c r="A1999" s="6">
+        <v>46040.33175520833</v>
+      </c>
+      <c r="B1999" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1999" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1999" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1999" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1999" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1999" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1999" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1999" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1999" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1999" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1999" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2000" ht="22.5" customHeight="1">
+      <c r="A2000" s="6">
+        <v>46040.33194304398</v>
+      </c>
+      <c r="B2000" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2000" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2000" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2000" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2000" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2000" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2000" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2000" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2000" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2000" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2000" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2001" ht="22.5" customHeight="1">
+      <c r="A2001" s="6">
+        <v>46040.33254048611</v>
+      </c>
+      <c r="B2001" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2001" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2001" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2001" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2001" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2001" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2001" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2001" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2001" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2001" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2001" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2002" ht="22.5" customHeight="1">
+      <c r="A2002" s="6">
+        <v>46040.33512112268</v>
+      </c>
+      <c r="B2002" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2002" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2002" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2002" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2002" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2002" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2002" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2002" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2002" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2002" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2002" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2003" ht="22.5" customHeight="1">
+      <c r="A2003" s="6">
+        <v>46040.34088482639</v>
+      </c>
+      <c r="B2003" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2003" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2003" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2003" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2003" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2003" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2003" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2003" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2003" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2003" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L2003" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2004" ht="22.5" customHeight="1">
+      <c r="A2004" s="6">
+        <v>46040.34098670139</v>
+      </c>
+      <c r="B2004" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2004" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2004" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2004" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2004" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2004" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2004" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2004" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2004" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2004" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2004" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2005" ht="22.5" customHeight="1">
+      <c r="A2005" s="6">
+        <v>46040.34168413194</v>
+      </c>
+      <c r="B2005" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2005" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2005" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2005" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2005" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2005" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2005" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2005" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2005" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2005" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2005" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2006" ht="22.5" customHeight="1">
+      <c r="A2006" s="6">
+        <v>46040.34389682871</v>
+      </c>
+      <c r="B2006" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2006" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2006" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2006" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2006" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2006" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2006" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2006" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2006" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2006" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2006" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2007" ht="22.5" customHeight="1">
+      <c r="A2007" s="6">
+        <v>46040.34413967593</v>
+      </c>
+      <c r="B2007" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2007" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2007" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2007" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2007" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2007" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2007" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2007" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2007" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2007" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2007" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2008" ht="22.5" customHeight="1">
+      <c r="A2008" s="6">
+        <v>46040.346236446756</v>
+      </c>
+      <c r="B2008" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2008" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2008" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2008" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2008" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2008" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2008" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2008" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2008" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2008" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2008" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2009" ht="22.5" customHeight="1">
+      <c r="A2009" s="6">
+        <v>46040.34828921296</v>
+      </c>
+      <c r="B2009" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2009" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2009" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2009" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2009" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2009" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2009" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2009" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2009" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2009" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2009" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2010" ht="22.5" customHeight="1">
+      <c r="A2010" s="6">
+        <v>46040.349924050926</v>
+      </c>
+      <c r="B2010" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2010" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2010" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2010" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2010" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2010" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2010" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2010" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2010" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2010" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2010" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2011" ht="22.5" customHeight="1">
+      <c r="A2011" s="6">
+        <v>46040.35105118055</v>
+      </c>
+      <c r="B2011" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2011" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2011" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2011" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2011" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2011" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2011" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2011" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2011" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2011" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2011" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2012" ht="22.5" customHeight="1">
+      <c r="A2012" s="6">
+        <v>46040.35210788195</v>
+      </c>
+      <c r="B2012" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2012" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2012" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2012" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2012" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2012" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2012" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2012" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2012" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2012" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L2012" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2013" ht="22.5" customHeight="1">
+      <c r="A2013" s="6">
+        <v>46040.36316512732</v>
+      </c>
+      <c r="B2013" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2013" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2013" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2013" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2013" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2013" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2013" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2013" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2013" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2013" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2013" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2014" ht="22.5" customHeight="1">
+      <c r="A2014" s="6">
+        <v>46040.36727461805</v>
+      </c>
+      <c r="B2014" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2014" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2014" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2014" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2014" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2014" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2014" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2014" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2014" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2014" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2014" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2091">
+  <conditionalFormatting sqref="J1:J2114">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2014</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2027</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21709" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21848" uniqueCount="440">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1484,8 +1484,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2014" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2014"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2027" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2027"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -78251,8 +78251,502 @@
         <v>41</v>
       </c>
     </row>
+    <row r="2015" ht="22.5" customHeight="1">
+      <c r="A2015" s="6">
+        <v>46041.27524861111</v>
+      </c>
+      <c r="B2015" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2015" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2015" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2015" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2015" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2015" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2015" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2015" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2015" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2015" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2015" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2016" ht="22.5" customHeight="1">
+      <c r="A2016" s="6">
+        <v>46041.27581738426</v>
+      </c>
+      <c r="B2016" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2016" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2016" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2016" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2016" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2016" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2016" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2016" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2016" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2016" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2016" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2017" ht="22.5" customHeight="1">
+      <c r="A2017" s="6">
+        <v>46041.28265390046</v>
+      </c>
+      <c r="B2017" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2017" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2017" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2017" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2017" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2017" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2017" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2017" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2017" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2017" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2017" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2018" ht="22.5" customHeight="1">
+      <c r="A2018" s="6">
+        <v>46041.286275694445</v>
+      </c>
+      <c r="B2018" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2018" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2018" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2018" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2018" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2018" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2018" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2018" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2018" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2018" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2018" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2019" ht="22.5" customHeight="1">
+      <c r="A2019" s="6">
+        <v>46041.2908372338</v>
+      </c>
+      <c r="B2019" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2019" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2019" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2019" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2019" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2019" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2019" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2019" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2019" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2019" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2019" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2020" ht="22.5" customHeight="1">
+      <c r="A2020" s="6">
+        <v>46041.29551099537</v>
+      </c>
+      <c r="B2020" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2020" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2020" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2020" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2020" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2020" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2020" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2020" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2020" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2020" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2020" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2021" ht="22.5" customHeight="1">
+      <c r="A2021" s="6">
+        <v>46041.30059940972</v>
+      </c>
+      <c r="B2021" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2021" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2021" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2021" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2021" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2021" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2021" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2021" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2021" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2021" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2021" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2022" ht="22.5" customHeight="1">
+      <c r="A2022" s="6">
+        <v>46041.303244282404</v>
+      </c>
+      <c r="B2022" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2022" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2022" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2022" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2022" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2022" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2022" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2022" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2022" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2022" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2022" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2023" ht="22.5" customHeight="1">
+      <c r="A2023" s="6">
+        <v>46041.36826206019</v>
+      </c>
+      <c r="B2023" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2023" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2023" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2023" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2023" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2023" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2023" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2023" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2023" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2023" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2023" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2024" ht="22.5" customHeight="1">
+      <c r="A2024" s="6">
+        <v>46041.37501506944</v>
+      </c>
+      <c r="B2024" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2024" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2024" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2024" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2024" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2024" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2024" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2024" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2024" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2024" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2024" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2025" ht="22.5" customHeight="1">
+      <c r="A2025" s="6">
+        <v>46041.39037908565</v>
+      </c>
+      <c r="B2025" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2025" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2025" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2025" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2025" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2025" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2025" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2025" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2025" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2025" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2025" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2026" ht="22.5" customHeight="1">
+      <c r="A2026" s="6">
+        <v>46041.43294983797</v>
+      </c>
+      <c r="B2026" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2026" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2026" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2026" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2026" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2026" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2026" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2026" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2026" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2026" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2026" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2027" ht="22.5" customHeight="1">
+      <c r="A2027" s="6">
+        <v>46041.43324924768</v>
+      </c>
+      <c r="B2027" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2027" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2027" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2027" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2027" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2027" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2027" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2027" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2027" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2027" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2027" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2114">
+  <conditionalFormatting sqref="J1:J2127">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2027</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2035</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21848" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21932" uniqueCount="441">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1335,6 +1335,9 @@
   <si>
     <t>11 parte trasera de la rodilla izquierda, 13 pantorrilla izquierda, 14 pantorrilla derecha, 16 espalda</t>
   </si>
+  <si>
+    <t>Nada, 9 Isquiotibial izquierdo, 10 isquiotibial derecho</t>
+  </si>
 </sst>
 </file>
 
@@ -1484,8 +1487,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2027" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2027"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2035" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2035"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -78745,8 +78748,312 @@
         <v>52</v>
       </c>
     </row>
+    <row r="2028" ht="22.5" customHeight="1">
+      <c r="A2028" s="6">
+        <v>46041.496256087965</v>
+      </c>
+      <c r="B2028" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2028" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2028" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2028" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2028" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2028" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2028" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2028" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2028" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2028" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2028" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2029" ht="22.5" customHeight="1">
+      <c r="A2029" s="6">
+        <v>46041.49874112269</v>
+      </c>
+      <c r="B2029" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2029" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2029" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2029" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2029" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2029" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2029" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2029" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2029" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2029" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2029" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2030" ht="22.5" customHeight="1">
+      <c r="A2030" s="6">
+        <v>46041.501057534726</v>
+      </c>
+      <c r="B2030" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2030" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2030" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2030" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2030" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2030" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2030" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2030" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2030" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2030" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L2030" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2031" ht="22.5" customHeight="1">
+      <c r="A2031" s="6">
+        <v>46041.50897283565</v>
+      </c>
+      <c r="B2031" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2031" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2031" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2031" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2031" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2031" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2031" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2031" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2031" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2031" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2031" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2032" ht="22.5" customHeight="1">
+      <c r="A2032" s="6">
+        <v>46041.57572719907</v>
+      </c>
+      <c r="B2032" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2032" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2032" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2032" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2032" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2032" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2032" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2032" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2032" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2032" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2032" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2033" ht="22.5" customHeight="1">
+      <c r="A2033" s="6">
+        <v>46042.330501550925</v>
+      </c>
+      <c r="B2033" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2033" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2033" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2033" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2033" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2033" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2033" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2033" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2033" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2033" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2033" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2034" ht="22.5" customHeight="1">
+      <c r="A2034" s="6">
+        <v>46042.35896506945</v>
+      </c>
+      <c r="B2034" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2034" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2034" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2034" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2034" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2034" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2034" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2034" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2034" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2034" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2034" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2035" ht="22.5" customHeight="1">
+      <c r="A2035" s="6">
+        <v>46042.42704363426</v>
+      </c>
+      <c r="B2035" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2035" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2035" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2035" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2035" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2035" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2035" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2035" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2035" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2035" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2035" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2127">
+  <conditionalFormatting sqref="J1:J2135">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2035</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2053</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21932" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22126" uniqueCount="442">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1338,6 +1338,9 @@
   <si>
     <t>Nada, 9 Isquiotibial izquierdo, 10 isquiotibial derecho</t>
   </si>
+  <si>
+    <t>11 parte trasera de la rodilla izquierda, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1487,8 +1490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2035" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2035"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2053" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2053"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -79052,8 +79055,692 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="2036" ht="22.5" customHeight="1">
+      <c r="A2036" s="6">
+        <v>46042.70767040509</v>
+      </c>
+      <c r="B2036" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2036" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2036" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2036" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2036" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2036" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2036" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2036" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2036" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2036" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2036" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2037" ht="22.5" customHeight="1">
+      <c r="A2037" s="6">
+        <v>46043.39148142361</v>
+      </c>
+      <c r="B2037" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2037" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2037" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2037" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2037" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2037" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2037" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2037" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2037" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2037" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2037" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2038" ht="22.5" customHeight="1">
+      <c r="A2038" s="6">
+        <v>46043.39165765046</v>
+      </c>
+      <c r="B2038" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2038" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2038" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2038" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2038" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2038" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2038" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2038" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2038" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2038" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2038" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2039" ht="22.5" customHeight="1">
+      <c r="A2039" s="6">
+        <v>46043.40038129629</v>
+      </c>
+      <c r="B2039" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2039" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2039" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2039" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2039" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2039" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2039" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2039" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2039" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2039" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L2039" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2040" ht="22.5" customHeight="1">
+      <c r="A2040" s="6">
+        <v>46043.41347932871</v>
+      </c>
+      <c r="B2040" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2040" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2040" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2040" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2040" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2040" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2040" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2040" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2040" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2040" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2040" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2041" ht="22.5" customHeight="1">
+      <c r="A2041" s="6">
+        <v>46043.4136984375</v>
+      </c>
+      <c r="B2041" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2041" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2041" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2041" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2041" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2041" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2041" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2041" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2041" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2041" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L2041" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2042" ht="22.5" customHeight="1">
+      <c r="A2042" s="6">
+        <v>46043.414255474534</v>
+      </c>
+      <c r="B2042" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2042" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2042" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2042" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2042" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2042" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2042" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2042" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2042" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2042" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2042" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2043" ht="22.5" customHeight="1">
+      <c r="A2043" s="6">
+        <v>46043.41434768519</v>
+      </c>
+      <c r="B2043" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2043" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2043" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2043" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2043" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2043" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2043" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2043" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2043" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2043" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2043" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2044" ht="22.5" customHeight="1">
+      <c r="A2044" s="6">
+        <v>46043.41453422453</v>
+      </c>
+      <c r="B2044" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2044" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2044" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2044" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2044" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2044" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2044" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2044" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2044" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2044" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2044" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2045" ht="22.5" customHeight="1">
+      <c r="A2045" s="6">
+        <v>46043.41533978009</v>
+      </c>
+      <c r="B2045" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2045" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2045" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2045" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2045" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2045" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2045" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2045" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2045" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2045" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2045" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2046" ht="22.5" customHeight="1">
+      <c r="A2046" s="6">
+        <v>46043.41678108796</v>
+      </c>
+      <c r="B2046" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2046" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2046" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2046" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2046" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2046" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2046" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2046" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2046" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2046" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2046" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2047" ht="22.5" customHeight="1">
+      <c r="A2047" s="6">
+        <v>46043.41731174769</v>
+      </c>
+      <c r="B2047" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2047" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2047" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2047" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2047" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2047" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2047" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2047" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2047" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2047" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2047" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2048" ht="22.5" customHeight="1">
+      <c r="A2048" s="6">
+        <v>46043.41735688657</v>
+      </c>
+      <c r="B2048" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2048" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2048" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2048" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2048" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2048" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2048" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2048" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2048" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2048" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2048" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2049" ht="22.5" customHeight="1">
+      <c r="A2049" s="6">
+        <v>46043.419903761576</v>
+      </c>
+      <c r="B2049" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2049" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2049" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2049" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2049" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2049" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2049" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2049" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2049" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2049" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2049" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2050" ht="22.5" customHeight="1">
+      <c r="A2050" s="6">
+        <v>46043.423559745366</v>
+      </c>
+      <c r="B2050" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2050" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2050" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2050" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2050" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2050" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2050" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2050" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2050" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2050" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2050" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2051" ht="22.5" customHeight="1">
+      <c r="A2051" s="6">
+        <v>46043.433534641204</v>
+      </c>
+      <c r="B2051" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2051" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2051" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2051" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2051" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2051" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2051" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2051" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2051" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2051" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2051" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2052" ht="22.5" customHeight="1">
+      <c r="A2052" s="6">
+        <v>46043.45851702546</v>
+      </c>
+      <c r="B2052" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2052" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2052" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2052" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2052" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2052" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2052" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2052" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2052" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2052" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2052" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2053" ht="22.5" customHeight="1">
+      <c r="A2053" s="6">
+        <v>46043.467904108795</v>
+      </c>
+      <c r="B2053" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2053" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2053" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2053" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2053" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2053" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2053" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2053" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2053" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2053" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2053" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2135">
+  <conditionalFormatting sqref="J1:J2153">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2053</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2074</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22126" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22352" uniqueCount="442">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1490,8 +1490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2053" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2053"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2074" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2074"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -79739,8 +79739,806 @@
         <v>52</v>
       </c>
     </row>
+    <row r="2054" ht="22.5" customHeight="1">
+      <c r="A2054" s="6">
+        <v>46044.27482668981</v>
+      </c>
+      <c r="B2054" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2054" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2054" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2054" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2054" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2054" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2054" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2054" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2054" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2054" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2054" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2055" ht="22.5" customHeight="1">
+      <c r="A2055" s="6">
+        <v>46044.29166652777</v>
+      </c>
+      <c r="B2055" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2055" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2055" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2055" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2055" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2055" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2055" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2055" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2055" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2055" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2055" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2056" ht="22.5" customHeight="1">
+      <c r="A2056" s="6">
+        <v>46044.29463631945</v>
+      </c>
+      <c r="B2056" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2056" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2056" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2056" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2056" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2056" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2056" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2056" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2056" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2056" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2056" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2057" ht="22.5" customHeight="1">
+      <c r="A2057" s="6">
+        <v>46044.300187280096</v>
+      </c>
+      <c r="B2057" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2057" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2057" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2057" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2057" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2057" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2057" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2057" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2057" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2057" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2057" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2058" ht="22.5" customHeight="1">
+      <c r="A2058" s="6">
+        <v>46044.30723168982</v>
+      </c>
+      <c r="B2058" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2058" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2058" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2058" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2058" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2058" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2058" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2058" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2058" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2058" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2058" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2059" ht="22.5" customHeight="1">
+      <c r="A2059" s="6">
+        <v>46044.30753828704</v>
+      </c>
+      <c r="B2059" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2059" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2059" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2059" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2059" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2059" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2059" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2059" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2059" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2059" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2059" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2060" ht="22.5" customHeight="1">
+      <c r="A2060" s="6">
+        <v>46044.30915608796</v>
+      </c>
+      <c r="B2060" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2060" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2060" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2060" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2060" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2060" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2060" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2060" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2060" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2060" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2060" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2061" ht="22.5" customHeight="1">
+      <c r="A2061" s="6">
+        <v>46044.31606724537</v>
+      </c>
+      <c r="B2061" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2061" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2061" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2061" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2061" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2061" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2061" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2061" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2061" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2061" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L2061" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2062" ht="22.5" customHeight="1">
+      <c r="A2062" s="6">
+        <v>46044.32013869213</v>
+      </c>
+      <c r="B2062" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2062" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2062" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2062" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2062" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2062" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2062" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2062" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2062" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2062" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2062" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2063" ht="22.5" customHeight="1">
+      <c r="A2063" s="6">
+        <v>46044.320967974534</v>
+      </c>
+      <c r="B2063" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2063" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2063" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2063" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2063" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2063" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2063" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2063" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2063" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2063" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2063" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2064" ht="22.5" customHeight="1">
+      <c r="A2064" s="6">
+        <v>46044.32188459491</v>
+      </c>
+      <c r="B2064" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2064" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2064" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2064" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2064" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2064" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2064" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2064" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2064" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2064" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2064" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2065" ht="22.5" customHeight="1">
+      <c r="A2065" s="6">
+        <v>46044.32206572917</v>
+      </c>
+      <c r="B2065" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2065" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2065" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2065" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2065" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2065" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2065" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2065" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2065" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2065" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2065" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2066" ht="22.5" customHeight="1">
+      <c r="A2066" s="6">
+        <v>46044.32208327546</v>
+      </c>
+      <c r="B2066" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2066" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2066" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2066" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2066" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2066" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2066" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2066" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2066" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2066" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2066" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2067" ht="22.5" customHeight="1">
+      <c r="A2067" s="6">
+        <v>46044.32212454861</v>
+      </c>
+      <c r="B2067" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2067" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2067" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2067" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2067" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2067" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2067" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2067" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2067" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2067" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2067" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2068" ht="22.5" customHeight="1">
+      <c r="A2068" s="6">
+        <v>46044.32220342592</v>
+      </c>
+      <c r="B2068" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2068" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2068" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2068" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2068" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2068" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2068" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2068" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2068" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2068" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2068" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2069" ht="22.5" customHeight="1">
+      <c r="A2069" s="6">
+        <v>46044.322395428244</v>
+      </c>
+      <c r="B2069" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2069" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2069" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2069" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2069" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2069" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2069" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2069" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2069" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2069" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2069" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2070" ht="22.5" customHeight="1">
+      <c r="A2070" s="6">
+        <v>46044.322525717595</v>
+      </c>
+      <c r="B2070" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2070" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2070" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2070" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2070" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2070" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2070" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2070" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2070" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2070" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2070" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="2071" ht="22.5" customHeight="1">
+      <c r="A2071" s="6">
+        <v>46044.32324174768</v>
+      </c>
+      <c r="B2071" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2071" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2071" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2071" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2071" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2071" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2071" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2071" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2071" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2071" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2071" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2072" ht="22.5" customHeight="1">
+      <c r="A2072" s="6">
+        <v>46044.323366620374</v>
+      </c>
+      <c r="B2072" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2072" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2072" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2072" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2072" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2072" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2072" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2072" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2072" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2072" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2072" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2073" ht="22.5" customHeight="1">
+      <c r="A2073" s="6">
+        <v>46044.32631255787</v>
+      </c>
+      <c r="B2073" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2073" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2073" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2073" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2073" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2073" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2073" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2073" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2073" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2073" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2073" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2074" ht="22.5" customHeight="1">
+      <c r="A2074" s="6">
+        <v>46044.32825211805</v>
+      </c>
+      <c r="B2074" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2074" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2074" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2074" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2074" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2074" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2074" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2074" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2074" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2074" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2074" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2153">
+  <conditionalFormatting sqref="J1:J2174">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2074</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2094</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22352" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22567" uniqueCount="442">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1490,8 +1490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2074" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2074"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2094" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2094"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -80537,8 +80537,768 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2075" ht="22.5" customHeight="1">
+      <c r="A2075" s="6">
+        <v>46045.27380134259</v>
+      </c>
+      <c r="B2075" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2075" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2075" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2075" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2075" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2075" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2075" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2075" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2075" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2075" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2075" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2076" ht="22.5" customHeight="1">
+      <c r="A2076" s="6">
+        <v>46045.29371991898</v>
+      </c>
+      <c r="B2076" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2076" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2076" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2076" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2076" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2076" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2076" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2076" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2076" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2076" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2076" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2077" ht="22.5" customHeight="1">
+      <c r="A2077" s="6">
+        <v>46045.30314866898</v>
+      </c>
+      <c r="B2077" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2077" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2077" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2077" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2077" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2077" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2077" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2077" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2077" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2077" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2077" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2078" ht="22.5" customHeight="1">
+      <c r="A2078" s="6">
+        <v>46045.30486241898</v>
+      </c>
+      <c r="B2078" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2078" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2078" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2078" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2078" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2078" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2078" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2078" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2078" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2078" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2078" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2079" ht="22.5" customHeight="1">
+      <c r="A2079" s="6">
+        <v>46045.31040378472</v>
+      </c>
+      <c r="B2079" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2079" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2079" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2079" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2079" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2079" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2079" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2079" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2079" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2079" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2079" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2080" ht="22.5" customHeight="1">
+      <c r="A2080" s="6">
+        <v>46045.31706951389</v>
+      </c>
+      <c r="B2080" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2080" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2080" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2080" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2080" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2080" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2080" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2080" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2080" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2080" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2080" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2081" ht="22.5" customHeight="1">
+      <c r="A2081" s="6">
+        <v>46045.320909965274</v>
+      </c>
+      <c r="B2081" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2081" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2081" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2081" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2081" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2081" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2081" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2081" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2081" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2081" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2081" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2082" ht="22.5" customHeight="1">
+      <c r="A2082" s="6">
+        <v>46045.32627604167</v>
+      </c>
+      <c r="B2082" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2082" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2082" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2082" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2082" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2082" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2082" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2082" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2082" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2082" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2082" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2083" ht="22.5" customHeight="1">
+      <c r="A2083" s="6">
+        <v>46045.326717766206</v>
+      </c>
+      <c r="B2083" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2083" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2083" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2083" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2083" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2083" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2083" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2083" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2083" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2083" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2083" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2084" ht="22.5" customHeight="1">
+      <c r="A2084" s="6">
+        <v>46045.32750280092</v>
+      </c>
+      <c r="B2084" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2084" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2084" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2084" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2084" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2084" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2084" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2084" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2084" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2084" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2084" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2085" ht="22.5" customHeight="1">
+      <c r="A2085" s="6">
+        <v>46045.327742187495</v>
+      </c>
+      <c r="B2085" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2085" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2085" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2085" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2085" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2085" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2085" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2085" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2085" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2085" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2085" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2086" ht="22.5" customHeight="1">
+      <c r="A2086" s="6">
+        <v>46045.32793716435</v>
+      </c>
+      <c r="B2086" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2086" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2086" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2086" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2086" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2086" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2086" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2086" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2086" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2086" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2086" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2087" ht="22.5" customHeight="1">
+      <c r="A2087" s="6">
+        <v>46045.329477569445</v>
+      </c>
+      <c r="B2087" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2087" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2087" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2087" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2087" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2087" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2087" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2087" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2087" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2087" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2087" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2088" ht="22.5" customHeight="1">
+      <c r="A2088" s="6">
+        <v>46045.33473209491</v>
+      </c>
+      <c r="B2088" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2088" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2088" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2088" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2088" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2088" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2088" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2088" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2088" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2088" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L2088" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2089" ht="22.5" customHeight="1">
+      <c r="A2089" s="6">
+        <v>46045.3352525</v>
+      </c>
+      <c r="B2089" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2089" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2089" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2089" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2089" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2089" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2089" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2089" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2089" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2089" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2089" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2090" ht="22.5" customHeight="1">
+      <c r="A2090" s="6">
+        <v>46045.33607923611</v>
+      </c>
+      <c r="B2090" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2090" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2090" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2090" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2090" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2090" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2090" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2090" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2090" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2090" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2090" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2091" ht="22.5" customHeight="1">
+      <c r="A2091" s="6">
+        <v>46045.33621717592</v>
+      </c>
+      <c r="B2091" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2091" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2091" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2091" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2091" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2091" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2091" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2091" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2091" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2091" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2091" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2092" ht="22.5" customHeight="1">
+      <c r="A2092" s="6">
+        <v>46045.33967512731</v>
+      </c>
+      <c r="B2092" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2092" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2092" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2092" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2092" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2092" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2092" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2092" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2092" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2092" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2092" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2093" ht="22.5" customHeight="1">
+      <c r="A2093" s="6">
+        <v>46045.3398128125</v>
+      </c>
+      <c r="B2093" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2093" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2093" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2093" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2093" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2093" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2093" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2093" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2093" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2093" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2093" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2094" ht="22.5" customHeight="1">
+      <c r="A2094" s="6">
+        <v>46045.34360072917</v>
+      </c>
+      <c r="B2094" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2094" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2094" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2094" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2094" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2094" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2094" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2094" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2094" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2094" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2094" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2174">
+  <conditionalFormatting sqref="J1:J2194">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2094</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2117</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22567" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22815" uniqueCount="443">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1341,6 +1341,9 @@
   <si>
     <t>11 parte trasera de la rodilla izquierda, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>4 rodilla izquierda, 11 parte trasera de la rodilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -1490,8 +1493,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2094" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2094"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2117" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2117"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -81297,8 +81300,882 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2095" ht="22.5" customHeight="1">
+      <c r="A2095" s="6">
+        <v>46045.508963472224</v>
+      </c>
+      <c r="B2095" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2095" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2095" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2095" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2095" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2095" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2095" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2095" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2095" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2095" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2095" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2096" ht="22.5" customHeight="1">
+      <c r="A2096" s="6">
+        <v>46046.29139699074</v>
+      </c>
+      <c r="B2096" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2096" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2096" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2096" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2096" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2096" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2096" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2096" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2096" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2096" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2096" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2097" ht="22.5" customHeight="1">
+      <c r="A2097" s="6">
+        <v>46046.29477925926</v>
+      </c>
+      <c r="B2097" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2097" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2097" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2097" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2097" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2097" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2097" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2097" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2097" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2097" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2097" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2098" ht="22.5" customHeight="1">
+      <c r="A2098" s="6">
+        <v>46046.30186570602</v>
+      </c>
+      <c r="B2098" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2098" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2098" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2098" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2098" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2098" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2098" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2098" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2098" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2098" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2098" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2099" ht="22.5" customHeight="1">
+      <c r="A2099" s="6">
+        <v>46046.313691689815</v>
+      </c>
+      <c r="B2099" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2099" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2099" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2099" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2099" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2099" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2099" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2099" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2099" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2099" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2099" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2100" ht="22.5" customHeight="1">
+      <c r="A2100" s="6">
+        <v>46046.3163302662</v>
+      </c>
+      <c r="B2100" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2100" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2100" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2100" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2100" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2100" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2100" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2100" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2100" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2101" ht="22.5" customHeight="1">
+      <c r="A2101" s="6">
+        <v>46046.317165138884</v>
+      </c>
+      <c r="B2101" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2101" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2101" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2101" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2101" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2101" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2101" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2101" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2101" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2101" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2102" ht="22.5" customHeight="1">
+      <c r="A2102" s="6">
+        <v>46046.325721180554</v>
+      </c>
+      <c r="B2102" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2102" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2102" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2102" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2102" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2102" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2102" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2102" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2103" ht="22.5" customHeight="1">
+      <c r="A2103" s="6">
+        <v>46046.330856099536</v>
+      </c>
+      <c r="B2103" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2103" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2103" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2103" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2103" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2103" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2103" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2103" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2103" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L2103" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2104" ht="22.5" customHeight="1">
+      <c r="A2104" s="6">
+        <v>46046.33181798611</v>
+      </c>
+      <c r="B2104" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2104" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2104" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2104" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2104" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2104" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2104" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2104" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2104" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2104" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2105" ht="22.5" customHeight="1">
+      <c r="A2105" s="6">
+        <v>46046.33267883102</v>
+      </c>
+      <c r="B2105" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2105" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2105" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2105" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2105" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2105" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2105" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2105" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2105" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2105" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2106" ht="22.5" customHeight="1">
+      <c r="A2106" s="6">
+        <v>46046.33301746528</v>
+      </c>
+      <c r="B2106" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2106" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2106" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2106" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2106" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2106" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2106" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2106" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2106" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2107" ht="22.5" customHeight="1">
+      <c r="A2107" s="6">
+        <v>46046.335530682874</v>
+      </c>
+      <c r="B2107" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2107" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2107" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2107" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2107" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2107" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2107" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2107" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2107" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2107" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2107" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2108" ht="22.5" customHeight="1">
+      <c r="A2108" s="6">
+        <v>46046.33563166666</v>
+      </c>
+      <c r="B2108" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2108" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2108" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2108" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2108" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2108" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2108" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2108" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2108" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2108" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2109" ht="22.5" customHeight="1">
+      <c r="A2109" s="6">
+        <v>46046.3424827662</v>
+      </c>
+      <c r="B2109" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2109" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2109" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2109" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2109" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2109" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2109" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2109" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2109" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2109" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2109" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2110" ht="22.5" customHeight="1">
+      <c r="A2110" s="6">
+        <v>46046.34261983796</v>
+      </c>
+      <c r="B2110" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2110" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2110" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2110" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2110" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2110" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2110" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2110" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2110" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2110" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2110" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2111" ht="22.5" customHeight="1">
+      <c r="A2111" s="6">
+        <v>46046.34275949074</v>
+      </c>
+      <c r="B2111" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2111" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2111" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2111" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2111" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2111" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2111" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2111" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2111" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2111" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2111" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2112" ht="22.5" customHeight="1">
+      <c r="A2112" s="6">
+        <v>46046.34325731482</v>
+      </c>
+      <c r="B2112" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2112" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2112" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2112" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2112" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2112" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2112" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2112" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2113" ht="22.5" customHeight="1">
+      <c r="A2113" s="6">
+        <v>46046.34369618056</v>
+      </c>
+      <c r="B2113" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2113" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2113" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2113" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2113" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2113" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2113" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2113" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2113" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2113" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2114" ht="22.5" customHeight="1">
+      <c r="A2114" s="6">
+        <v>46046.34523023148</v>
+      </c>
+      <c r="B2114" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2114" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2114" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2114" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2114" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2114" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2114" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2114" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2114" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2114" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2114" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2115" ht="22.5" customHeight="1">
+      <c r="A2115" s="6">
+        <v>46046.345447581014</v>
+      </c>
+      <c r="B2115" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2115" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2115" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2115" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2115" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2115" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2115" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2115" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2115" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2116" ht="22.5" customHeight="1">
+      <c r="A2116" s="6">
+        <v>46046.34961773148</v>
+      </c>
+      <c r="B2116" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2116" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2116" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2116" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2116" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2116" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2116" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2116" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2116" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2116" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2116" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2117" ht="22.5" customHeight="1">
+      <c r="A2117" s="6">
+        <v>46046.35043707176</v>
+      </c>
+      <c r="B2117" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2117" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2117" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2117" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2117" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2117" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2117" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2117" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2117" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2117" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2117" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2194">
+  <conditionalFormatting sqref="J1:J2217">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2117</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2121</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22815" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22857" uniqueCount="445">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1344,6 +1344,12 @@
   <si>
     <t>4 rodilla izquierda, 11 parte trasera de la rodilla izquierda</t>
   </si>
+  <si>
+    <t>1º</t>
+  </si>
+  <si>
+    <t>Nada, 5 espinilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1493,8 +1499,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2117" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2117"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2121" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2121"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -82174,8 +82180,160 @@
         <v>41</v>
       </c>
     </row>
+    <row r="2118" ht="22.5" customHeight="1">
+      <c r="A2118" s="6">
+        <v>46047.35211421296</v>
+      </c>
+      <c r="B2118" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2118" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2118" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2118" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2118" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2118" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2118" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2118" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2118" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2118" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2118" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2119" ht="22.5" customHeight="1">
+      <c r="A2119" s="6">
+        <v>46047.36002324074</v>
+      </c>
+      <c r="B2119" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2119" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2119" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2119" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2119" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2119" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2119" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2119" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2119" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2120" ht="22.5" customHeight="1">
+      <c r="A2120" s="6">
+        <v>46047.361531030096</v>
+      </c>
+      <c r="B2120" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2120" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2120" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2120" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2120" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2120" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2120" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2120" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2120" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2120" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2120" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2121" ht="22.5" customHeight="1">
+      <c r="A2121" s="6">
+        <v>46047.36541532408</v>
+      </c>
+      <c r="B2121" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2121" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2121" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2121" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2121" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2121" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2121" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L2121" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2217">
+  <conditionalFormatting sqref="J1:J2221">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2121</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2125</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22857" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22899" uniqueCount="446">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1350,6 +1350,9 @@
   <si>
     <t>Nada, 5 espinilla derecha</t>
   </si>
+  <si>
+    <t>2º</t>
+  </si>
 </sst>
 </file>
 
@@ -1499,8 +1502,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2121" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2125" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2125"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -82332,8 +82335,160 @@
         <v>52</v>
       </c>
     </row>
+    <row r="2122" ht="22.5" customHeight="1">
+      <c r="A2122" s="6">
+        <v>46047.49239460648</v>
+      </c>
+      <c r="B2122" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2122" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2122" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2122" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2122" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2122" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2122" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2122" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2122" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2122" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2122" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2123" ht="22.5" customHeight="1">
+      <c r="A2123" s="6">
+        <v>46048.318141400465</v>
+      </c>
+      <c r="B2123" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2123" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2123" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2123" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2123" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2123" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2123" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2123" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2123" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2124" ht="22.5" customHeight="1">
+      <c r="A2124" s="6">
+        <v>46048.360103541665</v>
+      </c>
+      <c r="B2124" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2124" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2124" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2124" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2124" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2124" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2124" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2124" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2124" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2125" ht="22.5" customHeight="1">
+      <c r="A2125" s="6">
+        <v>46048.4365631713</v>
+      </c>
+      <c r="B2125" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2125" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2125" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2125" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2125" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2125" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2125" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2125" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2125" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2125" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2125" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2221">
+  <conditionalFormatting sqref="J1:J2225">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2125</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2127</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22899" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22920" uniqueCount="447">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1353,6 +1353,9 @@
   <si>
     <t>2º</t>
   </si>
+  <si>
+    <t>3º</t>
+  </si>
 </sst>
 </file>
 
@@ -1502,8 +1505,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2125" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2125"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2127" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2127"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -82487,8 +82490,84 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="2126" ht="22.5" customHeight="1">
+      <c r="A2126" s="6">
+        <v>46049.35437335648</v>
+      </c>
+      <c r="B2126" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2126" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2126" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2126" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2126" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2126" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2126" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2126" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2126" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2126" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2126" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2127" ht="22.5" customHeight="1">
+      <c r="A2127" s="6">
+        <v>46049.39236430556</v>
+      </c>
+      <c r="B2127" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2127" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2127" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2127" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2127" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2127" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2127" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2127" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2127" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2127" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2127" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2225">
+  <conditionalFormatting sqref="J1:J2227">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2127</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2149</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22920" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23155" uniqueCount="449">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1356,6 +1356,12 @@
   <si>
     <t>3º</t>
   </si>
+  <si>
+    <t>4º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
 </sst>
 </file>
 
@@ -1505,8 +1511,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2127" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2127"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2149" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2149"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -82566,8 +82572,844 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="2128" ht="22.5" customHeight="1">
+      <c r="A2128" s="6">
+        <v>46050.29432204861</v>
+      </c>
+      <c r="B2128" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2128" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2128" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2128" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2128" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2128" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2128" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2128" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2129" ht="22.5" customHeight="1">
+      <c r="A2129" s="6">
+        <v>46050.304826527776</v>
+      </c>
+      <c r="B2129" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2129" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2129" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2129" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2129" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2129" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2129" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2129" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2130" ht="22.5" customHeight="1">
+      <c r="A2130" s="6">
+        <v>46050.31132453703</v>
+      </c>
+      <c r="B2130" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2130" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2130" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2130" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2130" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2130" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2130" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2130" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2130" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2130" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2130" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2131" ht="22.5" customHeight="1">
+      <c r="A2131" s="6">
+        <v>46050.31633421296</v>
+      </c>
+      <c r="B2131" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2131" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2131" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2131" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2131" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2131" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2131" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2131" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2131" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2131" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2131" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2132" ht="22.5" customHeight="1">
+      <c r="A2132" s="6">
+        <v>46050.31765229166</v>
+      </c>
+      <c r="B2132" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2132" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2132" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2132" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2132" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2132" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2132" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2132" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2132" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2133" ht="22.5" customHeight="1">
+      <c r="A2133" s="6">
+        <v>46050.32875134259</v>
+      </c>
+      <c r="B2133" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2133" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2133" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2133" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2133" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2133" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2133" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2133" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2133" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2133" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2133" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2134" ht="22.5" customHeight="1">
+      <c r="A2134" s="6">
+        <v>46050.32881545139</v>
+      </c>
+      <c r="B2134" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2134" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2134" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2134" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2134" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2134" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2134" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2134" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2134" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2135" ht="22.5" customHeight="1">
+      <c r="A2135" s="6">
+        <v>46050.33367363426</v>
+      </c>
+      <c r="B2135" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2135" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2135" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2135" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2135" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2135" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2135" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2135" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2135" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2136" ht="22.5" customHeight="1">
+      <c r="A2136" s="6">
+        <v>46050.33374475694</v>
+      </c>
+      <c r="B2136" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2136" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2136" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2136" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2136" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2136" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2136" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2136" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2136" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2136" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L2136" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2137" ht="22.5" customHeight="1">
+      <c r="A2137" s="6">
+        <v>46050.33414140047</v>
+      </c>
+      <c r="B2137" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2137" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2137" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2137" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2137" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2137" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2137" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2137" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2137" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2137" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2137" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2138" ht="22.5" customHeight="1">
+      <c r="A2138" s="6">
+        <v>46050.335948692125</v>
+      </c>
+      <c r="B2138" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2138" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2138" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2138" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2138" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2138" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2138" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2138" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2138" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2138" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2138" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2139" ht="22.5" customHeight="1">
+      <c r="A2139" s="6">
+        <v>46050.336179502316</v>
+      </c>
+      <c r="B2139" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2139" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2139" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2139" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2139" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2139" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2139" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2139" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2139" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2139" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2139" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2140" ht="22.5" customHeight="1">
+      <c r="A2140" s="6">
+        <v>46050.33652733796</v>
+      </c>
+      <c r="B2140" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2140" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2140" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2140" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2140" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2140" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2140" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2140" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2140" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2140" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2140" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="2141" ht="22.5" customHeight="1">
+      <c r="A2141" s="6">
+        <v>46050.33681471065</v>
+      </c>
+      <c r="B2141" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2141" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2141" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2141" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2141" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2141" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2141" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2141" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2141" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2141" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2141" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2142" ht="22.5" customHeight="1">
+      <c r="A2142" s="6">
+        <v>46050.337015729165</v>
+      </c>
+      <c r="B2142" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2142" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2142" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2142" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2142" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2142" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2142" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2142" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2142" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2142" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2142" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2143" ht="22.5" customHeight="1">
+      <c r="A2143" s="6">
+        <v>46050.337541608795</v>
+      </c>
+      <c r="B2143" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2143" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2143" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2143" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2143" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2143" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2143" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2143" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2143" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2143" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2143" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2144" ht="22.5" customHeight="1">
+      <c r="A2144" s="6">
+        <v>46050.33788651621</v>
+      </c>
+      <c r="B2144" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2144" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2144" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2144" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2144" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2144" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2144" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2144" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2144" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2144" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2144" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2145" ht="22.5" customHeight="1">
+      <c r="A2145" s="6">
+        <v>46050.33854333333</v>
+      </c>
+      <c r="B2145" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2145" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2145" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2145" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2145" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2145" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2145" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2145" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2145" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2145" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2145" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2146" ht="22.5" customHeight="1">
+      <c r="A2146" s="6">
+        <v>46050.339131307876</v>
+      </c>
+      <c r="B2146" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2146" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2146" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2146" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2146" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2146" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2146" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2146" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2146" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2146" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2146" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2147" ht="22.5" customHeight="1">
+      <c r="A2147" s="6">
+        <v>46050.3499366551</v>
+      </c>
+      <c r="B2147" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2147" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2147" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2147" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2147" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2147" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2147" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2147" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2147" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2147" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2147" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2148" ht="22.5" customHeight="1">
+      <c r="A2148" s="6">
+        <v>46050.350300659724</v>
+      </c>
+      <c r="B2148" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2148" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2148" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2148" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2148" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2148" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2148" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2148" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2148" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2148" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2148" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2149" ht="22.5" customHeight="1">
+      <c r="A2149" s="6">
+        <v>46050.35462337963</v>
+      </c>
+      <c r="B2149" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2149" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2149" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2149" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2149" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2149" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2149" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2149" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2149" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2149" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2149" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2227">
+  <conditionalFormatting sqref="J1:J2249">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2149</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2169</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23155" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23366" uniqueCount="451">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1362,6 +1362,12 @@
   <si>
     <t xml:space="preserve">   </t>
   </si>
+  <si>
+    <t>4 rodilla izquierda, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>1 muslo izquierdo, 13 pantorrilla izquierda, 21 Plantas de los pies o empeine</t>
+  </si>
 </sst>
 </file>
 
@@ -1511,8 +1517,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2149" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2169" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2169"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -83408,8 +83414,768 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2150" ht="22.5" customHeight="1">
+      <c r="A2150" s="6">
+        <v>46051.261432025465</v>
+      </c>
+      <c r="B2150" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2150" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2150" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2150" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2150" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2150" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2150" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2150" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2150" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2150" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2150" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2151" ht="22.5" customHeight="1">
+      <c r="A2151" s="6">
+        <v>46051.27271114584</v>
+      </c>
+      <c r="B2151" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2151" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2151" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2151" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2151" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2151" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2151" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2151" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2151" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2151" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2151" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2152" ht="22.5" customHeight="1">
+      <c r="A2152" s="6">
+        <v>46051.29533689815</v>
+      </c>
+      <c r="B2152" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2152" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2152" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2152" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2152" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2152" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2152" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2152" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2152" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2152" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2152" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2153" ht="22.5" customHeight="1">
+      <c r="A2153" s="6">
+        <v>46051.29561446759</v>
+      </c>
+      <c r="B2153" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2153" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2153" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2153" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2153" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2153" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2153" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2153" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2153" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2153" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2153" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="2154" ht="22.5" customHeight="1">
+      <c r="A2154" s="6">
+        <v>46051.299899108795</v>
+      </c>
+      <c r="B2154" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2154" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2154" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2154" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2154" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2154" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2154" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2154" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2154" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2154" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2154" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2155" ht="22.5" customHeight="1">
+      <c r="A2155" s="6">
+        <v>46051.30432877315</v>
+      </c>
+      <c r="B2155" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2155" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2155" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2155" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2155" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2155" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2155" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2155" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2155" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2155" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2155" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2156" ht="22.5" customHeight="1">
+      <c r="A2156" s="6">
+        <v>46051.31375439814</v>
+      </c>
+      <c r="B2156" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2156" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2156" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2156" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2156" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2156" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2156" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2156" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2156" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2156" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L2156" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2157" ht="22.5" customHeight="1">
+      <c r="A2157" s="6">
+        <v>46051.31705712963</v>
+      </c>
+      <c r="B2157" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2157" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2157" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2157" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2157" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2157" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2157" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2157" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2157" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2157" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2157" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2158" ht="22.5" customHeight="1">
+      <c r="A2158" s="6">
+        <v>46051.32382936343</v>
+      </c>
+      <c r="B2158" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2158" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2158" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2158" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2158" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2158" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2158" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2158" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2158" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2158" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2158" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2159" ht="22.5" customHeight="1">
+      <c r="A2159" s="6">
+        <v>46051.34914741898</v>
+      </c>
+      <c r="B2159" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2159" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2159" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2159" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2159" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2159" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2159" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2159" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2159" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2159" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L2159" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2160" ht="22.5" customHeight="1">
+      <c r="A2160" s="6">
+        <v>46051.35322851852</v>
+      </c>
+      <c r="B2160" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2160" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2160" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2160" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2160" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2160" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2160" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2160" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2160" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2160" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2160" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2161" ht="22.5" customHeight="1">
+      <c r="A2161" s="6">
+        <v>46051.355355312495</v>
+      </c>
+      <c r="B2161" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2161" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2161" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2161" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2161" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2161" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2161" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2161" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2161" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2161" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2161" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2162" ht="22.5" customHeight="1">
+      <c r="A2162" s="6">
+        <v>46051.3697946412</v>
+      </c>
+      <c r="B2162" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2162" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2162" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2162" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2162" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2162" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2162" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2162" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2162" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2162" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2162" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2163" ht="22.5" customHeight="1">
+      <c r="A2163" s="6">
+        <v>46051.372426435184</v>
+      </c>
+      <c r="B2163" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2163" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2163" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2163" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2163" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2163" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2163" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2163" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2163" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2163" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2163" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2164" ht="22.5" customHeight="1">
+      <c r="A2164" s="6">
+        <v>46051.375810983795</v>
+      </c>
+      <c r="B2164" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2164" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2164" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2164" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2164" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2164" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2164" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2164" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2164" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2164" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2164" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2165" ht="22.5" customHeight="1">
+      <c r="A2165" s="6">
+        <v>46051.438255925925</v>
+      </c>
+      <c r="B2165" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2165" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2165" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2165" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2165" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2165" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2165" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2165" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2165" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2165" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2165" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2166" ht="22.5" customHeight="1">
+      <c r="A2166" s="6">
+        <v>46051.438383368055</v>
+      </c>
+      <c r="B2166" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2166" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2166" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2166" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2166" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2166" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2166" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2166" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2166" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2166" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2166" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2167" ht="22.5" customHeight="1">
+      <c r="A2167" s="6">
+        <v>46051.438448298606</v>
+      </c>
+      <c r="B2167" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2167" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2167" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2167" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2167" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2167" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2167" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2167" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2167" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2167" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2167" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2168" ht="22.5" customHeight="1">
+      <c r="A2168" s="6">
+        <v>46051.44033193287</v>
+      </c>
+      <c r="B2168" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2168" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2168" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2168" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2168" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2168" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2168" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2168" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2168" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2168" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2168" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2169" ht="22.5" customHeight="1">
+      <c r="A2169" s="6">
+        <v>46051.4404947338</v>
+      </c>
+      <c r="B2169" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2169" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2169" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2169" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2169" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2169" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2169" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2169" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2169" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2169" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2169" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2249">
+  <conditionalFormatting sqref="J1:J2269">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2169</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2192</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23366" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23611" uniqueCount="452">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1368,6 +1368,9 @@
   <si>
     <t>1 muslo izquierdo, 13 pantorrilla izquierda, 21 Plantas de los pies o empeine</t>
   </si>
+  <si>
+    <t>9 Isquiotibial izquierdo, 14 pantorrilla derecha, 22 gluteo izquierdo</t>
+  </si>
 </sst>
 </file>
 
@@ -1517,8 +1520,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2169" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2169"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2192" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2192"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -84174,8 +84177,882 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="2170" ht="22.5" customHeight="1">
+      <c r="A2170" s="6">
+        <v>46052.33165674769</v>
+      </c>
+      <c r="B2170" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2170" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2170" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2170" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2170" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2170" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2170" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2170" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2170" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2170" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2170" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2171" ht="22.5" customHeight="1">
+      <c r="A2171" s="6">
+        <v>46052.33706684028</v>
+      </c>
+      <c r="B2171" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2171" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2171" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2171" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2171" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2171" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2171" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2171" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2171" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2171" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2171" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2172" ht="22.5" customHeight="1">
+      <c r="A2172" s="6">
+        <v>46052.34349954861</v>
+      </c>
+      <c r="B2172" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2172" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2172" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2172" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2172" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2172" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2172" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2172" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2172" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2172" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2172" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2173" ht="22.5" customHeight="1">
+      <c r="A2173" s="6">
+        <v>46052.35508849537</v>
+      </c>
+      <c r="B2173" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2173" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2173" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2173" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2173" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2173" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2173" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2173" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2173" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2173" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2173" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2174" ht="22.5" customHeight="1">
+      <c r="A2174" s="6">
+        <v>46052.3609540162</v>
+      </c>
+      <c r="B2174" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2174" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2174" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2174" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2174" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2174" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2174" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2174" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2174" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2174" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2174" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2175" ht="22.5" customHeight="1">
+      <c r="A2175" s="6">
+        <v>46052.36585861111</v>
+      </c>
+      <c r="B2175" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2175" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2175" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2175" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2175" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2175" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2175" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2175" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2175" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2175" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2175" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2176" ht="22.5" customHeight="1">
+      <c r="A2176" s="6">
+        <v>46052.372043807874</v>
+      </c>
+      <c r="B2176" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2176" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2176" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2176" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2176" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2176" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2176" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2176" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2176" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2176" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2176" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2177" ht="22.5" customHeight="1">
+      <c r="A2177" s="6">
+        <v>46052.37942629629</v>
+      </c>
+      <c r="B2177" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2177" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2177" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2177" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2177" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2177" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2177" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2177" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2177" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2177" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2177" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2178" ht="22.5" customHeight="1">
+      <c r="A2178" s="6">
+        <v>46052.38413611111</v>
+      </c>
+      <c r="B2178" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2178" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2178" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2178" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2178" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2178" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2178" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2178" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2178" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2178" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2178" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2179" ht="22.5" customHeight="1">
+      <c r="A2179" s="6">
+        <v>46052.38540876158</v>
+      </c>
+      <c r="B2179" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2179" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2179" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2179" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2179" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2179" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2179" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2179" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2179" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2179" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2179" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2180" ht="22.5" customHeight="1">
+      <c r="A2180" s="6">
+        <v>46052.39100159722</v>
+      </c>
+      <c r="B2180" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2180" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2180" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2180" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2180" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2180" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2180" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2180" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2180" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2180" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2180" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2181" ht="22.5" customHeight="1">
+      <c r="A2181" s="6">
+        <v>46052.39518078703</v>
+      </c>
+      <c r="B2181" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2181" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2181" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2181" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2181" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2181" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2181" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2181" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2181" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2181" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2181" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="2182" ht="22.5" customHeight="1">
+      <c r="A2182" s="6">
+        <v>46052.396740462966</v>
+      </c>
+      <c r="B2182" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2182" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2182" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2182" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2182" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2182" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2182" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2182" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2182" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2182" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2182" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2183" ht="22.5" customHeight="1">
+      <c r="A2183" s="6">
+        <v>46052.39685929398</v>
+      </c>
+      <c r="B2183" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2183" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2183" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2183" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2183" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2183" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2183" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2183" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2183" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2183" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2183" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2184" ht="22.5" customHeight="1">
+      <c r="A2184" s="6">
+        <v>46052.39702472222</v>
+      </c>
+      <c r="B2184" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2184" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2184" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2184" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2184" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2184" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2184" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2184" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2184" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2184" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2184" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2185" ht="22.5" customHeight="1">
+      <c r="A2185" s="6">
+        <v>46052.3973528125</v>
+      </c>
+      <c r="B2185" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2185" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2185" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2185" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2185" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2185" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2185" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2185" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2185" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2185" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L2185" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2186" ht="22.5" customHeight="1">
+      <c r="A2186" s="6">
+        <v>46052.39802835648</v>
+      </c>
+      <c r="B2186" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2186" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2186" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2186" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2186" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2186" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2186" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2186" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2186" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2186" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2186" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2187" ht="22.5" customHeight="1">
+      <c r="A2187" s="6">
+        <v>46052.39856465277</v>
+      </c>
+      <c r="B2187" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2187" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2187" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2187" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2187" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2187" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2187" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2187" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2187" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2187" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2187" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="2188" ht="22.5" customHeight="1">
+      <c r="A2188" s="6">
+        <v>46052.399571898146</v>
+      </c>
+      <c r="B2188" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2188" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2188" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2188" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2188" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2188" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2188" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2188" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2188" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2188" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2188" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2189" ht="22.5" customHeight="1">
+      <c r="A2189" s="6">
+        <v>46052.40138347222</v>
+      </c>
+      <c r="B2189" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2189" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2189" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2189" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2189" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2189" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2189" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2189" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2189" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2189" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2189" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2190" ht="22.5" customHeight="1">
+      <c r="A2190" s="6">
+        <v>46052.403081550925</v>
+      </c>
+      <c r="B2190" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2190" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2190" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2190" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2190" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2190" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2190" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2190" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2190" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2190" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2190" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2191" ht="22.5" customHeight="1">
+      <c r="A2191" s="6">
+        <v>46052.4151271875</v>
+      </c>
+      <c r="B2191" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2191" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2191" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2191" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2191" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2191" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2191" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2191" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2191" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2191" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2191" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2192" ht="22.5" customHeight="1">
+      <c r="A2192" s="6">
+        <v>46052.41942204861</v>
+      </c>
+      <c r="B2192" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2192" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2192" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2192" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2192" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2192" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2192" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2192" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2192" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2192" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2192" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2269">
+  <conditionalFormatting sqref="J1:J2292">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2192</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2212</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23611" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23825" uniqueCount="452">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1520,8 +1520,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2192" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2192"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2212" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2212"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -85051,8 +85051,768 @@
         <v>52</v>
       </c>
     </row>
+    <row r="2193" ht="22.5" customHeight="1">
+      <c r="A2193" s="6">
+        <v>46053.350235081016</v>
+      </c>
+      <c r="B2193" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2193" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2193" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2193" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2193" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2193" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2193" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2193" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2193" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2193" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2193" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2194" ht="22.5" customHeight="1">
+      <c r="A2194" s="6">
+        <v>46053.37613945601</v>
+      </c>
+      <c r="B2194" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2194" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2194" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2194" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2194" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2194" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2194" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2194" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2194" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2195" ht="22.5" customHeight="1">
+      <c r="A2195" s="6">
+        <v>46053.380540983795</v>
+      </c>
+      <c r="B2195" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2195" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2195" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2195" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2195" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2195" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2195" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2195" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2195" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2195" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2195" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2196" ht="22.5" customHeight="1">
+      <c r="A2196" s="6">
+        <v>46053.3811218287</v>
+      </c>
+      <c r="B2196" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2196" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2196" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2196" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2196" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2196" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2196" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2196" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2196" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2196" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2196" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2197" ht="22.5" customHeight="1">
+      <c r="A2197" s="6">
+        <v>46053.38251519676</v>
+      </c>
+      <c r="B2197" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2197" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2197" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2197" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2197" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2197" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2197" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2197" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2197" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2197" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2197" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2198" ht="22.5" customHeight="1">
+      <c r="A2198" s="6">
+        <v>46053.38831983796</v>
+      </c>
+      <c r="B2198" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2198" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2198" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2198" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2198" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2198" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2198" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2198" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2198" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2198" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2198" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2199" ht="22.5" customHeight="1">
+      <c r="A2199" s="6">
+        <v>46053.39220050926</v>
+      </c>
+      <c r="B2199" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2199" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2199" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2199" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2199" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2199" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2199" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2199" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2199" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2199" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L2199" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2200" ht="22.5" customHeight="1">
+      <c r="A2200" s="6">
+        <v>46053.39302682871</v>
+      </c>
+      <c r="B2200" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2200" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2200" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2200" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2200" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2200" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2200" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2200" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2200" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2200" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2200" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2201" ht="22.5" customHeight="1">
+      <c r="A2201" s="6">
+        <v>46053.3930628125</v>
+      </c>
+      <c r="B2201" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2201" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2201" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2201" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2201" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2201" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2201" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2201" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2201" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2202" ht="22.5" customHeight="1">
+      <c r="A2202" s="6">
+        <v>46053.39369375</v>
+      </c>
+      <c r="B2202" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2202" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2202" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2202" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2202" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2202" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2202" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2202" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2202" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2202" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2202" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2203" ht="22.5" customHeight="1">
+      <c r="A2203" s="6">
+        <v>46053.400759780096</v>
+      </c>
+      <c r="B2203" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2203" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2203" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2203" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2203" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2203" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2203" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2203" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2203" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2203" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2203" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2204" ht="22.5" customHeight="1">
+      <c r="A2204" s="6">
+        <v>46053.401943425924</v>
+      </c>
+      <c r="B2204" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2204" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2204" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2204" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2204" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2204" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2204" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2204" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2204" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2204" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2204" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="2205" ht="22.5" customHeight="1">
+      <c r="A2205" s="6">
+        <v>46053.402239629635</v>
+      </c>
+      <c r="B2205" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2205" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2205" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2205" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2205" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2205" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2205" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2205" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2205" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2205" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2205" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2206" ht="22.5" customHeight="1">
+      <c r="A2206" s="6">
+        <v>46053.40437885417</v>
+      </c>
+      <c r="B2206" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2206" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2206" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2206" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2206" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2206" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2206" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2206" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2206" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2206" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2206" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2207" ht="22.5" customHeight="1">
+      <c r="A2207" s="6">
+        <v>46053.40535105324</v>
+      </c>
+      <c r="B2207" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2207" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2207" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2207" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2207" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2207" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2207" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2207" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2207" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2207" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2207" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2208" ht="22.5" customHeight="1">
+      <c r="A2208" s="6">
+        <v>46053.407203043986</v>
+      </c>
+      <c r="B2208" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2208" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2208" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2208" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2208" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2208" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2208" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2208" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2208" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2208" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2208" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2209" ht="22.5" customHeight="1">
+      <c r="A2209" s="6">
+        <v>46053.40753138889</v>
+      </c>
+      <c r="B2209" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2209" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2209" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2209" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2209" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2209" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2209" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2209" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2209" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2209" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2209" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2210" ht="22.5" customHeight="1">
+      <c r="A2210" s="6">
+        <v>46053.41422877315</v>
+      </c>
+      <c r="B2210" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2210" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2210" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2210" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2210" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2210" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2210" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2210" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2210" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2210" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2210" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2211" ht="22.5" customHeight="1">
+      <c r="A2211" s="6">
+        <v>46053.4145819213</v>
+      </c>
+      <c r="B2211" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2211" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2211" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2211" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2211" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2211" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2211" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2211" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2211" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2211" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2211" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2212" ht="22.5" customHeight="1">
+      <c r="A2212" s="6">
+        <v>46053.418677361115</v>
+      </c>
+      <c r="B2212" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2212" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2212" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2212" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2212" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2212" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2212" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2212" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2212" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2212" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L2212" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2292">
+  <conditionalFormatting sqref="J1:J2312">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2212</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2220</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23825" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23909" uniqueCount="452">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1520,8 +1520,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2212" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2212"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2220" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2220"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -85811,8 +85811,312 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2213" ht="22.5" customHeight="1">
+      <c r="A2213" s="6">
+        <v>46053.56641190972</v>
+      </c>
+      <c r="B2213" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2213" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2213" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2213" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2213" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2213" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2213" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2213" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2213" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2213" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2213" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2214" ht="22.5" customHeight="1">
+      <c r="A2214" s="6">
+        <v>46053.56691905092</v>
+      </c>
+      <c r="B2214" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2214" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2214" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2214" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2214" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2214" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2214" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2214" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2214" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2214" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2214" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2215" ht="22.5" customHeight="1">
+      <c r="A2215" s="6">
+        <v>46054.26192577546</v>
+      </c>
+      <c r="B2215" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2215" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2215" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2215" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2215" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2215" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2215" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2215" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2215" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2215" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2215" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2216" ht="22.5" customHeight="1">
+      <c r="A2216" s="6">
+        <v>46054.28946886574</v>
+      </c>
+      <c r="B2216" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2216" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2216" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2216" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2216" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2216" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2216" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2216" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2216" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2216" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2216" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2217" ht="22.5" customHeight="1">
+      <c r="A2217" s="6">
+        <v>46054.317017685185</v>
+      </c>
+      <c r="B2217" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2217" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2217" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2217" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2217" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2217" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2217" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2217" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2217" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2217" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2217" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2218" ht="22.5" customHeight="1">
+      <c r="A2218" s="6">
+        <v>46054.32989825231</v>
+      </c>
+      <c r="B2218" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2218" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2218" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2218" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2218" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2218" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2218" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2218" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2218" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2218" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2218" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2219" ht="22.5" customHeight="1">
+      <c r="A2219" s="6">
+        <v>46054.345442060185</v>
+      </c>
+      <c r="B2219" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2219" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2219" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2219" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2219" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2219" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2219" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2219" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2219" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2219" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2219" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2220" ht="22.5" customHeight="1">
+      <c r="A2220" s="6">
+        <v>46054.35146298612</v>
+      </c>
+      <c r="B2220" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2220" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2220" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2220" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2220" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2220" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2220" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2220" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2220" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2220" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2220" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2312">
+  <conditionalFormatting sqref="J1:J2320">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2220</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2242</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23909" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24144" uniqueCount="454">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1371,6 +1371,12 @@
   <si>
     <t>9 Isquiotibial izquierdo, 14 pantorrilla derecha, 22 gluteo izquierdo</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 7 tobillo derecho, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
 </sst>
 </file>
 
@@ -1520,8 +1526,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2220" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2220"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2242" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2242"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -86115,8 +86121,844 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="2221" ht="22.5" customHeight="1">
+      <c r="A2221" s="6">
+        <v>46055.32678733797</v>
+      </c>
+      <c r="B2221" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2221" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2221" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2221" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2221" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2221" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2221" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2221" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2221" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2221" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2221" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2222" ht="22.5" customHeight="1">
+      <c r="A2222" s="6">
+        <v>46055.33291118055</v>
+      </c>
+      <c r="B2222" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2222" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2222" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2222" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2222" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2222" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2222" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2222" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2222" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2222" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2222" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2223" ht="22.5" customHeight="1">
+      <c r="A2223" s="6">
+        <v>46055.37553384259</v>
+      </c>
+      <c r="B2223" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2223" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2223" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2223" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2223" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2223" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2223" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2223" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2223" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2223" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2223" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2224" ht="22.5" customHeight="1">
+      <c r="A2224" s="6">
+        <v>46055.382990659724</v>
+      </c>
+      <c r="B2224" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2224" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2224" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2224" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2224" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2224" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2224" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2224" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2224" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2224" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2224" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2225" ht="22.5" customHeight="1">
+      <c r="A2225" s="6">
+        <v>46055.38628914352</v>
+      </c>
+      <c r="B2225" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2225" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2225" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2225" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2225" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2225" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2225" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2225" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2225" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2225" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L2225" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2226" ht="22.5" customHeight="1">
+      <c r="A2226" s="6">
+        <v>46055.386702013886</v>
+      </c>
+      <c r="B2226" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2226" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2226" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2226" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2226" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2226" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2226" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2226" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2226" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2226" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2226" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2227" ht="22.5" customHeight="1">
+      <c r="A2227" s="6">
+        <v>46055.39192533564</v>
+      </c>
+      <c r="B2227" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2227" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2227" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2227" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2227" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2227" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2227" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2227" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2227" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2227" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2227" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2228" ht="22.5" customHeight="1">
+      <c r="A2228" s="6">
+        <v>46055.39945175926</v>
+      </c>
+      <c r="B2228" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2228" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2228" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2228" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2228" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2228" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2228" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2228" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2228" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2228" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2228" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2229" ht="22.5" customHeight="1">
+      <c r="A2229" s="6">
+        <v>46055.40386344907</v>
+      </c>
+      <c r="B2229" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2229" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2229" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2229" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2229" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2229" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2229" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2229" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2229" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2229" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2229" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2230" ht="22.5" customHeight="1">
+      <c r="A2230" s="6">
+        <v>46055.404184733794</v>
+      </c>
+      <c r="B2230" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2230" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2230" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2230" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2230" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2230" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2230" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2230" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2230" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2230" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2230" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2231" ht="22.5" customHeight="1">
+      <c r="A2231" s="6">
+        <v>46055.40458592593</v>
+      </c>
+      <c r="B2231" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2231" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2231" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2231" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2231" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2231" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2231" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2231" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2231" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2231" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2231" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2232" ht="22.5" customHeight="1">
+      <c r="A2232" s="6">
+        <v>46055.40460542824</v>
+      </c>
+      <c r="B2232" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2232" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2232" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2232" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2232" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2232" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2232" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2232" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2232" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2232" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2232" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2233" ht="22.5" customHeight="1">
+      <c r="A2233" s="6">
+        <v>46055.404687291666</v>
+      </c>
+      <c r="B2233" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2233" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2233" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2233" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2233" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2233" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2233" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2233" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2233" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2233" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2233" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2234" ht="22.5" customHeight="1">
+      <c r="A2234" s="6">
+        <v>46055.40541233796</v>
+      </c>
+      <c r="B2234" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2234" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2234" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2234" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2234" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2234" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2234" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2234" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2234" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2234" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2234" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2235" ht="22.5" customHeight="1">
+      <c r="A2235" s="6">
+        <v>46055.40940258102</v>
+      </c>
+      <c r="B2235" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2235" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2235" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2235" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2235" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2235" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2235" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2235" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2235" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2235" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2235" s="7">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="2236" ht="22.5" customHeight="1">
+      <c r="A2236" s="6">
+        <v>46055.410755694444</v>
+      </c>
+      <c r="B2236" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2236" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2236" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2236" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2236" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2236" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2236" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2236" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2236" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2236" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2236" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2237" ht="22.5" customHeight="1">
+      <c r="A2237" s="6">
+        <v>46055.413218761576</v>
+      </c>
+      <c r="B2237" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2237" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2237" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2237" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2237" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2237" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2237" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2237" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2237" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2237" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2237" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2238" ht="22.5" customHeight="1">
+      <c r="A2238" s="6">
+        <v>46055.41505701389</v>
+      </c>
+      <c r="B2238" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2238" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2238" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2238" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2238" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2238" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2238" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2238" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2238" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2238" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2238" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2239" ht="22.5" customHeight="1">
+      <c r="A2239" s="6">
+        <v>46055.41675193287</v>
+      </c>
+      <c r="B2239" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2239" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2239" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2239" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2239" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2239" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2239" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2239" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2239" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2239" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2239" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2240" ht="22.5" customHeight="1">
+      <c r="A2240" s="6">
+        <v>46055.42205680556</v>
+      </c>
+      <c r="B2240" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2240" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2240" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2240" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2240" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2240" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2240" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2240" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2240" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2240" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2240" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2241" ht="22.5" customHeight="1">
+      <c r="A2241" s="6">
+        <v>46055.422953194444</v>
+      </c>
+      <c r="B2241" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2241" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2241" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2241" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2241" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2241" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2241" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2241" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2241" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2241" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2241" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2242" ht="22.5" customHeight="1">
+      <c r="A2242" s="6">
+        <v>46055.423532719906</v>
+      </c>
+      <c r="B2242" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2242" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2242" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2242" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2242" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2242" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2242" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2242" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2242" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2242" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2242" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2320">
+  <conditionalFormatting sqref="J1:J2342">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2242</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2266</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24144" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24400" uniqueCount="454">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1526,8 +1526,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2242" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2242"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2266" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2266"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -86957,8 +86957,920 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2243" ht="22.5" customHeight="1">
+      <c r="A2243" s="6">
+        <v>46056.27974293982</v>
+      </c>
+      <c r="B2243" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2243" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2243" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2243" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2243" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2243" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2243" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2243" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2243" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2243" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2243" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2244" ht="22.5" customHeight="1">
+      <c r="A2244" s="6">
+        <v>46056.289265520834</v>
+      </c>
+      <c r="B2244" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2244" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2244" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2244" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2244" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2244" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2244" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2244" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2244" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2244" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2244" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2245" ht="22.5" customHeight="1">
+      <c r="A2245" s="6">
+        <v>46056.30005938657</v>
+      </c>
+      <c r="B2245" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2245" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2245" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2245" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2245" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2245" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2245" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2245" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2245" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2245" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2245" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2246" ht="22.5" customHeight="1">
+      <c r="A2246" s="6">
+        <v>46056.30288084491</v>
+      </c>
+      <c r="B2246" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2246" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2246" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2246" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2246" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2246" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2246" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2246" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2246" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2246" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2246" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2247" ht="22.5" customHeight="1">
+      <c r="A2247" s="6">
+        <v>46056.303849710646</v>
+      </c>
+      <c r="B2247" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2247" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2247" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2247" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2247" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2247" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2247" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2247" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2247" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2247" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2247" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2248" ht="22.5" customHeight="1">
+      <c r="A2248" s="6">
+        <v>46056.30930690972</v>
+      </c>
+      <c r="B2248" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2248" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2248" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2248" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2248" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2248" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2248" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2248" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2248" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2248" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2248" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2249" ht="22.5" customHeight="1">
+      <c r="A2249" s="6">
+        <v>46056.31582386574</v>
+      </c>
+      <c r="B2249" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2249" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2249" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2249" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2249" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2249" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2249" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2249" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2249" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2249" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2249" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2250" ht="22.5" customHeight="1">
+      <c r="A2250" s="6">
+        <v>46056.320844664355</v>
+      </c>
+      <c r="B2250" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2250" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2250" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2250" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2250" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2250" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2250" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2250" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2250" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2250" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2250" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2251" ht="22.5" customHeight="1">
+      <c r="A2251" s="6">
+        <v>46056.32135075232</v>
+      </c>
+      <c r="B2251" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2251" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2251" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2251" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2251" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2251" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2251" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2251" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2251" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2251" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2251" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2252" ht="22.5" customHeight="1">
+      <c r="A2252" s="6">
+        <v>46056.32203866898</v>
+      </c>
+      <c r="B2252" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2252" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2252" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2252" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2252" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2252" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2252" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2252" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2252" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2252" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2252" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2253" ht="22.5" customHeight="1">
+      <c r="A2253" s="6">
+        <v>46056.32680715278</v>
+      </c>
+      <c r="B2253" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2253" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2253" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2253" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2253" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2253" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2253" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2253" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2253" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2253" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L2253" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2254" ht="22.5" customHeight="1">
+      <c r="A2254" s="6">
+        <v>46056.32684033565</v>
+      </c>
+      <c r="B2254" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2254" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2254" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2254" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2254" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2254" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2254" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2254" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2254" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2254" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2254" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2255" ht="22.5" customHeight="1">
+      <c r="A2255" s="6">
+        <v>46056.3285578125</v>
+      </c>
+      <c r="B2255" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2255" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2255" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2255" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2255" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2255" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2255" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2255" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2255" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2255" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2255" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2256" ht="22.5" customHeight="1">
+      <c r="A2256" s="6">
+        <v>46056.32878203704</v>
+      </c>
+      <c r="B2256" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2256" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2256" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2256" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2256" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2256" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2256" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2256" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2256" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2256" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2256" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2257" ht="22.5" customHeight="1">
+      <c r="A2257" s="6">
+        <v>46056.32897386574</v>
+      </c>
+      <c r="B2257" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2257" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2257" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2257" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2257" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2257" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2257" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2257" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2257" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2257" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2257" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2258" ht="22.5" customHeight="1">
+      <c r="A2258" s="6">
+        <v>46056.32936831018</v>
+      </c>
+      <c r="B2258" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2258" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2258" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2258" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2258" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2258" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2258" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2258" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2258" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2258" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2258" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2259" ht="22.5" customHeight="1">
+      <c r="A2259" s="6">
+        <v>46056.33067325232</v>
+      </c>
+      <c r="B2259" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2259" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2259" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2259" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2259" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2259" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2259" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2259" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2259" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2259" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2259" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2260" ht="22.5" customHeight="1">
+      <c r="A2260" s="6">
+        <v>46056.33104996527</v>
+      </c>
+      <c r="B2260" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2260" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2260" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2260" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2260" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2260" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2260" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2260" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2260" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2260" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2260" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2261" ht="22.5" customHeight="1">
+      <c r="A2261" s="6">
+        <v>46056.33115549768</v>
+      </c>
+      <c r="B2261" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2261" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2261" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2261" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2261" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2261" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2261" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2261" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2261" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2261" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2261" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2262" ht="22.5" customHeight="1">
+      <c r="A2262" s="6">
+        <v>46056.33189179398</v>
+      </c>
+      <c r="B2262" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2262" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2262" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2262" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2262" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2262" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2262" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2262" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2262" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2262" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2262" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2263" ht="22.5" customHeight="1">
+      <c r="A2263" s="6">
+        <v>46056.331989375</v>
+      </c>
+      <c r="B2263" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2263" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2263" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2263" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2263" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2263" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2263" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2263" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2263" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2263" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2263" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2264" ht="22.5" customHeight="1">
+      <c r="A2264" s="6">
+        <v>46056.33257295139</v>
+      </c>
+      <c r="B2264" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2264" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2264" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2264" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2264" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2264" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2264" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2264" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2264" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2264" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2264" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2265" ht="22.5" customHeight="1">
+      <c r="A2265" s="6">
+        <v>46056.33680804398</v>
+      </c>
+      <c r="B2265" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2265" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2265" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2265" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2265" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2265" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2265" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2265" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2265" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2265" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2265" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2266" ht="22.5" customHeight="1">
+      <c r="A2266" s="6">
+        <v>46056.33946231482</v>
+      </c>
+      <c r="B2266" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2266" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2266" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2266" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2266" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2266" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2266" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2266" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2266" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2266" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2266" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2342">
+  <conditionalFormatting sqref="J1:J2366">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2266</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2289</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24400" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24643" uniqueCount="455">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1377,6 +1377,9 @@
   <si>
     <t xml:space="preserve">    </t>
   </si>
+  <si>
+    <t>7 tobillo derecho, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1526,8 +1529,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2266" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2266"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2289" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2289"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -87869,8 +87872,882 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="2267" ht="22.5" customHeight="1">
+      <c r="A2267" s="6">
+        <v>46057.258228148145</v>
+      </c>
+      <c r="B2267" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2267" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2267" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2267" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2267" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2267" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2267" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2267" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2267" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2267" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2267" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2268" ht="22.5" customHeight="1">
+      <c r="A2268" s="6">
+        <v>46057.28314332176</v>
+      </c>
+      <c r="B2268" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2268" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2268" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2268" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2268" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2268" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2268" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2268" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2268" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2268" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2268" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2269" ht="22.5" customHeight="1">
+      <c r="A2269" s="6">
+        <v>46057.29858407407</v>
+      </c>
+      <c r="B2269" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2269" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2269" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2269" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2269" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2269" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2269" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2269" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2269" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2269" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2269" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2270" ht="22.5" customHeight="1">
+      <c r="A2270" s="6">
+        <v>46057.3127459838</v>
+      </c>
+      <c r="B2270" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2270" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2270" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2270" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2270" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2270" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2270" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2270" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2270" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2270" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2270" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2271" ht="22.5" customHeight="1">
+      <c r="A2271" s="6">
+        <v>46057.315039085646</v>
+      </c>
+      <c r="B2271" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2271" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2271" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2271" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2271" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2271" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2271" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2271" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2271" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2271" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2271" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2272" ht="22.5" customHeight="1">
+      <c r="A2272" s="6">
+        <v>46057.31529646991</v>
+      </c>
+      <c r="B2272" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2272" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2272" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2272" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2272" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2272" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2272" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2272" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2272" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2272" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2272" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2273" ht="22.5" customHeight="1">
+      <c r="A2273" s="6">
+        <v>46057.31555101852</v>
+      </c>
+      <c r="B2273" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2273" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2273" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2273" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2273" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2273" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2273" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2273" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2273" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2273" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2273" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2274" ht="22.5" customHeight="1">
+      <c r="A2274" s="6">
+        <v>46057.31555457176</v>
+      </c>
+      <c r="B2274" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2274" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2274" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2274" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2274" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2274" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2274" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2274" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2274" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2274" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2274" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2275" ht="22.5" customHeight="1">
+      <c r="A2275" s="6">
+        <v>46057.315582407406</v>
+      </c>
+      <c r="B2275" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2275" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2275" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2275" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2275" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2275" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2275" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2275" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2275" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2275" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2275" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2276" ht="22.5" customHeight="1">
+      <c r="A2276" s="6">
+        <v>46057.316014317126</v>
+      </c>
+      <c r="B2276" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2276" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2276" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2276" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2276" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2276" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2276" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2276" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2276" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2276" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2276" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2277" ht="22.5" customHeight="1">
+      <c r="A2277" s="6">
+        <v>46057.31688042824</v>
+      </c>
+      <c r="B2277" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2277" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2277" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2277" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2277" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2277" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2277" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2277" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2277" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2277" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2277" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2278" ht="22.5" customHeight="1">
+      <c r="A2278" s="6">
+        <v>46057.3185566551</v>
+      </c>
+      <c r="B2278" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2278" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2278" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2278" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2278" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2278" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2278" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2278" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2278" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2278" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2278" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2279" ht="22.5" customHeight="1">
+      <c r="A2279" s="6">
+        <v>46057.319181666666</v>
+      </c>
+      <c r="B2279" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2279" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2279" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2279" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2279" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2279" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2279" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2279" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2279" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2279" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2279" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2280" ht="22.5" customHeight="1">
+      <c r="A2280" s="6">
+        <v>46057.31940013889</v>
+      </c>
+      <c r="B2280" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2280" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2280" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2280" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2280" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2280" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2280" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2280" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2280" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2280" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2280" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2281" ht="22.5" customHeight="1">
+      <c r="A2281" s="6">
+        <v>46057.32090612268</v>
+      </c>
+      <c r="B2281" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2281" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2281" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2281" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2281" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2281" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2281" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2281" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2281" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2281" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2281" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="2282" ht="22.5" customHeight="1">
+      <c r="A2282" s="6">
+        <v>46057.321544189814</v>
+      </c>
+      <c r="B2282" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2282" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2282" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2282" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2282" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2282" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2282" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2282" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2282" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2282" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L2282" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2283" ht="22.5" customHeight="1">
+      <c r="A2283" s="6">
+        <v>46057.32202386574</v>
+      </c>
+      <c r="B2283" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2283" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2283" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2283" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2283" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2283" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2283" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2283" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2283" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2283" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2283" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2284" ht="22.5" customHeight="1">
+      <c r="A2284" s="6">
+        <v>46057.32366833334</v>
+      </c>
+      <c r="B2284" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2284" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2284" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2284" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2284" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2284" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2284" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2284" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2284" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2284" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2284" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2285" ht="22.5" customHeight="1">
+      <c r="A2285" s="6">
+        <v>46057.32602886574</v>
+      </c>
+      <c r="B2285" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2285" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2285" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2285" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2285" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2285" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2285" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2285" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2285" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2285" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2285" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2286" ht="22.5" customHeight="1">
+      <c r="A2286" s="6">
+        <v>46057.329799768515</v>
+      </c>
+      <c r="B2286" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2286" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2286" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2286" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2286" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2286" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2286" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2286" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2286" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2286" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2286" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2287" ht="22.5" customHeight="1">
+      <c r="A2287" s="6">
+        <v>46057.33032129629</v>
+      </c>
+      <c r="B2287" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2287" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2287" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2287" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2287" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2287" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2287" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2287" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2287" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2287" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2287" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2288" ht="22.5" customHeight="1">
+      <c r="A2288" s="6">
+        <v>46057.33069315972</v>
+      </c>
+      <c r="B2288" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2288" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2288" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2288" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2288" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2288" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2288" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2288" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2288" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2288" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2288" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2289" ht="22.5" customHeight="1">
+      <c r="A2289" s="6">
+        <v>46057.33221219908</v>
+      </c>
+      <c r="B2289" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2289" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2289" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2289" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2289" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2289" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2289" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2289" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2289" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2289" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2289" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2366">
+  <conditionalFormatting sqref="J1:J2389">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2289</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2292</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24643" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24674" uniqueCount="455">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1529,8 +1529,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2289" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2289"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2292" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2292"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -88746,8 +88746,122 @@
         <v>115</v>
       </c>
     </row>
+    <row r="2290" ht="22.5" customHeight="1">
+      <c r="A2290" s="6">
+        <v>46058.36590597223</v>
+      </c>
+      <c r="B2290" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2290" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2290" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2290" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2290" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2290" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2290" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2290" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2290" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2290" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2290" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2291" ht="22.5" customHeight="1">
+      <c r="A2291" s="6">
+        <v>46058.369350636574</v>
+      </c>
+      <c r="B2291" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2291" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2291" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2291" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2291" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2291" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2291" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2291" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2291" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2291" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2291" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2292" ht="22.5" customHeight="1">
+      <c r="A2292" s="6">
+        <v>46058.37648990741</v>
+      </c>
+      <c r="B2292" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2292" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2292" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2292" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2292" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2292" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2292" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2292" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2292" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2292" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2292" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2389">
+  <conditionalFormatting sqref="J1:J2392">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2292</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2302</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24674" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24780" uniqueCount="456">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1380,6 +1380,9 @@
   <si>
     <t>7 tobillo derecho, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 2 muslo derecho, 7 tobillo derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1529,8 +1532,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2292" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2292"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2302" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2302"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -88860,8 +88863,388 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="2293" ht="22.5" customHeight="1">
+      <c r="A2293" s="6">
+        <v>46058.70364767361</v>
+      </c>
+      <c r="B2293" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2293" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2293" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2293" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2293" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2293" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2293" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2293" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2293" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2293" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2293" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2294" ht="22.5" customHeight="1">
+      <c r="A2294" s="6">
+        <v>46059.34913290509</v>
+      </c>
+      <c r="B2294" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2294" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2294" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2294" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2294" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2294" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2294" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2294" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2294" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2294" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2294" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2295" ht="22.5" customHeight="1">
+      <c r="A2295" s="6">
+        <v>46059.34944554398</v>
+      </c>
+      <c r="B2295" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2295" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2295" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2295" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2295" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2295" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2295" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2295" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2295" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2295" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2295" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2296" ht="22.5" customHeight="1">
+      <c r="A2296" s="6">
+        <v>46059.36029265047</v>
+      </c>
+      <c r="B2296" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2296" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2296" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2296" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2296" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2296" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2296" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2296" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2296" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2296" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2296" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2297" ht="22.5" customHeight="1">
+      <c r="A2297" s="6">
+        <v>46059.36079018519</v>
+      </c>
+      <c r="B2297" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2297" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2297" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2297" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2297" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2297" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2297" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2297" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2297" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2297" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2297" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2298" ht="22.5" customHeight="1">
+      <c r="A2298" s="6">
+        <v>46059.37633479167</v>
+      </c>
+      <c r="B2298" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2298" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2298" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2298" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2298" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2298" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2298" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2298" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2298" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2298" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2298" s="7">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="2299" ht="22.5" customHeight="1">
+      <c r="A2299" s="6">
+        <v>46059.378226562505</v>
+      </c>
+      <c r="B2299" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2299" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2299" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2299" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2299" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2299" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2299" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2299" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2299" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2299" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L2299" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2300" ht="22.5" customHeight="1">
+      <c r="A2300" s="6">
+        <v>46059.384740775466</v>
+      </c>
+      <c r="B2300" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2300" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2300" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2300" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2300" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2300" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2300" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2300" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2300" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2300" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2300" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2301" ht="22.5" customHeight="1">
+      <c r="A2301" s="6">
+        <v>46059.401673761575</v>
+      </c>
+      <c r="B2301" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2301" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2301" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2301" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2301" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2301" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2301" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2301" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2301" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2301" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2301" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2302" ht="22.5" customHeight="1">
+      <c r="A2302" s="6">
+        <v>46059.444488090274</v>
+      </c>
+      <c r="B2302" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2302" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2302" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2302" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2302" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2302" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2302" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2302" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2302" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2302" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2302" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2392">
+  <conditionalFormatting sqref="J1:J2402">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2302</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2327</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24780" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25046" uniqueCount="457">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1383,6 +1383,9 @@
   <si>
     <t>1 muslo izquierdo, 2 muslo derecho, 7 tobillo derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>7 tobillo derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
+  </si>
 </sst>
 </file>
 
@@ -1532,8 +1535,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2302" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2302"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2327" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2327"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -89243,8 +89246,958 @@
         <v>116</v>
       </c>
     </row>
+    <row r="2303" ht="22.5" customHeight="1">
+      <c r="A2303" s="6">
+        <v>46059.668532048614</v>
+      </c>
+      <c r="B2303" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2303" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2303" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2303" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2303" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2303" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2303" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2303" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2303" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2303" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2303" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2304" ht="22.5" customHeight="1">
+      <c r="A2304" s="6">
+        <v>46060.32088483796</v>
+      </c>
+      <c r="B2304" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2304" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2304" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2304" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2304" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2304" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2304" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2304" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2304" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2304" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2304" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2305" ht="22.5" customHeight="1">
+      <c r="A2305" s="6">
+        <v>46060.37851847222</v>
+      </c>
+      <c r="B2305" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2305" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2305" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2305" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2305" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2305" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2305" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2305" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2305" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2305" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2305" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2306" ht="22.5" customHeight="1">
+      <c r="A2306" s="6">
+        <v>46060.37857825232</v>
+      </c>
+      <c r="B2306" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2306" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2306" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2306" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2306" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2306" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2306" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2306" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2306" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2306" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2306" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2307" ht="22.5" customHeight="1">
+      <c r="A2307" s="6">
+        <v>46060.379283726856</v>
+      </c>
+      <c r="B2307" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2307" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2307" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2307" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2307" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2307" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2307" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2307" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2307" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2307" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2307" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2308" ht="22.5" customHeight="1">
+      <c r="A2308" s="6">
+        <v>46060.380023171296</v>
+      </c>
+      <c r="B2308" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2308" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2308" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2308" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2308" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2308" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2308" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2308" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2308" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2308" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2308" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2309" ht="22.5" customHeight="1">
+      <c r="A2309" s="6">
+        <v>46060.38050612269</v>
+      </c>
+      <c r="B2309" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2309" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2309" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2309" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2309" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2309" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2309" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2309" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2309" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2309" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2309" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2310" ht="22.5" customHeight="1">
+      <c r="A2310" s="6">
+        <v>46060.38064990741</v>
+      </c>
+      <c r="B2310" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2310" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2310" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2310" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2310" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2310" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2310" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2310" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2310" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2310" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2310" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2311" ht="22.5" customHeight="1">
+      <c r="A2311" s="6">
+        <v>46060.38088413194</v>
+      </c>
+      <c r="B2311" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2311" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2311" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2311" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2311" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2311" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2311" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2311" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2311" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2311" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2311" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2312" ht="22.5" customHeight="1">
+      <c r="A2312" s="6">
+        <v>46060.381948842594</v>
+      </c>
+      <c r="B2312" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2312" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2312" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2312" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2312" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2312" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2312" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2312" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2312" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2312" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2312" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2313" ht="22.5" customHeight="1">
+      <c r="A2313" s="6">
+        <v>46060.382588356486</v>
+      </c>
+      <c r="B2313" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2313" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2313" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2313" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2313" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2313" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2313" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2313" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2313" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2313" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2313" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2314" ht="22.5" customHeight="1">
+      <c r="A2314" s="6">
+        <v>46060.38909582176</v>
+      </c>
+      <c r="B2314" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2314" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2314" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2314" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2314" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2314" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2314" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2314" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2314" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2314" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2314" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2315" ht="22.5" customHeight="1">
+      <c r="A2315" s="6">
+        <v>46060.389099733795</v>
+      </c>
+      <c r="B2315" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2315" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2315" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2315" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2315" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2315" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2315" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2315" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2315" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2315" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2315" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2316" ht="22.5" customHeight="1">
+      <c r="A2316" s="6">
+        <v>46060.38922420139</v>
+      </c>
+      <c r="B2316" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2316" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2316" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2316" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2316" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2316" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2316" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2316" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2316" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2316" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2316" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2317" ht="22.5" customHeight="1">
+      <c r="A2317" s="6">
+        <v>46060.39196403935</v>
+      </c>
+      <c r="B2317" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2317" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2317" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2317" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2317" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2317" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2317" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2317" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2317" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2317" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2317" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2318" ht="22.5" customHeight="1">
+      <c r="A2318" s="6">
+        <v>46060.396897962964</v>
+      </c>
+      <c r="B2318" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2318" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2318" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2318" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2318" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2318" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2318" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2318" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2318" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2318" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2318" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2319" ht="22.5" customHeight="1">
+      <c r="A2319" s="6">
+        <v>46060.397175879625</v>
+      </c>
+      <c r="B2319" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2319" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2319" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2319" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2319" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2319" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2319" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2319" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2319" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2319" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2319" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2320" ht="22.5" customHeight="1">
+      <c r="A2320" s="6">
+        <v>46060.397932708336</v>
+      </c>
+      <c r="B2320" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2320" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2320" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2320" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2320" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2320" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2320" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2320" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2320" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2320" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2320" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2321" ht="22.5" customHeight="1">
+      <c r="A2321" s="6">
+        <v>46060.40312125</v>
+      </c>
+      <c r="B2321" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2321" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2321" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2321" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2321" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2321" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2321" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2321" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2321" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2321" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2321" s="7">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="2322" ht="22.5" customHeight="1">
+      <c r="A2322" s="6">
+        <v>46060.40869270833</v>
+      </c>
+      <c r="B2322" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2322" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2322" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2322" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2322" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2322" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2322" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2322" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2322" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2322" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2322" s="7">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="2323" ht="22.5" customHeight="1">
+      <c r="A2323" s="6">
+        <v>46060.414329189814</v>
+      </c>
+      <c r="B2323" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2323" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2323" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2323" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2323" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2323" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2323" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2323" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2323" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2323" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2323" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2324" ht="22.5" customHeight="1">
+      <c r="A2324" s="6">
+        <v>46060.41715311343</v>
+      </c>
+      <c r="B2324" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2324" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2324" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2324" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2324" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2324" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2324" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2324" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2324" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2324" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2324" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2325" ht="22.5" customHeight="1">
+      <c r="A2325" s="6">
+        <v>46060.4282683912</v>
+      </c>
+      <c r="B2325" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2325" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2325" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2325" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2325" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2325" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2325" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2325" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2325" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2325" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L2325" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2326" ht="22.5" customHeight="1">
+      <c r="A2326" s="6">
+        <v>46060.43194203704</v>
+      </c>
+      <c r="B2326" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2326" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2326" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2326" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2326" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2326" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2326" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2326" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2326" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2326" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2326" s="7">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="2327" ht="22.5" customHeight="1">
+      <c r="A2327" s="6">
+        <v>46060.44331673611</v>
+      </c>
+      <c r="B2327" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2327" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2327" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2327" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2327" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2327" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2327" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2327" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2327" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2327" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2327" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2402">
+  <conditionalFormatting sqref="J1:J2427">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2327</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2349</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25046" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25283" uniqueCount="458">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1386,6 +1386,9 @@
   <si>
     <t>7 tobillo derecho, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
   </si>
+  <si>
+    <t>Ma</t>
+  </si>
 </sst>
 </file>
 
@@ -1535,8 +1538,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2327" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2327"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2349" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2349"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -90196,8 +90199,844 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="2328" ht="22.5" customHeight="1">
+      <c r="A2328" s="6">
+        <v>46061.32680538195</v>
+      </c>
+      <c r="B2328" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2328" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2328" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2328" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2328" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2328" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2328" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2328" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2328" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2328" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2328" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2329" ht="22.5" customHeight="1">
+      <c r="A2329" s="6">
+        <v>46061.35125814815</v>
+      </c>
+      <c r="B2329" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2329" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2329" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2329" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2329" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2329" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2329" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2329" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2329" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2329" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2329" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2330" ht="22.5" customHeight="1">
+      <c r="A2330" s="6">
+        <v>46061.35136223379</v>
+      </c>
+      <c r="B2330" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2330" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2330" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2330" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2330" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2330" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2330" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2330" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2330" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2330" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2330" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2331" ht="22.5" customHeight="1">
+      <c r="A2331" s="6">
+        <v>46061.35239061342</v>
+      </c>
+      <c r="B2331" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2331" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2331" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2331" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2331" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2331" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2331" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2331" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2331" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2331" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2331" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2332" ht="22.5" customHeight="1">
+      <c r="A2332" s="6">
+        <v>46061.354439965275</v>
+      </c>
+      <c r="B2332" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2332" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2332" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2332" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2332" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2332" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2332" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2332" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2332" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2332" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2332" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2333" ht="22.5" customHeight="1">
+      <c r="A2333" s="6">
+        <v>46061.35969509259</v>
+      </c>
+      <c r="B2333" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2333" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2333" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2333" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2333" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2333" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2333" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2333" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2333" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2333" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2333" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2334" ht="22.5" customHeight="1">
+      <c r="A2334" s="6">
+        <v>46061.360111145834</v>
+      </c>
+      <c r="B2334" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2334" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2334" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2334" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2334" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2334" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2334" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2334" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2334" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2334" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2334" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2335" ht="22.5" customHeight="1">
+      <c r="A2335" s="6">
+        <v>46061.36013534722</v>
+      </c>
+      <c r="B2335" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2335" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2335" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2335" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2335" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2335" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2335" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2335" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2335" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2335" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2335" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2336" ht="22.5" customHeight="1">
+      <c r="A2336" s="6">
+        <v>46061.36024922454</v>
+      </c>
+      <c r="B2336" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2336" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2336" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2336" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2336" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2336" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2336" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2336" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2336" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2336" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2336" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2337" ht="22.5" customHeight="1">
+      <c r="A2337" s="6">
+        <v>46061.36072324074</v>
+      </c>
+      <c r="B2337" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2337" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2337" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2337" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2337" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2337" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2337" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2337" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2337" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2337" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2337" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2338" ht="22.5" customHeight="1">
+      <c r="A2338" s="6">
+        <v>46061.36243216435</v>
+      </c>
+      <c r="B2338" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2338" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2338" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2338" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2338" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2338" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2338" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2338" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2338" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2338" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2338" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2339" ht="22.5" customHeight="1">
+      <c r="A2339" s="6">
+        <v>46061.362556203705</v>
+      </c>
+      <c r="B2339" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2339" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2339" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2339" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2339" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2339" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2339" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2339" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2339" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2339" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2339" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2340" ht="22.5" customHeight="1">
+      <c r="A2340" s="6">
+        <v>46061.365628506945</v>
+      </c>
+      <c r="B2340" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2340" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2340" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2340" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2340" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2340" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2340" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2340" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2340" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2340" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2340" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2341" ht="22.5" customHeight="1">
+      <c r="A2341" s="6">
+        <v>46061.368897106484</v>
+      </c>
+      <c r="B2341" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2341" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2341" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2341" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2341" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2341" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2341" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2341" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2341" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2341" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2341" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2342" ht="22.5" customHeight="1">
+      <c r="A2342" s="6">
+        <v>46061.36975140046</v>
+      </c>
+      <c r="B2342" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2342" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2342" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2342" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2342" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2342" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2342" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2342" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2342" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2342" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2342" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2343" ht="22.5" customHeight="1">
+      <c r="A2343" s="6">
+        <v>46061.37155119213</v>
+      </c>
+      <c r="B2343" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2343" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2343" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2343" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2343" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2343" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2343" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2343" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2343" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2343" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L2343" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2344" ht="22.5" customHeight="1">
+      <c r="A2344" s="6">
+        <v>46061.37904231482</v>
+      </c>
+      <c r="B2344" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2344" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2344" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2344" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2344" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2344" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2344" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2344" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2344" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2344" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2344" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2345" ht="22.5" customHeight="1">
+      <c r="A2345" s="6">
+        <v>46061.38032239584</v>
+      </c>
+      <c r="B2345" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2345" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2345" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2345" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2345" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2345" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2345" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2345" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2345" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2345" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2345" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2346" ht="22.5" customHeight="1">
+      <c r="A2346" s="6">
+        <v>46061.38555377314</v>
+      </c>
+      <c r="B2346" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2346" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2346" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2346" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2346" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2346" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2346" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2346" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2346" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2346" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2346" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2347" ht="22.5" customHeight="1">
+      <c r="A2347" s="6">
+        <v>46061.38856527778</v>
+      </c>
+      <c r="B2347" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2347" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2347" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2347" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2347" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2347" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2347" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2347" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2347" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2347" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2347" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2348" ht="22.5" customHeight="1">
+      <c r="A2348" s="6">
+        <v>46061.389407696755</v>
+      </c>
+      <c r="B2348" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2348" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2348" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2348" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2348" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2348" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2348" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2348" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2348" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2348" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2348" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2349" ht="22.5" customHeight="1">
+      <c r="A2349" s="6">
+        <v>46061.39260517361</v>
+      </c>
+      <c r="B2349" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2349" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2349" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2349" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2349" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2349" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2349" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2349" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2349" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2349" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2349" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2427">
+  <conditionalFormatting sqref="J1:J2449">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2349</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2353</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25283" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25324" uniqueCount="458">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1538,8 +1538,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2349" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2349"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2353" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2353"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -91035,8 +91035,160 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="2350" ht="22.5" customHeight="1">
+      <c r="A2350" s="6">
+        <v>46062.30405734954</v>
+      </c>
+      <c r="B2350" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2350" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2350" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2350" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2350" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2350" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2350" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2350" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2350" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2350" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2350" s="7">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2351" ht="22.5" customHeight="1">
+      <c r="A2351" s="6">
+        <v>46062.35501478009</v>
+      </c>
+      <c r="B2351" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2351" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2351" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2351" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2351" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2351" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2351" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2351" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2351" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2351" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2351" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2352" ht="22.5" customHeight="1">
+      <c r="A2352" s="6">
+        <v>46062.37719621528</v>
+      </c>
+      <c r="B2352" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2352" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2352" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2352" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2352" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2352" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2352" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2352" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2352" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2352" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2352" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2353" ht="22.5" customHeight="1">
+      <c r="A2353" s="6">
+        <v>46062.37775940972</v>
+      </c>
+      <c r="B2353" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2353" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2353" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2353" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2353" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2353" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2353" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2353" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2353" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2353" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2353" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2449">
+  <conditionalFormatting sqref="J1:J2453">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2353</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2354</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25324" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25334" uniqueCount="458">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1538,8 +1538,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2353" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2353"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2354" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2354"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -91187,8 +91187,46 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="2354" ht="22.5" customHeight="1">
+      <c r="A2354" s="6">
+        <v>46063.41586462963</v>
+      </c>
+      <c r="B2354" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2354" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2354" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2354" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2354" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2354" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2354" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2354" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2354" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2354" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2354" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2453">
+  <conditionalFormatting sqref="J1:J2454">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2354</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2375</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25334" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25561" uniqueCount="461">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1389,6 +1389,15 @@
   <si>
     <t>Ma</t>
   </si>
+  <si>
+    <t>12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha, 18 aductor derecho, 23 gluteo derecho</t>
+  </si>
+  <si>
+    <t>5 espinilla derecha, 11 parte trasera de la rodilla izquierda</t>
+  </si>
+  <si>
+    <t>Tercero</t>
+  </si>
 </sst>
 </file>
 
@@ -1538,8 +1547,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2354" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2354"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2375" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2375"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -91225,8 +91234,806 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="2355" ht="22.5" customHeight="1">
+      <c r="A2355" s="6">
+        <v>46064.30135145833</v>
+      </c>
+      <c r="B2355" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2355" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2355" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2355" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2355" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2355" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2355" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2355" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2355" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2355" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2355" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2356" ht="22.5" customHeight="1">
+      <c r="A2356" s="6">
+        <v>46064.30625796296</v>
+      </c>
+      <c r="B2356" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2356" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2356" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2356" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2356" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2356" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2356" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2356" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2356" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2356" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L2356" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2357" ht="22.5" customHeight="1">
+      <c r="A2357" s="6">
+        <v>46064.30682732639</v>
+      </c>
+      <c r="B2357" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2357" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2357" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2357" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2357" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2357" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2357" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2357" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2357" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2357" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2357" s="7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2358" ht="22.5" customHeight="1">
+      <c r="A2358" s="6">
+        <v>46064.309818009264</v>
+      </c>
+      <c r="B2358" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2358" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2358" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2358" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2358" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2358" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2358" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2358" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2358" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2358" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2358" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2359" ht="22.5" customHeight="1">
+      <c r="A2359" s="6">
+        <v>46064.311299837966</v>
+      </c>
+      <c r="B2359" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2359" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2359" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2359" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2359" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2359" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2359" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2359" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2359" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2359" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2359" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2360" ht="22.5" customHeight="1">
+      <c r="A2360" s="6">
+        <v>46064.31234813658</v>
+      </c>
+      <c r="B2360" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2360" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2360" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2360" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2360" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2360" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2360" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2360" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2360" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2360" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2360" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2361" ht="22.5" customHeight="1">
+      <c r="A2361" s="6">
+        <v>46064.312940856486</v>
+      </c>
+      <c r="B2361" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2361" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2361" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2361" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2361" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2361" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2361" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2361" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2361" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2361" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2361" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2362" ht="22.5" customHeight="1">
+      <c r="A2362" s="6">
+        <v>46064.32173679398</v>
+      </c>
+      <c r="B2362" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2362" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2362" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2362" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2362" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2362" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2362" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2362" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2362" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2362" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2362" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2363" ht="22.5" customHeight="1">
+      <c r="A2363" s="6">
+        <v>46064.322006539354</v>
+      </c>
+      <c r="B2363" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2363" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2363" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2363" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2363" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2363" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2363" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2363" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2363" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2363" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2363" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2364" ht="22.5" customHeight="1">
+      <c r="A2364" s="6">
+        <v>46064.32357096065</v>
+      </c>
+      <c r="B2364" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2364" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2364" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2364" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2364" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2364" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2364" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2364" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2364" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2364" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L2364" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2365" ht="22.5" customHeight="1">
+      <c r="A2365" s="6">
+        <v>46064.324498449074</v>
+      </c>
+      <c r="B2365" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2365" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2365" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2365" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2365" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2365" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2365" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2365" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2365" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2365" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2365" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2366" ht="22.5" customHeight="1">
+      <c r="A2366" s="6">
+        <v>46064.32590490741</v>
+      </c>
+      <c r="B2366" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2366" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2366" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2366" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2366" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2366" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2366" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2366" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2366" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2366" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2366" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2367" ht="22.5" customHeight="1">
+      <c r="A2367" s="6">
+        <v>46064.326600370376</v>
+      </c>
+      <c r="B2367" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2367" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2367" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2367" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2367" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2367" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2367" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2367" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2367" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2367" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2367" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2368" ht="22.5" customHeight="1">
+      <c r="A2368" s="6">
+        <v>46064.32710409722</v>
+      </c>
+      <c r="B2368" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2368" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2368" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2368" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2368" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2368" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2368" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2368" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2368" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2368" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2368" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2369" ht="22.5" customHeight="1">
+      <c r="A2369" s="6">
+        <v>46064.32957181713</v>
+      </c>
+      <c r="B2369" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2369" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2369" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2369" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2369" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2369" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2369" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2369" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2369" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2369" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2369" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2370" ht="22.5" customHeight="1">
+      <c r="A2370" s="6">
+        <v>46064.33154164352</v>
+      </c>
+      <c r="B2370" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2370" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2370" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2370" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2370" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2370" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2370" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2370" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2370" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2370" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2370" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2371" ht="22.5" customHeight="1">
+      <c r="A2371" s="6">
+        <v>46064.33518982639</v>
+      </c>
+      <c r="B2371" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2371" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2371" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2371" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2371" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2371" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2371" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2371" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2371" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2371" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2371" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2372" ht="22.5" customHeight="1">
+      <c r="A2372" s="6">
+        <v>46064.33633038195</v>
+      </c>
+      <c r="B2372" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2372" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2372" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2372" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2372" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2372" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2372" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2372" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2372" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2372" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2372" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2373" ht="22.5" customHeight="1">
+      <c r="A2373" s="6">
+        <v>46064.34330806713</v>
+      </c>
+      <c r="B2373" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2373" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2373" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2373" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2373" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2373" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2373" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2373" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2373" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2373" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2373" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2374" ht="22.5" customHeight="1">
+      <c r="A2374" s="6">
+        <v>46064.34969538194</v>
+      </c>
+      <c r="B2374" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2374" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2374" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2374" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2374" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2374" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2374" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2374" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2374" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2374" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2374" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2375" ht="22.5" customHeight="1">
+      <c r="A2375" s="6">
+        <v>46064.36218001157</v>
+      </c>
+      <c r="B2375" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2375" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2375" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2375" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2375" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2375" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2375" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2375" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2375" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2375" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2375" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2454">
+  <conditionalFormatting sqref="J1:J2475">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2375</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2400</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25561" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25830" uniqueCount="463">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1398,6 +1398,12 @@
   <si>
     <t>Tercero</t>
   </si>
+  <si>
+    <t>12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha, 18 aductor derecho</t>
+  </si>
+  <si>
+    <t>Priscila</t>
+  </si>
 </sst>
 </file>
 
@@ -1547,8 +1553,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2375" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2375"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2400" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2400"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -92032,8 +92038,958 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2376" ht="22.5" customHeight="1">
+      <c r="A2376" s="6">
+        <v>46064.49343887731</v>
+      </c>
+      <c r="B2376" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2376" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2376" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2376" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2376" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2376" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2376" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2376" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2376" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2376" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2376" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2377" ht="22.5" customHeight="1">
+      <c r="A2377" s="6">
+        <v>46065.31985760416</v>
+      </c>
+      <c r="B2377" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2377" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2377" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2377" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2377" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2377" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2377" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2377" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2377" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2377" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2377" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2378" ht="22.5" customHeight="1">
+      <c r="A2378" s="6">
+        <v>46065.336894583335</v>
+      </c>
+      <c r="B2378" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2378" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2378" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2378" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2378" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2378" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2378" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2378" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2378" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2378" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L2378" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2379" ht="22.5" customHeight="1">
+      <c r="A2379" s="6">
+        <v>46065.33851284722</v>
+      </c>
+      <c r="B2379" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2379" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2379" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2379" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2379" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2379" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2379" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2379" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2379" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2379" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2379" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2380" ht="22.5" customHeight="1">
+      <c r="A2380" s="6">
+        <v>46065.347505763886</v>
+      </c>
+      <c r="B2380" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2380" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2380" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2380" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2380" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2380" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2380" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2380" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2380" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2380" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2380" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2381" ht="22.5" customHeight="1">
+      <c r="A2381" s="6">
+        <v>46065.353567349535</v>
+      </c>
+      <c r="B2381" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2381" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2381" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2381" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2381" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2381" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2381" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2381" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2381" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2381" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2381" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2382" ht="22.5" customHeight="1">
+      <c r="A2382" s="6">
+        <v>46065.356909849535</v>
+      </c>
+      <c r="B2382" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2382" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2382" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2382" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2382" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2382" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2382" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2382" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2382" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2382" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2382" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2383" ht="22.5" customHeight="1">
+      <c r="A2383" s="6">
+        <v>46065.357937569446</v>
+      </c>
+      <c r="B2383" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2383" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2383" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2383" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2383" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2383" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2383" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2383" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2383" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2383" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2383" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2384" ht="22.5" customHeight="1">
+      <c r="A2384" s="6">
+        <v>46065.359123877315</v>
+      </c>
+      <c r="B2384" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2384" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2384" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2384" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2384" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2384" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2384" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2384" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2384" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2384" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2384" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2385" ht="22.5" customHeight="1">
+      <c r="A2385" s="6">
+        <v>46065.35917820602</v>
+      </c>
+      <c r="B2385" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2385" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2385" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2385" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2385" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2385" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2385" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2385" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2385" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2385" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2385" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2386" ht="22.5" customHeight="1">
+      <c r="A2386" s="6">
+        <v>46065.361318564814</v>
+      </c>
+      <c r="B2386" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2386" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2386" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2386" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2386" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2386" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2386" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2386" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2386" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2386" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2386" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2387" ht="22.5" customHeight="1">
+      <c r="A2387" s="6">
+        <v>46065.36567929398</v>
+      </c>
+      <c r="B2387" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2387" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2387" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2387" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2387" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2387" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2387" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2387" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2387" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2387" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L2387" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2388" ht="22.5" customHeight="1">
+      <c r="A2388" s="6">
+        <v>46065.36690797454</v>
+      </c>
+      <c r="B2388" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2388" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2388" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2388" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2388" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2388" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2388" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2388" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2388" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2388" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2388" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2389" ht="22.5" customHeight="1">
+      <c r="A2389" s="6">
+        <v>46065.370870266204</v>
+      </c>
+      <c r="B2389" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2389" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2389" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2389" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2389" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2389" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2389" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2389" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2389" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2389" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2389" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2390" ht="22.5" customHeight="1">
+      <c r="A2390" s="6">
+        <v>46065.370900208334</v>
+      </c>
+      <c r="B2390" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2390" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2390" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2390" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2390" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2390" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2390" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2390" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2390" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2390" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2390" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2391" ht="22.5" customHeight="1">
+      <c r="A2391" s="6">
+        <v>46065.374480949074</v>
+      </c>
+      <c r="B2391" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2391" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2391" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2391" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2391" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2391" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2391" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2391" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2391" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2391" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2391" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2392" ht="22.5" customHeight="1">
+      <c r="A2392" s="6">
+        <v>46065.37567847222</v>
+      </c>
+      <c r="B2392" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2392" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2392" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2392" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2392" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2392" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2392" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2392" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2392" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2392" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2392" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2393" ht="22.5" customHeight="1">
+      <c r="A2393" s="6">
+        <v>46065.37593804398</v>
+      </c>
+      <c r="B2393" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2393" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2393" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2393" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2393" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2393" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2393" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2393" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2393" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2393" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2393" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2394" ht="22.5" customHeight="1">
+      <c r="A2394" s="6">
+        <v>46065.37804459491</v>
+      </c>
+      <c r="B2394" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2394" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2394" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2394" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2394" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2394" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2394" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2394" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2394" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2394" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2394" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2395" ht="22.5" customHeight="1">
+      <c r="A2395" s="6">
+        <v>46065.378114328705</v>
+      </c>
+      <c r="B2395" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2395" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2395" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2395" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2395" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2395" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2395" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2395" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2395" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2395" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2395" s="7">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2396" ht="22.5" customHeight="1">
+      <c r="A2396" s="6">
+        <v>46065.378850243054</v>
+      </c>
+      <c r="B2396" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2396" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2396" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2396" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2396" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2396" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2396" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2396" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2396" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2396" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2396" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2397" ht="22.5" customHeight="1">
+      <c r="A2397" s="6">
+        <v>46065.37921116898</v>
+      </c>
+      <c r="B2397" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2397" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2397" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2397" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2397" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2397" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2397" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2397" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2397" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2397" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2397" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2398" ht="22.5" customHeight="1">
+      <c r="A2398" s="6">
+        <v>46065.392096446754</v>
+      </c>
+      <c r="B2398" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2398" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2398" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2398" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2398" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2398" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2398" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2398" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2398" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2398" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2398" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2399" ht="22.5" customHeight="1">
+      <c r="A2399" s="6">
+        <v>46065.39291517361</v>
+      </c>
+      <c r="B2399" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2399" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2399" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2399" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2399" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2399" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2399" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2399" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2399" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2399" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2399" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2400" ht="22.5" customHeight="1">
+      <c r="A2400" s="6">
+        <v>46065.40197245371</v>
+      </c>
+      <c r="B2400" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2400" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2400" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2400" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2400" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2400" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2400" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2400" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2400" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2400" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2400" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2475">
+  <conditionalFormatting sqref="J1:J2500">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2400</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2424</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25830" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26088" uniqueCount="465">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1404,6 +1404,12 @@
   <si>
     <t>Priscila</t>
   </si>
+  <si>
+    <t>1 muslo izquierdo, 9 Isquiotibial izquierdo, 17 aductor izquierdo</t>
+  </si>
+  <si>
+    <t>10 isquiotibial derecho, 13 pantorrilla izquierda</t>
+  </si>
 </sst>
 </file>
 
@@ -1553,8 +1559,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2400" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2400"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2424" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2424"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -92988,8 +92994,920 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2401" ht="22.5" customHeight="1">
+      <c r="A2401" s="6">
+        <v>46066.31525454861</v>
+      </c>
+      <c r="B2401" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2401" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2401" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2401" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2401" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2401" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2401" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2401" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2401" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2401" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2401" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="2402" ht="22.5" customHeight="1">
+      <c r="A2402" s="6">
+        <v>46066.33948898148</v>
+      </c>
+      <c r="B2402" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2402" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2402" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2402" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2402" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2402" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2402" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2402" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2402" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2402" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2402" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2403" ht="22.5" customHeight="1">
+      <c r="A2403" s="6">
+        <v>46066.348256666664</v>
+      </c>
+      <c r="B2403" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2403" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2403" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2403" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2403" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2403" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2403" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2403" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2403" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2403" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2403" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2404" ht="22.5" customHeight="1">
+      <c r="A2404" s="6">
+        <v>46066.35208724537</v>
+      </c>
+      <c r="B2404" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2404" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2404" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2404" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2404" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2404" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2404" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2404" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2404" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2404" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2404" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2405" ht="22.5" customHeight="1">
+      <c r="A2405" s="6">
+        <v>46066.35249863426</v>
+      </c>
+      <c r="B2405" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2405" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2405" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2405" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2405" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2405" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2405" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2405" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2405" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2405" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2405" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2406" ht="22.5" customHeight="1">
+      <c r="A2406" s="6">
+        <v>46066.35267731482</v>
+      </c>
+      <c r="B2406" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2406" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2406" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2406" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2406" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2406" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2406" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2406" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2406" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2406" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2406" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2407" ht="22.5" customHeight="1">
+      <c r="A2407" s="6">
+        <v>46066.352878101854</v>
+      </c>
+      <c r="B2407" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2407" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2407" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2407" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2407" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2407" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2407" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2407" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2407" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2407" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2407" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2408" ht="22.5" customHeight="1">
+      <c r="A2408" s="6">
+        <v>46066.35333351852</v>
+      </c>
+      <c r="B2408" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2408" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2408" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2408" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2408" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2408" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2408" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2408" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2408" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2408" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2408" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2409" ht="22.5" customHeight="1">
+      <c r="A2409" s="6">
+        <v>46066.35408546297</v>
+      </c>
+      <c r="B2409" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2409" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2409" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2409" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2409" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2409" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2409" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2409" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2409" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2409" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2409" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2410" ht="22.5" customHeight="1">
+      <c r="A2410" s="6">
+        <v>46066.35414809028</v>
+      </c>
+      <c r="B2410" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2410" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2410" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2410" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2410" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2410" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2410" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2410" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2410" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2410" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L2410" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2411" ht="22.5" customHeight="1">
+      <c r="A2411" s="6">
+        <v>46066.354614421296</v>
+      </c>
+      <c r="B2411" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2411" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2411" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2411" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2411" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2411" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2411" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2411" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2412" ht="22.5" customHeight="1">
+      <c r="A2412" s="6">
+        <v>46066.35496777778</v>
+      </c>
+      <c r="B2412" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2412" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2412" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2412" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2412" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2412" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2412" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2412" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2412" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2412" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2412" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2413" ht="22.5" customHeight="1">
+      <c r="A2413" s="6">
+        <v>46066.35546348379</v>
+      </c>
+      <c r="B2413" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2413" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2413" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2413" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2413" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2413" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2413" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2413" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2413" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2413" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2413" s="7">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="2414" ht="22.5" customHeight="1">
+      <c r="A2414" s="6">
+        <v>46066.35601935185</v>
+      </c>
+      <c r="B2414" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2414" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2414" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2414" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2414" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2414" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2414" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2414" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2414" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2414" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2414" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2415" ht="22.5" customHeight="1">
+      <c r="A2415" s="6">
+        <v>46066.3591625463</v>
+      </c>
+      <c r="B2415" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2415" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2415" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2415" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2415" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2415" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2415" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2415" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2415" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2415" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L2415" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2416" ht="22.5" customHeight="1">
+      <c r="A2416" s="6">
+        <v>46066.3618383912</v>
+      </c>
+      <c r="B2416" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2416" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2416" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2416" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2416" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2416" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2416" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2416" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2416" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2416" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2416" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2417" ht="22.5" customHeight="1">
+      <c r="A2417" s="6">
+        <v>46066.36556380787</v>
+      </c>
+      <c r="B2417" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2417" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2417" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2417" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2417" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2417" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2417" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2417" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2417" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2417" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2417" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2418" ht="22.5" customHeight="1">
+      <c r="A2418" s="6">
+        <v>46066.36564052083</v>
+      </c>
+      <c r="B2418" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2418" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2418" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2418" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2418" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2418" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2418" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2418" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2418" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2418" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2418" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2419" ht="22.5" customHeight="1">
+      <c r="A2419" s="6">
+        <v>46066.3659644213</v>
+      </c>
+      <c r="B2419" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2419" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2419" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2419" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2419" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2419" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2419" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2419" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2419" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2419" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2419" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2420" ht="22.5" customHeight="1">
+      <c r="A2420" s="6">
+        <v>46066.36901429398</v>
+      </c>
+      <c r="B2420" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2420" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2420" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2420" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2420" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2420" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2420" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2420" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2420" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2420" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2420" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2421" ht="22.5" customHeight="1">
+      <c r="A2421" s="6">
+        <v>46066.36918171296</v>
+      </c>
+      <c r="B2421" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2421" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2421" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2421" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2421" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2421" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2421" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2421" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2421" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2421" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2421" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2422" ht="22.5" customHeight="1">
+      <c r="A2422" s="6">
+        <v>46066.370557002316</v>
+      </c>
+      <c r="B2422" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2422" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2422" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2422" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2422" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2422" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2422" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2422" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2422" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2422" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2422" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2423" ht="22.5" customHeight="1">
+      <c r="A2423" s="6">
+        <v>46066.373534363425</v>
+      </c>
+      <c r="B2423" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2423" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2423" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2423" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2423" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2423" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2423" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2423" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2423" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2423" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2423" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2424" ht="22.5" customHeight="1">
+      <c r="A2424" s="6">
+        <v>46066.37716434027</v>
+      </c>
+      <c r="B2424" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2424" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2424" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2424" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2424" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2424" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2424" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2424" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2424" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2424" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2424" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2500">
+  <conditionalFormatting sqref="J1:J2524">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2424</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2447</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26088" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26336" uniqueCount="467">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1410,6 +1410,12 @@
   <si>
     <t>10 isquiotibial derecho, 13 pantorrilla izquierda</t>
   </si>
+  <si>
+    <t>2 muslo derecho, 12 parte trasera de la rodilla derecha, 13 pantorrilla izquierda, 14 pantorrilla derecha</t>
+  </si>
+  <si>
+    <t>16 espalda, 17 aductor izquierdo, 18 aductor derecho, 19 hombro derecho, 20 hombro izquierdo</t>
+  </si>
 </sst>
 </file>
 
@@ -1559,8 +1565,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2424" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2424"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2447" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2447"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -93906,8 +93912,882 @@
         <v>52</v>
       </c>
     </row>
+    <row r="2425" ht="22.5" customHeight="1">
+      <c r="A2425" s="6">
+        <v>46067.322877569444</v>
+      </c>
+      <c r="B2425" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2425" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2425" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2425" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2425" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2425" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2425" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2425" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2425" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2425" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L2425" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2426" ht="22.5" customHeight="1">
+      <c r="A2426" s="6">
+        <v>46067.335197430555</v>
+      </c>
+      <c r="B2426" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2426" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2426" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2426" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2426" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2426" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2426" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2426" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2426" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2426" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2426" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2427" ht="22.5" customHeight="1">
+      <c r="A2427" s="6">
+        <v>46067.33601402778</v>
+      </c>
+      <c r="B2427" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2427" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2427" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2427" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2427" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2427" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2427" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2427" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2427" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2427" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2427" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2428" ht="22.5" customHeight="1">
+      <c r="A2428" s="6">
+        <v>46067.33791761574</v>
+      </c>
+      <c r="B2428" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2428" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2428" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2428" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2428" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2428" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2428" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2428" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2428" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2428" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2428" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2429" ht="22.5" customHeight="1">
+      <c r="A2429" s="6">
+        <v>46067.34311243056</v>
+      </c>
+      <c r="B2429" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2429" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2429" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2429" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2429" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2429" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2429" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2429" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2429" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2429" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2429" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2430" ht="22.5" customHeight="1">
+      <c r="A2430" s="6">
+        <v>46067.34369475694</v>
+      </c>
+      <c r="B2430" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2430" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2430" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2430" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2430" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2430" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2430" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2430" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2430" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2430" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2430" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2431" ht="22.5" customHeight="1">
+      <c r="A2431" s="6">
+        <v>46067.3439959838</v>
+      </c>
+      <c r="B2431" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2431" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2431" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2431" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2431" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2431" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2431" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2431" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2431" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2431" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2431" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2432" ht="22.5" customHeight="1">
+      <c r="A2432" s="6">
+        <v>46067.344550381946</v>
+      </c>
+      <c r="B2432" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2432" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2432" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2432" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2432" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2432" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2432" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2432" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2432" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2432" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2432" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2433" ht="22.5" customHeight="1">
+      <c r="A2433" s="6">
+        <v>46067.34456226852</v>
+      </c>
+      <c r="B2433" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2433" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2433" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2433" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2433" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2433" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2433" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2433" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2433" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2433" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2433" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2434" ht="22.5" customHeight="1">
+      <c r="A2434" s="6">
+        <v>46067.34587188657</v>
+      </c>
+      <c r="B2434" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2434" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2434" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2434" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2434" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2434" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2434" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2434" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2434" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2434" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2434" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2435" ht="22.5" customHeight="1">
+      <c r="A2435" s="6">
+        <v>46067.34827671296</v>
+      </c>
+      <c r="B2435" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2435" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2435" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2435" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2435" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2435" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2435" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2435" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2435" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2435" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2435" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2436" ht="22.5" customHeight="1">
+      <c r="A2436" s="6">
+        <v>46067.348365300924</v>
+      </c>
+      <c r="B2436" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2436" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2436" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2436" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2436" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2436" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2436" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2436" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2436" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2436" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2436" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2437" ht="22.5" customHeight="1">
+      <c r="A2437" s="6">
+        <v>46067.3492667824</v>
+      </c>
+      <c r="B2437" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2437" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2437" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2437" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2437" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2437" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2437" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2437" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2437" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2437" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2437" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2438" ht="22.5" customHeight="1">
+      <c r="A2438" s="6">
+        <v>46067.35593643518</v>
+      </c>
+      <c r="B2438" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2438" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2438" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2438" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2438" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2438" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2438" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2438" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2438" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2438" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2438" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2439" ht="22.5" customHeight="1">
+      <c r="A2439" s="6">
+        <v>46067.35682003472</v>
+      </c>
+      <c r="B2439" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2439" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2439" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2439" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2439" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2439" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2439" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2439" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2439" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2439" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2439" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2440" ht="22.5" customHeight="1">
+      <c r="A2440" s="6">
+        <v>46067.3587277662</v>
+      </c>
+      <c r="B2440" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2440" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2440" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2440" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2440" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2440" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2440" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2440" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2440" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2440" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2440" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2441" ht="22.5" customHeight="1">
+      <c r="A2441" s="6">
+        <v>46067.35998673611</v>
+      </c>
+      <c r="B2441" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2441" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2441" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2441" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2441" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2441" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2441" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2441" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2441" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2441" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L2441" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2442" ht="22.5" customHeight="1">
+      <c r="A2442" s="6">
+        <v>46067.36310440973</v>
+      </c>
+      <c r="B2442" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2442" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2442" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2442" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2442" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2442" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2442" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2442" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2442" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2442" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2442" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2443" ht="22.5" customHeight="1">
+      <c r="A2443" s="6">
+        <v>46067.36886379629</v>
+      </c>
+      <c r="B2443" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2443" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2443" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2443" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2443" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2443" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2443" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2443" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2443" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2443" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2443" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2444" ht="22.5" customHeight="1">
+      <c r="A2444" s="6">
+        <v>46067.37053921296</v>
+      </c>
+      <c r="B2444" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2444" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2444" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2444" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2444" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2444" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2444" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2444" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2444" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2444" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2444" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2445" ht="22.5" customHeight="1">
+      <c r="A2445" s="6">
+        <v>46067.374767905094</v>
+      </c>
+      <c r="B2445" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2445" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2445" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2445" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2445" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2445" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2445" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2445" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2445" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2445" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2445" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2446" ht="22.5" customHeight="1">
+      <c r="A2446" s="6">
+        <v>46067.37478050926</v>
+      </c>
+      <c r="B2446" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2446" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2446" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2446" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2446" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2446" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2446" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2446" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2446" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2446" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2446" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2447" ht="22.5" customHeight="1">
+      <c r="A2447" s="6">
+        <v>46067.38206105324</v>
+      </c>
+      <c r="B2447" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2447" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2447" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2447" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2447" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2447" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2447" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2447" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2447" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2447" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2447" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2524">
+  <conditionalFormatting sqref="J1:J2547">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2447</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2451</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26336" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26378" uniqueCount="467">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1565,8 +1565,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2447" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2447"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2451" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2451"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -94786,8 +94786,160 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2448" ht="22.5" customHeight="1">
+      <c r="A2448" s="6">
+        <v>46068.32804114583</v>
+      </c>
+      <c r="B2448" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2448" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2448" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2448" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2448" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2448" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2448" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2448" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2448" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2448" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2448" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2449" ht="22.5" customHeight="1">
+      <c r="A2449" s="6">
+        <v>46068.37608614583</v>
+      </c>
+      <c r="B2449" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2449" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2449" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2449" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2449" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2449" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2449" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2449" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2449" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2449" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2449" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2450" ht="22.5" customHeight="1">
+      <c r="A2450" s="6">
+        <v>46068.39202038194</v>
+      </c>
+      <c r="B2450" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2450" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2450" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2450" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2450" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2450" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2450" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2450" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2450" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2450" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2450" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2451" ht="22.5" customHeight="1">
+      <c r="A2451" s="6">
+        <v>46068.435886782405</v>
+      </c>
+      <c r="B2451" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2451" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2451" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2451" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2451" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2451" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2451" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2451" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2451" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2451" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2451" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2547">
+  <conditionalFormatting sqref="J1:J2551">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>

--- a/data/cuestionario_femenil.xlsx
+++ b/data/cuestionario_femenil.xlsx
@@ -7,14 +7,14 @@
   </sheets>
   <definedNames>
     <definedName name="Nombres">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2451</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$L$2454</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26378" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26409" uniqueCount="467">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1565,8 +1565,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2451" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$L$2451"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2454" displayName="Form_Responses1" name="Form_Responses1" id="1">
+  <autoFilter ref="$A$1:$L$2454"/>
   <tableColumns count="12">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Día de la Semana" id="2"/>
@@ -94938,8 +94938,122 @@
         <v>115</v>
       </c>
     </row>
+    <row r="2452" ht="22.5" customHeight="1">
+      <c r="A2452" s="6">
+        <v>46068.456812199074</v>
+      </c>
+      <c r="B2452" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2452" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2452" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2452" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2452" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2452" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2452" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2452" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2452" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2452" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2452" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2453" ht="22.5" customHeight="1">
+      <c r="A2453" s="6">
+        <v>46068.550033506945</v>
+      </c>
+      <c r="B2453" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2453" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2453" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2453" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2453" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2453" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2453" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2453" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2453" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2453" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2453" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2454" ht="22.5" customHeight="1">
+      <c r="A2454" s="6">
+        <v>46069.407683391204</v>
+      </c>
+      <c r="B2454" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2454" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2454" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2454" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2454" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2454" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2454" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2454" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2454" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2454" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2454" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2551">
+  <conditionalFormatting sqref="J1:J2554">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="adolorido">
       <formula>NOT(ISERROR(SEARCH(("adolorido"),(J1))))</formula>
     </cfRule>
